--- a/extracted_data.xlsx
+++ b/extracted_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1022,6 +1022,2040 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>美股收盘：纳指、标普齐创新高 英伟达率众科技巨头再攀巅峰 1、美联储会议纪要、英伟达财报前夕，英伟达、微软等一众科技巨头推动标普、道指再创收盘历史新高；2、微软召开Build开发者大会，近50项AI功能集体上新；3、特斯拉罕见亮相ACT展，股价大涨6%；4、全球最大云计算公司暂停采购英伟达“超级芯片”，坐等下一代产品上架。</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>{"category": "其他"}</t>
+        </is>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>非行业利好</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>【早报】事关金融工作，李强重要批示 ①李强：坚持金融服务实体经济，推动金融高质量发展②合肥、长沙等地响应楼市新政，首套房首付15%③美股三大指数集体收涨，热门科技股多数上涨④广东调整医美外科项目，美容外科可打玻尿酸等注射类项目⑤深交所：依规对中通客车相关账户采取限制交易15日的监管措施。</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>{"category": "其他"}</t>
+        </is>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>非行业利好</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>打击网络“精准预测” 沪深交易所火速出手：相关账户限制交易15日 ①上交所：对南京化纤相关账户采取暂停交易十五日的监管措施 并已将发现的涉嫌违法违规情况移交进一步查处；
+②深交所：关注到中通客车股价走势的相关网络信息 依规对相关账户采取限制交易十五日的监管措施。</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>{"category": "其他"}</t>
+        </is>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>非行业利好</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>美股收盘：纳指、标普齐创新高 英伟达率众科技巨头再攀巅峰 1、美联储会议纪要、英伟达财报前夕，英伟达、微软等一众科技巨头推动标普、道指再创收盘历史新高；2、微软召开Build开发者大会，近50项AI功能集体上新；3、特斯拉罕见亮相ACT展，股价大涨6%；4、全球最大云计算公司暂停采购英伟达“超级芯片”，坐等下一代产品上架。</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>{"category": "其他"}</t>
+        </is>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>非行业利好</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>【早报】事关金融工作，李强重要批示 ①李强：坚持金融服务实体经济，推动金融高质量发展②合肥、长沙等地响应楼市新政，首套房首付15%③美股三大指数集体收涨，热门科技股多数上涨④广东调整医美外科项目，美容外科可打玻尿酸等注射类项目⑤深交所：依规对中通客车相关账户采取限制交易15日的监管措施。</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>{"category": "其他"}</t>
+        </is>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>非行业利好</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>打击网络“精准预测” 沪深交易所火速出手：相关账户限制交易15日 ①上交所：对南京化纤相关账户采取暂停交易十五日的监管措施 并已将发现的涉嫌违法违规情况移交进一步查处；
+②深交所：关注到中通客车股价走势的相关网络信息 依规对相关账户采取限制交易十五日的监管措施。</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>{"category": "其他"}</t>
+        </is>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>非行业利好</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>重磅！鼓励光伏行业兼并重组 5月21日，据中国光伏行业协会CPIA公众号，中国光伏行业协会近日在北京组织召开“光伏行业高质量发展座谈会”。会议指出，加强对于低于成本价格销售恶性竞争的打击力度；鼓励行业兼并重组，畅通市场退出机制。</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>{"category": "行业利好新闻"}</t>
+        </is>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>{
+  "industry_benefit":[
+    {"industry_name":"电力设备","score":"90"},
+    {"industry_name":"公用事业","score":"85"},
+    {"industry_name":"基础化工","score":"70"}
+  ],
+  "concept_benefit":[
+    {"concept_name":"太阳能","score":"95"},
+    {"concept_name":"新能源","score":"90"},
+    {"concept_name":"绿色电力","score":"85"}
+  ]
+}</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[{'提取文章': '\n                            \n                                \n  光伏概念走强，科翔股份涨逾12%，金刚光伏涨逾8%，英力股份涨近8%。5月17日，在工信部电子信息司指导下，中国光伏行业协会组织召开“光伏行业高质量发展座谈会”。会议指出，加强对于低于成本价格销售恶性竞争的打击力度；鼓励行业兼并重组，畅通市场退出机制。（文章来源：证券时报网）                        ', 'gpt提取资讯,解读结果': '{\n"news":"5月17日，在工信部电子信息司指导下，中国光伏行业协会组织召开“光伏行业高质量发展座谈会”。会议指出，加强对于低于成本价格销售恶性竞争的打击力度；鼓励行业兼并重组，畅通市场退出机制。",\n"analysis":null\n}'}, {'提取文章': '\n                            \n                                \n  A股17000亿赛道，传来重磅信号。  5月21日，据中国光伏行业协会CPIA公众号，中国光伏行业协会近日在北京组织召开“光伏行业高质量发展座谈会”。会议指出，加强对于低于成本价格销售恶性竞争的打击力度；鼓励行业兼并重组，畅通市场退出机制。  今年以来，光伏产业链各环节产品价格出现了全线下跌的情况。据中国有色金属工业协会硅业分会5月15日发布的数据，目前多晶硅价格已突破所有在产企业现金成本。今年一季度，多家头部光伏上市公司业绩承压，二三线光伏企业的经营形势更为严峻。  反映到市场层面，A股的光伏板块调整不断，截至5月21日收盘，光伏指数报2953.05点，年内累计跌幅超20%，相较于2022年8月的最高点，累计跌幅已达52.2%。据数据显示，目前A股的光伏板块的总市值合计约17300亿元。  重磅会议  5月21日，据中国光伏行业协会CPIA公众号，5月17日下午，在工业和信息化部电子信息司指导下，中国光伏行业协会在北京组织召开“光伏行业高质量发展座谈会”。会议指出，加强对于低于成本价格销售恶性竞争的打击力度；鼓励行业兼并重组，畅通市场退出机制。  据悉，来自天合光能、协鑫科技、晶科能源、阿特斯、隆基绿能、通威股份、大全能源、宜宾市政府、国务院发展研究中心、国研智库、国家发改委能源研究所、硅基材料制备技术国家工程研究中心、国家开发银行、兴业银行等光伏企业、研究单位、地方政府、金融机构的14家单位的代表出席本次会议，中国光伏行业协会标准技术委员会与知识产权专委会代表也出席并汇报了相关工作进展。会议由中国光伏行业协会江华副秘书长主持，工业和信息化部电子信息司金磊处长出席本次会议并讲话。  会议指出，光伏行业是市场化程度非常高的行业，更宜通过市场化的手段解决目前的行业困境，但也应充分发挥好政府有形手的作用，包括优化光伏制造行业管理政策对行业产能建设的指导作用，提升关键技术指标；规范管理地方政府的招商引资政策，建立全国统一大市场；适应光伏技术迭代速度快的特点，建立有效的知识产权保护措施；鼓励行业兼并重组，畅通市场退出机制；加强对于低于成本价格销售恶性竞争的打击力度；保障国内光伏市场稳定增长，探索通过示范项目支持先进技术应用，转变低价中标局面等。  会议表示，光伏企业和行业也需做好自己，充分认识到自身对于解决目前行业困境的主体责任，杜绝恶性竞争，真正站在行业立场决策行动，坚持创新驱动、坚持长期主义，合作共赢，共同维护公平竞争秩序。  中国光伏行业协会后续将重点推进以下工作：  一是支撑工信部电子司，充分发挥《光伏制造行业规范条件》作用，引导和规范行业发展；  二是继续推进价格指数模型搭建工作，通过光伏组件期货等方式探索更为合理的海内外价格形成机制；  三是计划就TOPCon电池效率标定及入库降档问题召开相关座谈会，探讨产生原因及解决路径；  四是继续加强行业监测工作，相关行业信息将及时对外发布，指导行业决策。  全线下跌  在碳中和的大背景下，光伏新能源产业迎来了前所未有的发展机遇，但当前也面临着产能过剩和市场饱和的挑战，供需失衡使得光伏产品价格持续下行，部分产品甚至已跌破成本线。  今年以来，光伏产业链各环节产品价格出现了全线下跌的情况。以N型TOPCon组件价格为例，据Infolink数据，从1月中上旬的0.98元/W，目前已经降到了0.86元/W，降幅达到12%。  业内分析认为，按目前的电池片价格、封装成本和竞争格局来看，预期未来一段时间，组件价格有可能继续下降。  据中国有色金属工业协会硅业分会5月15日发布的数据，目前多晶硅价格已突破所有在产企业现金成本，在高库存压力下，部分小产能、老产能已经停车检修，绝大多数企业挺价意愿较强，低价情况选择压货不出。  光伏产业链价格全线下跌的背景下，已出现部分企业终止项目投资或推迟项目建设的情况。  其中，ST聆达（聆达股份）子公司金寨嘉悦将现有3.5GW-182mm大尺寸PERC高效太阳能电池片产线自2024年3月14日实施临时停产，后由于公司资金紧张等因素，停产时间一再延长。ST聆达还决定终止建设铜陵高效光伏电池片产业基地项目。  海源复材今年3月宣布，终止了滁州15GW N型高效光伏电池及3GW高效光伏组件项目，并以3800万元价格转让给爱旭科技。  今年2月初，艾能聚对多晶硅电池片生产线实施临时停产，本来计划停产至2024年3月31日，但由于在获取订单方面未获得理想成效，公司决定对多晶硅电池片生产线继续实施停产。  另外，据最新财报数据，今年一季度，多家头部光伏上市公司业绩承压，二三线光伏企业的经营形势更为严峻。  反映到市场层面，A股的光伏板块调整不断，以光伏指数为例，截至5月21日收盘，该指数跌1.49%，报2953.05点，年内累计跌幅超20%，相较于2022年8月的最高点，累计跌幅已达52.2%。  据数据显示，截至5月21日收盘，A股的光伏板块的总市值合计约17300亿元。  加速洗牌  分析人士指出，低价竞争在一定程度上影响了行业的健康发展，也使得企业在研发和创新上的投入受到限制，从而影响了长期的行业竞争力。  中国光伏行业协会组织召开的“光伏行业高质量发展座谈会”明确强调，加强对于低于成本价格销售恶性竞争的打击力度；保障国内光伏市场稳定增长，探索通过示范项目支持先进技术应用，转变低价中标局面等。  在市场饱和的环境中，企业的发展策略和市场定位的重要性愈加凸显，光伏行业需要在保持良性竞争的同时，寻找新的增长点，以避免陷入低利润的恶性循环。不过，多家分析机构认为，长期来看，光伏产品价格下跌幅度有限。  “光伏行业高质量发展座谈会”还指出，鼓励行业兼并重组，畅通市场退出机制。这一表态释放了行业供给侧改革的信号。  值得注意的是，在光伏产业竞争加剧、洗牌加速的同时，今年3月国内光伏新增装机罕见出现下跌迹象。据国家能源局发布的1—3月全国电力工业统计数据，今年前三个月，光伏新增装机45.74GW。而根据此前发布的1—2月数据计算，3月光伏新增装机9.02GW，同比下降32.13%。  根据中国光伏行业协会预测，2024年我国光伏新增装机量保守预估为190GW，低于2023年，乐观情况下预计为220GW，与2023年基本持平。（文章来源：证券时报网）                        ', 'gpt提取资讯,解读结果': '{\n  "news": "5月21日，据中国光伏行业协会CPIA公众号，中国光伏行业协会近日在北京组织召开“光伏行业高质量发展座谈会”。会议指出，加强对于低于成本价格销售恶性竞争的打击力度；鼓励行业兼并重组，畅通市场退出机制。",\n  \n  "analysis": "中国光伏行业协会组织召开的“光伏行业高质量发展座谈会”明确强调，加强对于低于成本价格销售恶性竞争的打击力度；保障国内光伏市场稳定增长，探索通过示范项目支持先进技术应用，转变低价中标局面等。 在市场饱和的环境中，企业的发展策略和市场定位的重要性愈加凸显，光伏行业需要在保持良性竞争的同时，寻找新的增长点，以避免陷入低利润的恶性循环。不过，多家分析机构认为，长期来看，光伏产品价格下跌幅度有限。 “光伏行业高质量发展座谈会”还指出，鼓励行业兼并重组，畅通市场退出机制。这一表态释放了行业供给侧改革的信号。"\n}'}, {'提取文章': '\n                            \n                                \n  南方财经5月21日电，中国光伏行业协会官微消息，中国光伏行业协会组织召开光伏行业高质量发展座谈会。会议指出，光伏行业是市场化程度非常高的行业，更宜通过市场化的手段解决目前的行业困境，但也应充分发挥好政府有形手的作用，包括优化光伏制造行业管理政策对行业产能建设的指导作用，提升关键技术指标；规范管理地方政府的招商引资政策，建立全国统一大市场；适应光伏技术迭代速度快的特点，建立有效的知识产权保护措施；鼓励行业兼并重组，畅通市场退出机制；加强对于低于成本价格销售恶性竞争的打击力度；保障国内光伏市场稳定增长，探索通过示范项目支持先进技术应用，转变低价中标局面等。会议也表示，光伏企业和行业也需做好自己，充分认识到自身对于解决目前行业困境的主体责任，杜绝恶性竞争，真正站在行业立场决策行动，坚持创新驱动、坚持长期主义，合作共赢，共同维护公平竞争秩序。 （文章来源：南方财经网）                        ', 'gpt提取资讯,解读结果': '{\n"news": "南方财经5月21日电，中国光伏行业协会官微消息，中国光伏行业协会组织召开光伏行业高质量发展座谈会。会议指出，光伏行业是市场化程度非常高的行业，更宜通过市场化的手段解决目前的行业困境，但也应充分发挥好政府有形手的作用，包括优化光伏制造行业管理政策对行业产能建设的指导作用，提升关键技术指标；规范管理地方政府的招商引资政策，建立全国统一大市场；适应光伏技术迭代速度快的特点，建立有效的知识产权保护措施；鼓励行业兼并重组，畅通市场退出机制；加强对于低于成本价格销售恶性竞争的打击力度；保障国内光伏市场稳定增长，探索通过示范项目支持先进技术应用，转变低价中标局面等。会议也表示，光伏企业和行业也需做好自己，充分认识到自身对于解决目前行业困境的主体责任，杜绝恶性竞争，真正站在行业立场决策行动，坚持创新驱动、坚持长期主义，合作共赢，共同维护公平竞争秩序。",\n"analysis": null\n}'}, {'提取文章': '\n                            \n                                \n  5月21日，中国光伏行业协会微信公众号发文称，国内光伏产业链价格一路下滑，企业经营承压，对我国光伏行业高质量发展产生不利影响。为探讨当前光伏行业面临的问题、产生的原因和应对措施，引导行业有序发展，5月17日下午，在工业和信息化部电子信息司指导下，中国光伏行业协会在北京组织召开“光伏行业高质量发展座谈会”。   据悉，天合光能、协鑫科技、晶科能源、阿特斯、隆基绿能、通威股份、大全能源、宜宾市政府、国务院发展研究中心、国研智库、国家发改委能源研究所、硅基材料制备技术国家工程研究中心、国家开发银行、兴业银行等光伏企业、研究单位、地方政府、金融机构的14家单位的代表出席本次会议。   会议指出，光伏行业是市场化程度非常高的行业，更宜通过市场化的手段解决目前的行业困境，但也应充分发挥好政府有形手的作用，包括优化光伏制造行业管理政策对行业产能建设的指导作用，提升关键技术指标；规范管理地方政府的招商引资政策，建立全国统一大市场；适应光伏技术迭代速度快的特点，建立有效的知识产权保护措施；鼓励行业兼并重组，畅通市场退出机制；加强对于低于成本价格销售恶性竞争的打击力度；保障国内光伏市场稳定增长，探索通过示范项目支持先进技术应用，转变低价中标局面等。   会议明确，中国光伏行业协会后续将重点推进以下工作：一是支撑工信部电子司，充分发挥《光伏制造行业规范条件》作用，引导和规范行业发展。二是继续推进价格指数模型搭建工作，通过光伏组件期货等方式探索更为合理的海内外价格形成机制。三是计划就TOPCon电池效率标定及入库降档问题召开相关座谈会，探讨产生原因及解决路径。四是继续加强行业监测工作，相关行业信息将及时对外发布，指导行业决策。   （文章来源：中国证券报·中证金牛座）                        ', 'gpt提取资讯,解读结果': '{\n  "news": "5月21日，中国光伏行业协会微信公众号发文称，国内光伏产业链价格一路下滑，企业经营承压，对我国光伏行业高质量发展产生不利影响。为探讨当前光伏行业面临的问题、产生的原因和应对措施，引导行业有序发展，5月17日下午，在工业和信息化部电子信息司指导下，中国光伏行业协会在北京组织召开“光伏行业高质量发展座谈会”。 据悉，天合光能、协鑫科技、晶科能源、阿特斯、隆基绿能、通威股份、大全能源、宜宾市政府、国务院发展研究中心、国研智库、国家发改委能源研究所、硅基材料制备技术国家工程研究中心、国家开发银行、兴业银行等光伏企业、研究单位、地方政府、金融机构的14家单位的代表出席本次会议。 会议指出，光伏行业是市场化程度非常高的行业，更宜通过市场化的手段解决目前的行业困境，但也应充分发挥好政府有形手的作用，包括优化光伏制造行业管理政策对行业产能建设的指导作用，提升关键技术指标；规范管理地方政府的招商引资政策，建立全国统一大市场；适应光伏技术迭代速度快的特点，建立有效的知识产权保护措施；鼓励行业兼并重组，畅通市场退出机制；加强对于低于成本价格销售恶性竞争的打击力度；保障国内光伏市场稳定增长，探索通过示范项目支持先进技术应用，转变低价中标局面等。 会议明确，中国光伏行业协会后续将重点推进以下工作：一是支撑工信部电子司，充分发挥《光伏制造行业规范条件》作用，引导和规范行业发展。二是继续推进价格指数模型搭建工作，通过光伏组件期货等方式探索更为合理的海内外价格形成机制。三是计划就TOPCon电池效率标定及入库降档问题召开相关座谈会，探讨产生原因及解决路径。四是继续加强行业监测工作，相关行业信息将及时对外发布，指导行业决策。",\n  "analysis": null\n}'}, {'提取文章': '\n                            \n                                \n  在工业和信息化部电子信息司指导下，中国光伏行业协会近日在北京组织召开“光伏行业高质量发展座谈会”。   会议指出，光伏行业是市场化程度非常高的行业，更宜通过市场化的手段解决目前的行业困境，但也应充分发挥好政府有形手的作用，包括优化光伏制造行业管理政策对行业产能建设的指导作用，提升关键技术指标；规范管理地方政府的招商引资政策，建立全国统一大市场；适应光伏技术迭代速度快的特点，建立有效的知识产权保护措施；鼓励行业兼并重组，畅通市场退出机制；加强对于低于成本价格销售恶性竞争的打击力度；保障国内光伏市场稳定增长，探索通过示范项目支持先进技术应用，转变低价中标局面等。   会议也表示，光伏企业和行业也需做好自己，充分认识到自身对于解决目前行业困境的主体责任，杜绝恶性竞争，真正站在行业立场决策行动，坚持创新驱动、坚持长期主义，合作共赢，共同维护公平竞争秩序。（文章来源：上海证券报·中国证券网）                        ', 'gpt提取资讯,解读结果': '{\n  "news": "在工业和信息化部电子信息司指导下，中国光伏行业协会近日在北京组织召开“光伏行业高质量发展座谈会”。 会议指出，光伏行业是市场化程度非常高的行业，更宜通过市场化的手段解决目前的行业困境，但也应充分发挥好政府有形手的作用，包括优化光伏制造行业管理政策对行业产能建设的指导作用，提升关键技术指标；规范管理地方政府的招商引资政策，建立全国统一大市场；适应光伏技术迭代速度快的特点，建立有效的知识产权保护措施；鼓励行业兼并重组，畅通市场退出机制；加强对于低于成本价格销售恶性竞争的打击力度；保障国内光伏市场稳定增长，探索通过示范项目支持先进技术应用，转变低价中标局面等。",\n  "analysis": null\n}'}, {'提取文章': '\n                            \n                                \n  证券时报e公司讯，近段时间以来，我国光伏产业链价格一路下滑，企业经营承压，对我国光伏行业高质量发展产生不利影响。为探讨当前光伏行业面临的问题、产生的原因和应对措施，引导行业有序发展，2024年5月17日下午，在工业和信息化部电子信息司指导下，中国光伏行业协会在北京组织召开“光伏行业高质量发展座谈会”。会议指出，光伏行业是市场化程度非常高的行业，更宜通过市场化的手段解决目前的行业困境，但也应充分发挥好政府有形手的作用，包括优化光伏制造行业管理政策对行业产能建设的指导作用，提升关键技术指标；规范管理地方政府的招商引资政策，建立全国统一大市场；适应光伏技术迭代速度快的特点，建立有效的知识产权保护措施；鼓励行业兼并重组，畅通市场退出机制；加强对于低于成本价格销售恶性竞争的打击力度；保障国内光伏市场稳定增长，探索通过示范项目支持先进技术应用，转变低价中标局面等。会议也表示，光伏企业和行业也需做好自己，充分认识到自身对于解决目前行业困境的主体责任，杜绝恶性竞争，真正站在行业立场决策行动，坚持创新驱动、坚持长期主义，合作共赢，共同维护公平竞争秩序。（文章来源：证券时报网）                        ', 'gpt提取资讯,解读结果': '{\n  "news": "近段时间以来，我国光伏产业链价格一路下滑，企业经营承压，对我国光伏行业高质量发展产生不利影响。为探讨当前光伏行业面临的问题、产生的原因和应对措施，引导行业有序发展，2024年5月17日下午，在工业和信息化部电子信息司指导下，中国光伏行业协会在北京组织召开“光伏行业高质量发展座谈会”。会议指出，光伏行业是市场化程度非常高的行业，更宜通过市场化的手段解决目前的行业困境，但也应充分发挥好政府有形手的作用，包括优化光伏制造行业管理政策对行业产能建设的指导作用，提升关键技术指标；规范管理地方政府的招商引资政策，建立全国统一大市场；适应光伏技术迭代速度快的特点，建立有效的知识产权保护措施；鼓励行业兼并重组，畅通市场退出机制；加强对于低于成本价格销售恶性竞争的打击力度；保障国内光伏市场稳定增长，探索通过示范项目支持先进技术应用，转变低价中标局面等。",\n  "analysis": null\n}'}, {'提取文章': '\n                            \n                                \n  中国光伏行业协会5月21日发文，近段时间以来，我国光伏产业链价格一路下滑，企业经营承压，对我国光伏行业高质量发展产生不利影响。为探讨当前光伏行业面临的问题、产生的原因和应对措施，引导行业有序发展，2024年5月17日下午，在工业和信息化部电子信息司指导下，中国光伏行业协会在北京组织召开“光伏行业高质量发展座谈会”。来自天合光能、协鑫科技、晶科能源、阿特斯、隆基绿能、通威股份、大全能源、宜宾市政府、国务院发展研究中心、国研智库、国家发改委能源研究所、硅基材料制备技术国家工程研究中心、国家开发银行、兴业银行等光伏企业、研究单位、地方政府、金融机构的14家单位的代表出席本次会议，中国光伏行业协会标准技术委员会与知识产权专委会代表也出席并汇报了相关工作进展。会议由中国光伏行业协会江华副秘书长主持，工业与信息化部电子信息司金磊处长出席本次会议并讲话。  会议指出，光伏行业是市场化程度非常高的行业，更宜通过市场化的手段解决目前的行业困境，但也应充分发挥好政府有形手的作用，包括优化光伏制造行业管理政策对行业产能建设的指导作用，提升关键技术指标；规范管理地方政府的招商引资政策，建立全国统一大市场；适应光伏技术迭代速度快的特点，建立有效的知识产权保护措施；鼓励行业兼并重组，畅通市场退出机制；加强对于低于成本价格销售恶性竞争的打击力度；保障国内光伏市场稳定增长，探索通过示范项目支持先进技术应用，转变低价中标局面等。  会议也表示，光伏企业和行业也需做好自己，充分认识到自身对于解决目前行业困境的主体责任，杜绝恶性竞争，真正站在行业立场决策行动，坚持创新驱动、坚持长期主义，合作共赢，共同维护公平竞争秩序。  中国光伏行业协会自2023年以来，在促进光伏行业高质量发展方面做了大量的工作。一是支撑主管部委司局工作。支撑工信部电子司《光伏制造业规范条件》的修订工作，相较2021年版，产品相关技术指标有了较大提升。受工信部电子司委托，联合三家检测机构开展光伏产品质量监督检查工作，检测结果向行业定向通报。二是组织参加多轮相关会议，了解行业情况，征集意见建议，并报送有关部门。在今年2月组织召开的光伏行业回顾展望会上，协会正式对行业发出了预警，并在中央、地方、企业、金融机构等各个层面提出相关建议。三是开展线上线下调研活动。近期在有关司局的统筹指导下，协会组织参与了线上及线下对重点企业及重点区域的行业调研活动，了解行业真实生产运营情况，并总结、整理了行业中针对供需失衡问题的意见与建议，相关调研报告、政策意见已提交行业主管部门。四是加强舆论引导，驳斥错误言论。协会通过中国国际电视台（CGTN）、新闻直播间等媒体访谈以及协会公众号等渠道，驳斥了海外对我国新能源产业“产能过剩”的无端指责，目前CGTN海外频道有关节目线上播放量已超过110万人次。五是引导行业自律，优化行业发展环境。针对组件功率虚标问题，协会自2023年10月起组织光伏企业签订《光伏组件功率规范诚信标定和溯源自律公约》，促成50余家企业完成公约签署，覆盖行业80%以上的产能。就知识产权保护问题，协会于2023年12月成立知识产权专业委员会，依托专委会平台作用强化行业知识产权保护水平。六是引导拓展多样化市场，助力我国企业“走出去”。2024年5月，协会带队赴阿联酋考察，助力我国光伏企业进一步了解阿联酋政商投资环境，促进我国企业的海外多元化布局。  中国光伏行业协会后续将重点推进以下工作。一是支撑工信部电子司，充分发挥《光伏制造行业规范条件》作用，引导和规范行业发展。二是继续推进价格指数模型搭建工作，通过光伏组件期货等方式探索更为合理的海内外价格形成机制。三是计划就TOPCon电池效率标定及入库降档问题召开相关座谈会，探讨产生原因及解决路径。四是继续加强行业监测工作，相关行业信息将及时对外发布，指导行业决策。（文章来源：界面新闻）                        ', 'gpt提取资讯,解读结果': '{\n"news":"中国光伏行业协会5月21日发文，近段时间以来，我国光伏产业链价格一路下滑，企业经营承压，对我国光伏行业高质量发展产生不利影响。为探讨当前光伏行业面临的问题、产生的原因和应对措施，引导行业有序发展，2024年5月17日下午，在工业和信息化部电子信息司指导下，中国光伏行业协会在北京组织召开“光伏行业高质量发展座谈会”。来自天合光能、协鑫科技、晶科能源、阿特斯、隆基绿能、通威股份、大全能源、宜宾市政府、国务院发展研究中心、国研智库、国家发改委能源研究所、硅基材料制备技术国家工程研究中心、国家开发银行、兴业银行等光伏企业、研究单位、地方政府、金融机构的14家单位的代表出席本次会议，中国光伏行业协会标准技术委员会与知识产权专委会代表也出席并汇报了相关工作进展。会议由中国光伏行业协会江华副秘书长主持，工业与信息化部电子信息司金磊处长出席本次会议并讲话。 会议指出，光伏行业是市场化程度非常高的行业，更宜通过市场化的手段解决目前的行业困境，但也应充分发挥好政府有形手的作用，包括优化光伏制造行业管理政策对行业产能建设的指导作用，提升关键技术指标；规范管理地方政府的招商引资政策，建立全国统一大市场；适应光伏技术迭代速度快的特点，建立有效的知识产权保护措施；鼓励行业兼并重组，畅通市场退出机制；加强对于低于成本价格销售恶性竞争的打击力度；保障国内光伏市场稳定增长，探索通过示范项目支持先进技术应用，转变低价中标局面等。会议也表示，光伏企业和行业也需做好自己，充分认识到自身对于解决目前行业困境的主体责任，杜绝恶性竞争，真正站在行业立场决策行动，坚持创新驱动、坚持长期主义，合作共赢，共同维护公平竞争秩序。",\n"analysis":"会议指出，光伏行业是市场化程度非常高的行业，更宜通过市场化的手段解决目前的行业困境，但也应充分发挥好政府有形手的作用，包括优化光伏制造行业管理政策对行业产能建设的指导作用，提升关键技术指标；规范管理地方政府的招商引资政策，建立全国统一大市场；适应光伏技术迭代速度快的特点，建立有效的知识产权保护措施；鼓励行业兼并重组，畅通市场退出机制；加强对于低于成本价格销售恶性竞争的打击力度；保障国内光伏市场稳定增长，探索通过示范项目支持先进技术应用，转变低价中标局面等。"\n}'}, {'提取文章': '\n                            \n                                \n  日前，中国光伏行业协会（下称“协会”）召开“光伏行业高质量发展座谈会”，探讨在光伏产业链价格一路下滑、企业经营承压背景下，行业面临的问题、产生的原因和应对措施。会议指出，光伏行业有序发展，要推动有效市场和有为政府更好结合；规范管理地方政府的招商引资政策，建立全国统一大市场；加强对于低于成本价格销售恶性竞争的打击力度。同时，光伏企业和行业要杜绝恶性竞争，共同维护公平竞争秩序。   会议指出，光伏行业是市场化程度非常高的行业，更宜通过市场化的手段解决目前的行业困境，但也应充分发挥好政府有形手的作用，包括优化光伏制造行业管理政策对行业产能建设的指导作用，提升关键技术指标；规范管理地方政府的招商引资政策，建立全国统一大市场；适应光伏技术迭代速度快的特点，建立有效的知识产权保护措施；鼓励行业兼并重组，畅通市场退出机制；加强对于低于成本价格销售恶性竞争的打击力度；保障国内光伏市场稳定增长，探索通过示范项目支持先进技术应用，转变低价中标局面等。   同时，光伏企业和行业需要充分认识到自身对于解决目前行业困境的主体责任，杜绝恶性竞争，真正站在行业立场决策行动，坚持创新驱动、坚持长期主义，合作共赢，共同维护公平竞争秩序。   事实上，今年2月，在协会召开的光伏行业回顾展望会上，已正式对行业发出预警，并在中央、地方、企业、金融机构等各个层面提出相关建议。   协会数据显示，2023年，国内光伏累计装机容量达6.1亿千瓦，同比增长55%，国内新增装机首次突破2亿千瓦，超过全球新能源装机的50%；分布式光伏累计装机为2.54亿千瓦，占比达到42%。   协会名誉理事长王勃华此前指出，光伏行业保持着高速发展，2030年全球可再生能源装机容量将增至3倍已达成共识。“2024年在保守情况下，全球光伏新增装机与去年持平，达到390GW左右，乐观情况下能达到430GW。”王勃华预测。   协会表示，后续将重点做好工信部电子司相关工作的支撑，充分发挥《光伏制造行业规范条件》作用，引导和规范行业发展。继续推进价格指数模型搭建工作，通过光伏组件期货等方式探索更为合理的海内外价格形成机制。继续加强行业监测工作，相关行业信息将及时对外发布，指导行业决策。  （文章来源：证券时报网）                        ', 'gpt提取资讯,解读结果': '{\n"news": "日前，中国光伏行业协会（下称“协会”）召开“光伏行业高质量发展座谈会”，探讨在光伏产业链价格一路下滑、企业经营承压背景下，行业面临的问题、产生的原因和应对措施。会议指出，光伏行业有序发展，要推动有效市场和有为政府更好结合；规范管理地方政府的招商引资政策，建立全国统一大市场；加强对于低于成本价格销售恶性竞争的打击力度。同时，光伏企业和行业要杜绝恶性竞争，共同维护公平竞争秩序。",\n"analysis": "协会名誉理事长王勃华此前指出，光伏行业保持着高速发展，2030年全球可再生能源装机容量将增至3倍已达成共识。“2024年在保守情况下，全球光伏新增装机与去年持平，达到390GW左右，乐观情况下能达到430GW。”王勃华预测。"\n}'}, {'提取文章': '\n                            \n                                \n  近段时间以来，我国光伏产业链价格下滑，相关企业经营有所承压，市场关注光伏行业的发展前景。  近日，在工业和信息化部电子信息司指导下，中国光伏行业协会召开了“光伏行业高质量发展座谈会”，释放出关于行业发展的新信号。  会议提出，鼓励行业兼并重组，畅通市场退出机制，并将加强对于低于成本价格销售恶性竞争的打击力度。  来自天合光能、协鑫科技、晶科能源、阿特斯、隆基绿能、通威股份、大全能源、宜宾市政府、国务院发展研究中心、国研智库、国家发改委能源研究所、硅基材料制备技术国家工程研究中心、国家开发银行、兴业银行等14家单位的代表出席本次会议。  加强对于恶性竞争的打击力度  记者了解到，会议探讨了当前光伏行业面临的问题、产生的原因和应对措施。  “光伏行业是市场化程度非常高的行业，更宜通过市场化的手段解决目前的行业困境，但也应充分发挥好政府有形之手的作用。”会议明确。  就此，会议提出了一系列措施，包括：优化光伏制造行业管理政策对行业产能建设的指导作用，提升关键技术指标；规范管理地方政府的招商引资政策，建立全国统一大市场；适应光伏技术迭代速度快的特点，建立有效的知识产权保护措施；鼓励行业兼并重组，畅通市场退出机制；加强对于低于成本价格销售恶性竞争的打击力度；保障国内光伏市场稳定增长，探索通过示范项目支持先进技术应用，转变低价中标局面。  会议还强调，光伏企业和行业也需充分认识到自身对于解决目前行业困境的主体责任，杜绝恶性竞争，真正站在行业立场决策行动，坚持创新驱动、坚持长期主义，合作共赢，共同维护公平竞争秩序。  今年对于光伏行业极具挑战  据中国有色金属工业协会硅业分会（下称“硅业分会”）5月15日和5月16日披露的数据，过去一周，多晶硅价格和单晶硅片价格均延续跌幅，最新价格已跌至“再看空无意义”的程度。  “多晶硅价格已跌破所有在产企业现金成本，硅料企业面临售出即亏损。”硅业分会认为，目前市场处于供需关系发生转变的关键节点，按当前亏损现金的价格再生产更多硅片已无意义。  从硅料、硅片、电池片，到组件各环节，光伏全产业链价格“赶底”持续已久。价格下行对企业利润的挤压和对产业的洗牌效应，已反映在上市公司的业绩上。  从一季报来看，光伏板块的营收榜前十位中，隆基绿能今年一季度实现营业收入176.74亿元，同比下滑37.59%；归母净利润亏损达23.50亿元，同比下滑164.61%。通威股份实现营业收入195.70亿元，同比下降41.13%；净利润亏损达7.87亿元，而去年同期归母净利润高达86.01亿元。此外，TCL中环、晶澳科技也深陷亏损泥潭。  “今年对于供应链各环节企业而言都极具考验。”晶科能源副总裁钱晶表示，公司预计今年行业集中度将进一步提升，前四家企业的市占率可能达到甚至超过60%。  “整个光伏产业链已经到了比拼成本、技术、现金流等竞争力的阶段，成本高企和技术落后的产能将加速出清。”万联证券投资顾问屈放预计，随着相关政策落地和市场需求恢复，行业将逐步回到健康发展轨道。（文章来源：上海证券报）                        ', 'gpt提取资讯,解读结果': '{\n"news": "近日，在工业和信息化部电子信息司指导下，中国光伏行业协会召开了“光伏行业高质量发展座谈会”，释放出关于行业发展的新信号。会议提出，鼓励行业兼并重组，畅通市场退出机制，并将加强对于低于成本价格销售恶性竞争的打击力度。来自天合光能、协鑫科技、晶科能源、阿特斯、隆基绿能、通威股份、大全能源、宜宾市政府、国务院发展研究中心、国研智库、国家发改委能源研究所、硅基材料制备技术国家工程研究中心、国家开发银行、兴业银行等14家单位的代表出席本次会议。",\n"analysis": "“光伏行业是市场化程度非常高的行业，更宜通过市场化的手段解决目前的行业困境，但也应充分发挥好政府有形之手的作用。”会议明确。来此，会议提出了一系列措施，包括：优化光伏制造行业管理政策对行业产能建设的指导作用，提升关键技术指标；规范管理地方政府的招商引资政策，建立全国统一大市场；适应光伏技术迭代速度快的特点，建立有效的知识产权保护措施；鼓励行业兼并重组，畅通市场退出机制；加强对于低于成本价格销售恶性竞争的打击力度；保障国内光伏市场稳定增长，探索通过示范项目支持先进技术应用，转变低价中标局面。“多晶硅价格已跌破所有在产企业现金成本，硅料企业面临售出即亏损。”硅业分会认为，目前市场处于供需关系发生转变的关键节点，按当前亏损现金的价格再生产更多硅片已无意义。“今年对于供应链各环节企业而言都极具考验。”晶科能源副总裁钱晶表示，公司预计今年行业集中度将进一步提升，前四家企业的市占率可能达到甚至超过60%。“整个光伏产业链已经到了比拼成本、技术、现金流等竞争力的阶段，成本高企和技术落后的产能将加速出清。”万联证券投资顾问屈放预计，随着相关政策落地和市场需求恢复，行业将逐步回到健康发展轨道。"\n}'}]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>5月17日，在工信部电子信息司指导下，中国光伏行业协会组织召开“光伏行业高质量发展座谈会”。会议指出，加强对于低于成本价格销售恶性竞争的打击力度；鼓励行业兼并重组，畅通市场退出机制。</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>['中国光伏行业协会组织召开的“光伏行业高质量发展座谈会”明确强调，加强对于低于成本价格销售恶性竞争的打击力度；保障国内光伏市场稳定增长，探索通过示范项目支持先进技术应用，转变低价中标局面等。 在市场饱和的环境中，企业的发展策略和市场定位的重要性愈加凸显，光伏行业需要在保持良性竞争的同时，寻找新的增长点，以避免陷入低利润的恶性循环。不过，多家分析机构认为，长期来看，光伏产品价格下跌幅度有限。 “光伏行业高质量发展座谈会”还指出，鼓励行业兼并重组，畅通市场退出机制。这一表态释放了行业供给侧改革的信号。', '会议指出，光伏行业是市场化程度非常高的行业，更宜通过市场化的手段解决目前的行业困境，但也应充分发挥好政府有形手的作用，包括优化光伏制造行业管理政策对行业产能建设的指导作用，提升关键技术指标；规范管理地方政府的招商引资政策，建立全国统一大市场；适应光伏技术迭代速度快的特点，建立有效的知识产权保护措施；鼓励行业兼并重组，畅通市场退出机制；加强对于低于成本价格销售恶性竞争的打击力度；保障国内光伏市场稳定增长，探索通过示范项目支持先进技术应用，转变低价中标局面等。', '协会名誉理事长王勃华此前指出，光伏行业保持着高速发展，2030年全球可再生能源装机容量将增至3倍已达成共识。“2024年在保守情况下，全球光伏新增装机与去年持平，达到390GW左右，乐观情况下能达到430GW。”王勃华预测。', '“光伏行业是市场化程度非常高的行业，更宜通过市场化的手段解决目前的行业困境，但也应充分发挥好政府有形之手的作用。”会议明确。来此，会议提出了一系列措施，包括：优化光伏制造行业管理政策对行业产能建设的指导作用，提升关键技术指标；规范管理地方政府的招商引资政策，建立全国统一大市场；适应光伏技术迭代速度快的特点，建立有效的知识产权保护措施；鼓励行业兼并重组，畅通市场退出机制；加强对于低于成本价格销售恶性竞争的打击力度；保障国内光伏市场稳定增长，探索通过示范项目支持先进技术应用，转变低价中标局面。“多晶硅价格已跌破所有在产企业现金成本，硅料企业面临售出即亏损。”硅业分会认为，目前市场处于供需关系发生转变的关键节点，按当前亏损现金的价格再生产更多硅片已无意义。“今年对于供应链各环节企业而言都极具考验。”晶科能源副总裁钱晶表示，公司预计今年行业集中度将进一步提升，前四家企业的市占率可能达到甚至超过60%。“整个光伏产业链已经到了比拼成本、技术、现金流等竞争力的阶段，成本高企和技术落后的产能将加速出清。”万联证券投资顾问屈放预计，随着相关政策落地和市场需求恢复，行业将逐步回到健康发展轨道。']</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>[{'研报': '海外氢能动态点评：基于钢管的地下垂直压缩储氢打开气态储氢新思路', 'gpt判断研报相关性': '{"相关性":false}'}, {'研报': '能源运营行业：2024年3月可再生能源发电量增长强劲', 'gpt判断研报相关性': '{\n  "相关性": true\n}'}, {'研报': '电力设备2024年中期投资策略：业绩延续高增，国内外需求共振，行业景气度上行', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '公用事业及环保产业行业研究：3月用电：制造&amp;消费稳步复苏，TMT增速上行', 'gpt判断研报相关性': '{"相关性":false}'}, {'研报': '我国特高压建设提速，柔性直流输电市场潜力巨大', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '新能源行业-风电23年&amp;24Q1总结：风电整机盈利承压，零部件分化明显', 'gpt判断研报相关性': '{\n  "相关性": true\n}'}, {'研报': '电力行业3月月报：中电联预计上半年用电量增速有望超8%，现货电价环比逐步企稳', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '公用环保2024年5月投资策略：公用环保业绩稳健增长，火电盈利能力显著增强', 'gpt判断研报相关性': '{\n    "相关性": false\n}'}, {'研报': '公用事业四月行业动态报告：公用事业年报、一季报整体业绩增长，火电增长幅度最大', 'gpt判断研报相关性': '{\n  "相关性": true\n}'}, {'研报': '可控核聚变产业观察：CFS-美国可控核聚变领域先行者', 'gpt判断研报相关性': '{\n    "相关性": false\n}'}, {'研报': '地产链化工品追踪系列报告（2024-04）：多政策落地，部分化工品价格企稳', 'gpt判断研报相关性': '{"相关性":false}'}, {'研报': '中国检验检测服务行业市场规模测算逻辑模型 头豹词条报告系列', 'gpt判断研报相关性': '{"相关性":false}'}, {'研报': '2024年化工行业供需较为均衡，盈利处于高位', 'gpt判断研报相关性': '{\n  "相关性": false\n}'}, {'研报': '部分长丝装置停车改造化工品价差继续扩大', 'gpt判断研报相关性': '{\n  "相关性": false\n}'}, {'研报': '化工行业2024年中期投资策略：化工周期新起点，看好中国化工稳定供应全球', 'gpt判断研报相关性': '{"相关性":false}'}, {'研报': '新能源产业趋势跟踪（24年4月下）：以旧换新政策落地，叠加北京车展共同刺激汽车市场需求', 'gpt判断研报相关性': '{\n  "相关性": false\n}'}, {'研报': '电新行业2023年及2024Q1财报总结：业绩底部已至，边际有望好转', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '光伏行业月报：产业链价格再度下探，盈利普遍承压加速产能出清', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '光储板块2023&amp;1Q24业绩总结：盈利触底促格局加速分化，强α龙头布局正当时', 'gpt判断研报相关性': '{\n  "相关性": true\n}'}, {'研报': '电力设备行业深度报告：可控核聚变：从科幻到商业', 'gpt判断研报相关性': '{\n  "相关性": false\n}'}, {'研报': '工控&amp;电网23年报&amp;24Q1总结：电网景气度持续超预期，工控复苏静待拐点', 'gpt判断研报相关性': '{\n  "相关性": true\n}'}, {'研报': '新能源发电设备行业研究：2023&amp;1Q24风电业绩总结：板块盈利承压，出口成破局关键', 'gpt判断研报相关性': '{\n    "相关性": true\n}'}, {'研报': '集成电路：从24Q1国际大厂AI手机展望看投资机遇', 'gpt判断研报相关性': '{\n    "相关性": false\n}'}, {'研报': '钙钛矿行业深度报告：产研并进，降本提效，共赴星辰大海', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '电网板块2023&amp;1Q24总结：需求高景气延续，龙头持续超预期', 'gpt判断研报相关性': '{\n  "相关性": false\n}'}, {'研报': '行业跟踪：公用事业产业链核心数据跟踪', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '公用事业2024年第18周周报：电力公用以及电力设备行业23年报&amp;24年一季报回顾', 'gpt判断研报相关性': '{\n    "相关性": true\n}'}, {'研报': '公用事业及环保产业行业研究：水火核业绩兑现良好，绿电绩效增速承压', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '公用事业行业周报：ESG周报：国家能源局：促进新型储能多元化高质量发展；简体中文版《国际财务报告准则S1号》和《国际财务报告准则S2号》正式发布在IFRS Foundation官方网站正式发布', 'gpt判断研报相关性': '{"相关性":false}'}, {'研报': '核电产业链专题：核电优势明显，复苏势头强劲', 'gpt判断研报相关性': '{\n  "相关性": false\n}'}]</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>['电力设备', '公用事业', '基础化工']</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[{'研报公司': '国泰君安证券(香港)', '研报总结': '        \n                        \n            \n                        \n\n                              随着低基数效应消退，中国2024年3月用电量增速回落。2024年3月全社会用电量同比增长7.4%达到795太瓦时，相较于2024年1-2月用电量增速放缓3.6个百分点。我们认为，3月增速回落主要是由于低基数效应消退。\n\n                        \n\n                              2024年3月全国发电量增速放缓，但水电、风电和太阳能发电增速加快。3月，全国规模以上工业发电量同比增长2.8%，增速较2024年1-2月回落5.5个百分点，主要由于核电发电量下降（同比下降4.8%）以及火电发电增速放缓（同比增长0.5%）。水电、风电和太阳能发电量增长依然强劲。2024年3月，水电发电量同比增长3.1%（增速比2024年1-2月加快2.3个百分点），显示出旱情有缓解的迹象；由于低基数效应，风电发电量同比增长16.8%（增速比2024年1-2月加快11.0个百分点）；在装机高增长的推动下，太阳能发电量同比增长15.8%（增速比2024年1-2月加快0.4个百分点）。根据国家能源局的数据，截至2024年2月底，全国累计太阳能发电装机容量达到648吉瓦，同比增长56.9%。同时，据能源智库Ember测算，2024年3月，中国风力发电场的发电量超过100太瓦时，创下单个国家最高月度发电量纪录，相当于欧洲和北美所有国家发电量的总和。\n\n                        \n\n                              投资建议：维持行业“跑赢大市”评级。我们继续看好采取绿色转型策略的独立发电厂标的的风险回报，包括华润电力（00836HK）和中国电力（02380HK）。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '开源证券', '研报总结': '        \n                        \n            \n                        \n\n                              核心观点\n\n                        \n\n                              1.电网设备板块景气度上行，2023年延续高增，一季度“淡季不淡”\n\n                        \n\n                              选取17家电网设备板块公司对其2023年和2024Q1收入与利润表现分析，2023年板块合计营收同比+16.47%，海外营收占比10.46%，行业景气度延续。2024Q1在2023Q1高增长基础上继续实现了较大增幅，合计营收同比+13.40%，环比-43.96%;合计归母净利润同比+30.29%，环比-48.21%，多数公司归母净利润同比实现正向增长。考虑到四季度往往为电网设备企业当年确认收入与利润的高峰期，2024Q1电网设备行业的整体增长动力依然强劲，延续了2023年的高增长态势。受益于企业产品结构优化、行业下游需求提升、行业上游原材料价格趋稳、收入规模效应摊薄费用等因素，所选上市公司盈利能力增强，平均期间费用率同比-0.27pct，平均毛利率同比+2.19pct，平均净利率同比+0.98pct。\n\n                        \n\n                              2.新型电力系统加速建设，带动发、输、变、配、用各环节设备需求\n\n                        \n\n                              建设新型能源体系和新型电力系统需要持续加大电力设备投入。随着电源侧清洁能源接入比例提高，电网调节能力和支撑能力面临诸多掣肘；全国仍有部分地区电力供需偏紧，特高压主网架建设持续推进，助力电力资源跨区配置；分布式能源与电动车等新型配网资源大规模接入倒逼配电网升级，配电网在形态上从传统的“无源”单向辐射网络向“有源”双向交互系统转变；配电网智能化转型、能源消费电气化趋势推动用能终端计量设备需求提升。\n\n                        \n\n                              3.紧抓海外市场高需求机遇，出海企业2023年业绩再创佳绩\n\n                        \n\n                              全球“净零”推动风、光机组占比持续提升、海外制造业用电需求高涨、地缘政治冲突驱动电网升级改造，带动海外电力设备景气度持续向上，发达国家重构电力网络，欠发达国家基础设施建设。出海企业海外业务营收同比高增，海外业务毛利率普遍高于国内业务，海外业务占比提升有望进一步增厚企业盈利空间。\n\n                        \n\n                              4.投资建议：1、一次设备建议关注平高电气、华明装备，受益标的：中国西电、思源电气、金盘科技、伊戈尔、明阳电气等；2、二次设备建议关注东方电子，受益标的：许继电气、国电南瑞、四方股份等；3、计量设备受益标的：海兴电力、三星医疗、威胜信息、炬华科技；4、线路装置受益标的金杯电工、华通线缆等。\n\n                        \n\n                              5.风险提示：电网投资不及预期、特高压建设不及预期、市场竞争风险、海外投资环境变化风险、财务及汇率风险。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '深圳汉鼎智库咨询服务', '研报总结': '        \n                        \n            \n                        \n\n                              一、什么是柔性直流输电\n\n                        \n\n                              柔性直流输电（VSC-HVDC）主要是基于电压源换流器的高压直流输电，是以IGBT等全控器件为核心功率器件的第三代直流输电技术。柔性直流输电距今已有三十多年的发展历史，目前已在风电送出、电网互联、无源网络供电和远距离大容量输电等场景取得了充分发展和工程应用，其输电能力已经达到特高压等级。\n\n                        \n\n                              《“十四五”现代能源体系规划》明确提出，完善区域电网主网架结构，推动电网之间柔性可控互联，构建规模合理、分层分区、安全可靠的电力系统，提升电网适应新能源的动态稳定水平。科学推进新能源电力跨省跨区输送，稳步推广柔性直流输电，优化输电曲线和价格机制，加强送受端电网协同调峰运行，提高全网消纳新能源能力。\n\n                        \n\n                              相比常规直流输电（LCC-HVDC），柔直输电在无功补偿能力、无需支撑电源、无换相失败、灵活的功率控制等方面具有很强的优势，因此柔直输电技术已成为新型电力系统未来重要的输电方式。与此同时，构建以新能源为主体的新型电力系统需要灵活的柔性直流输电技术支撑。柔性直流输电技术的可控性、灵活性更强，不需要交流系统支撑换相，甚至可不依赖交流电网，以孤岛方式实现100%新能源汇集，并可为交流电网提供动态支撑，其规模化应用将随着经济性的进一步改善大大加快，助力新能源接入电网比例大幅提升。\n\n                        \n\n                              二、柔直换流阀市场规模情况\n\n                        \n\n                              柔性直流输电系统核心设备包括柔直换流阀、直流控保、柔直换流变。其中，换流阀是直流电和交流电相互转化的桥梁，其核心是将IGBT驱动板卡、水熔板等压接在一起组合成的一个完整柔直模块。随着我国特高压柔直输电开始规模化推进，换流阀市场需求亦将快速增长。兴业证券研究所测算数据显示，预计2024年柔性直流项目总投资体量接近千亿元水平，到2027年行业规模可达1458.8亿元，其中柔直换流阀规模同步增长，2024年预计市场规模达87.5亿元，2027年增长至149.2亿元，三年CAGR达19.5%。\n\n                        \n\n                              未来，特高压、柔直输电等新型能源战略的持续推进必将提升上游换流阀及其电容器的市场需求，进而带动电容器薄膜等相关产业链行业的快速发展。\n\n                        \n\n                              三、“十四五”期间我国特高压投资力度持续增长\n\n                        \n\n                              《“十四五”现代能源体系规划》明确提出“建设以大型风光基地为基础、以其周边清洁高效先进节能的煤电为支撑、以稳定安全可靠的特高压输变电线路为载体的新能源供给消纳体系”。“十四五”期间规划建成投产风光大基地总装机约200GW，其中外送150GW、本地自用50GW，外送比例达到75%。预计“十五五”期间规划建设风光基地总装机约255GW，其中外送约165GW、本地自用约90GW，外送比例约65%。在我国新能源电力装机容量不断提升的背景下，特高压输电将为电力传输及供应提供重要支撑。\n\n                        \n\n                              特高压工程的建设是我国近20年的电网发展的主旋律之一。2004年，国网公司提出了建设以特高压电网为核心的坚强国家电网的战略构想，2005年开始正式启动特高压交流试验示范工程的初步设计，从此特高压建设成为了贯穿我国电网发展的主旋律。截止到2022年底，我国已建成“17交16直”的33条特高压线路。\n\n                        \n\n                              我国特高压投资规模的快速发展第一阶段是2014-2017年，投资额度达1966亿元，随后发展较为平稳，2018-2020年共投入2130亿元用来发展特高压工程建设。“十四五”期间，国网规划建设特高压工程“24交14直”，涉及线路3万余公里，变电换流容量3.4亿千伏安，总投资3800亿元。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '东吴证券', '研报总结': '        \n                        \n            \n                        \n\n                              摘要\n\n                        \n\n                              23年&amp;24Q1风电板块营收同比上升、盈利同比下降。23年风电板块2841亿元，同增6.4%，归母净利润156.8亿元，同降27.7%；23年营收同增主要系国内装机同增102%，但受大型化价格竞争对冲显著。利润上风机及塔筒出口初见起色，但大型化价格竞争压缩总量+海风进度不及预期影响盈利结构导致了下滑。24Q1收入480.6亿元，同/环比+3.2%/-47%，归母净利润30.9亿元，同/环比-33%/+88%。\n\n                        \n\n                              变流器、轴承23年业绩修复显著，整机、叶片持续承压。23年收入同比增速：变流器&gt;叶片&gt;海缆&gt;塔筒&gt;整机&gt;轴承&gt;运营商&gt;铸锻件；归母净利同比增速：变流器（88%）&gt;轴承(11%)&gt;海缆(1%)&gt;铸锻件(-0.5%)&gt;运营商(-5%)&gt;塔筒(-6%)&gt;叶片(-32%)&gt;整机(-63%)。\n\n                        \n\n                              24Q1仅运营商业绩实现同增。24Q1收入同比增速：整机&gt;叶片&gt;运营商&gt;海缆&gt;轴承&gt;变流器&gt;铸锻件&gt;塔筒。归母净利同比增速：运营商(5%)&gt;海缆(-12%)&gt;塔筒(-25%)&gt;变流器(-29%)&gt;叶片(-36%)&gt;整机(-46%)&gt;铸锻件(-62%)&gt;轴承(-117%)。\n\n                        \n\n                              24年1-3月新增装机15.5GW，同增49%，23年新增装机75.9GW，同增105%。随着Q2进入风电开工、行业交付旺季的到来，我们预计24年新增装机80GW+，保持稳步增长，其中陆上70GW+，同比持平略增；海上10GW+，同增约50%。年初以来海风审批端进展不断，但招中标及项目开工较淡，4月已有从审批转向项目推进加速迹象。\n\n                        \n\n                              整机营收同比略降，盈利承压，风场转让贡献主要利润。整机板块23年营收1221亿元，同增2.6%；归母净利润28.53亿元，同降63%；24Q1营收180亿元，同环比+22%/-62%；归母净利润7.61亿元，同环比-46%/+387%。塔筒因海风不及预期，营收略增、利润同降。\n\n                        \n\n                              塔筒板块23年营收228亿元，同增9.6%；归母净利16.8亿元，同降6.2%；24Q1营收28.2亿元，同环降30%/52%，归母净利润3.7亿元，同环比-25%/+783%。海缆亦受海风不及预期影响，盈利仅持平略增。海缆23年营收524亿元，同增11%，归母净利润41亿元，同增1.5%；24Q1营收95.5亿元，同环降1.7%/33%；归母净利润9.0亿元，同环比-12%/42%。铸锻件盈利能力出现分化，24年降价压力较大。铸锻件23年营收266亿元，同降0.7%，归母净利润16.5亿元，同降0.5%，24Q1营收55.3亿元，同环降11%/20%；归母净利润2亿元，同环比-62%/+23%。零部件：轴承、叶片盈利承压，变流器营收、盈利双增长。\n\n                        \n\n                              海风江苏广东均获积极进展，整机价格竞争白热化，零部件盈利压力较大。海缆24H1招中标仍淡，江苏广东均获积极进展，头部加大出口布局，看好H2订单回暖。塔架24H2江苏海风开工量利有望回升，出口紧缺，大金订单持续突破，其余各家（大金外）审厂加速，1-2年后有望落地业绩。整机24Q1新低价零部件导入盈利略有回升，24年大型化减速，但产业换资源仍未减弱，盈利将持续承压，更多利润来自电站滚动开发。铸锻件降价压力较大，同时受大型化减速影响，新品溢价无法覆盖整体降价，盈利承压，部分厂家已出现砍单，订单向头部集中，多企业开拓新客户新需求。\n\n                        \n\n                              投资建议：我们预计海风24年装机10GW+，同增50%，远期深远海衔接，具备长期成长性；陆风大型化降本驱动IRR高增，24年陆风装机70GW+，同比持平略增。重点推荐：海缆（东方电缆），塔筒&amp;管桩（天顺风能、大金重工、海力风电、泰胜风能）、铸锻件（日月股份、金雷股份），整机（三一重能、明阳智能、金风科技）。\n\n                        \n\n                              风险提示：竞争加剧、需求不及预期、原材料涨价。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '信达证券', '研报总结': '        \n                        \n            \n                        \n\n                              本期内容提要:\r\n\n                        \n\n                              月度专题点评：电力现货市场推进情况梳理。第一批现货市场试点推进情况：各省进度有所差异，部分省份争相“转正：首批现货试点中，山西和广东现货市场进展较快，分别于2023年12月22日和12月28日转入正式运行，成为目前全国唯二进入正式运行的电力现货市场。山东、甘肃、蒙西是首批试点中的第二梯队，目前均处于长周期连续结算试运行阶段。福建、浙江和四川三省被重点点名，其现货市场试运行仍在推进当中。第二批现货市场试点推进情况：华东华中为主，试运行进展较快。第二批试点的建设进度相较于首批有明显推进。自2021年4月公布名单以来，第二批试点中江苏、安徽、辽宁、湖北、河南等5个地区已完成整月连续结算试运行，上海完成调电试运行工作。其他非试点推进情况：部分省份较为积极，进度追赶试点。非试点省区中，江西成为全国首个开展现货结算的非试点省份。宁夏、河北南网、陕西和重庆等4个地区分别于2023年下半年陆续启动结算试运行。另外，天津、黑龙江、青海、新疆、吉林等省区分别完成了模拟试运行工作。综合来看，部分进度较快的省份已经实现结算试运行，进度已追上前述试点地区。\r\n\n                        \n\n                              月度板块及重点上市公司表现：4月电力及公用事业板块上涨1.3%，表现劣于大盘；4月沪深300上涨1.9%到3604.4；涨幅前三的行业分别是家用电器(8.5%)、基础化工(4.5%)、汽车(2.6%)。\r\n\n                        \n\n                              月度电力需求情况分析：3月电力消费增速环比有所收窄。2024年3月，全社会用电同比增长7.36%。分行业：居民用电量增速环比大涨，三产用电同比增速略有降低：2024年3月，一、二、三产业用电量同比增速分别为7.03%、4.86%、11.61%，居民用电量同比增长15.83%。分板块：高技术装备制造和消费板块电力消费增速有所收窄，高耗能产业电力消费增速环比提振。分子行业看，高技术装备制造板块中用电量占比前三的为金属制品业、计算机通信设备制造业、电气机械制造业。消费板块中占比前三的为批发和零售业、交通运输、仓储及邮政业和房地产业。六大高耗能板块中占比前三的为电力热力生产及供应业、有色金属冶炼及压延加工业和化学相关制造业。分地区来看，东部沿海省份用电量领先，西部省份用电增速领先。弹性系数方面，2024年一季度电力消费弹性系数为1.84。\r\n\n                        \n\n                              月度电力生产情况分析：整体发电增速有所回落，水电发电量持续恢复。2024年3月份，全国发电量增长2.80%。分机组类型看，火电电量同比上涨0.50%；水电电量同比上升3.10%；核电电量同比下降4.80%；风电电量同比上升16.80%；太阳能电量同比增长15.80%。新增装机方面，2024年3月全国总新增装机1671万千瓦，其中新增火电131万千瓦，新增水电78万千瓦，新增风电561万千瓦，新增光伏902万千瓦。发电设备利用方面，2024年3月全国发电设备平均利用小时数844小时，同比降低2.76%。其中，火电平均利用小时1128小时，同比上升2.83%；水电平均利用小时数555小时，同比上升2.02%；核电平均利用小时数1828小时，同比下降1.93%；风电平均利用小时数596小时，同比降低3.09%；光伏平均利用小时数279小时，同比下降7.92%。煤炭库存情况、日耗情况及三峡出库情况方面，内陆煤炭库存环比上升，日耗环比下降；沿海煤炭库存环比上升，日耗环比上升；三峡水位同比上升，水库蓄水量同比下降。\r\n\n                        \n\n                              月度电力市场数据分析：5月代理购电均价同比上涨，环比持续下降。5月月度代理购电均价为403.71元/MWh，环比下降1.13%，同比上升1.26%。广东5月月度交易价格环比持续下跌，4月现货市场电价环比下降明显；山西山东4月现货交易价格环比略有回升。\r\n\n                        \n\n                              行业新闻：（1）国家能源局发布关于促进新型储能并网和调度运用；（2）国家能源局综合司公开征求《电力中长期交易基本规则—绿色电力交易专章》意见；（3）中电联预计上半年全社会用电量同比增速略高于8%。\r\n\n                        \n\n                              投资观点：我们认为，国内历经多轮电力供需矛盾紧张之后，电力板块有望迎来盈利改善和价值重估。在电力供需矛盾紧张的态势下，煤电顶峰价值凸显；电力市场化改革的持续推进下，电价趋势有望稳中小幅上涨，电力现货市场和辅助服务市场机制有望持续推广，容量电价机制正式出台，明确煤电基石地位。双碳目标下的新型电力系统建设，或将持续依赖系统调节手段的丰富和投入。此外，伴随着发改委加大电煤长协保供力度，电煤长协实际履约率有望边际上升，我们判断煤电企业的成本端较为可控。展望未来，我们认为电力运营商的业绩有望大幅改善。电力运营商有望受益标的：1）全国性煤电龙头：国电电力、华能国际、华电国际等；2）电力供应偏紧的区域龙头：皖能电力、浙能电力、申能股份、粤电力A等；3）水电运营商：长江电力、国投电力、川投能源、华能水电；4）设备制造商和灵活性改造有望受益标的：东方电气、青达环保、华光环能等。\r\n\n                        \n\n                              风险因素：宏观经济下滑导致用电量增速不及预期，电力市场化改革推进缓慢，电煤长协保供政策的执行力度不及预期。\n\n                        \n\n                                              \n\n                    '}, {'研报公司': '中国银河', '研报总结': '        \n                        \n            \n                        \n\n                              核心观点\n\n                        \n\n                              公用事业年报、一季报整体业绩增长，火电增长幅度最大。2023年/2024年一季度公用事业板块分别实现归母净利润1699亿元/497亿元，同比分别增长72.1%/27%。分板块来看，火电增长幅度最大。\n\n                        \n\n                              火电：市场煤价下跌，盈利能力改善。2023年/2024年一季度火电板块分别实现归母净利润477亿元/190亿元，同比分别实现扭亏为盈/增长102%。2023年以来，随着国内煤炭增产保供以及进口煤放开，市场煤价波动下行、长协履约率提升，两者共同推动火电入炉标煤单价下降，盈利能力改善。目前在电厂库存处于高位、以及水电和新能源挤压煤电出力的背景下，我们预计市场煤价仍有下行空间，有望带动火电盈利继续提升。\n\n                        \n\n                              新能源：电价下降拖累盈利水平，看好长期装机增长空间。2023年/2024年一季度风电板块分别实现归母净利润200亿元/72亿元，同比分别增长2.1%/2.4%；2023年/2024年一季度光电板块分别实现归母净利润38亿元/2.4亿元，同比分别增长4.6%/-76.4%。新能源盈利增速放缓，主要受到新能源市场化电价下降的影响，其中龙源电力、三峡能源、节能风电等公司2023年平均上网电价下降幅度在0.02元/千瓦时左右，降幅在5%左右。此外光电板块同时受到光伏产品价格下滑的影响。我们持续看好新能源装机增长空间；电价方面，随着绿电市场以及碳市场建设逐步完善，新能源环境价值有望兑现，上网电价有望企稳回升。\n\n                        \n\n                              水电：电价上涨对冲来水偏枯，后续来水有望改善。2023年/2024年一季度火电板块分别实现归母净利润479亿元/88亿元，同比分别实现增长22.2%/19.6%。虽然2023年至今来水明显偏枯，但受益于市场化电价上涨、梯级调度等因素，水电公司实现盈利增长。我们预计2024年来水有望改善，带动水电公司盈利提升。\n\n                        \n\n                              核电：业绩稳健增长，在建机组保障长期增长空间。2023年/2024年一季度核电板块分别实现归母净利润213亿元/66亿元，同比分别实现增长15.5%/2.4%。截至2024年一季度，中国广核和中国核电在建核电机组分别为11台和15台，总装机3080万千瓦，在建机组陆续投运，保障十四五、十五五业绩长期持续增长。此外中国核电在建新能源装机1426万千瓦，打开第二成长空间。\n\n                        \n\n                              推荐关注：电力板块整体业绩确定性高，分红能力强，未来也将持续受益央国企改革，我们持续看好电力板块的长期投资价值。短期推荐具备政策催化、业绩持续改善、估值有提升空间的火电板块；长期、低风险偏好资金重点布局核电、水电；逢低战略性布局新能源板块。个股关注华电国际、皖能电力、浙能电力、华能国际、长江电力、川投能源、中国广核等。\n\n                        \n\n                              风险提示：政策力度不及预期的风险；项目进度不及预期的风险；新能源发电出力不及预期的风险；行业竞争加剧的风险。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '国联证券', '研报总结': '        \n                        \n            \n                        \n\n                              2023年，电新行业整体归母净利润同比-4.0%，在所有30个行业中位于第17位。根据样本公司划分，归母净利润增幅前三分别为电力运营商（yoy+84.2%）、充电桩（yoy+64.7%）、储能（yoy+40.7%）。随着上游供给压力缓解，价格调整或已进入涨价周期，下游需求应用环节盈利有望向好。\n\n                        \n\n                              光伏：盈利阶段承压，关注格局优化的辅材环节\n\n                        \n\n                              2023年板块样本公司实现营收15027.7亿元，同比增长20.9%；归母净利润1138.8亿元，同比下降10.2%；2024Q1板块样本公司实现营收2905.7亿元，同比下降12.2%；归母净利润71.3亿元，同比下降81.9%。需求结构性调整或将出现，技术迭代成为主要内生性增长动力。\n\n                        \n\n                              风电：海风催化积蓄，行业景气度有望持续提升\n\n                        \n\n                              2023年板块样本公司实现营收3423.8亿元，同比提升6%；归母净利润168.1亿元，同比下降25%；2024Q1板块样本公司实现营收618.4亿元，同比提升5%；归母净利润34.5亿元，同比下降28%。随着一季报逐步披露完毕，未来海风催化积蓄，行业景气度有望迎来反转。\n\n                        \n\n                              储能：需求有望持续高增，行业景气度底部回升\n\n                        \n\n                              2023年板块样本公司实现营收1726.7亿元，同比增长33.8%；归母净利润173.8亿元，同比增长40.7%%；2024Q1板块样本公司实现营收325.6亿元，同比下降12.3%；归母净利润33.0亿元，同比下降25.9%。海内外需求有望持续高增，建议关注具备技术先进性及较强获取海外订单潜力的企业。\n\n                        \n\n                              锂电：电池环节业绩突出，关注新技术和出海进程\n\n                        \n\n                              2023年板块样本公司实现营收21268.5亿元，同比增长9.8%；归母净利润1437.3亿元，同比下降30.0%；2024Q1板块样本公司实现营收4327.2亿元，同比下降9.4%；归母净利润218.6亿元，同比下降40.9%。随着行业出清或接近末期，建议关注新技术创新和有较强alpha属性龙头企业。\n\n                        \n\n                              充电桩：需求提升叠加政策助力加速行业发展\n\n                        \n\n                              2023年板块样本公司实现营收263.2亿元，同比增长20%；归母净利润11.1亿元，同比提升65%；2024Q1板块样本公司实现营收56.2亿元，同比增长24%；归母净利润3.0亿元，同比提升19%。在需求与政策共振的背景下，充电桩建设有望维持高增。\n\n                        \n\n                              电网设备：特高压+海外订单促2024业绩释放\n\n                        \n\n                              2023年板块样本公司实现营收6486.1亿元，同比增长9.3%；归母净利润424亿元，同比增长2.5%；2024Q1板块样本公司实现营收1369.7亿元，同比增长5.3%；归母净利润74.8亿元，同比下降23.9%。我们预计在特高压高速建设+设备出口高景气的大方向下，2024年产业链将维持增长态势。\n\n                        \n\n                              投资建议：关注格局占优及新技术创新龙头厂商\n\n                        \n\n                              2023年&amp;2024Q1各板块龙头企业表现出较强alpha属性。展望2024年，电新行业正处于从1到N的规模化、产业化阶段。各板块建议关注如下：1）光伏：阳光电源、福莱特、帝科股份、聚和材料等；2）风电：东方电缆、中天科技、金雷股份等；3）储能：盛弘股份、科华数据、同飞股份等；4）锂电：宁德时代、亿纬锂能、天赐材料等；5）充电桩：盛弘股份、特锐德、万马股份等；6）电网设备：金盘科技、明阳电气、中国西电等。\n\n                        \n\n                              风险提示：1）新能源汽车销量不及预期；2）新能源发电装机不及预期；3）原材料价格波动；4）海外政策变化风险。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '中原证券', '研报总结': '        \n                        \n            \n                        \n\n                              投资要点：\n\n                        \n\n                              四月光伏行业表现大幅落后市场，个股跌多涨少。截至4月30日收盘，本月光伏行业下跌8.73%，大幅落后于沪深300指数。光伏支架、光伏电站、导电银浆板块取得正向收益，中信博、捷佳伟创、上能电气、帝科股份、吉电股份、迈为股份、振江股份、禾迈股份、联泓新科、浙江新能涨幅排名居前。\n\n                        \n\n                              国内市场需求有所走弱，供给过剩依旧是行业面临主要问题。国家能源局发布2024年1-3月全国电力工业统计数据，1-3月我国新增光伏装机45.74GW，同比增长35.9%，三月新增光伏装机9.02GW，同比下降32.13%。2024年3月，我国太阳能电池出口金额228.59亿元，同比下滑36.60%，跌幅较2月有所扩大。从供给端来看，2024年1-3月份，我国多晶硅供给量53.25万吨，同比增长75.11%，国内多晶硅供应量较为充裕，硅片供给过剩，行业依旧处于库存消纳周期。\n\n                        \n\n                              光伏产品价格显著下滑，非理性竞争导致企业短期普遍亏损。\n\n                        \n\n                              2024年4月，硅料价格月度跌幅26.87%，已达大多数企业的现金成本，多晶硅致密料平均价格49元/kg，甚至跌破部分企业现金成本。在阶段性供应过剩的背景下，从工业硅到组件环节均跌破生产成本，短期内市场呈现非理性竞争。\n\n                        \n\n                              2024年第一季度光伏企业业绩普遍承压，部分龙头企业亏损明显。从光伏行业披露的2023年年报和2024年一季度报告来看，行业阶段供给过剩对报表端影响显著，尤其是第一季度，光伏产品价格大幅下滑、资产减值计提增长等因素继续拖累行业业绩表现。硅料、硅片、电池和光伏组件各环节，甚至头部企业均面临业绩下滑甚至亏损局面。企业普遍盈利承压加速行业优胜劣汰。\n\n                        \n\n                              投资建议：3月份国内光伏装机容量同比下滑，出口量增价减出口金额持续下行，需求端疲软。光伏大部分环节产能阶段过剩、行业竞争激烈，产品价格显著下行，市场亟待落后产能退出，供需格局扭转尚待时日。截至2024年4月30日，光伏产业PE(TTM)12.70倍，处于历史估值分位数11.72%的位置；PB(LF)估值1.97倍，处于历史16.02%分位。二级市场股价走势充分兑现行业产能过剩预期，短期行业拐点尚未显现，但二级市场下行空间不大，维持行业“强于大市”投资评级。中期建议关注光伏玻璃、银浆、钙钛矿电池设备以及一体化组件厂商领先企业。\n\n                        \n\n                              风险提示：国际贸易政策变化风险；全球装机需求不及预期风险；阶段性供需错配，产能过剩，盈利能力下滑风险。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '国金证券', '研报总结': '        \n                        \n            \n                        \n\n                              2023年光伏需求持续高景气，国内光伏装机同增148%、电池组件出口量同增23%，但产业链瓶颈硅料环节新增供给放量，产业链供需逐步向“过剩”状态切换，产业链价格快速下跌，各环节盈利能力承压，产业链呈现“量增利减”状态。四季度起主产业链部分环节价格下降至行业成本线附近，产业链盈利承压的同时产生较大比例存货减值计提，叠加大量企业在2023年末集中计提老旧固定资产减值损失，4Q23【SW光伏设备】口径销售毛利率/净利率分别下降至15.9%/-1.7%，同比-5.3PCT/-11.7PCT，环比-5.1PCT/-11.2PCT。\n\n                        \n\n                              2024年一季度产业链价格低位调整，主产业链多个环节进入亏损状态，【SW光伏设备】口径销售毛利率环比下降1.7PCT至14.2%，因固定资产减值影响减弱，销售净利率环比修复1.4PCT至-0.3%。\n\n                        \n\n                              盈利能力方面，4Q23起主产业链部分环节进入亏损状态，大部分硅片、电池片企业由盈转亏；1Q24部分环节毛利率略有修复，一体化组件企业盈利分化。光伏玻璃/胶膜盈利低位稳定、头部优势显著，竞争格局相对较差、或此前盈利处于相对高位的其他辅材环节，受到下游客户盈利大幅承压的影响，盈利能力下降。具体看核心环节：1）硅料：价格跌破行业成本线，龙头成本、品质优势支撑盈利差距；2）一体化组件：盈利阶段性分化，海外高盈利市场及优势产品布局有望拉开盈利差距；3)胶膜、玻璃：行业格局稳定，盈利持续承压背景下头部优势凸显；4）设备：合同负债上升趋势难以维持，现金流情况需后续重点关注；5）逆变器&amp;储能：收入及盈利分化加剧，大储显著好于户储，存货较高位有所下降。\n\n                        \n\n                              现金流方面，4Q23产业链盈利虽有一定承压，但经营性现金流仍处于相对正常水平，辅材现金流甚至处于历史较优水平；1Q24各环节经营性现金流显著下降，硅料、电池片、一体化组件环节现金流均值均转负，光伏玻璃环节因盈利改善经营性现金流为正（1Q23为负）。环节内部表现有一定分化，头部与二三线企业资金差距放大，头部企业资金优势逐步凸显。\n\n                        \n\n                              资金及资本开支方面，1Q24末硅料、一体化组件企业资金相对充足，头部辅材企业优势明显；1Q24盈利承压背景下各环节资本开支同比放缓，二三线玻璃及胶膜企业资本开支显著放缓。\n\n                        \n\n                              展望2024年，光储经济性提升刺激需求释放，光伏组件需求有望在高基数下维持较高增速（全年同比增速有望达到30%以上）。随着产业链价格触底，以硅料产能检修/关停为强信号的过剩产能出清将加速，带动产业链盈利在触底后逐步修复，头部企业优势有望持续凸显。\n\n                        \n\n                              投资建议\n\n                        \n\n                              当前板块内部分龙头公司PB估值已处于过去十年估值区间的2%分位以下（与2018年531政策后的估值低点接近），市场对光伏行业景气下行的悲观情绪，从PB估值角度看已反映较为充分。伴随一季报业绩风险释放完毕，板块有望迎来一轮β修复行情，重点关注Q2环比改善显著的环节/公司，以及在一季报中呈现出显著α的各环节优势企业。\n\n                        \n\n                              建议重点配置“强α”标的（能够在2024年大部分同环节公司利润/新增订单负增长的背景下实现正增长的公司，或/和长期龙头地位和环节格局高度稳定的龙头公司）：阳光电源、阿特斯、奥特维、福莱特、福斯特等。同时建议关注率先实现盈利修复、边际改善显著、需求超预期背景下存在较好的盈利弹性的环节，如：二线玻璃、高效电池片、跟踪支架等。\n\n                        \n\n                              风险提示\n\n                        \n\n                              传统能源价格大幅（向下）波动，行业产能非理性扩张，国际贸易环境恶化，储能、泛灵活性资源降本不及预期。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '东吴证券', '研报总结': '        \n                        \n            \n                        \n\n                              工控&amp;电力设备行业2023/24Q1收入同比+10%/+6%、归母净利润同比-4%/-11%。1）行业2023/24Q1营收稳定增长、利润承压。全行业2023年实现收入/归母净利润8544.43/533.28亿元，同比+10%/-4%。2024Q1收入1888.15亿元，同比+6%，归母净利润为123.09亿元，同比-11%。2）行业整体毛利率水平小幅下降。2023/2024Q1行业毛利率为22.31%/21.96%，同比-1.22pct/-1.55pct。3）2024Q1应收账款/合同负债/存货较年初+3%/-0.3%/+4%。4）2024Q1经营性现金流净流出79.85亿元，同比下降明显。\n\n                        \n\n                              工控行业Q1缓慢复苏，龙头企业稳中求进，其中汇川、伟创电气收入快速增长，其他二线品牌收入稳住、利润承压。1）2023/24Q1营收稳健增长、利润承压。2023年工控板块实现收入1010亿元，同比+19%，实现归母99亿元，同比+16%。2024Q1实现收入222亿元，同比+6%，环比-24%；实现归母19亿元，同比-21%。2）毛利率稳定。2023板块毛利率为31.11%，同比+0.34pct。Q1板块毛利率31.70%，同比+0.64pct，环比+2.19pct。3）经营性现金流下滑明显。2024Q1工控板块经营活动现金净流出79.81亿元，2023年同期净流出44.40亿元，现金流状况承压。4）公司层面，汇川技术/伟创电气业绩实现较快增长，收入同比+36%/+15%，其他工控品牌收入稳增，禾川/雷赛/信捷/正弦收入同比-25%/+21%/+3%/-16%，归母同比-170%/+54%/+9%/-52。\n\n                        \n\n                              智能电表受益于三星医疗、海兴电力等公司出海业务进展顺利实现高增，特高压/高压板块业绩稳健增长，受昇辉科技、合纵科技、科陆电子、中利科技大幅亏损影响，一次设备板块盈利承压。2023/2024Q1一次设备行业收入3791.73/853.97亿元，同比+11%/+7%，归母净利润136.63/43.09亿元，同比-4%/+3%。分板块看，2023/2024Q1特高压&amp;高压营收同比+15%/+10%，归母净利润同比+20%/+35%；中压电气营收同比+22%/+15%，归母净利润同比-299%/+9%；低压电器营收同比+18%/持平，归母净利润同比-4%/-12%；智能用电营收同比+21%/+33%，归母净利润同比+45%/+15%。智能用电板块受益于出海业务进展顺利，盈利增长明显。2）盈利能力略有改善，2023/2024Q1毛利率分别为18.42%/18.90%，同比+0.52pct/+0.78pct。3）2023年合同负债/存货较年初+29%/+26%，经营性现金净流入254.27亿元，同比+55%。\n\n                        \n\n                              二次设备板块2023年延续稳健态势，许继电气、东方电子、四方股份等24Q1归母净利润增速亮眼。1）营收利润稳增。2023/2024Q1二次设备收入1031.94/166.86亿元，同比+10%/+9%,归母净利润109.82/10.94亿元，同比+14%/+13%。2）毛利率水平持平微增。2023/2024Q1板块毛利率为26.36%/25.59%，同比+0.06pct/+0.54pct。3）2023年合同负债/存货较年初+29%/+10%，经营性现金净流入195.50亿元，同比+45%。4）公司层面，许继电气、东方电子、四方股份等受益于网外新能源市场拉动增速快于网内，国电南瑞依旧稳健。\n\n                        \n\n                              投资建议：1）电网：国内投资重点倾向于新能源相关的特高压及配网环节，叠加海外需求超预期，景气度持续性高。推荐：金盘科技、三星医疗、思源电气、海兴电力、许继电气、平高电气、国电南瑞、四方股份、南网科技、安科瑞等，关注：华明装备、中国西电、良信股份、伊戈尔、明阳电气、金杯电工、长高电新等。2）工控：制造业持续弱复苏，基本面拐点仍未到，但龙头α强劲、紧抓结构性机会持续提份额。推荐：汇川技术、三花智控、宏发股份、伟创电气、雷赛智能、鸣志电器、禾川科技等，关注：麦格米特、信捷电气、英威腾、正弦电气、英搏尔等。\n\n                        \n\n                              风险提示：电网投资不及预期，竞争加剧，市场拓展不及预期等。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '国金证券', '研报总结': '        \n                        \n            \n                        \n\n                              投资逻辑：\n\n                        \n\n                              2023年装机高增长，1Q24再创Q1单季装机新高。2023年国内风电新增装机75.90GW，同比高增107.7%，其中海风、陆风新增装机分别为6.83GW、69.1GW，分别同比+123.9%、+106.2%。1Q24国内风电新增装机15.50GW，同增49.0%，其中海风、陆风新增装机分别为0.69GW、14.81GW，同比+49.8%、+35.3%。\n\n                        \n\n                              2023年招标规模略有下降，预计2024年有望回暖。2023年国内风电招标量达86.3GW，同降12.4%，其中新增陆风招标达77.8GW，同比-7.2%,新增海风招标达8.9GW，同比-39.6%。1Q24国内风电招标量达23.3GW，同比-13.0%，其中新增陆风招标达21.3GW，同比-13.4%，新增海风招标达2.0GW，同比-8.7%。\n\n                        \n\n                              2024年陆风机组价格持稳，海风机组保持下降趋势。目前陆风机组（不含塔筒）价格稳定在1400-1600元/KW，2024年1-4月陆风机组招标均价为1487元/KW,同比2023年同期下降8.1%，2024年1-4月海风机组中标均价为3402元/KW，同比下降10.1%，环比2023年8-12月下降5.1%。\n\n                        \n\n                              收入增速放缓、竞争加剧，盈利能力有所下降。2023年风电板块实现营收1990亿元，同比+4.8%；由于行业竞争加剧，下游招标价格持续走低，板块实现归母净利润78亿元，同比-36%。销售毛利率及销售净利率为16.6%/4.0%，同比-1.5/-2.5PCT。1Q24实现营收323亿元，同比+5.0%；实现归母净利润15亿元，同比-44.1%；实现销售毛利率、销售净利率20.5%/4.9%，同比+0.46/-3.86pct，原材料价格下降带动毛利率回升，但由于竞争加剧、收入增速放缓导致各企业费用率有所上升。\n\n                        \n\n                              自由现金流同比改善，派息率同比大幅提升。2023年风电板块自由现金流-146.6亿元，较2022年-281.7亿元显著改善；经营现金流35.9亿元，同比-40.0%。自由现金流大幅改善主要是整机企业投资收益较高所致，剔除后自由现金流为-101.6亿元，同比小幅改善。2023年现金分红总额为33.85亿元，同比+31.4%，派息率为43.2%，同比+22.27pct。\n\n                        \n\n                              整机环节毛利率基本触底，风电场转让收益支撑短期业绩。2023年整机环节的综合毛利率为14.37%，同比下降4.17pct，毛利率已经处于历史底部水平。2023年整机板块投资收益/扣非归母净利润为267.1%，风电场转让收益成为整机环节公司短期内的业绩支撑。展望后续，预计随着价格压力逐步传导，两海业务占比提升，大容量机组占比提升，整机企业毛利率有望触底修复。\n\n                        \n\n                              零部件环节盈利能力承压，出口业务成破局关键。受到下游竞争加剧影响，上游零部件环节价格承压，其中主轴、铸件1Q24毛利率同比下降9.20pct、4.99pct，叶片毛利率环比下降相对显著，1Q24毛利率环比下降3.81pct。塔筒环节的大金重工等受益于海外出口收入占比提升，1Q24毛利率环比提升10.72pct，同比提升12.60pct。\n\n                        \n\n                              随着海风施工逐步恢复，预计下游需求有望逐步回暖。年初以来重要海风项目及政策推进加速：2月海南、福建等清洁能源大省相继公布2024年重大海风项目投资计划；3月阳江市阳西县自然资源局发布青洲五~七海缆集中送出工程项目《建设工程规划许可证》的批前公示；4月23日海南省发改委宣布海南省海上风电场址扩容，规模由12.3GW增加至24.9GW；4月26日中广核广东阳江帆石二海上风电项目启动招标等等。\n\n                        \n\n                              投资建议与估值\n\n                        \n\n                              重点推荐受益于海风逻辑的塔筒环节与海缆环节：泰胜风能、海力风电、东方电缆；受益于出口逻辑的海风零部件和风机环节：日月股份、三一重能等。\n\n                        \n\n                              风险提示\n\n                        \n\n                              大宗商品价格波动风险；下游装机不及预期；政策风险。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '财信证券', '研报总结': '        \n                        \n            \n                        \n\n                              投资要点：\n\n                        \n\n                              钙钛矿属于第三代太阳能电池，在性能和特点上具备诸多优势。钙钛矿型太阳能电池是利用钙钛矿型的有机金属卤化物半导体作为吸光材料的太阳能电池，钙钛矿泛指具有与CaTiO3相同晶体结构的材料，即ABX3型结构。钙钛矿电池具有原材料廉价易得、带隙可调整、光谱响应范围广、理论效率高、弱光效应优秀等特点。理论效率方面，单结钙钛矿电池极限理论效率为33%，双结为46%，远超晶硅电池理论效率。根据极电自建的户外电站数据，钙钛矿组件阵列每天早晨比同地区晶硅组件阵列平均早启动约25分钟，晚上晚关断约20分钟，每天工作时长多出45分钟左右，拥有优秀的弱光效应。\n\n                        \n\n                              钙钛矿制备技术路线尚无定论，镀膜、涂布、激光、封装为四大核心设备。从目前的制备流程上看，不论是何种路线，仅需镀膜、涂布、激光、封装设备四类设备即可覆盖钙钛矿所有环节。其中，电极层一般使用PVD、CVD等镀膜技术；传输层一般使用RPD和PVD镀膜技术；钙钛矿层有蒸镀和狭缝涂布两种路线；激光环节确定性较强，分为P0打标，P1-P4划线两个阶段。\n\n                        \n\n                              目前钙钛矿设备投资较高，中性预测下，2026年钙钛矿设备市场空间有望达到112亿元。目前100MW线设备投资额1亿元左右，换算至GW产线相当于投资额10亿，我们认为伴随技术成熟和规模效应，后续设备投资额将逐步下降。我们预测，2026年在乐观、中性、悲观估计下将分别新增22GW、16GW、12GW钙钛矿组件产能，对应154、112、84亿元设备市场空间。\n\n                        \n\n                              钙钛矿商业化尚有诸多难点扼待突破，经济性方面仍有较大降本空间。稳定性：钙钛矿吸光层在潮湿、高温、光照等环境下均会发生分解反应，对寿命产生严重影响。目前解决方案有材料改性和提升封装技术两种路径。大尺寸制备：大尺寸钙钛矿电池会明显降低效率，也会提高制备难度。经济性：目前国内钙钛矿制备成本远高于理论成本，电站投建成本也高于晶硅电池，可从材料、提效及规模效应三方面实现降本，根据我们测算，效率提升至22%、25%、28%时，单瓦理想成本有望降至0.82、0.72、0.64元/W。\n\n                        \n\n                              投资建议：钙钛矿制备路线尚无明确答案，技术路线百花齐放，技术实力强的厂商有望充分受益。钙钛矿电池生产流程中，目前仅有激光设备确定性较强，其他环节中镀膜和涂布均有自身技术特点，技术路线百花齐放。我们认为在此背景下，拥有较强技术实力且积极配合下游进行生产优化的厂商将脱颖而出。镀膜设备方面，建议关注光伏镀膜领域优秀厂商捷佳伟创（300724.SZ）、京山轻机（000821.SZ）、微导纳米（688147.SH）；涂布设备方面，建议关注领先的国产涂布头及涂布设备供应商曼恩斯特（301325.SZ）；激光设备方面，建议关注激光细分领域优质厂商杰普特（688025.SH）、德龙激光（688170.SH）。\n\n                        \n\n                              风险提示：光伏组件需求不及预期，钙钛矿产业化进度不及预期，钙钛矿制备技术发展不及预期，晶硅电池迅速降本，市场竞争加剧。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '川财证券', '研报总结': '        \n                        \n            \n                        \n\n                              跟踪点评\n\n                        \n\n                              今日上证指数上涨1.16%，沪深300上涨1.48%，中证1000上涨1.99%，创业板综上涨2.08%，科创50上涨1.33%，北证50上涨1.43%。申万行业分类中31个一级行业分类中，公用事业和煤炭分别实现1.22%和0.50%的涨跌幅，分别排名20和29。\n\n                        \n\n                              公用事业板块中今日有4只股票涨停，1只股票跌停。排名前三的股票为长青集团、西昌电力和百通能源，涨跌幅分别为10.07%、10.06%和10.03%；排名后三的股票为ST聆达、ST升达和长江电力，涨跌幅分别为-20.05%、-5.13%和-1.24%。\n\n                        \n\n                              煤炭板块中今日无股票涨停，无股票跌停。排名前三的股票为盘江股份、安泰集团和宝泰隆，涨跌幅分别为5.15%、5.10%和4.70%；排名后三的股票为陕西煤业、甘肃能化和中国神华，涨跌幅分别为-2.61%、-1.42%和-0.70%。\n\n                        \n\n                              今日，主要指数普涨，公用事业板块主要子行业表现分化，公用事业行业排名较好，煤炭行业排名其次。（来源：iFinD）\n\n                        \n\n                              行业要闻\n\n                        \n\n                              商务部：上周全国煤炭价格略有上涨（中国煤炭市场网）\n\n                        \n\n                              据商务部市场运行监测系统显示，4月22日至28日，全国煤炭价格略有上涨，其中动力煤炼焦煤、二号无烟块煤每吨815元、1203元和1211元，分别上涨1.0%、0.6%和0.2%。钢材价格略有回升，其中螺纹钢、高速线材、槽钢每吨3877元、4078元和4167元，分别上涨0.5%、0.5%和0.4%。\n\n                        \n\n                              风险提示\n\n                        \n\n                              宏观经济波动风险，出口订单超预期下滑，汇率风险等。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '华源证券', '研报总结': '        \n                        \n            \n                        \n\n                              继续看好低协方差标的“四水两核”：长江电力、华能水电、国投电力、川投能源、中国核电、中国广核。推荐：黔源电力+湖北能源，黔源电力现金流强劲，有望享受低协方差扩散行情；湖北能源水火共振业绩大幅向好，央企改革估值有望提振。推荐：理工能科，现金流优秀且重视股东回报，油色谱更新换代量价齐升带动公司业绩快速提升。\r\n\n                        \n\n                              涨幅回顾：本周推荐组合（等权配置）上涨0.7%，沪深300上涨0.6%，同花顺全A上涨1.2%，主动股基上涨0.9%，推荐组合跑赢沪深3000.1个百分点，跑输主动股基0.2个百分点。2024年以来推荐组合上涨16.97%，沪深300上涨5.05%，同花顺全A下跌1.74%，主动股基下跌1.01%，关注组合跑赢沪深30011.92个百分点，跑赢主动股基17.98个百分点。\r\n\n                        \n\n                              电力板块2023年报及2024年一季报业绩回顾：传统能源普超预期新能源压力犹存\r\n\n                        \n\n                              火电概览：受减值拖累，火电板块2023年四季度业绩整体低于预期，但是标的分化显著，2024年一季度业绩整体超预期，点火价差走扩。在煤价小幅反弹以及减值损失影响下，煤电板块一线龙头2023年四季度业绩普遍不及预期，煤电主流公司四季度合计净利润仍然为负（较2022年减亏），对板块整体拖累明显。但是受益于电力供需格局持续偏紧以及更高的资产平均质量，华东地区省级公司2023年四季度全部扭亏或实现正增长，延续了一直以来的区域分化格局。2024年一季度大部分煤电公司均实现了高增长，主要火电公司一季度合计归母净利润同比增长91%，煤价下跌带来的业绩弹性超过市场预期。煤电业绩超预期的另一因素为容量电价落实较为到位，有效弥补电价的小幅下滑。\r\n\n                        \n\n                              展望未来，短期来看，考虑到当前全国煤炭供需紧张程度有所缓和，秦皇岛5500大卡动力煤在800元/吨左右已停留较长时间，预计煤电板块二季度业绩有望继续改善。中期来看，我们分析煤电板块利润率进一步扩张空间有限，股价进一步表现需要分母端发力，而后者需要政策落地与时间验证。\r\n\n                        \n\n                              水电核电概览：水电在来水持续偏枯背景下，以价补量实现利润增长，业绩出现流域分化；核电表现基本平稳，短期业绩受检修影响。整体来看，2023年及2024年一季度水电板块呈现电量低于预期，但是电价涨幅持续超预期的格局，前者影响短暂，后者改变市场中长期预期。除传统的西南电力供需格局趋紧逻辑外，我们分析东部省份寻求低成本电源、国家能源双控收紧等因素正在提供边际力量。就投资逻辑而言，我们认为当前时点以水电、核电为代表的低协方差资产仍有较高配置价值，分母端驱动力大于分子端，业绩利好更多是估值重塑的催化剂。\r\n\n                        \n\n                              与传统电源相比，新能源业绩明显承压。根据中电联数据，2023年我国新增风电光伏装机合计近300GW，创历史新高。但是从上市公司业绩来看，2023年全年主要绿电上市公司合计归母净利润仅同比增长2.9%。2024年一季度同比下滑1.3%，绿电板块从此前的“弱预期”变成了当前的“弱现实”，我们分析主要系碳市场建设仍然滞后，市场机制不健全，调峰压力极大，绿电有效需求不足导致弃风弃光率大幅回升，电量电价同时承压。国家能源局4月26日印发《可再生能源绿色电力证书核发和交易规则（征求意见稿）》，明确证电可以分离，为后续进一步提升绿证交易效率奠定基础，但是反转仍需要相关机制理顺。\r\n\n                        \n\n                              电力设备：23年报及24年一季报回顾\r\n\n                        \n\n                              电网板块：国内外需求共振，业绩稳健增长。2023年电网设备板块业绩整体呈现较好增长，主要得益于国内电网和电源建设，以及海外需求增长。分板块来看，由于近年来电网建设以超高压、特高压为主，一次设备公司受益较为明显，均保持较高增长。二次设备受益不显著，增速整体低于一次设备。此外海外需求大幅提高，变压器、开关柜等设备出口均有两位数增长，海外布局较早的公司均因此受益。23年国网一次设备招标金额大幅增长，特高压保持高强度建设，建议继续关注特高压（以及柔直化）、出海等逻辑：（1）特高压及柔性直流：许继电气、平高电气、中国西电、国电南瑞等；（2）电力设备出海：华明装备、思源电气、金盘科技等。\r\n\n                        \n\n                              配用电及信息化：电改推动用电及信息化变革。2023年是我国电力体制改革重要一年。第三监管周期输配电价、电力需求侧管理办法、电力现货市场时间表、煤电容量电价建立等政策先后出台，进而促进诸如传统电源价值重估、新能源收益构成改变、电力交易业务兴起、储能价值得到体现和评估、用户侧灵活性得到体现等各方面价值挖掘。2023年有出海逻辑的智能电表公司业绩表现良好，电改取得突破性进展但市场空间尚未大规模打开。展望2024年，消纳压力以及电改推进打开行业天花板。关注电力信息化方向公司机会。重点推荐：理工能科。建议关注：海兴电力、三星医疗、国能日新、朗新集团等。\r\n\n                        \n\n                              电源板块：核电、煤电、抽蓄同时发力。2023年是我国电源装机大年，其中火电新增5793万千瓦为2015年以来新高。核电全年核准10台核电机组，与2022年一起创08年以来新高。22、23年抽蓄累计核准134GW，煤电22、23年分别核准89.1GW和74.3GW显著复苏。在电源建设高景气背景下，相关公司业绩均有不同程度改善。展望2024年，在核电、煤电、抽蓄同时发力背景下，相关公司业绩有望实现较高增长。至于更长远来看，由于我国用电需求存在较强韧性，负荷仍保持较高增长，新能源保供能力差，在高峰期供电方面难以发挥作用。因此仍然需要大量的传统电源建设才能保证供电安全，因此仍继续看好电源板块长期逻辑。建议关注：东方电气、哈尔滨电气、上海电气、江苏神通等\r\n\n                        \n\n                              风险提示：煤电最大的风险为煤价上涨超出预期，电力市场化进度不及预期，水电核电的收益率受到利率环境的影响。\n\n                        \n\n                                              \n\n                    '}, {'研报公司': '国金证券', '研报总结': '        \n                        \n            \n                        \n\n                              细分行业看：各行业2023年&amp;1Q24业绩表现较为分化。\n\n                        \n\n                              （1）火电：低基数效应+宏观经济复苏，火电需求同比高增。需求端看，4Q23、1Q24均受低基数影响，叠加宏观经济持续复苏，用电量持续高增；供给端看，4Q23、1Q24水电处在枯水期，且可再生能源出力不足，火电承担保供责任，发电量同比分别高增7.3%、7.2%。目前火电企业成本构成仍然以燃料成本为主、业绩对煤价变动的敏感性高，且电价下调滞后于市场煤价下行。综上，板块业绩反弹持续兑现，2023、1Q24行业归母净利润分别同比+610.6%、+102.4%。\n\n                        \n\n                              （2）新能源：装机高增助发电量稳健增长，但资源偏弱+电价折价使利润增长承压。23年/1Q24风光利用小时数均同比下行（除23年风电利用小时数同比微增0.2%），而23年风/光累计装机分别同比+20.7%/+55.2%、驱动风/光发电量分别同比+17.8%/+28.4%，1Q24装机高增长继续拉动风/光发电量分别同比+16.3%/+27.9%。而受到自然资源转弱影响发电效率和电价折价的影响，2023年绿电发电归母净利润同比+8.7%、增幅收窄；1Q24行业归母净利润同比由正转负。\n\n                        \n\n                              （3）水电：2H23来水改善但全年电量同比下降，电价上涨助业绩稳健增长。由于长江电力规模较大、其装机增长带来的发电量上行对行业趋势的影响较大，若剔除统计偏差，虽23年起各大水库蓄水情况好于上年同期，但实则行业发电量同比下行；而行业在电价增长的拉动下业绩实现稳健增长，23年/1Q24归母净利润分别同比+18.9%、+19.6%。\n\n                        \n\n                              （4）环保：23年业绩承压，1Q24盈利能力修复。23年下游需求复苏，但受地方财政压力影响，水务运营/固废处理归母净利润分别同比-13.5%/-8.5%。随着公共卫生事件影响消除、下游需求恢复，叠加运营类资产进入存量提质增效阶段、资本开支进入放缓期，1Q24水务运营/固废治理/水处理净利率环比23年分别回升2.5pct、3.8pct、3.2pct。\n\n                        \n\n                              细分主要标的看：分化格局更显竞争优势。\n\n                        \n\n                              （1）火电：煤价中枢大幅下行，1Q24火电兑现业绩弹性。以华电国际为例，公司在成本改善的利好下，1Q24归母净利润18.6亿元、同比+64.2%，毛利率和净利率水平分别达到8.4%/7.3%、分别环比+2.0pct/+3.2pct。\n\n                        \n\n                              （2）绿电：23年及1Q24风电运营商业绩受装机量、发电效率的影响而表现分化。如三峡能源23年风电装机量同比+195.5万千瓦、利用小时同比+79小时，带动营收、净利润分别同比+11%、+1%；中闽能源23年装机容量持平，公司福建陆风/海风利用小时数分别下行17.5%、3.3%，因而营收、净利润同比分别-3%、-7%。\n\n                        \n\n                              （3）核电：机组投产、运营情况为影响业绩的主要因素。例如，中国核电23年为装机空窗期，但公司进一步提升运营能力，在运机组能力因子提升至93.3%（同比+0.1pct），驱动营收、归母净利润分别保持5%、18%的稳健增长。\n\n                        \n\n                              （4）水电：1Q24来水仍偏枯、龙头水库发挥调节能力，市场化电价上浮以价补量。以长江电力为例，23年入汛后来水改善、蓄水修复，虽1Q24三峡水库来水偏枯，但水库水位较高叠加电价上浮，驱动1Q24营收/归母分别+2%/+10%。\n\n                        \n\n           </t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>['null', 'null', 'null', 'null', 'null', '中国银河在近期研报中表示，推荐关注电力板块整体业绩确定性高，分红能力强，未来也将持续受益央国企改革，我们持续看好电力板块的长期投资价值。短期推荐具备政策催化、业绩持续改善、估值有提升空间的火电板块；长期、低风险偏好资金重点布局核电、水电；逢低战略性布局新能源板块。', 'null', '中原证券在近期研报中表示，维持行业“强于大市”投资评级。中期建议关注光伏玻璃、银浆、钙钛矿电池设备以及一体化组件厂商领先企业。', 'null', 'null', 'null', 'null', 'null', 'null', 'null']</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>[{'role': 'system', 'content': '你是一名投资分析专家，现在需要你判断给出的资讯与哪个投资建议最相关，最后仅输出最相关建议即可，请遵循以下分析步骤：\n1.首先仔细阅读给出的资讯，了解资讯的主要内容，资讯仅作为理解参考，不可作为最后输出内容来源；\n2.接下来将给你几篇研报投资建议，请判断资讯与哪个投资建议最相关，最相关意味着该建议应直接对应资讯的核心主题，深入探讨资讯中提到的变化或趋势及其对相应行业市场的影响。\n3.输出与资讯内容最相关的一条建议，仅以json形式输出最相关投资建议原文，不需要添加或杜撰任何建议之外的信息。\n4.如果判断没有最相关的投资建议句段。most_relevant_suggestion输出“无”\n输出参考示例：{"most_relevant_suggestion":"东莞证券在近期研报中表示，当前楼市虽然基本面未见好转，但政策自上而下均处在持续宽松阶段，随着后续的进一步政策宽松预期释放，板块估值有望得到一定的修复。"}\n\n'}, {'role': 'user', 'content': '资讯：{重磅！鼓励光伏行业兼并重组 5月21日，据中国光伏行业协会CPIA公众号，中国光伏行业协会近日在北京组织召开“光伏行业高质量发展座谈会”。会议指出，加强对于低于成本价格销售恶性竞争的打击力度；鼓励行业兼并重组，畅通市场退出机制。}\n\n"suggestions":\n{null}\n{null}\n{null}\n{null}\n{null}\n{中国银河在近期研报中表示，推荐关注电力板块整体业绩确定性高，分红能力强，未来也将持续受益央国企改革，我们持续看好电力板块的长期投资价值。短期推荐具备政策催化、业绩持续改善、估值有提升空间的火电板块；长期、低风险偏好资金重点布局核电、水电；逢低战略性布局新能源板块。}\n{null}\n{中原证券在近期研报中表示，维持行业“强于大市”投资评级。中期建议关注光伏玻璃、银浆、钙钛矿电池设备以及一体化组件厂商领先企业。}\n{null}\n{null}\n{null}\n{null}\n{null}\n{null}\n{null}\n'}]</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>{"most_relevant_suggestion":"中原证券在近期研报中表示，维持行业“强于大市”投资评级。中期建议关注光伏玻璃、银浆、钙钛矿电池设备以及一体化组件厂商领先企业。"}</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>5月17日，在工信部电子信息司指导下，中国光伏行业协会召开座谈会，强调打击低于成本价格的恶性竞争，鼓励行业兼并重组，畅通市场退出机制。
+光伏行业正在经历一系列由市场化手段和政策引导结合而来的整体调整。会议强调要打击低于成本价销售的恶性竞争以及低价中标现象，并通过示范项目支持先进技术应用，以推动行业高质量增长。行业长期受到价格下跌限制，预计光伏产品价格下跌幅度有限。光伏行业供需关系正处于关键节点，市场集中度可能提升，尤其是前四家企业的市占率可能超过60%。政策上将优化光伏制造行业管理，提升技术指标，并建立全国统一大市场，加快技术落后产能的市场退出。未来行业将回到健康发展轨道，企业需在成本、技术和现金流等方面提高竞争力。预计2024年，全球光伏新增装机量持平甚至超越去年，达到390GW至430GW。
+中原证券在近期研报中表示，维持行业“强于大市”投资评级。中期建议关注光伏玻璃、银浆、钙钛矿电池设备以及一体化组件厂商领先企业。</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>[{'role': 'system', 'content': '你是一名标题编辑人员，请根据文章内容，撰写财经新闻标题：\n\n标题1句话\n1. 简短新闻内容的短句，要求标题党，最好能带上新闻中提到的热门人物、热门事件的动词、或关键数据等。\n\n标题党是指：\n- 引起好奇心：制造悬念或提出引人入胜的问题。\n- 使用强烈、感性的语言：使用能够引发情感反应的词汇。\n- 结合热点话题：利用当前的热点或流行趋势。\n- 直接挑战读者观点：提出可能与普遍看法不同的观点。\n- 使用数字或统计数据：数字能够吸引注意并增加说服力\n\n2、越简短越好，避免使用“标题”这个词\n\n，使用json格式输出，输出参考示例：{"title":"文心一言用户破2亿！AI继续火热？"}\n\n新闻：'}, {'role': 'user', 'content': '5月17日，在工信部电子信息司指导下，中国光伏行业协会召开座谈会，强调打击低于成本价格的恶性竞争，鼓励行业兼并重组，畅通市场退出机制。\n光伏行业正在经历一系列由市场化手段和政策引导结合而来的整体调整。会议强调要打击低于成本价销售的恶性竞争以及低价中标现象，并通过示范项目支持先进技术应用，以推动行业高质量增长。行业长期受到价格下跌限制，预计光伏产品价格下跌幅度有限。光伏行业供需关系正处于关键节点，市场集中度可能提升，尤其是前四家企业的市占率可能超过60%。政策上将优化光伏制造行业管理，提升技术指标，并建立全国统一大市场，加快技术落后产能的市场退出。未来行业将回到健康发展轨道，企业需在成本、技术和现金流等方面提高竞争力。预计2024年，全球光伏新增装机量持平甚至超越去年，达到390GW至430GW。\n中原证券在近期研报中表示，维持行业“强于大市”投资评级。中期建议关注光伏玻璃、银浆、钙钛矿电池设备以及一体化组件厂商领先企业。'}]</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>{"title":"光伏行业整顿：恶性竞争遭打击，前四家市占率或超60%"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>光伏概念股反弹，金刚光伏20cm涨停 光伏概念股开盘反弹，金刚光伏20cm涨停，清源股份、拓日新能、TCL中环、晶澳科技、爱旭股份等跟涨。消息面上，中国光伏行业协会会议指出，鼓励行业兼并重组，畅通市场退出机制。</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>{"category": "行业利好新闻"}</t>
+        </is>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>咨询或解读不足</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>{
+  "industry_benefit":[
+    {"industry_name":"电力设备","score":"90"},
+    {"industry_name":"公用事业","score":"75"}
+  ],
+  "concept_benefit":[
+    {"concept_name":"太阳能","score":"90"},
+    {"concept_name":"新能源","score":"85"},
+    {"concept_name":"绿色电力","score":"80"}
+  ]
+}</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[{'提取文章': '\n                            \n                                \n  5月22日，金刚光伏涨停，清源股份、拓日新能、TCL中环、晶澳科技、钧达股份、爱旭股份、欧晶科技等跟涨。（文章来源：每日经济新闻）                        ', 'gpt提取资讯,解读结果': '{\n"news":"5月22日，金刚光伏涨停，清源股份、拓日新能、TCL中环、晶澳科技、钧达股份、爱旭股份、欧晶科技等跟涨。（文章来源：每日经济新闻）",\n"analysis":null\n}'}, {'提取文章': '\n                            \n                                \n  5月22日，金刚光伏涨超10%，清源股份、拓日新能、TCL中环、晶澳科技、钧达股份、爱旭股份、欧晶科技等跟涨。（文章来源：每日经济新闻）                        ', 'gpt提取资讯,解读结果': '{\n"news":"5月22日，金刚光伏涨超10%，清源股份、拓日新能、TCL中环、晶澳科技、钧达股份、爱旭股份、欧晶科技等跟涨。（文章来源：每日经济新闻）",\n"analysis":null\n}'}, {'提取文章': '\n                            \n                                \n  5月22日早盘，光伏设备板块快速拉升。截至9时33分，清源股份涨停。金刚光伏涨超9%，宇邦新材涨逾6%，拓日新能、上能电气等跟涨。   数据来源：choice金融终端（文章来源：上海证券报·中国证券网）                        ', 'gpt提取资讯,解读结果': '{\n"news": "5月22日早盘，光伏设备板块快速拉升。截至9时33分，清源股份涨停。金刚光伏涨超9%，宇邦新材涨逾6%，拓日新能、上能电气等跟涨。",\n"analysis": null\n}'}, {'提取文章': '\n                            \n                                \n  5月22日早盘，光伏板块拉升。9时37分，清源股份涨停，拓日新能涨超9%，TCL中环、东方日升等跟涨。（文章来源：上海证券报·中国证券网）                        ', 'gpt提取资讯,解读结果': '{\n"news":"5月22日早盘，光伏板块拉升。9时37分，清源股份涨停，拓日新能涨超9%，TCL中环、东方日升等跟涨。（文章来源：上海证券报·中国证券网）",\n"analysis":null\n}'}, {'提取文章': '\n                            \n                                \n   光伏产业链全线反弹，HJT电池方向领涨，金刚光伏20CM涨停，拓日新能涨停，宇邦新材涨逾9%。（文章来源：界面新闻）                        ', 'gpt提取资讯,解读结果': '{\n"news":"光伏产业链全线反弹，HJT电池方向领涨，金刚光伏20CM涨停，拓日新能涨停，宇邦新材涨逾9%。",\n"analysis":null\n}'}, {'提取文章': '\n                            \n                                \n  每经AI快讯，光伏产业链全线反弹，HJT电池方向领涨，金刚光伏20cm涨停，宇邦新材涨逾10%，拓日新能涨停。（文章来源：每日经济新闻）                        ', 'gpt提取资讯,解读结果': '{\n"news":"每经AI快讯，光伏产业链全线反弹，HJT电池方向领涨，金刚光伏20cm涨停，宇邦新材涨逾10%，拓日新能涨停。",\n"analysis":null\n}'}]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>5月22日，金刚光伏涨停，清源股份、拓日新能、TCL中环、晶澳科技、钧达股份、爱旭股份、欧晶科技等跟涨。（文章来源：每日经济新闻）</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>辅助生殖概念早盘拉升，汉商集团一字涨停 辅助生殖概念早盘拉升，汉商集团、澳洋健康涨停，达嘉维康涨超10%，透景生命、共同药业、采纳股份、麦迪科技等快速跟涨。</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>{"category": "其他"}</t>
+        </is>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>非行业利好</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>全球通胀放缓新迹象推动欧美债市上扬 今晚聚焦美联储纪要 ①随着再度有新证据表明，欧美发达国家似乎终于控制了通胀，全球债券价格周二纷纷上扬；
+②周二，在最新数据显示加拿大CPI同比涨幅降至三年低点后，加拿大国债领涨；
+③美联储将于北京时间周四凌晨2点公布其4月30日至5月1日货币政策会议的纪要。</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>{"category": "其他"}</t>
+        </is>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>非行业利好</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>电动垂直起降航空器起降场相关标准发布 该标准共分为11章节，对电动垂直起降航空器（eVTOL）起降场的物理特性、障碍物限制、场址选择、结构设计、专用设施设备等诸多技术参数进行了明确阐释。</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>{"category": "行业利好新闻"}</t>
+        </is>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>咨询或解读不足</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>{
+  "industry_benefit":[
+    {"industry_name":"国防军工","score":"85"},
+    {"industry_name":"航空运输","score":"75"},
+    {"industry_name":"机械设备","score":"70"},
+    {"industry_name":"新能源","score":"65"},
+    {"industry_name":"电力设备","score":"60"}
+  ],
+  "concept_benefit":[
+    {"concept_name":"无人驾驶","score":"90"},
+    {"concept_name":"人工智能","score":"80"},
+    {"concept_name":"新能源","score":"75"}
+  ]
+}</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[{'提取文章': '\n                            \n                                \n  据央视新闻，5月22日，中国民用机场协会在第五届中国机场发展大会上发布《电动垂直起降航空器（eVTOL）起降场技术要求》团体标准。该标准于2023年底正式启动编制，是我国首部针对电动垂直起降航空器（eVTOL）起降场的技术规范。该标准共分为11章节，对电动垂直起降航空器（eVTOL）起降场的物理特性、障碍物限制、场址选择、结构设计、专用设施设备等诸多技术参数进行了明确阐释。（文章来源：界面新闻）                        ', 'gpt提取资讯,解读结果': '{\n"news":"据央视新闻，5月22日，中国民用机场协会在第五届中国机场发展大会上发布《电动垂直起降航空器（eVTOL）起降场技术要求》团体标准。该标准于2023年底正式启动编制，是我国首部针对电动垂直起降航空器（eVTOL）起降场的技术规范。该标准共分为11章节，对电动垂直起降航空器（eVTOL）起降场的物理特性、障碍物限制、场址选择、结构设计、专用设施设备等诸多技术参数进行了明确阐释。",\n"analysis":null\n}'}, {'提取文章': '\n                            \n                                \n  证券时报网讯，5月22日，中国民用机场协会在第五届中国机场发展大会上发布《电动垂直起降航空器（eVTOL）起降场技术要求》团体标准。该标准于2023年底正式启动编制，是我国首部针对电动垂直起降航空器（eVTOL）起降场的技术规范。该标准共分为11章节，对电动垂直起降航空器（eVTOL）起降场的物理特性、障碍物限制、场址选择、结构设计、专用设施设备等诸多技术参数进行了明确阐释。（文章来源：证券时报网）                        ', 'gpt提取资讯,解读结果': '{\n"news":"5月22日，中国民用机场协会在第五届中国机场发展大会上发布《电动垂直起降航空器（eVTOL）起降场技术要求》团体标准。该标准于2023年底正式启动编制，是我国首部针对电动垂直起降航空器（eVTOL）起降场的技术规范。该标准共分为11章节，对电动垂直起降航空器（eVTOL）起降场的物理特性、障碍物限制、场址选择、结构设计、专用设施设备等诸多技术参数进行了明确阐释。",\n"analysis":null\n}'}, {'提取文章': '\n                            \n                                \n  南方财经5月22日电，据央视新闻，5月22日，中国民用机场协会在第五届中国机场发展大会上发布《电动垂直起降航空器（eVTOL）起降场技术要求》团体标准。该标准于2023年底正式启动编制，是我国首部针对电动垂直起降航空器（eVTOL）起降场的技术规范。该标准共分为11章节，对电动垂直起降航空器（eVTOL）起降场的物理特性、障碍物限制、场址选择、结构设计、专用设施设备等诸多技术参数进行了明确阐释。 （文章来源：南方财经网）                        ', 'gpt提取资讯,解读结果': '{\n"news":"南方财经5月22日电，据央视新闻，5月22日，中国民用机场协会在第五届中国机场发展大会上发布《电动垂直起降航空器（eVTOL）起降场技术要求》团体标准。该标准于2023年底正式启动编制，是我国首部针对电动垂直起降航空器（eVTOL）起降场的技术规范。该标准共分为11章节，对电动垂直起降航空器（eVTOL）起降场的物理特性、障碍物限制、场址选择、结构设计、专用设施设备等诸多技术参数进行了明确阐释。",\n"analysis":null\n}'}, {'提取文章': '\n                            \n                                \n  随着国内低空经济的快速发展，电动垂直起降航空器（eVTOL）安全、高效地运行需要规范化的低空飞行基础设施提供有力支撑。电动垂直起降航空器起降场的相关标准，可以更好地指导低空飞行基础设施规范化、规模化建设。  5月22日，中国民用机场协会在第五届中国机场发展大会上发布《电动垂直起降航空器（eVTOL）起降场技术要求》团体标准。该标准于2023年底正式启动编制，是我国首部针对电动垂直起降航空器（eVTOL）起降场的技术规范。该标准共分为11章节，对电动垂直起降航空器（eVTOL）起降场的物理特性、障碍物限制、场址选择、结构设计、专用设施设备等诸多技术参数进行了明确阐释。  低空经济是全球竞逐的战略性新兴产业，是培育和发展新质生产力的重要方向。  2023年10月工信部等四部委联合发布《绿色航空制造业发展纲要（2023—2035年）》，提出2025年要实现eVTOL定点运行；  2023年12月国家空管委组织制定了《国家空域基础分类方法》，新增真高300米以下的G类空域和真高120米以下的W类空域，eVTOL、轻小型无人机、通用航空有了合法的低空空域；  2024年1月《民用无人驾驶航空器运行安全管理规则》（CCAR-92部）作为无人机运行第一份规章性文件正式发布；  2024年全国两会将“低空经济”写入政府工作报告，明确把发展低空经济作为新增长引擎；  2024年4月，全球首个三证齐全eVTOL飞行器诞生。在产业政策共振下，低空经济概念持续火热，2024年或将成为低空经济发展元年。  近年来，我国基础设施建设成果突出，完善程度为全球第一，不仅传统基建不断发展升级，5G通信网、卫星定位网、卫星遥感网、新能源发电输送和储能网络等新基建也迅速发展，成为发展低空经济的坚实基础。当前我国低空飞行服务保障体系已在基础设施布局规划、法规标准体系建设、有人机和无人机融合运行等方面持续发力。（文章来源：央视新闻客户端）                        ', 'gpt提取资讯,解读结果': '{\n  "news": "5月22日，中国民用机场协会在第五届中国机场发展大会上发布《电动垂直起降航空器（eVTOL）起降场技术要求》团体标准。该标准于2023年底正式启动编制，是我国首部针对电动垂直起降航空器（eVTOL）起降场的技术规范。该标准共分为11章节，对电动垂直起降航空器（eVTOL）起降场的物理特性、障碍物限制、场址选择、结构设计、专用设施设备等诸多技术参数进行了明确阐释。",\n  "analysis": null\n}'}]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>据央视新闻，5月22日，中国民用机场协会在第五届中国机场发展大会上发布《电动垂直起降航空器（eVTOL）起降场技术要求》团体标准。该标准于2023年底正式启动编制，是我国首部针对电动垂直起降航空器（eVTOL）起降场的技术规范。该标准共分为11章节，对电动垂直起降航空器（eVTOL）起降场的物理特性、障碍物限制、场址选择、结构设计、专用设施设备等诸多技术参数进行了明确阐释。</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>地产持续反复，我爱我家强势反包 我爱我家昨日早盘涨停后炸板，最后涨幅+6.54%。方新侠大手笔买入1.12亿、炒股养家买入6100万，3日买入8000万，近日分歧后反包！</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>{"category": "其他"}</t>
+        </is>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>非行业利好</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>低空经济，标准发布！ 中国民用机场协会在第五届中国机场发展大会上发布《电动垂直起降航空器(eVTOL)起降场技术要求》团体标准。该标准于2023年底正式启动编制，是我国首部针对电动垂直起降航空器(eVTOL)起降场的技术规范。</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>{"category": "行业利好新闻"}</t>
+        </is>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>咨询或解读不足</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>{
+  "industry_benefit": [
+    {
+      "industry_name": "国防军工",
+      "score": "80"
+    },
+    {
+      "industry_name": "交通运输",
+      "score": "70"
+    },
+    {
+      "industry_name": "机械设备",
+      "score": "65"
+    }
+  ],
+  "concept_benefit": [
+    {
+      "concept_name": "低空经济",
+      "score": "100"
+    },
+    {
+      "concept_name": "无人驾驶",
+      "score": "75"
+    }
+  ]
+}</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[{'提取文章': '\n                            \n                                \n  据央视新闻，5月22日，中国民用机场协会在第五届中国机场发展大会上发布《电动垂直起降航空器（eVTOL）起降场技术要求》团体标准。该标准于2023年底正式启动编制，是我国首部针对电动垂直起降航空器（eVTOL）起降场的技术规范。该标准共分为11章节，对电动垂直起降航空器（eVTOL）起降场的物理特性、障碍物限制、场址选择、结构设计、专用设施设备等诸多技术参数进行了明确阐释。（文章来源：界面新闻）                        ', 'gpt提取资讯,解读结果': '{\n    "news": "据央视新闻，5月22日，中国民用机场协会在第五届中国机场发展大会上发布《电动垂直起降航空器（eVTOL）起降场技术要求》团体标准。该标准于2023年底正式启动编制，是我国首部针对电动垂直起降航空器（eVTOL）起降场的技术规范。该标准共分为11章节，对电动垂直起降航空器（eVTOL）起降场的物理特性、障碍物限制、场址选择、结构设计、专用设施设备等诸多技术参数进行了明确阐释。",\n    "analysis": null\n}'}, {'提取文章': '\n                            \n                                \n  证券时报网讯，5月22日，中国民用机场协会在第五届中国机场发展大会上发布《电动垂直起降航空器（eVTOL）起降场技术要求》团体标准。该标准于2023年底正式启动编制，是我国首部针对电动垂直起降航空器（eVTOL）起降场的技术规范。该标准共分为11章节，对电动垂直起降航空器（eVTOL）起降场的物理特性、障碍物限制、场址选择、结构设计、专用设施设备等诸多技术参数进行了明确阐释。（文章来源：证券时报网）                        ', 'gpt提取资讯,解读结果': '{\n"news": "5月22日，中国民用机场协会在第五届中国机场发展大会上发布《电动垂直起降航空器（eVTOL）起降场技术要求》团体标准。该标准于2023年底正式启动编制，是我国首部针对电动垂直起降航空器（eVTOL）起降场的技术规范。该标准共分为11章节，对电动垂直起降航空器（eVTOL）起降场的物理特性、障碍物限制、场址选择、结构设计、专用设施设备等诸多技术参数进行了明确阐释。",\n"analysis": null\n}'}, {'提取文章': '\n                            \n                                \n  5月22日，据央视新闻消息，中国民用机场协会在第五届中国机场发展大会上发布《电动垂直起降航空器（eVTOL）起降场技术要求》团体标准。该标准于2023年底正式启动编制，是我国首部针对电动垂直起降航空器（eVTOL）起降场的技术规范。该标准共分为11章节，对电动垂直起降航空器（eVTOL）起降场的物理特性、障碍物限制、场址选择、结构设计、专用设施设备等诸多技术参数进行了明确阐释。（文章来源：北京商报）                        ', 'gpt提取资讯,解读结果': '{\n"news":"5月22日，据央视新闻消息，中国民用机场协会在第五届中国机场发展大会上发布《电动垂直起降航空器（eVTOL）起降场技术要求》团体标准。该标准于2023年底正式启动编制，是我国首部针对电动垂直起降航空器（eVTOL）起降场的技术规范。该标准共分为11章节，对电动垂直起降航空器（eVTOL）起降场的物理特性、障碍物限制、场址选择、结构设计、专用设施设备等诸多技术参数进行了明确阐释。",\n"analysis":null\n}'}, {'提取文章': '\n                            \n                                \n  南方财经5月22日电，据央视新闻，5月22日，中国民用机场协会在第五届中国机场发展大会上发布《电动垂直起降航空器（eVTOL）起降场技术要求》团体标准。该标准于2023年底正式启动编制，是我国首部针对电动垂直起降航空器（eVTOL）起降场的技术规范。该标准共分为11章节，对电动垂直起降航空器（eVTOL）起降场的物理特性、障碍物限制、场址选择、结构设计、专用设施设备等诸多技术参数进行了明确阐释。 （文章来源：南方财经网）                        ', 'gpt提取资讯,解读结果': '{\n"news":"5月22日，中国民用机场协会在第五届中国机场发展大会上发布《电动垂直起降航空器（eVTOL）起降场技术要求》团体标准。该标准于2023年底正式启动编制，是我国首部针对电动垂直起降航空器（eVTOL）起降场的技术规范。该标准共分为11章节，对电动垂直起降航空器（eVTOL）起降场的物理特性、障碍物限制、场址选择、结构设计、专用设施设备等诸多技术参数进行了明确阐释。",\n"analysis":null\n}'}, {'提取文章': '\n                            \n                                \n  随着国内低空经济的快速发展，电动垂直起降航空器（eVTOL）安全、高效地运行需要规范化的低空飞行基础设施提供有力支撑。电动垂直起降航空器起降场的相关标准，可以更好地指导低空飞行基础设施规范化、规模化建设。  5月22日，中国民用机场协会在第五届中国机场发展大会上发布《电动垂直起降航空器（eVTOL）起降场技术要求》团体标准。该标准于2023年底正式启动编制，是我国首部针对电动垂直起降航空器（eVTOL）起降场的技术规范。该标准共分为11章节，对电动垂直起降航空器（eVTOL）起降场的物理特性、障碍物限制、场址选择、结构设计、专用设施设备等诸多技术参数进行了明确阐释。  低空经济是全球竞逐的战略性新兴产业，是培育和发展新质生产力的重要方向。  2023年10月工信部等四部委联合发布《绿色航空制造业发展纲要（2023—2035年）》，提出2025年要实现eVTOL定点运行；  2023年12月国家空管委组织制定了《国家空域基础分类方法》，新增真高300米以下的G类空域和真高120米以下的W类空域，eVTOL、轻小型无人机、通用航空有了合法的低空空域；  2024年1月《民用无人驾驶航空器运行安全管理规则》（CCAR-92部）作为无人机运行第一份规章性文件正式发布；  2024年全国两会将“低空经济”写入政府工作报告，明确把发展低空经济作为新增长引擎；  2024年4月，全球首个三证齐全eVTOL飞行器诞生。在产业政策共振下，低空经济概念持续火热，2024年或将成为低空经济发展元年。  近年来，我国基础设施建设成果突出，完善程度为全球第一，不仅传统基建不断发展升级，5G通信网、卫星定位网、卫星遥感网、新能源发电输送和储能网络等新基建也迅速发展，成为发展低空经济的坚实基础。当前我国低空飞行服务保障体系已在基础设施布局规划、法规标准体系建设、有人机和无人机融合运行等方面持续发力。（文章来源：央视新闻客户端）                        ', 'gpt提取资讯,解读结果': '{\n  "news": "5月22日，中国民用机场协会在第五届中国机场发展大会上发布《电动垂直起降航空器（eVTOL）起降场技术要求》团体标准。该标准于2023年底正式启动编制，是我国首部针对电动垂直起降航空器（eVTOL）起降场的技术规范。该标准共分为11章节，对电动垂直起降航空器（eVTOL）起降场的物理特性、障碍物限制、场址选择、结构设计、专用设施设备等诸多技术参数进行了明确阐释。",\n  "analysis": null\n}'}]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>据央视新闻，5月22日，中国民用机场协会在第五届中国机场发展大会上发布《电动垂直起降航空器（eVTOL）起降场技术要求》团体标准。该标准于2023年底正式启动编制，是我国首部针对电动垂直起降航空器（eVTOL）起降场的技术规范。该标准共分为11章节，对电动垂直起降航空器（eVTOL）起降场的物理特性、障碍物限制、场址选择、结构设计、专用设施设备等诸多技术参数进行了明确阐释。</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>礼来中国：替尔泊肽将商业上市 礼来股价最高触及816美元/股，创历史新高。礼来中国回应替尔泊肽获批，将在今年四季度商业上市并公布价格。礼来中国21日宣布穆峰达(替尔泊肽注射液)获得国家药品监督管理局(NMPA)批准。</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>{"category": "行业利好新闻"}</t>
+        </is>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>{
+  "industry_benefit": [
+    {"industry_name":"医药生物","score":"90"}
+  ],
+  "concept_benefit": [
+    {"concept_name":"生物医药","score":"85"},
+    {"concept_name":"创新药","score":"80"},
+    {"concept_name":"独家药品","score":"75"}
+  ]
+}</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[{'提取文章': '\n                            \n                                \n  司美格鲁肽在华迎来强劲对手，GLP-1领域另一重磅产品替尔泊肽注射液在中国获批。   5月21日，礼来中国宣布，替尔泊肽注射液（商品名：穆峰达；英文名称：Tirzepatide）获得国家药监局（NMPA）批准上市。该药物是一种创新的每周一次的葡萄糖依赖性促胰岛素多肽（GIP）/胰高糖素样肽-1（GLP-1）受体激动剂，适用于在饮食控制和运动基础上，接受二甲双胍和/或磺脲类药物治疗血糖仍控制不佳的成人2型糖尿病患者。   据国际糖尿病联盟（IDF）统计，2021年全球成年糖尿病患者人数达到5.37亿，其中中国患者人数约占全球总数的1/4，约1.4亿人。CIC灼识咨询报告指出，2022年中国糖尿病市场规模已经达到624亿元，预计到2030年将增长至1323亿元。   替尔泊肽在华获批，不仅意味着逾1亿的中国糖尿病患者迎来新药，也意味着诺和诺德与礼来在GLP-1领域内的较量延伸至中国市场。就替尔泊肽在中国市场的商业上市日期及定价情况，礼来中国对时代财经表示，“预计2024年四季度商业上市，具体定价也将在上市时公布。”   礼来中国官方资料显示，替尔泊肽注射液能够选择性结合并激动GIP受体和GLP-1受体两种天然肠促胰素受体，降低2型糖尿病患者的空腹和餐后血糖水平，可能实现更高标准的综合达标：HbA1c（糖化血红蛋白）≤6.5%、体重下降≥10%、无有临床意义低血糖且无严重低血糖事件。穆峰达目前有包含2.5mg:0.5ml、5mg:0.5ml、7.5mg:0.5ml、10mg:0.5ml在内的4种规格。   礼来全球高级副总裁、礼来中国药物开发及医学事务中心负责人王莉博士对外表示，“近20年来，新的2型糖尿病治疗靶位丰富了我们的治疗手段，但对因治疗仍存在不足。全新类别的降糖药物穆峰达的获批代表着糖尿病研发领域的突破性进步。”   替尔泊肽是礼来在GLP-1领域的明星产品。2022年5月，替尔泊肽降糖版Mounjaro在美获批上市；2023年11月，替尔泊肽减肥版本Zepbound也获得美国食品药品监督管理局（FDA）批准上市。两种版本的替尔泊肽均在上市以后大卖。   财报显示，2024年一季度，替尔泊肽为礼来贡献了23.24亿美元的收入，占总营收的比重约为26%。其中，降糖版Mounjaro销量同比暴涨217%，达18.07亿美元；减肥版Zepbound上市不足5个月，一季度销售额已达5.17亿美元。   目前，在GLP-1领域，诺和诺德、礼来两家巨头占据全球大部分市场，双方在产能、适应证和市场规模等方面的竞争也愈发激烈。   作为近两年火爆全球的现象级大单品，诺和诺德的司美格鲁肽（商品名：诺和泰）已在中国获批治疗二型糖尿病；在美国市场，司美格鲁肽获批的剂型增至3款，分别是Ozempic（注射用降糖药），Wegovy（注射用减重药）和Rybelsus（口服降糖药）。   司美格鲁肽已然成为诺和诺德业绩增长的重要引擎。今年一季度，三款相关产品共计实现营收422亿丹麦克朗（折合当前汇率约60.81亿美元），支撑起了诺和诺德约2/3的营收。其中，注射用降糖药Ozempic销售额攀升至278.10亿丹麦克朗（折合当前汇率约40.07亿美元）；口服降糖产品Rybelsus销售额则售出50.13亿丹麦克朗（折合当前汇率约7.22亿美元），减肥版Wegovy销售额同比增长106%，达93.77亿丹麦克朗（折合当前汇率约13.51亿美元）。   诺和诺德方面曾在今年5月初告诉时代财经，“用于长期体重管理的每周注射一次的Wegovy（司美格鲁肽2.4mg注射液）已于去年5月在中国递交新药上市申请，期待于今年在中国获批。”   替尔泊肽紧随其后。公告显示，替尔泊肽用于成人肥胖和超重患者长期体重管理的新适应症上市申请也已于去年8月获得国家药监局受理。（文章来源：时代财经）                        ', 'gpt提取资讯,解读结果': '{\n"news":"5月21日，礼来中国宣布，替尔泊肽注射液（商品名：穆峰达；英文名称：Tirzepatide）获得国家药监局（NMPA）批准上市。该药物是一种创新的每周一次的葡萄糖依赖性促胰岛素多肽（GIP）/胰高糖素样肽-1（GLP-1）受体激动剂，适用于在饮食控制和运动基础上，接受二甲双胍和/或磺脲类药物治疗血糖仍控制不佳的成人2型糖尿病患者。",\n"analysis":null\n}'}, {'提取文章': '\n                            \n                                \n  5月21日，中国国家药监局（NMPA）官网最新公示，礼来公司递交的替尔泊肽（tirzepatide）注射液上市申请已获得批准。替尔泊肽是一款GIP/GLP-1受体双重激动剂，本次获批用于治疗成人2型糖尿病患者血糖控制。   替尔泊肽将两种肠促胰素——葡萄糖依赖性促胰岛素多肽（GIP）和胰高血糖素样肽-1（GLP-1）的作用整合到一个分子中，每周注射一次。   今年2月，礼来市值突破7000亿美元，甚至远远超过特斯拉市值。今年以来，该公司股价上涨近35%，截至发稿，礼来最新市值为7440亿美元，而特斯拉市值不到6000亿美元。   不过替尔泊肽目前在国内尚未获批减重适应证，去年11月，该药物减重适应证获得美国FDA批准。公开信息显示，去年8月，礼来替尔泊肽注射液减重适应证的国内上市申请获得NMPA受理。   根据礼来此前已公布的替尔泊肽针对肥胖或伴有至少一种合并症的超重中国成人受试者的数据，第52周时，替尔泊肽10mg组、15mg组平均体重自基线分别降低14.4%、19.9%，两组中减重超过5%的受试者比例均超过90%。   除了2型糖尿病和减重适应证，礼来还在临床研究中探索替尔泊肽治疗代谢功能障碍相关脂肪性肝炎（MASH）、阻塞性睡眠呼吸暂停和射血分数保留型心力衰竭（HFpEF）等的潜力。根据礼来此前公布的财报，替尔泊肽针对阻塞性睡眠呼吸暂停和HFpEF的两项3期临床研究有望在2024年获得结果，并支持递交监管申请。   据研究机构弗若斯特沙利文（Frost &amp; Sullivan）预测，2030年我国GLP-1类药物市场规模将超过500亿元。另据机构研报，截至2023年8月，国内共有106个GLP-1类减肥新药的临床试验项目，其中中国企业临床占比约40%。   今年1月26日，诺和诺德司美格鲁肽片（商品名“诺和忻”）获NMPA批准上市，用于治疗2型糖尿病，这是国内首个获批上市的口服GLP-1受体激动剂。   除了礼来和诺和诺德之外，包括安进、勃林格殷格翰在内的制药巨头也都在研发新一代的GLP-1类药物，并在努力开发多个适应证。在减重适应证方面，降低用药频率、实现更好的减重效果也成为GLP-1新一代药物研发聚焦的重点。（文章来源：第一财经）                        ', 'gpt提取资讯,解读结果': '{\n  "news": "5月21日，中国国家药监局（NMPA）官网最新公示，礼来公司递交的替尔泊肽（tirzepatide）注射液上市申请已获得批准。替尔泊肽是一款GIP/GLP-1受体双重激动剂，本次获批用于治疗成人2型糖尿病患者血糖控制。今年2月，礼来市值突破7000亿美元，甚至远远超过特斯拉市值。今年以来，该公司股价上涨近35%，截至发稿，礼来最新市值为7440亿美元，而特斯拉市值不到6000亿美元。去年来，替尔泊肽注射液减重适应证的国内上市申请获得NMPA受理。根据礼来此前公布的替尔泊肽针对肥胖或伴有至少一种合并症的超重中国成人受试者的数据，第52周时，替尔泊肽10mg组、15mg组平均体重自基线分别降低14.4%、19.9%，两组中减重超过5%的受试者比例均超过90%。根据礼来此前公布的财报，替尔泊肽针对阻塞性睡眠呼吸暂停和HFpEF的两项3期临床研究有望在2024年获得结果，并支持递交监管申请。",\n  "analysis": "据研究机构弗若斯特沙利文（Frost &amp; Sullivan）预测，2030年我国GLP-1类药物市场规模将超过500亿元。另据机构研报，截至2023年8月，国内共有106个GLP-1类减肥新药的临床试验项目，其中中国企业临床占比约40%。"\n}'}, {'提取文章': '\n                            \n                                \n  ①人工关节接续采购中选结果出炉，头部企业有望获取更多份额   据“国家医保局”微信公众号消息，近期，国家医保局组织全国各省份开展人工关节集采协议期满后接续采购，5月21日在天津开标。本次接续采购共有6000多家医院参加，填报需求量58万套，比首轮集采略有增加，其中髋关节28.6万套，膝关节29.4万套。与首轮集采结果相比，本次接续采购中选价格稳中有降，平均下降6%左右，实现了稳定集采成果、确保群众长期受益的目标。   天风证券指出，人工关节作为第二个国采高耗品种，续约提价的思路，延续了支架的续约采购，关节的渗透率还有较大提升空间，对于标外手术量，头部企业有望凭借优秀的研发销售能力以及完善的供货能力获取更多份额。   ②礼来降糖药国内获批，有相关布局的药企值得关注   5月21日，中国国家药监局（NMPA）官网最新公示，礼来公司递交的替尔泊肽（tirzepatide）注射液上市申请已获得批准。替尔泊肽是一款GIP/GLP-1受体双重激动剂，本次获批用于治疗成人2型糖尿病患者血糖控制。   方正证券指出，替尔泊肽是礼来在研的一款GLP-1R/GIPR双重激动剂，自上市以来放量速度远大于包括度拉糖肽等其他同领域上市产品。除已上市的替尔泊肽，全球进入临床阶段的GLP-1/GIP双靶点激动剂超过10余款。替尔泊肽进军新适应症且取得3期临床结果的成功展现了GLP1R/GIPR的潜力，建立关注布局GLP-1R/GIPR靶点药企。   ③数字中国建设2024年工作要点清单公布，关注制造业数字化转型领域   近日，国家数据局印发《数字中国建设2024年工作要点清单》，对2024年数字中国建设工作作出部署。其中提出，加快推动数字基础设施建设扩容提速，着力打通数据资源大循环堵点，深入推进数字经济创新发展，健全完善数字政府服务体系，促进数字文化丰富多元发展，构建普惠便捷的数字社会，加快推进数字生态文明建设，加强数字技术协同创新运用，稳步增强数字安全保障能力，不断完善数字领域治理生态，持续拓展数字领域国际合作交流空间。   中金公司称，制造业数字化转型是构建新质生产力的关键途径，近期政策频出加速新质生产力建设，利好赋能企业数字化转型的厂商。智能工厂、数字化车间等制造业数字化是发展新型生产要素的重要路径，对中小企业的定向支持有助于加速需求落地。（文章来源：第一财经）                        ', 'gpt提取资讯,解读结果': '{\n"news":"5月21日，中国国家药监局（NMPA）官网最新公示，礼来公司递交的替尔泊肽（tirzepatide）注射液上市申请已获得批准。替尔泊肽是一款GIP/GLP-1受体双重激动剂，本次获批用于治疗成人2型糖尿病患者血糖控制。",\n"analysis":"方正证券指出，替尔泊肽是礼来在研的一款GLP-1R/GIPR双重激动剂，自上市以来放量速度远大于包括度拉糖肽等其他同领域上市产品。除已上市的替尔泊肽，全球进入临床阶段的GLP-1/GIP双靶点激动剂超过10余款。替尔泊肽进军新适应症且取得3期临床结果的成功展现了GLP1R/GIPR的潜力，建立关注布局GLP-1R/GIPR靶点药企。"\n}'}, {'提取文章': '\n                            \n                                \n  每经AI快讯，据礼来官微消息，礼来中国宣布穆峰达®（替尔泊肽注射液）获得国家药品监督管理局（NMPA）批准。该药是一种创新的每周一次的葡萄糖依赖性促胰岛素多肽（GIP）/ 胰高糖素样肽-1（GLP-1）受体激动剂，适用于在饮食控制和运动基础上，接受二甲双胍和/或磺脲类药物治疗血糖仍控制不佳的成人2型糖尿病（简称：T2DM）患者。（文章来源：每日经济新闻）                        ', 'gpt提取资讯,解读结果': '{\n  "news": "每经AI快讯，据礼来官微消息，礼来中国宣布穆峰达®（替尔泊肽注射液）获得国家药品监督管理局（NMPA）批准。该药是一种创新的每周一次的葡萄糖依赖性促胰岛素多肽（GIP）/ 胰高糖素样肽-1（GLP-1）受体激动剂，适用于在饮食控制和运动基础上，接受二甲双胍和/或磺脲类药物治疗血糖仍控制不佳的成人2型糖尿病（简称：T2DM）患者。（文章来源：每日经济新闻）",\n  "analysis": null\n}'}, {'提取文章': '\n                            \n                                \n   礼来中国今日宣布，穆峰达（替尔泊肽注射液）获得国家药品监督管理局（NMPA）批准。该药是一种创新的每周一次的葡萄糖依赖性促胰岛素多肽（GIP）/ 胰高糖素样肽-1（GLP-1）受体激动剂，适用于在饮食控制和运动基础上，接受二甲双胍和/或磺脲类药物治疗血糖仍控制不佳的成人2型糖尿病患者。 （文章来源：财联社）                        ', 'gpt提取资讯,解读结果': '{\n"news":"礼来中国今日宣布，穆峰达（替尔泊肽注射液）获得国家药品监督管理局（NMPA）批准。该药是一种创新的每周一次的葡萄糖依赖性促胰岛素多肽（GIP）/ 胰高糖素样肽-1（GLP-1）受体激动剂，适用于在饮食控制和运动基础上，接受二甲双胍和/或磺脲类药物治疗血糖仍控制不佳的成人2型糖尿病患者。",\n"analysis":null\n}'}, {'提取文章': '\n                            \n                                \n  5月21日，礼来中国宣布穆峰达®（替尔泊肽注射液）获得国家药品监督管理局（NMPA）批准。该药是一种创新的每周一次的葡萄糖依赖性促胰岛素多肽（GIP）/ 胰高糖素样肽-1（GLP-1）受体激动剂，适用于在饮食控制和运动基础上，接受二甲双胍和/或磺脲类药物治疗血糖仍控制不佳的成人2型糖尿病患者。长期体重管理适应症在中国尚在审评中。（文章来源：界面新闻）                        ', 'gpt提取资讯,解读结果': '{\n"news":"5月21日，礼来中国宣布穆峰达®（替尔泊肽注射液）获得国家药品监督管理局（NMPA）批准。该药是一种创新的每周一次的葡萄糖依赖性促胰岛素多肽（GIP）/ 胰高糖素样肽-1（GLP-1）受体激动剂，适用于在饮食控制和运动基础上，接受二甲双胍和/或磺脲类药物治疗血糖仍控制不佳的成人2型糖尿病患者。长期体重管理适应症在中国尚在审评中。(文章来源：界面新闻)",\n"analysis":null\n}'}]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>5月21日，礼来中国宣布，替尔泊肽注射液（商品名：穆峰达；英文名称：Tirzepatide）获得国家药监局（NMPA）批准上市。该药物是一种创新的每周一次的葡萄糖依赖性促胰岛素多肽（GIP）/胰高糖素样肽-1（GLP-1）受体激动剂，适用于在饮食控制和运动基础上，接受二甲双胍和/或磺脲类药物治疗血糖仍控制不佳的成人2型糖尿病患者。</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>['据研究机构弗若斯特沙利文（Frost &amp; Sullivan）预测，2030年我国GLP-1类药物市场规模将超过500亿元。另据机构研报，截至2023年8月，国内共有106个GLP-1类减肥新药的临床试验项目，其中中国企业临床占比约40%。', '方正证券指出，替尔泊肽是礼来在研的一款GLP-1R/GIPR双重激动剂，自上市以来放量速度远大于包括度拉糖肽等其他同领域上市产品。除已上市的替尔泊肽，全球进入临床阶段的GLP-1/GIP双靶点激动剂超过10余款。替尔泊肽进军新适应症且取得3期临床结果的成功展现了GLP1R/GIPR的潜力，建立关注布局GLP-1R/GIPR靶点药企。']</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>[{'研报': '中药板块23年年报及24Q1季报总结：滞涨标的有望迎拐点，关注国企改革标的', 'gpt判断研报相关性': '{"相关性":false}'}, {'研报': '医药生物行业2023年及2024年一季度业绩综述：Q1板块盈利能力企稳，关注细分景气方向', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '医药行业创新药周报：2024年5月第一周创新药周报', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '医药生物行业周报：寒冬消逝，曙光已现', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '医药与健康护理行业月报：23年年报&amp;24年一季报总结与展望', 'gpt判断研报相关性': '{\n  "相关性": true\n}'}, {'研报': '医药生物板块2023年年报及2024年一季报总结：医药生物板块2024Q1业绩面临高基数基础上的增长压力，后续板块业绩有望逐季改善', 'gpt判断研报相关性': '{\n    "相关性": true\n}'}, {'研报': '医药年报一季报总结：24Q1是板块低点，年中有望整体反转', 'gpt判断研报相关性': '{\n    "相关性": true\n}'}, {'研报': '麻醉药品量价深度研究：场景不止手术室内，品种不止仿制跟随', 'gpt判断研报相关性': '{"相关性":false}'}, {'研报': '中国获得性血友病药物治疗行业市场规模测算逻辑模型 头豹词条报告系列', 'gpt判断研报相关性': '{"相关性":false}'}, {'研报': '公募基金医药板块2024Q1持仓分析：2024Q1医药持仓出现回调，医疗服务仓位下滑', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '医疗器械行业专题：再谈呼吸道检测：看好行业长期景气度', 'gpt判断研报相关性': '{\n    "相关性": true\n}'}, {'研报': '医疗器械行业行业研究：关节接续采购2号文件发布，价格标准设置合理', 'gpt判断研报相关性': '{\n  "相关性": true\n}'}, {'研报': '医药生物行业：利空出尽+宏观流动性预期改善，需加配医药', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '医药生物行业双周报：生物制造板块表现活跃', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '医药生物2023年报和2024一季报总结：底部拐点或已现，布局正当时', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '医药行业月报：重点板块23年年报回顾，建议近期关注合成生物学概念投资机会', 'gpt判断研报相关性': '{\n    "相关性": true\n}'}, {'研报': '医疗器械：人工关节续约采购量稳中有升，价格较为温和', 'gpt判断研报相关性': '{"相关性":false}'}, {'研报': '医药生物行业周报：GLP-1单品持续放量，多肽产业链高景气发展', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '医药生物年报一季报总结一季度整体平稳，关注出口、新药和药店', 'gpt判断研报相关性': '{\n  "相关性": true\n}'}, {'研报': '医药生物5月月报暨年报/一季报总结：影响出清，拐点在即；真空期兼顾基本面与主题', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '医药行业重点公司2023年年报/2024年一季报总结暨投资展望：分化态势延续，关注业绩确定性标的和拐点方向', 'gpt判断研报相关性': '{\n  "相关性": true\n}'}, {'研报': '医药行业周报：医药政策持续边际回暖，关注医药创新、设备更新和中医药', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '医药行业周报：拜耳Elinzanetant三期临床结果积极，用于治疗VMS', 'gpt判断研报相关性': '{\n  "相关性": true\n}'}, {'研报': '医药行业深度报告：终端市场恢复增长，围绕空间和格局优选品种', 'gpt判断研报相关性': '{"相关性":true}'}]</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>['医药生物']</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[{'研报公司': '东莞证券', '研报总结': '        \n                        \n            \n                        \n\n                              投资要点：\n\n                        \n\n                              2023年行业整体营收实现小幅增长，归母净利润同比有所下滑。2023年，SW（2021）医药生物行业实现营业总收入2.50万亿元，同比增长0.8%，增速同比下滑9个百分点；实现归属于母公司股东的净利润1,604.0亿元，同比下降20.1%，增速同比下滑14.3个百分点；实现扣非归母净利润1,338.7亿元，同比下滑26.3%，增速同比下滑37.1个百分点，归母净利润增速大幅下滑主要是因为去年行业反腐对行业公司净利润影响较大。\n\n                        \n\n                              多数细分板块2023年归母净利润同比有所下滑。2023年，医药生物行业三级细分板块中，收入端仅医疗研发外包、原料药、医疗耗材和诊断服务同比有所下滑，利润端仅其医院、其他生物制品中药和血液制品板块同比有所上升，其余细分板块同比均有所下滑。与上年同期增速相比，多数细分板块2023年收入增速和净利润增速均同比有所回落。\n\n                        \n\n                              2024Q1归母净利润增速同比有所回升。2024Q1，SW医药生物行业分别实现营业总收入和归母净利润6,373.2亿元和560.8亿元，分别同比增长-0.3%和3.9%，增速分别同比下降2.7个百分点和提升31.4个百分点；实现扣非归母净利润528.8亿元，同比提升8.7%，增速同比提升40.5个百分点。Q1归母净利润增速同比有所回升。\n\n                        \n\n                              多数细分板块2024Q1整体归母净利润增速同比有所回落。2024Q1，医药生物行业三级细分板块中，收入端仅线下药店、其他生物制品、化学制剂、其他医疗服务、医疗耗材、医院和医药流通同比有所上升，利润端仅化学制剂、其他生物制品、其他医疗服务和医疗耗材同比有所上升。与上年同期增速相比，收入端仅体外诊断、诊断服务、医疗耗材和其他生物制品增速同比有所提升，净利润端方面，其他生物制品、体外诊断、化学制剂、医疗耗材、原料药和其他医疗服务增速同比有所提升。\n\n                        \n\n                              投资策略：受医疗反腐影响，医药生物行业2023年增速有所回落，但整体营收还是实现了小幅增长，行业整体具有较强的增长韧性。随着医疗反腐影响边际减小，市场得到进一步规范化发展，2024Q1，行业归母净利润增速同比有所回升，板块盈利能力有所企稳。从整体估值上看，截至2024年5月7日，行业整体PE（TTM，整体法）约为40.66倍，相对沪深300整体PE倍数为3.45倍，目前行业整体估值处于相对低位。细分板块方面，目前国内公司经过多年研发投入，创新药公司陆续进入收获期，新药出海授权金额不断创新高。创新药作为新质生产力的重要代表，北京等各地不断出台政策支持创新药发展，创新药板块情绪有望迎来回暖。随着医疗反腐影响边际减小，受此影响较大的医疗服务和医疗器械板块有望迎来业绩改善。后续建议关注：创新药：恒瑞医药（600276）、贝达药业（300558）、百济神州-U（688235）等；医疗设备公司：迈瑞医疗（300760）、东富龙（300171）楚天科技（300358）、奕瑞科技（688301）、海泰新光（688677）等；CXO公司：药明康德（603259）、泰格医药（300347）、康龙化成（300759）、昭衍新药（603127）、凯莱英（002821）、博腾股份（300363）、九州药业（603456）美迪西（688202）等；医美龙头爱美客（300896）、华熙生物（688363）；连锁医疗龙头爱尔眼科（300015）；OK镜龙头欧普康视（300595）；政策友好的中药板块公司华润三九（000999）、同仁堂（600085）和片仔癀（600436等；业绩增速有望回升的零售药房：大参林（603233）、益丰药房（603939）老百姓（603883）、一心堂（002727）等。\n\n                        \n\n                              风险提示：疫情反复，行业政策不确定性，研发低于预期，行业竞争加剧风险，产品安全质量风险，降价风险等。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '西南证券', '研报总结': '        \n                        \n            \n                        \n\n                              A股和港股创新药板块及XBI指数本周走势\n\n                        \n\n                              2024年5月第1周，陆港两地创新药板块共计53个股上涨，9个股下跌。其中涨幅前三为乐普生物-B（+27.18%）、开拓药业-B(+26.04%)、基石药业-B(+22.22%)。跌幅前三为艾迪药业(-4.89%)、迈博药业-B(-4.82%)、嘉和生物-B(-2.34%)。\n\n                        \n\n                              本周A股创新药板块上涨1.28%，跑赢沪深300指数0.72pp，生物医药上涨1.42%。近6个月A股创新药累计下跌2%，跑输沪深300指数2.39pp，生物医药累计下跌12.42%。\n\n                        \n\n                              本周港股创新药板块上涨3.7%，跑输恒生指数0.97pp，恒生医疗保健上涨4.52%。近6个月港股创新药累计下跌6.71%，跑输恒生指数9.69pp，恒生医疗保健累计下跌10.67%。\n\n                        \n\n                              本周XBI指数上涨5.25%，近6个月XBI指数累计上涨11.84%。\n\n                        \n\n                              国内重点创新药进展\n\n                        \n\n                              5月国内5款新药获批上市，4项新增适应症获批上市；本周国内5款新药获批上市，4款新增适应症获批上市。\n\n                        \n\n                              海外重点创新药进展\n\n                        \n\n                              5月美国1款NDA获批上市，0款BLA获批上市。本周美国1款NDA获批上市，0款BLA获批上市。5月欧洲0款创新药获批上市，本周欧洲无新药获批上市。5月日本0款创新药获批上市，本周日本0款新药获批上市。\n\n                        \n\n                              本周全球重点创新药交易进展\n\n                        \n\n                              本周全球共达成4起重点交易，披露金额的重点交易有2起。安斯泰来与PoseidaTherapeutics达成研究合作和许可协议，共同开发肿瘤学领域的新型同种异体细胞疗法。耳和Evotec合作推进精准心脏病学。Mosaic ImmunoEngineering同意从Oncotelic Therapeutics收购临床坏死性凋亡癌症治疗资产。Repertoire？Immune Medicines与百时美施贵宝宣布开展多年战略合作，共同开发自身免疫性疾病耐受性疫苗。\n\n                        \n\n                              风险提示：药品降价风险;医改政策执行进度低于预期风险;研发失败的风险。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '上海证券', '研报总结': '        \n                        \n            \n                        \n\n                              主要观点\n\n                        \n\n                              2023&amp;2024Q1行情回顾：2023全年A股SW医药生物指数下跌7.05%，板块整体跑赢沪深300指数4.33pct；在二级子行业中，涨幅最大的是化学制药板块，上涨1.29%；跌幅最大的是医疗服务板块，下跌24.46%。2024Q1A股SW医药生物指数下跌12.08%，板块整体跑输沪深300指数15.18pct；在二级子行业中，跌幅最小的是中药板块，下跌3.16%；跌幅最大的仍是医疗服务板块，下跌23.86%。收入稳健，利润承压；研发费用增速显著，激活源头创新。2023年，在国际地缘政治复杂化、行业竞争加剧、医药研发、医疗保障等政策持续调整的大环境下，A股SW医药生物上市公司整体实现营业收入24,958.80亿元，同比增长1.71%；归母净利润1,581.74亿元，同比下降16.79%。销售毛利率为33.04%，同比下降0.26pct；净利率为6.71%，同比下降1.88pct；研发费用同比增长54.51%。2024Q1A股SW医药生物上市公司整体实现营业收入6,359.39亿元，归母净利润559.77亿元，同比分别下降0.84%和11.39%，环比分别增长2.61%及745.56%。销售毛利率为32.38%，同比增长0.21pct；净利率为9.32%，同比下降0.27pct，但环比提升8.69pct，盈利能力明显改善；研发费用同比增长31.62%。\n\n                        \n\n                              板块表现持续分化，医药商业及中药业绩坚挺。2023年，营收同比增速前三的二级子板块依次分别为生物制品（+9.86%）、医药商业（+7.77%）、中药（+6.03%）；归母净利润同比增速前三分别为中药（+33.94%）、医药商业（-0.89%）、生物制品（-7.48%）。2024Q1营收同比增速前三的二级子板块依次分别为医药商业（+1.27%）、化学制药（-0.28%）、中药（-0.65%）；归母净利润同比增速前三分别为化学制药（+5.07%）、医药商业（-1.78%）、中药（-8.10%）。\n\n                        \n\n                              注重新质生产力，“生物制造”前景广阔。据央视网消息，生物制造是一种全新的生产技术，融合了生物学、化学、工程学等多种技术，具有清洁、高效、可再生等特点，有可能在能源、农业、化工和医药等领域改变世界工业格局。生物技术已被我国定为战略性新兴产业，为此我国制定了多项政策措施；2022年《“十四五”生物经济发展规划》的印发标志着我国首部生物经济五年规划正式出台。工业和信息化部赛迪研究院党委书记、副院长刘文强：“下一步，国家将从政策、企业和产业层面加强一系列部署来推动生物制造产业的发展。在政策方面，国家有关部门正在研究制定国家层面的生物制造顶层规划文件，在产业方面，国家有关部门将加大中央财政资金投入，分领域、分区域布局一批生物制造公司平台；在企业方面，国家有关部门将支持企业加强核心工业菌种、关键酶制剂创新研发，提升自主创新能力，推动创新成果不断涌现。”\n\n                        \n\n                              投资建议\n\n                        \n\n                              2023年生物医药板块估值仍处于历史相对低位，叠加医保政策持续优化，老龄化趋势加剧等因素，我们认为医药生物长期向好趋势不变。建议关注康方生物、艾力斯、科伦博泰、迈威生物、智翔金泰、康诺亚、和黄医药、信达生物、百济神州等。\n\n                        \n\n                              风险提示\n\n                        \n\n                              药品/耗材降价风险；行业政策变动风险等；市场竞争加剧风险等。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '海通国际', '研报总结': '        \n                        \n            \n                        \n\n                              2023年医药制造业收入增速-13.42%，利润总额增速-19.02%。据国家统计局，2023年规模以上医药制造业主营业务收入25205.7亿元，同比下降13.42%，增速低于全国工业整体收入增速10.17个百分点。同期医药制造业利润总额3473亿元，同比下降19.02%，增速低于全国工业整体利润增速10.48个百分点。2022年医药制造业收入29111.4亿元，利润4288.7亿元。我们认为2023年医药制造业收入、利润增速放缓主要系以下原因：1）疫情防控相关产品销售锐减；2）医药出口下降明显；3）受集采、竞争加剧、项目减少等因素影响，药品、耗材、原料药、CRO/CDMO等大量医药产品价格呈下降态势。\n\n                        \n\n                              2024年1季度医药板块上市公司收入利润向好。医药板块上市公司2024年1季度营业收入同比增长0.28%，较2023年同期的1.96%下降了1.68pcts；2024年1季度归母净利润同比减少0.38%，较2023年同期的-27.76%提高了27.39pcts。\n\n                        \n\n                              海通医药4月组合跑赢指数0.3个百分点。2023年4月月度组合：微芯生物、博雅生物、益丰药房、济川药业、新产业、恒瑞医药、药明康德、智飞生物（排名不分先后）。4月组合至今平均上涨3.3%，同期全指医药上涨3.1%，组合跑赢医药指数0.3%，其中月度组合涨跌幅排名前三的依次是微芯生物(16.0%)、博雅生物(10.6%)、益丰药房(10.3%)。\n\n                        \n\n                              海通医药2023年5月A股组合为：智飞生物、微芯生物、通策医疗、国药股份、药明康德、英诺特、万孚生物、美年健康（排名不分先后）。港股建议关注：信达生物、科伦博泰生物、中国生物制药、海吉亚医疗、固生堂、时代天使、华润医药、泰格医药（排名不分先后）。\n\n                        \n\n                              风险提示：医保控费加剧风险，政策推进不达预期风险、估值波动风险、市场波动风险。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '中银证券', '研报总结': '        \n                        \n            \n                        \n\n                              医药生物板块2023年业绩增长呈现“先高后低”态势，2024年一季度业绩在高基数基础上面临一定增长压力。在持仓方面，医药生物板块占比也处于近年低位水平。医药生物板块伴随“医药反腐”影响消退和基数压力消化，后续业绩增速有望逐季改善，国内政策支持及创新药出海前景均值得期待。\n\n                        \n\n                              支撑评级的要点\n\n                        \n\n                              医药生物板块2023年业绩增长呈现“先高后低”态势，2024一季度业绩在高基数基础上面临增长压力。医药生物板块2023年营业收入同比增速中位数为3.20%，归母净利润增速中位数为1.09%。板块在2023年受到了“医药反腐”相关因素的扰动，2023年四季度医药生物板块营业收入同比增速中位数为0.25%，归母净利润同比增速中位数为-5.59%。2024年一季度医药生物板块业绩面临一定的高基数增长压力，且仍然存在一些“医药反腐”相关因素的扰动。2024年一季度医药生物板块营业收入同比增速中位数为1.06%，归母净利润同比增速中位数为2.07%。\n\n                        \n\n                              2024年一季度末医药生物板块持仓处于近年低位。医药生物板块2024年一季度末在普通股票基金持仓中的占比为11.51%，与2023年年末相比降低了2.71个百分点，与2020年6月30日高点相比下降了6.52个百分点，处于近年低位水平。\n\n                        \n\n                              医药生物板块2024年后续业绩增速有实现逐季改善，国内政策支持及创新药出海前景均值得期待。“医药反腐”相关因素的影响正在逐步褪去，且2023年下半年医药生物板块业绩增速较低，业绩基数压力较小，2024年医药板块业绩有望呈现“先低后高”逐步加速的态势。在国内政策方面，2024年“创新药”一词首次进入政府工作报告，医药全产业链创新支持有望逐步落地，从研发、审批、进院、支付对创新药进行全产业链支持。而在出海方面，根据药智数据，在2024年1月-2月中旬期间共有20个license-out项目成功签订，涉及交易金额超100亿美元，达到历史最高点。\n\n                        \n\n                              投资建议\n\n                        \n\n                              二季度开始医药板块业绩增长有望逐季加速，创新药全产业链支持有望逐步落地，建议逐步增加医药板块配置。\n\n                        \n\n                              我们建议关注创新药及创新器械的投资机会，具体而言：创新药领域，我们建议关注24年销售进入放量阶段的公司。创新器械领域，我们建议关注满足临床需求且进入销售放量阶段的创新产品。\n\n                        \n\n                              评级面临的主要风险\n\n                        \n\n                              集采政策实施力度超预期的风险，企业研发不及预期风险，与投资相关的风险，产品销售不及预期风险。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '国金证券', '研报总结': '        \n                        \n            \n                        \n\n                              板块总结及投资逻辑\n\n                        \n\n                              23年前高后低，24Q1是板块低点：从业绩角度分析，2023年医药板块整体增长可观，尤其是上半年表现亮眼；三季度以后由于院内秩序的整顿以及部分集采陆续落地的影响，增长有所回落；2024年一季度医药板块整体业绩和行情表现相对低迷，我们认为这一方面有去年相对高基数的原因，另一方面也由于院内秩序整顿和整体消费环境的变化，导致整体院内和消费需求复苏迟于预期。\n\n                        \n\n                              下半年是低基数，压力因素出清，年中反转是必然：考虑到公共卫生事件影响已经结束，集采的覆盖范围和落地预期管理愈加充分，且院内秩序整顿趋于稳定，诊疗活动和药品器械使用正在逐步恢复，院外消费医疗经营节奏日渐稳定，我们有充分信心，2024年二季度，医药主要子板块增长将逐步恢复，而进入三季度和四季度后考虑去年低基数，增速将进一步提升。\n\n                        \n\n                              同时资金面角度观测，2024年Q1全行业基金对医药再度减配，剔除医药主题基金的医药持仓比例接近前期低点。考虑2024年医药板块正处于政策面、资金面和基本面的底部，拐点逻辑清晰，我们预计2024年二季度到三季度医药将迎来行情整体转换，由防守转入进攻，成长性较好的板块（如创新药、优质医疗器械以及部分性价比突出的仿创药等）将进一步受到市场重视，而同时防守性板块中性价比较高的优质品种（如优质中药龙头，优质连锁药房、触底回升的原料药品种等）也仍将得到市场配置，从总体来看，医药板块的整体配置比例有望触底回升。\n\n                        \n\n                              药品板块：Q1表现比其他板块更好，出海与创新单品进展构建催化剂\n\n                        \n\n                              中药板块：Q1高基数下业绩增速放缓，全年有望呈现逐季好转\n\n                        \n\n                              药店：表现分化龙头增长确定性更高，门店扩张+处方外流仍利好头部\n\n                        \n\n                              医疗器械：板块需求增长稳定，医疗设备更新需求有望释放\n\n                        \n\n                              生物制品：细分赛道表现分化，把握大单品高成长红利。\n\n                        \n\n                              医疗服务：龙头业绩彰显韧性，Q2有望加速复苏\n\n                        \n\n                              医美板块：盈利能力逐步改善，看好新品落地贡献业绩增量\n\n                        \n\n                              上游供应制造：需求端景气度待修复，关注设备更新和国产仪器替代\n\n                        \n\n                              投资建议\n\n                        \n\n                              总的来看，医药板块2023年增长前高后低，2024年一季度更是阶段性的板块景气度低点、资金配置低点和市场关注度低点。但是通过对这一变化的背后主要原因进行分析，我们能清楚地看到相关不利因素的影响在2024年二季度及以后将很快消除，基本面改善叠加2023年下半年低基数带来的同比提速将共同点燃增配医药板块的投资热情。我们建议重点加配医药板块布局，把握下半年业绩估值齐升机会。同时在风格上可以适当向进攻风格偏移，加配成长和创新板块。建议重点布局院内药品器械复苏、创新药出海，同时优质中药和连锁药房的确定性价值依然值得重视。重点标的：迈瑞医疗、恒瑞医药、特宝生物、益丰药房、太极集团等。\n\n                        \n\n                              风险提示\n\n                        \n\n                              汇兑风险；国内外政策波动性风险；投融资周期波动风险；并购整合不及预期风险；\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '华安证券', '研报总结': '        \n                        \n            \n                        \n\n                              核心观点\n\n                        \n\n                              2024Q1，全部公募基金对医药板块的持仓出现回调。2024Q1，全部公募基金重仓持股中，医药股持仓占比为10.97%，环比下降2.6个百分点。全公募基金重仓持股中，对医药生物行业的持仓占比于2020Q2出现最高位为18.23%，2024年一季度，全公募基金的医药仓位开始回调。\n\n                        \n\n                              从全公募基金重仓持股的医药二级行业仓位来看，医疗服务行业持仓下滑显著，化学制药、医药商业持仓较稳。\n\n                        \n\n                              2024Q1，全公募基金重仓持股的医药二级子行业的持仓占比为：医疗器械3.22%（环比-0.40pct）、化学制药3.05%（环比-0.01pct）、医疗服务1.79%（环比-1.44pct）、生物制品1.55%（环比-0.67pct）、中药1.00%（环比-0.07pct）、医药商业0.35%（环比-0.01pct）。\n\n                        \n\n                              从全公募基金重仓个股来看，恒瑞医药、迈瑞医疗的持股总市值保持领先，东阿阿胶备受关注。2024Q1公募基金重仓医药个股持股总市值排名前十的医药股为：恒瑞医药（428.75亿元）、迈瑞医疗（397.23亿元）、药明康德（130.91亿元）、爱尔眼科（105.77亿元）、联影医疗（105.50亿元）、智飞生物（91.11亿元）、科伦药业（71.13亿元）、惠泰医疗（65.17亿元）、泰格医药（60.53亿元）、东阿阿胶（56.69亿元）。\n\n                        \n\n                              风险提示：全球地缘政治因素影响；行业增长不稳定的风险；政策变化带来的不确定性；其他可能影响行业正常发展的事件。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '国投证券', '研报总结': '        \n                        \n            \n                        \n\n                              行业短期：2024年第一季度国内呼吸道感染延续高发态势\n\n                        \n\n                              我们建议通过国家流感中心周度发布的ILI样本量及ILI%跟踪近期呼吸道感染疾病的流行情况，其发布频率高、发布机构权威、覆盖了大多数临床常见的呼吸道疾病。从数字来看，2024年一季度国内呼吸道感染仍然高发，同时流行程度随时间波动的趋势回归常态。\n\n                        \n\n                              行业中期：“淡旺季”分布呈“四六开”规律，全年景气度有望延续\n\n                        \n\n                              过去十年间（排除新冠疫情影响明显的2020-2022年），流感监测网络实验室检测的流感样病例标本数量在不同时间的分布有着较为明显的规律性，各季度检测量从多到少分别为Q4、Q1、Q2、Q3，进一步地，Q1+Q4合计检测量大约占全年的60%、Q2+Q3合计检测量大约占全年的40%。企业层面，疫情前的2018、2019年，英诺特的非新冠产品销售收入同样在Q1+Q4、Q2+Q3呈现了“六四开”的分布，与行业长期规律一致。\n\n                        \n\n                              2024Q1的累计标本数是14.29万份，假设今年Q1的占比与非疫情年份的平均水平一致，则可粗略预测2024全年哨点医院实验室检测的流感样病例标本数为51.02万份（14.29/28.01%=51.02），与2023年（55.47万份）处在同一数量级，且显著高出往年。\n\n                        \n\n                              行业长期：精准诊疗渗透率的提升是行业持续发展的主要驱动力，看好呼吸道检测长期景气度\n\n                        \n\n                              2023年呼吸道感染高发明显，但排除2022-2023年的断层提升，从更长的时间维度看2023年ILI的增长并没有大幅偏离其原本的发展轨迹。经过对龙头企业业绩增长因素的拆解，我们判断呼吸道病原体检测渗透率的大幅提升是行业增长的首要因素，其背后是医生群体临床意识和开单习惯的根本改变、国家政策的明确支持、患者认知的普遍提升，均具备长期性，叠加同样得到的延续的呼吸道感染高发态势，我们认为呼吸道病原体检测行业增长具备长期可持续性。\n\n                        \n\n                              海外观察：海外呼吸道病原体检测市场在需求和供给层面均表现出了和国内较为类似的发展趋势\n\n                        \n\n                              需求层面，2022年，也即“疫后第一年”，美国呼吸道感染高发明显，但排除2021-2022年的断层提升，从更长的时间维度看2022年ILI的增长并没有大幅偏离其原本的发展轨迹。进入“疫后第三年”，2024年一季度美国ILI上报数再创新高。\n\n                        \n\n                              供给层面，罗氏、雅培、丹纳赫等体外诊断领域的国际巨头纷纷在分子/分子POCT/胶体金平台上推进联检产品的注册与销售，呼吸道病原体检测的联检、快检趋势十分明显。\n\n                        \n\n                              建议关注标的：\n\n                        \n\n                              英诺特：呼吸道胶体金检测龙头，医院覆盖率提升拉动业绩高增，东南亚业务拓展值得期待。\n\n                        \n\n                              圣湘生物：打造完整呼吸道病原体检测生态，长期耕耘迎来丰收，实践证明了能在激烈竞争中占据主导市场地位。\n\n                        \n\n                              万孚生物：POCT龙头，甲乙流和肺支检测产品快速放量，美国市场业务有望贡献增量。\n\n                        \n\n                              风险提示：呼吸道诊疗需求不及预期的风险、假设及预测不及预期的风险、行业竞争进一步加剧的风险、产品获批进度不及预期的风险、合规及政策相关风险。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '国金证券', '研报总结': '        \n                        \n            \n                        \n\n                              事件\n\n                        \n\n                              2024年4月30日，国家组织高值医用耗材联合采购办公室发布《人工关节集中带量采购协议期满接续采购公告（第2号）》，针对初次置换人工髋关节、初次置换人工膝关节产品接续采购，含增材制造技术（3D打印）类产品，定制化增材制造技术产品科自愿参加，接续采购周期为3年，拟中选结果将在5月21日确定。\n\n                        \n\n                              点评\n\n                        \n\n                              设置复活中选规则，价格标准合理温和。根据文件的规则描述，除按照价格由低到高的排名中选外，若企业产品竞价比价格不高于文件设置的复活价格线，也同样能获得中选资格，获得的协议采购量比例为65%（针对履约良好企业）。复活价格线设置为：陶瓷-陶瓷类髋关节系统7987元、陶瓷-聚乙烯类髋关节系统7117元、合金-聚乙烯类髋关节系统5910元、膝关节产品系统5434元，4个产品类别的价格设置均高于此前首次带量采购中标的最低价格，预计企业依然能保持合理的盈利空间，也符合此前提到的“促进更多价格低于一定水平的企业中选，增强预期稳定性”的目标。国产企业报量份额显著提升，替代趋势有望延续。从此次接续采购医疗机构报送的各产品系统采购需求量来看，髋关节产品系统年度采购需求量285995个（其中陶瓷-陶瓷类102264个、陶瓷聚乙烯类173303个、合金-聚乙烯类10428个），膝关节产品年度采购需求量295567个。天津正天、爱康医疗、春立医疗、威高骨科等企业报量在各类别中名列前茅，相比首次关节带量采购报量份额有显著提升，未来有望继续凭借产品技术及制造成本等优势扩大份额，国产头部企业替代进口的趋势还将延续。\n\n                        \n\n                              投资建议\n\n                        \n\n                              此次人工关节集中带量采购协议期满接续采购落地后，行业产品价格预期有望稳定，不同企业价格差异或将缩小，未来行业集中度将进一步提升，并且将更加有利于国产替代趋势。未来高值耗材领域医保控费工作常态化进行的过程中，将充分考虑厂商生产和供应的积极性，医疗器械板块政策情绪有望逐步触底回升。建议关注院内品牌力领先且生产供应能力较强的头部企业。\n\n                        \n\n                              重点公司：爱康医疗、春立医疗、威高骨科、大博医疗等\n\n                        \n\n                              风险提示\n\n                        \n\n                              中标产品供应风险；医疗机构落实采购量低于预期风险；中标产品质量风险；产品成本上升风险。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '华福证券', '研报总结': '        \n                        \n            \n                        \n\n                              投资要点：\n\n                        \n\n                              行情回顾：本周（4.29-4.30）中信医药生物板块指数上升2.6%，跑赢沪深300指数2.0pct，一级分类中排名第4位；2024年初至今中信医药生物板块指数下跌9.5%，跑输沪深300指数14.6pct，在中信行业分类中排名第25位。本周涨幅前五的个股为溢多利（+38.63%）、川宁生物（+34.49%）、富士莱（+25.40%）、富祥药业（+18.95%）、圣达生物（+17.97%）。\n\n                        \n\n                              医药板块Q1高基数已过，后续逐季好转。医药估值处于底部位置，Q1公募医药持仓环比下降，处于低位。宏观层面：1）医药制造业累计收入利润承压下行；2）医疗健康产业投融资静待回暖；3）重磅支持政策频出提振行业：再贷款、设备更新行动方案等有望激发医疗机构采购需求。创新药全链条利好，审批加速+资金支持。子板块总结：2023年收入端增速较快的三个板块为医疗服务（+25%）、血制品（+16%）和医疗耗材（+11%）；归母净利润增速较快的三个板块为医疗服务（+174%）、中药（+46%）和\n\n                        \n\n                              血制品（+9%）；2024Q1：收入增速较快的三个细分板块为零售药店（+11%）、医疗服务（+6%）和医疗耗材（+5%）；归母净利润增速较快的三个细分板块为化学制药（+4%）、原料药（+4%）和血制品（+3%）。\n\n                        \n\n                              市场总结及投资思考：节前A股交易2天，H股交易4天，医药均取得亮眼表现。A股医药中合成生物学主题相关个股表现强势，H股则在美国4月非农就业低于预期，引发市场对年内降息预期重新升温，以及4月30日政治局会议提出要灵活运用利率和存款准备金率等政策工具，降低社会综合融资成本的催化下，近两周表现极为亮眼，其中港股创新药表现突出。随着年报及一季报披露完毕，医药板块属于“利空出尽”，在业绩真空期和宏观流动性预期改善下，创新药或成当前医药行情的矛，我们延续之前的投资思路，当前推荐创新药并积极关注国企改革方向。考虑到医药基本面逐季向好和年初至今大幅跑输大盘，我们认为医药需要加大配置，医药仓位高低或决定全基超额收益来源。\n\n                        \n\n                              中短期配置思路：四条主题（建议关注标的详见正文）：1）主线-创新药械：符合国家新质生产力方向，预计有持续政策催化且部分公司进入商业化兑现放量阶段。2）主题-国企改革：新国九条下国企确定性高，国资委对上市公司经营及市值提高要求，重点国药系，如中药业绩好，血制品有整合；3）主线-医疗设备：反腐影响接近尾声且股价调整充分，关注\n\n                        \n\n                              Q2招标情况，Q3同比加速，可提前布局；4）主线-原料药：板块底部调整充分，部分产品已涨价，短期业绩不错，行业大的拐点预计下半年更明确，可提前布局。\n\n                        \n\n                              本周建议关注组合：太极集团、国药现代、恒瑞医药、新诺威、科伦药业、信立泰、兴齐眼药、微芯生物。\n\n                        \n\n                              五月建议关注组合：太极集团、国药现代、新诺威、微芯生物、恩华药业、人福医药、亿帆医药、迈普医学。\n\n                        \n\n                              风险提示：行业需求不及预期；公司业绩不及预期；市场竞争加剧风险。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '东莞证券', '研报总结': '        \n                        \n            \n                        \n\n                              投资要点：\n\n                        \n\n                              SW医药生物行业跑赢同期沪深300指数。2024年4月22日-2024年5月5日，SW医药生物行业上涨7.03%，跑赢同期沪深300指数约5.25个百分点。SW医药生物行业三级细分板块中，多数细分板块均录得正收益，其中化学制剂和医疗设备板块涨幅居前，分别上涨10.33%和9.92%；疫苗板块跌幅居前，下跌0.61%。\n\n                        \n\n                              行业新闻。4月28日，河南省医保局发布《关于公开征求&lt;关于开展部分集中带量采购协议期满医用耗材接续采购的通知（征求意见稿）&gt;意见的公告》。纳入此次接续采购的共有五大集采项目。《征求意见稿》显示，本次接续采购品种包括：留置针、预充式导管冲洗器、留置针贴、无针输液接头、输液器、吸氧装置(一次性使用一体式吸氧管)、气管插管、止血材料、防粘连材料、脑(脊)膜材料、管型/端端吻合器、痔吻合器。\n\n                        \n\n                              维持对行业的超配评级。近期，医药生物板块有所回暖，大幅跑赢同期沪深300指数，此前调整幅度较大的化学制剂和医疗设备板块涨幅居前近期，中国工程院院士谭天伟表示国家层面有望在近期出台生物制造产业行动计划，合成生物学板块个股表现活跃，生物制造是新质生产力非常重要的新赛道和新业态，后续建议关注合成生物学板块投资机会。关注板块包括医疗设备：迈瑞医疗（300760）、联影医疗（688271）、澳华内镜（688212）、海泰新光（688677）、开立医疗（300633）、键凯科技（688356）、欧普康视（300595）；医药商业：益丰药房（603939）大参林（603233）、一心堂（002727）、老百姓（603883）等；医美：爱美客（300896）、华东医药（000963）等；科学服务：诺唯赞（688105）百普赛斯（301080）、优宁维（301166）；医院及诊断服务：爱尔眼科（300015）、通策医疗（600763）、金域医学（603882）等；中药：华润三九（000999）、同仁堂（600085）、以岭药业（002603）；创新药：恒瑞医药（600276）、贝达药业（300558）、华东医药（000963）等；生物制品：智飞生物（300122）、沃森生物（300142）、华兰疫苗（301207）等；CXO：药明康德（603259）、凯莱英（002821）、泰格医药（300347）昭衍新药（603127）等。\n\n                        \n\n                              风险提示：新冠疫情持续反复，行业竞争加剧，产品降价，产品安全质量风险，政策风险，研发进度低于预期等。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '华源证券', '研报总结': '        \n                        \n            \n                        \n\n                              一、二级市场表现：\r\n\n                        \n\n                              医药深度回调，目前处于底部。2023年初至今医药指数波动较大，整体处于震荡向下趋势，2023年指数全年下跌约7%，2023年至今更是下跌超过16%，2024年至今指数下跌约9%，其中23Q3回调幅度较大，24Q1指数大幅波动。从历史水平看，医药板块目前动态估值为27倍（TTM），处于近十年的底部位置。\r\n\n                        \n\n                              细分子版块：中药和化学制剂板块表现较好。生物医药各子版块来看，2023年初至今（2024年4月30日），中药和化学制剂板块回调较小，涨跌幅分别为-0.7%和0.34%；医疗服务和生物制品板块回调较多，涨跌幅分别为-45.1%和-23.4%。估值方面，目前化学制剂板块估值相对较高，达到37倍PE，化学原料、医疗器械和中药估值也在30倍PE上下，医疗服务、生物制品和医药商业估值相对较低。\r\n\n                        \n\n                              二、资产配置：\r\n\n                        \n\n                              公募基金医药季度持仓快速变动，2024Q1持仓比例处于低位。配置方面，2023年医药受政策影响较大，2023Q1至2024Q1季度间医药持仓比例波动显著，持仓分布亦有较大变化。截至2024Q1，A股医药公司总市值为6.14万亿元，占A股总市值7.0%医药行业，整体市值处于历史低位水平，公募基金的医药重仓合计市值为3728亿元，占公募基金总重仓占比11.0%，环比减少2.6pct，剔除医药基金，公募基金医药持仓比例7.9%，环比减少2.2pct，处于历史较低位置。2024Q1公募基金持仓增加的前五大个股分别是：东阿阿胶、科伦药业、恒瑞医药、鱼跃医疗、惠泰医疗。公募持股市值减少前五大个股：药明康德、智飞生物、药明生物、爱尔眼科、同仁堂。\r\n\n                        \n\n                              三、医疗活动及医保情况：\r\n\n                        \n\n                              2023年诊疗人次复苏显著。截止2023年8月，全国诊疗人次累计达到27.5亿人次（2022年同期为26.7亿人次），全国出院人次累计达到1.6亿人次（2022年同期为1.4亿人次），随着疫情后医疗需求复苏，2023年医疗活动相比2022年显著提高。\r\n\n                        \n\n                              医保结余持续增长：2023年，医保总收入、总支出分别为33355.16亿元、28140.33亿元，增速分别为7.9%和14.4%，2023年医疗活动明显复苏，医保支出增速大于收入增速，为近四年来首次支出增速大于收入增速，但从绝对额看医保收入依然高出支出较多，预计2023年医保结余仍然有所增长。\r\n\n                        \n\n                              四、宏观数据：\r\n\n                        \n\n                              行业数据：2023年，中国医药制造业累计收入达2.25万亿，同比下降3.2%；医药制造业累计利润为3473亿元，同比下降19.0%，我们判断下半年医药行业反腐有一定影响。2024Q1中国医药制造业累计收入达0.61万亿，同比下降9.8%；医药制造业累计利润为823亿元，同比下降7.8%。\r\n\n                        \n\n                              上市公司数据：2023年458家医药公司实现营收2.5万亿元，同比增长0.8%，共实现归母净利润1616.9亿元，同比下降21.7%；2024Q1实现营收6314.9亿元，同比下降0.1%，实现归母净利润560.3亿元，同比增长4.0%。\r\n\n                        \n\n                              细分赛道：分化显著，创新药+中药+血制品表现较好\r\n\n                        \n\n                              创新药：国内创新药企业已大面积走过研发周期，正逐渐迈入商业化周期。A股中有产品商业化的Biotech2023年收入端表现较好，已有部分企业突破盈亏平衡点，业绩实现了非线性快速释放。\r\n\n                        \n\n                              中药：2023年营收365.6亿元，同比增长6.1%，归母净利润360.9亿元，同比增长24.3%；2024Q1营收996.2亿元，同比下滑0.8%，归母净利润128.1亿元，较去年同期高基数下滑8.2%，其中清热解毒类品种和国企改革类公司表现较为亮眼。\r\n\n                        \n\n                              医疗器械：2023年营收2238亿元，同比下滑28.6%，归母净利润359.7亿元，同比下滑55%；2024Q1营收557.4亿元，同比下滑1.8%，归母净利润101.4亿元，同比下滑5.3%，较过去4个单季度的大幅下滑有显著收窄。\r\n\n                        \n\n                              生物制品：2023年营收1512.0亿元，同比增长10.7%，归母净利润252.1亿元，同比下滑6.2%，其中血制品营收255.6亿元，同比增长16.3%，归母净利润54.1亿元，同比增长10.6%，终端需求旺盛推动行业高景气；2024Q1营收314.5亿元，同比下滑5.4%，归母净利润53.9亿元，同比下滑29.1%，\r\n\n                        \n\n                              化药：2023年营收3961.1亿元，同比增长0.2%，归母净利润282.2亿元，同比下降8.8%；2024Q1营收1024.8亿元，同比下降0.8%，归母净利润107.8亿元，同比增长4.7%。\r\n\n                        \n\n                              原料药：2023年营收1087.4亿元，同比下降3.6%，归母净利润82.2亿元，同比下降36%，2024Q1营收290.3亿元，同比增长0.2%，归母净利润29.9亿元，同比下降4%。\r\n\n                        \n\n                              医药商业：2023年营收1.02万亿元，同比增长7.9%，归母净利润184.1亿元，同比下滑0.9%，其中药店收入1108.3亿，同比增长10.8%，归母净利润48.1亿元，同比下降3.7%。2024Q1实现营收2635.9亿元，同比增长1.2%，实现归母净利润58.3亿元，同比下降1.8%。\r\n\n                        \n\n                              医疗服务：2023年营收792.8亿元，同比下滑4.8%，归母净利润58.9亿元，同比下滑0.9%，其中眼科营收293.6亿元，同比增长28.8%，归母净利润43.7亿元，同比增长45%。2024Q1营收182.5亿元，同比下滑1.4%，归母净利润9.5亿元，同比下滑36.23%，其眼科营收73.3亿元，同比增长2.9%，归母净利润10.8亿元，同比下滑5.3%。\r\n\n                        \n\n                              CXO&amp;科研服务产业链：2023年CXO营收909.4亿元，同比下滑1.9%，归母净利润175.2亿元，同比下滑18.8%，科研服务产业链营收96.2亿元，同比下滑20.1%，归母净利润10.7亿元，同比下滑59.2%。2024Q1CXO营收191.4亿元，同比下滑13.2%，归母净利润27.9亿元，同比下滑42.3%，科研服务产业链营收22.9亿，同比下滑1.78%，归母净利润2亿元，同比下滑33.6%。\n\n                        \n\n                                              \n\n                    '}, {'研报公司': '中原证券', '研报总结': '        \n                        \n            \n                        \n\n                              市场行情回顾。2024年2月20日至4月29日，中信生物医药行业指数上涨5.84%（按照流通市值加权平均计算），同期沪深300上涨7.59%，（按照流通市值加权平均计算），跑输沪深3001.75个百分点，行业整体表现在30个中信二级行业指数中排名倒数第10位。\n\n                        \n\n                              从近十年来中信生物医药指数的PE走势看，截至2024年4月29日，行业的动态PE为38.20倍，处于近10年来中位偏低水平。\n\n                        \n\n                              跟踪的行业数据显示，维生素价格因为国内部分厂家检修有小幅回升态势，但涨势能否维持还需要进一步观察；中药材价格仍在高位震荡。中药材价格上涨背后既有供需层面的因素，也有资本的推波助澜，后续将持续观察中药材价格变化情况，受此影响中成药企业的成本仍在高位。\n\n                        \n\n                              从截至2024年4月29日披露的2023年年报看，中信原料药62家上市公司中，56家企业公布了2023年年报。其中16家上市公司营业收入和归母净利润均同比正增长；中信中药78家上市公司中，67家企业公布了2023年年报，其中40家公司营业收入和归母净利润均同比正增长；血制品7家上市公司，全部公布了2023年年报，其中4家上市公司营业收入和归母净利润同比均正增长；中信器械111家上市公司全部公布了2023年年报，其中41家上市公司营业收入和归母净利润双双正增长；创新药指数成分股中，24家上市公司全部公布了2023年年报，仅有5家上市公司收入和归母净利润双双同比正增长。\n\n                        \n\n                              投资建议：1）关注年报和一季报超预期个股；2）关注合成生物学相关公司的投资机会。\n\n                        \n\n                              风险提示：政治风险，国家政策变化风险，行业政策变化风险，公司经营变化风险。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '开源证券', '研报总结': '        \n                        \n            \n                        \n\n                              2024Q1GLP-1大单品销售额持续增长，产能已成为限速环节\n\n                        \n\n                              2024Q1司美格鲁肽与替尔泊肽销售额分别约60.77/23.24亿美元，同比增长约47.8%/308.8%，其中减肥药产品Wegovy与Zepbound销售额均实现跨越式增长。随着GLP-1单品下游需求快速增加，产能目前已成为大单品放量的限速因素，诺和诺德与礼来正持续推进新产能的布局与建设。2024年2月，诺和诺德宣布计划收购原属于Catalent的3家无菌灌装工厂，以增加司美格鲁肽产能；公司预计2024年资本支出将达到450亿丹麦克朗，大部分用于API产能建设。2024年4月，礼来宣布计划从Nexus Pharmaceuticals收购一家制药厂，旨在进一步扩大GLP-1药物生产网络；同时，公司正在对印第安纳州、北卡罗来纳州、德国和爱尔兰的新工厂进行投资，预计未来几年的资本支出进一步提升。\n\n                        \n\n                              海内外GLP-1新药布局火热，多肽CDMO产业成长潜力逐渐释放\n\n                        \n\n                              以司美格鲁肽、替尔泊肽为代表的GLP-1单品快速放量，吸引国内多家企业布局以GLP-1R为靶点的药物管线。截至2024年4月底，国内共有7款GLP-1新药获批上市、5款新药处于NDA阶段；海外共有7款新药获批上市、5款新药处于III期临床阶段。随着越来越多的企业布局GLP-1新药产品，对多肽药物研发生产外包服务的需求将持续增强，国内多肽CDMO产业成长潜力将逐渐释放。\n\n                        \n\n                              GLP-1单品专利即将到期，原料药需求预计大幅提升\n\n                        \n\n                              根据诺和诺德公告，海外除美国外利拉鲁肽制剂专利将于2024年11月到期，国内司美格鲁肽专利将于2026年到期，届时仿制药产品上市，对原料药产品需求将大幅提升；预计下游企业实际采购时点将早于专利到期时点。海内外多家企业已布局司美格鲁肽生物类似物以及改良新药产品；九源基因产品目前已进入NDA阶段，丽珠集团、珠海联邦、正大天晴等多家企业的司美格鲁肽生物类似物以及齐鲁制药、石药集团的司美格鲁肽改良新药已进入III期临床阶段。随着海外利拉鲁肽与国内司美格鲁肽专利将陆续到期，早期管线持续向后端推进，以及多家企业开始布局口服司美格鲁肽产品，对上游原料药的需求将大幅提升。\n\n                        \n\n                              推荐及受益标的\n\n                        \n\n                              推荐标的：制药及生物制品：九典制药、恩华药业、东诚药业、人福医药、康诺亚、恒瑞医药、神州细胞；CXO：泰格医药、百诚医药、圣诺生物、诺思格；科研服务：毕得医药、奥浦迈、药康生物；医疗器械：迈瑞医疗、翔宇医疗、可孚医疗、戴维医疗；零售药店：益丰药房、健之佳；中药：悦康药业、昆药集团、康缘药业、羚锐制药；医疗服务：海吉亚医疗、美年健康；疫苗：康泰生物。\n\n                        \n\n                              风险提示：政策推进不及预期，市场竞争加剧，产品销售不及预期。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '国联证券', '研报总结': '        \n                        \n            \n                        \n\n                              医改背景下医药行业增速承压\n\n                        \n\n                              2023年中国规模以上医药制造业工业企业实现收入2.52万亿元（同比-3.70%），实现利润总额0.35万亿元（同比-15.10%）；2024Q1实现收入0.61万亿元（同比-2.00%），实现利润总额0.08万亿元（同比-2.70%）。全球贸易摩擦、行业政策使得医药行业整体增速承压，但2024Q1收入和利润降幅均收窄，创新药和零售药店等细分行业边际向好。\n\n                        \n\n                              创新药、零售药店等行业边际向好\n\n                        \n\n                              创新药行业医保支付力度加强，医保对新药的支出从2019年的59.49亿元增长至2022年的481.89亿元（3年CAGR达100.83%），上市新药纳入医保的等待时间从过去的平均近5年缩短至不到2年；创新药出海可期，2023年3款国内创新药获得美国FDA批准，并且2023-2024年陆续有国内的生物类似药获得FDA批准，对外授权总金额也在增加；零售药店则在医保支付、产品销售种类方面政策有所改善，内生增长速度加快。\n\n                        \n\n                              医药上市公司2024Q1经营转好整体平稳向好\n\n                        \n\n                              2023年医药上市公司实现收入2.47万亿元（同比+0.59%），实现归母净利0.17万亿元（同比-23.56%），2024Q1实现收入0.63万亿元（同比+0.21%），实现归母净利0.06万亿元（同比-0.74%），实现扣非归母净利0.05万亿元（同比+2.85%）。2023年由于减值（肝素等）、抗疫产品下滑、合规化事件等因素行业整体利润增速放缓，中药（主要是品牌OTC）表现强势；2024Q1上市公司经营状况逐步向好，院内诊疗恢复以及药事会陆续开启，2024年医药行业有望迎来改善。\n\n                        \n\n                              化学制剂、其他生物制品子行业的收入、利润增速均表现较好2024Q1收入增速前三的子行业是零售药店、其他生物制品、化学制剂，利润增速前三的子行业是化学制剂、其他生物制品、医疗耗材。化学制剂子行业中创新药的国内销售、对外授权、以及期间费用率的改善为业绩主要驱动因素；其他生物制品子行业中新药、生物类似药的放量带动板块业绩增长；中药子行业在2023Q1感冒发烧高基数的背景下，品牌OTC企业依旧表现好；器械子行业中，出口业务带动部分企业的业绩增长。\n\n                        \n\n                              投资建议\n\n                        \n\n                              中药子行业我们看好中药品牌OTC、国企改革、以及老龄化趋势下受益标的，推荐华润三九、东阿阿胶、江中药业、太极集团、羚锐制药；化学制剂和生物药子行业，我们看好创新和出口，推荐恒瑞医药（国内新药批准和进入医保放量）、康方生物（出海潜力）、金斯瑞生物科技（新药出海放量）；医疗器械子行业我们看好出口和内镜诊疗的贡献，推荐迈瑞医疗（出口增速高）；零售药店子行业内生+外延的增长模式以及自身产品和费用的优化构成了业绩提升的主要逻辑，政策上零售药店纳入门诊统筹、多地适当放开药店“非药限制”，药店的支持力度加大，推荐益丰药房、老百姓、健之佳等。\n\n                        \n\n                              风险提示：政策性风险、集采超预期、药事会恢复不及预期、贸易摩擦风险\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '中泰证券', '研报总结': '        \n                        \n            \n                        \n\n                              投资要点\r\n\n                        \n\n                              4月回顾：2024年4月医药生物板块上涨2.6%，同期沪深300上涨1.9%，医药板块跑赢沪深300约0.7%，位列31个子行业第4位。本月子板块化学制药上涨6.31%、医疗器械上涨4.09%、中药上涨3.92%、医药商业上涨3.66%，其余子板块医疗服务、生物制品分别下跌4.51%、1.56%。4月为业绩密集披露的窗口期，行情主要围绕年报及一季报展开。整体来看，在前期预期普遍较低情况下，医药板块出现一定程度超预期情况，主要体现在创新药（特色重点产品放量），中药（政策环境良好，常态化呼吸道疾病催化）等持续优势板块，以及底部出现拐点的特色原料药（周期见底，新产品开始放量）。此外，部分底部困境板块如医疗服务、医疗器械、CRO/CDMO等板块在业绩披露后出现明显上涨，市场提前布局有望反转的底部标的。\r\n\n                        \n\n                              展望5月：业绩真空期，市场风险偏好有望提升，关注医药创新及热点赛道。医药持仓仍处低位，Q1业绩见底，基本面有望逐季向好，建议加配。我们统计了A股基金（偏股型&amp;普通股票&amp;灵活配置基金）前十大重仓，2024年Q1医药板块占比11.35%（环比下降1.55pp)，扣除医药基金后占比4.89%（环比下降2.11pp）。扣除医药基金后医药板块低配2.39%，配置占比较2023Q4下滑1.55pp。医药板块持仓仍处低位，且环比明显下滑。在去年疫情放开、院内恢复、海外出口等高基数影响下，2024Q1预计成为全年业绩低点。随着国内市场政策环境持续优化，入院工作逐步开展；全球库存影响消除，地缘政治预期平稳，医药板块基本面有望逐季向好，下半年预计出现明显拐点。结合当下仓位、基本面等情况，建议积极加配医药。5月我们继续重点看好创新药/仿制药、中药、特色原料药三个板块，同时建议在业绩真空期积极参与相关热点主题投资机会，如GLP-1多肽产业链、合成生物学、AI制药等。\r\n\n                        \n\n                              1、创新药：Q1业绩超预期，叠加支持创新药产业发展利好政策，重点看好：1）近期首次实现核心创新药管线商业化，经营效能优秀的创新药企：艾力斯、神州细胞、凯因科技、上海谊众等；2）细分行业子龙头：建议关注艾迪药业、康蒂尼、康弘药业等；3）生物类似药出海美国：具备一定行业壁垒和相对确定性，具有高投入产出比，建议关注百奥泰、复宏汉霖、绿叶制药等；4）传统药企创新升级：康辰药业、奥赛康等。\r\n\n                        \n\n                              2、中药：Q1高基数下业绩仍旧亮眼，中药行业当下政策环境良好，国企改革等大背景下企业自身经营不断改善，叠加呼吸道疾病高发催化，我们认为板块有望持续表现出稳健快速增长趋势。基于业绩确定性+估值性价比，中药板块的配置性价比仍然较高，建议重点关注：1）竞争优势突出、ROE持续优化的高分红个股：济川药业、华润三九、东阿阿胶等。2）经营趋势向好、Q2起业绩增速有望趋势向上的个股：方盛制药、马应龙、以岭药业。\r\n\n                        \n\n                              3、特色原料药：Q1业绩普遍超预期，得益于新产品开始放量。行业经历了3-4年的下行周期，目前存量业务处于底部区间，下行风险有限。增量新业务在2024年开始迎来全面向好，包括专利到期抢仿API、原研转移CMO、制剂一体化放量。我们认为业绩可持续，行业有望进入3-5年的高速成长期，拐点已现。1）重点推荐增量业务明确的弹性标的同和药业、天宇股份、奥锐特，稳健性较强的仙琚制药。2）重点关注普洛药业、奥翔药业、司太立、美诺华等。\r\n\n                        \n\n                              4、热点主题：5月业绩真空期，市场投资有望活跃，主题轮动较快。看好GLP-1需求的持续爆发，重点推荐产业链相关优质公司诺泰生物、圣诺生物、奥锐特等。建议关注合成生物学的川宁生物、华恒生物，AI制剂相关的泓博医药、成都先导等。\r\n\n                        \n\n                              2023年报及2024一季报总结：收入及业绩完成阶段性筑底，迎接逐季修复趋势。2023年医药上市公司累计收入增长0.9%，利润总额下降19.2%，扣非净利润下降24.0%，收入增速放缓，业绩有一定下滑，主要由于：1）2022年疫苗接种、新冠检测等抗疫业务增厚基数；2）2023年下半年宏观政策环境变动，尤其影响部分院内场景使用的药品及医疗器械。2024年Q1医药上市公司收入增长0.8%，利润总额下降0.6%，扣非利润增长4.7%。2024Q1相对2023年同期政策环境更为严格，且2023Q1正值疫情管控放开初期，抗疫相关产品使用高峰，且部分诊疗需求集中爆发，造成高基数。我们认为行业基本面在政策压力下已经完成阶段性筑底，展望2024Q2及下半年，医药板块收入及业绩增速有望呈现逐季修复趋势。\r\n\n                        \n\n                              分板块：板块分化明显，生物制品、医药商业、中药、化学制剂表现优异。\r\n\n                        \n\n                              2023年收入增速排序为生物制品（+13.01%）、医药商业（+7.43%）、中药（+6.08%）、化学制剂（+1.20%）、医疗服务（-3.92%）、化学原料药（-4.19%）、医疗器械（-26.75%）；扣非净利润增速排序为中药（+24.96%）、生物制品（+20.24%）、医药商业（-1.56%）、化学制剂（-5.53%）、医疗服务（-15.27%）、化学原料药（-40.73%）、医疗器械（-57.65%）。\r\n\n                        \n\n                             </t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>['东莞证券在近期研报中表示，“受医疗反腐影响，医药生物行业2023年增速有所回落，但整体营收还是实现了小幅增长，行业整体具有较强的增长韧性。随着医疗反腐影响边际减小，市场得到进一步规范化发展，2024Q1，行业归母净利润增速同比有所回升，板块盈利能力有所企稳。从整体估值上看，截至2024年5月7日，行业整体PE（TTM，整体法）约为40.66倍，相对沪深300整体PE倍数为3.45倍，目前行业整体估值处于相对低位。细分板块方面，目前国内公司经过多年研发投入，创新药公司陆续进入收获期，新药出海授权金额不断创新高。创新药作为新质生产力的重要代表，北京等各地不断出台政策支持创新药发展，创新药板块情绪有望迎来回暖。随着医疗反腐影响边际减小，受此影响较大的医疗服务和医疗器械板块有望迎来业绩改善。”', 'null', 'null', 'null', '中银证券在近期研报中表示，二季度开始医药板块业绩增长有望逐季加速，创新药全产业链支持有望逐步落地，建议逐步增加医药板块配置。', '国金证券在近期研报中表示，总的来看，医药板块2023年增长前高后低，2024年一季度更是阶段性的板块景气度低点、资金配置低点和市场关注度低点。但是通过对这一变化的背后主要原因进行分析，我们能清楚地看到相关不利因素的影响在2024年二季度及以后将很快消除，基本面改善叠加2023年下半年低基数带来的同比提速将共同点燃增配医药板块的投资热情。我们建议重点加配医药板块布局，把握下半年业绩估值齐升机会。同时在风格上可以适当向进攻风格偏移，加配成长和创新板块。建议重点布局院内药品器械复苏、创新药出海，同时优质中药和连锁药房的确定性价值依然值得重视。', 'null', 'null', '国金证券在近期研报中表示，此次人工关节集中带量采购协议期满接续采购落地后，行业产品价格预期有望稳定，不同企业价格差异或将缩小，未来行业集中度将进一步提升，并且将更加有利于国产替代趋势。未来高值耗材领域医保控费工作常态化进行的过程中，将充分考虑厂商生产和供应的积极性，医疗器械板块政策情绪有望逐步触底回升。建议关注院内品牌力领先且生产供应能力较强的头部企业。', '华福证券在近期研报中表示，中短期配置思路：四条主题：1）主线-创新药械：符合国家新质生产力方向，预计有持续政策催化且部分公司进入商业化兑现放量阶段。2）主题-国企改革：新国九条下国企确定性高，国资委对上市公司经营及市值提高要求，重点国药系，如中药业绩好，血制品有整合；3）主线-医疗设备：反腐影响接近尾声且股价调整充分，关注Q2招标情况，Q3同比加速，可提前布局；4）主线-原料药：板块底部调整充分，部分产品已涨价，短期业绩不错，行业大的拐点预计下半年更明确，可提前布局。', '东莞证券在近期研报中表示，近期，医药生物板块有所回暖，大幅跑赢同期沪深300指数，此前调整幅度较大的化学制剂和医疗设备板块涨幅居前近期，中国工程院院士谭天伟表示国家层面有望在近期出台生物制造产业行动计划，合成生物学板块个股表现活跃，生物制造是新质生产力非常重要的新赛道和新业态，后续建议关注合成生物学板块投资机会。', 'null', '中原证券在近期研报中表示，投资建议：1）关注年报和一季报超预期个股；2）关注合成生物学相关公司的投资机会。', 'null', 'null', '中泰证券在近期研报中表示，"建议积极加配医药。5月我们继续重点看好创新药/仿制药、中药、特色原料药三个板块，同时建议在业绩真空期积极参与相关热点主题投资机会，如GLP-1多肽产业链、合成生物学、AI制药等。"', '首创证券在近期研报中表示，在投资策略上，我们仍然建议自下而上优选标的，重点关注业绩确定性标的和拐点方向。', 'null', 'null', '平安证券在近期研报中表示，"从终端用药规模和格局变化来看，在后疫情时代行业迎来恢复性增长，创新药以及壁垒高、格局好的品种增速快于整体。建议布局符合“空间大”“格局好”条件的品种，如临床效果突出的大病种(如肿瘤、自免、代谢等疾病类别)领域创新药，核药等具有高壁垒特征的新一代技术平台，以及凝胶贴膏等仿制难度较大的高端剂型等。"']</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>[{'role': 'system', 'content': '你是一名投资分析专家，现在需要你判断给出的资讯与哪个投资建议最相关，最后仅输出最相关建议即可，请遵循以下分析步骤：\n1.首先仔细阅读给出的资讯，了解资讯的主要内容，资讯仅作为理解参考，不可作为最后输出内容来源；\n2.接下来将给你几篇研报投资建议，请判断资讯与哪个投资建议最相关，最相关意味着该建议应直接对应资讯的核心主题，深入探讨资讯中提到的变化或趋势及其对相应行业市场的影响。\n3.输出与资讯内容最相关的一条建议，仅以json形式输出最相关投资建议原文，不需要添加或杜撰任何建议之外的信息。\n4.如果判断没有最相关的投资建议句段。most_relevant_suggestion输出“无”\n输出参考示例：{"most_relevant_suggestion":"东莞证券在近期研报中表示，当前楼市虽然基本面未见好转，但政策自上而下均处在持续宽松阶段，随着后续的进一步政策宽松预期释放，板块估值有望得到一定的修复。"}\n\n'}, {'role': 'user', 'content': '资讯：{礼来中国：替尔泊肽将商业上市 礼来股价最高触及816美元/股，创历史新高。礼来中国回应替尔泊肽获批，将在今年四季度商业上市并公布价格。礼来中国21日宣布穆峰达(替尔泊肽注射液)获得国家药品监督管理局(NMPA)批准。}\n\n"suggestions":\n{东莞证券在近期研报中表示，“受医疗反腐影响，医药生物行业2023年增速有所回落，但整体营收还是实现了小幅增长，行业整体具有较强的增长韧性。随着医疗反腐影响边际减小，市场得到进一步规范化发展，2024Q1，行业归母净利润增速同比有所回升，板块盈利能力有所企稳。从整体估值上看，截至2024年5月7日，行业整体PE（TTM，整体法）约为40.66倍，相对沪深300整体PE倍数为3.45倍，目前行业整体估值处于相对低位。细分板块方面，目前国内公司经过多年研发投入，创新药公司陆续进入收获期，新药出海授权金额不断创新高。创新药作为新质生产力的重要代表，北京等各地不断出台政策支持创新药发展，创新药板块情绪有望迎来回暖。随着医疗反腐影响边际减小，受此影响较大的医疗服务和医疗器械板块有望迎来业绩改善。”}\n{null}\n{null}\n{null}\n{中银证券在近期研报中表示，二季度开始医药板块业绩增长有望逐季加速，创新药全产业链支持有望逐步落地，建议逐步增加医药板块配置。}\n{国金证券在近期研报中表示，总的来看，医药板块2023年增长前高后低，2024年一季度更是阶段性的板块景气度低点、资金配置低点和市场关注度低点。但是通过对这一变化的背后主要原因进行分析，我们能清楚地看到相关不利因素的影响在2024年二季度及以后将很快消除，基本面改善叠加2023年下半年低基数带来的同比提速将共同点燃增配医药板块的投资热情。我们建议重点加配医药板块布局，把握下半年业绩估值齐升机会。同时在风格上可以适当向进攻风格偏移，加配成长和创新板块。建议重点布局院内药品器械复苏、创新药出海，同时优质中药和连锁药房的确定性价值依然值得重视。}\n{null}\n{null}\n{国金证券在近期研报中表示，此次人工关节集中带量采购协议期满接续采购落地后，行业产品价格预期有望稳定，不同企业价格差异或将缩小，未来行业集中度将进一步提升，并且将更加有利于国产替代趋势。未来高值耗材领域医保控费工作常态化进行的过程中，将充分考虑厂商生产和供应的积极性，医疗器械板块政策情绪有望逐步触底回升。建议关注院内品牌力领先且生产供应能力较强的头部企业。}\n{华福证券在近期研报中表示，中短期配置思路：四条主题：1）主线-创新药械：符合国家新质生产力方向，预计有持续政策催化且部分公司进入商业化兑现放量阶段。2）主题-国企改革：新国九条下国企确定性高，国资委对上市公司经营及市值提高要求，重点国药系，如中药业绩好，血制品有整合；3）主线-医疗设备：反腐影响接近尾声且股价调整充分，关注Q2招标情况，Q3同比加速，可提前布局；4）主线-原料药：板块底部调整充分，部分产品已涨价，短期业绩不错，行业大的拐点预计下半年更明确，可提前布局。}\n{东莞证券在近期研报中表示，近期，医药生物板块有所回暖，大幅跑赢同期沪深300指数，此前调整幅度较大的化学制剂和医疗设备板块涨幅居前近期，中国工程院院士谭天伟表示国家层面有望在近期出台生物制造产业行动计划，合成生物学板块个股表现活跃，生物制造是新质生产力非常重要的新赛道和新业态，后续建议关注合成生物学板块投资机会。}\n{null}\n{中原证券在近期研报中表示，投资建议：1）关注年报和一季报超预期个股；2）关注合成生物学相关公司的投资机会。}\n{null}\n{null}\n{中泰证券在近期研报中表示，"建议积极加配医药。5月我们继续重点看好创新药/仿制药、中药、特色原料药三个板块，同时建议在业绩真空期积极参与相关热点主题投资机会，如GLP-1多肽产业链、合成生物学、AI制药等。"}\n{首创证券在近期研报中表示，在投资策略上，我们仍然建议自下而上优选标的，重点关注业绩确定性标的和拐点方向。}\n{null}\n{null}\n{平安证券在近期研报中表示，"从终端用药规模和格局变化来看，在后疫情时代行业迎来恢复性增长，创新药以及壁垒高、格局好的品种增速快于整体。建议布局符合“空间大”“格局好”条件的品种，如临床效果突出的大病种(如肿瘤、自免、代谢等疾病类别)领域创新药，核药等具有高壁垒特征的新一代技术平台，以及凝胶贴膏等仿制难度较大的高端剂型等。"}\n'}]</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>{"most_relevant_suggestion":"中泰证券在近期研报中表示，\"建议积极加配医药。5月我们继续重点看好创新药/仿制药、中药、特色原料药三个板块，同时建议在业绩真空期积极参与相关热点主题投资机会，如GLP-1多肽产业链、合成生物学、AI制药等。\""}</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>礼来中国于5月21日宣布，替尔泊肽注射液（穆峰达）获国家药监局批准上市，这是一种创新的每周一次使用的GIP/GLP-1受体激动剂，用于控制饮食和运动基础上血糖仍不佳的成人2型糖尿病患者。
+根据弗若斯特沙利文的预测，2030年我国GLP-1类药物市场规模将超过500亿元。到2023年8月，国内已有106个GLP-1类减肥新药进入临床试验阶段，其中约40%由中国企业主导。这表明该领域具有广阔的市场潜力和高度的本土创新活力。方正证券提到，GLP-1R/GIPR双重激动剂替尔泊肽的放量速度远超其他同类产品，并且该品种积极拓展新适应症并取得3期临床成功，显示出GLP-1R/GIPR靶点药物的巨大潜力。建议关注布局GLP-1R/GIPR靶点的药企，以抓住这一领域的投资机会。
+中泰证券在近期研报中表示，"建议积极加配医药。5月我们继续重点看好创新药/仿制药、中药、特色原料药三个板块，同时建议在业绩真空期积极参与相关热点主题投资机会，如GLP-1多肽产业链、合成生物学、AI制药等。"</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>[{'role': 'system', 'content': '你是一名标题编辑人员，请根据文章内容，撰写财经新闻标题：\n\n标题1句话\n1. 简短新闻内容的短句，要求标题党，最好能带上新闻中提到的热门人物、热门事件的动词、或关键数据等。\n\n标题党是指：\n- 引起好奇心：制造悬念或提出引人入胜的问题。\n- 使用强烈、感性的语言：使用能够引发情感反应的词汇。\n- 结合热点话题：利用当前的热点或流行趋势。\n- 直接挑战读者观点：提出可能与普遍看法不同的观点。\n- 使用数字或统计数据：数字能够吸引注意并增加说服力\n\n2、越简短越好，避免使用“标题”这个词\n\n，使用json格式输出，输出参考示例：{"title":"文心一言用户破2亿！AI继续火热？"}\n\n新闻：'}, {'role': 'user', 'content': '礼来中国于5月21日宣布，替尔泊肽注射液（穆峰达）获国家药监局批准上市，这是一种创新的每周一次使用的GIP/GLP-1受体激动剂，用于控制饮食和运动基础上血糖仍不佳的成人2型糖尿病患者。\n根据弗若斯特沙利文的预测，2030年我国GLP-1类药物市场规模将超过500亿元。到2023年8月，国内已有106个GLP-1类减肥新药进入临床试验阶段，其中约40%由中国企业主导。这表明该领域具有广阔的市场潜力和高度的本土创新活力。方正证券提到，GLP-1R/GIPR双重激动剂替尔泊肽的放量速度远超其他同类产品，并且该品种积极拓展新适应症并取得3期临床成功，显示出GLP-1R/GIPR靶点药物的巨大潜力。建议关注布局GLP-1R/GIPR靶点的药企，以抓住这一领域的投资机会。\n中泰证券在近期研报中表示，"建议积极加配医药。5月我们继续重点看好创新药/仿制药、中药、特色原料药三个板块，同时建议在业绩真空期积极参与相关热点主题投资机会，如GLP-1多肽产业链、合成生物学、AI制药等。"'}]</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>{"title":"礼来穆峰达获批上市，GLP-1市场火爆，2030年规模或超500亿！"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>英伟达计划导入GB200扇出型封装 英伟达计划将GB200提早导入面板级扇出型封装，从原订2026年提前到2025年。</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>{"category": "其他"}</t>
+        </is>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>非行业利好</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>房地产持续活跃，万科金地再走强 房地产板块持续活跃，金地集团涨近7%，万科A涨超3%，我爱我家5天4板，渝开发、天宸股份等涨停。</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>{"category": "行业利好新闻"}</t>
+        </is>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>{
+"industry_benefit":[
+{"industry_name":"房地产","score":"100"},
+{"industry_name":"建筑装饰","score":"60"},
+{"industry_name":"建筑材料","score":"50"}
+],
+"concept_benefit":[
+{"concept_name":"深圳特区","score":"70"},
+{"concept_name":"一带一路","score":"50"},
+{"concept_name":"国企改革","score":"60"}
+]
+}</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[{'提取文章': '\n                            \n                                \n  导读：①昨日市场呈现缩量整理格局，热点延续快速轮动态势；②地产股在经历两日整理后，今日走势有望关键，若能分歧转一致的话后续走势更为值得期待；③英伟达财报或为AI产业链带来利好催化   5月22日10:30   开盘第一小时来，市场延续分化整理态势，地产股方向如期迎来了资金回流，其中我爱我家5天4板，渝开发涨停，苏宁环球、特发服务、金地集团等涨幅居前，虽然整体力度不弱，但需注意的是，今日指数并能与地产共振向上，反而在量能持续萎缩的背景下，对于其余热点形成了吸血效应。   此外医美受消息面催化开盘冲高，但后续没有进一步的强化。光伏板块也在受到鼓励行业兼并重组，畅通市场退出机制的消息刺激而迎来反弹。金刚光伏涨超16%，清源股份涨停，不过整体来看仍更偏向于超跌修复其延续性仍有待进一步观察。   5月22日9:10   昨日市场整体震荡调整，三大指数小幅收跌的同时，量能也出现了较大幅度的萎缩。盘面上，市场延续电风扇般的轮动行情，玻璃基板、AIPC、铜箔等板块涨幅居前，而前日最强的有色等周期股则于昨日领跌。地产股同样延续横盘整理的走势。   首先还是关注地产方向，昨日依旧以分化为主，但依旧维持着较高的活跃度。像此前低位的渝开发、新华联获得资金补涨。而高标方向，特发服务与我爱我家依旧维持强劲涨势，而金地集团、保利发展、万科A同样保持着较为完好上涨趋势。不过需要注意的是，昨日此前与指数共振最为明显的方向，其实本轮地产板块整体走势并不连贯，始终伴随着不小的分歧。那么在经历两日整理后，今日的走势尤为关键，若能够再度实现分歧转一致的话，对于地产板块后市或将更为值得期待。相反若延续缩量弱势整理的话，对于短线活跃资金而言可能会产生失望性抛压。   再来关注科技股方向，玻璃基板概念顶住了此前的“证伪”传闻，于近期走出了较强的延续性。可见作为科技方向难能可贵的具有增量的新题材，资金对其保有较高的认可度。但从题材本身来看，玻璃基板的板块容量较小，而真正能够调动短线情绪的AI算力（CPO）、芯片半导体等方向则依旧延续整理态势。对于科技股而言，目前最大掣肘在于市场的增量资金不足，观望情绪较为浓厚。不过今日英伟达将公布财报，若能延续高增的话，或对于整个AI及其产业链而言都将形成利好催化。   此外从盘后的题材来看，医美方向在此利好。广东省卫健委发布医疗美容外科项目调整通知。通知显示，在美容外科一级项目“(4)其他”新增物理治疗和注射治疗。其中，物理治疗包括激光治疗、射频治疗等；注射治疗包括透明质酸、胶原蛋白等填充剂的注射。医美板块此前经历较长时间的整理尚处低位，较为符合当前资金的审美，叠加政策面的利好有望于今日盘中活跃。（文章来源：财联社）                        ', 'gpt提取资讯,解读结果': '{\n    "news": "开盘第一小时来，市场延续分化整理态势，地产股方向如期迎来了资金回流，其中我爱我家5天4板，渝开发涨停，苏宁环球、特发服务、金地集团等涨幅居前。",\n    "analysis": "昨日依旧以分化为主，但依旧维持着较高的活跃度。像此前低位的渝开发、新华联获得资金补涨。而高标方向，特发服务与我爱我家依旧维持强劲涨势，而金地集团、保利发展、万科A同样保持着较为完好上涨趋势。不过需要注意的是，昨日此前与指数共振最为明显的方向，其实本轮地产板块整体走势并不连贯，始终伴随着不小的分歧。那么在经历两日整理后，今日的走势尤为关键，若能够再度实现分歧转一致的话，对于地产板块后市或将更为值得期待。相反若延续缩量弱势整理的话，对于短线活跃资金而言可能会产生失望性抛压。"\n}'}, {'提取文章': '\n                            \n                                \n  房地产板块再度走强，渝开发涨停，新华联涨超9%，海南高速、金地集团、华远地产等跟涨。 （文章来源：南方财经网）                        ', 'gpt提取资讯,解读结果': '{\n"news":"房地产板块再度走强，渝开发涨停，新华联涨超9%，海南高速、金地集团、华远地产等跟涨。",\n"analysis":null\n}'}, {'提取文章': '\n                            \n                                \n  房地产板块再度走强，渝开发涨停，新华联涨超9%，海南高速、金地集团、华远地产等跟涨。（文章来源：每日经济新闻）                        ', 'gpt提取资讯,解读结果': '{\n"news":"房地产板块再度走强，渝开发涨停，新华联涨超9%，海南高速、金地集团、华远地产等跟涨。",\n"analysis":null\n}'}, {'提取文章': '\n                            \n                                \n  5月22日上午，房地产板块再度走强，渝开发涨停，新华联涨超9%，海南高速、金地集团、华远地产等跟涨。（文章来源：界面新闻）                        ', 'gpt提取资讯,解读结果': '{\n"news":"5月22日上午，房地产板块再度走强，渝开发涨停，新华联涨超9%，海南高速、金地集团、华远地产等跟涨。",\n"analysis":null\n}'}]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>开盘第一小时来，市场延续分化整理态势，地产股方向如期迎来了资金回流，其中我爱我家5天4板，渝开发涨停，苏宁环球、特发服务、金地集团等涨幅居前。</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>['昨日依旧以分化为主，但依旧维持着较高的活跃度。像此前低位的渝开发、新华联获得资金补涨。而高标方向，特发服务与我爱我家依旧维持强劲涨势，而金地集团、保利发展、万科A同样保持着较为完好上涨趋势。不过需要注意的是，昨日此前与指数共振最为明显的方向，其实本轮地产板块整体走势并不连贯，始终伴随着不小的分歧。那么在经历两日整理后，今日的走势尤为关键，若能够再度实现分歧转一致的话，对于地产板块后市或将更为值得期待。相反若延续缩量弱势整理的话，对于短线活跃资金而言可能会产生失望性抛压。']</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>[{'研报': '钢化玻璃行业研究：安全与耐用并存，钢化玻璃在现代生活中的广泛应用 头豹词条报告系列', 'gpt判断研报相关性': '{\n  "相关性": false\n}'}, {'研报': '建筑玻璃行业研究：面向未来，探索建筑玻璃在美观、环保和可持续的需求演变 头豹词条报告系列', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '建筑材料：4月动态报告-行业业绩承压，玻纤提价有望带动利润修复', 'gpt判断研报相关性': '{\n  "相关性": true\n}'}, {'研报': '建材行业2023年报及2024一季报综述：玻纤底部信号明确，消费建材减值影响高峰已过', 'gpt判断研报相关性': '{\n    "相关性": true\n}'}, {'研报': '建筑行业周观点：一季度建筑企业经营情况持稳，央企集中度继续提升', 'gpt判断研报相关性': '{\n  "相关性": true\n}'}, {'研报': '建筑材料及新材料行业2023FY&amp;2024Q1：玻纤/耐材及部分细分龙头有积极变化', 'gpt判断研报相关性': '{"相关性":false}'}, {'研报': '建筑装饰行业跟踪周报：建筑业PMI仍有韧性但新订单指数连续走弱，期待项目和资金端政策发力', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '建筑装饰行业研究周报：政治局会议聚焦改革及房产去化，中央资金支撑智慧交通新质生产力', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '建筑行业周报：政治局会议基建/地产定调积极，看好低估值建筑央企和地产链估值提升', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '建筑材料行业研究周报：地产政策催化预期修复，哪些品种弹性更大？', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '建筑材料行业跟踪周报基建或加速', 'gpt判断研报相关性': '{\n    "相关性": true\n}'}, {'研报': '建筑材料行业深度报告：居住产业链2024Q1获公募基金减仓，重仓持股市值占A股比为10年来最低', 'gpt判断研报相关性': '{\n  "相关性": true\n}'}, {'研报': '建筑材料行业周报：增发国债加快开工建设，项目资金改善支撑下游建材需求', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '建材：政治局会议地产政策定调积极，购房+融资端多策并举，助力地产链建材市场表现', 'gpt判断研报相关性': '{\n  "相关性": true\n}'}, {'研报': '房地产服务行业研究2023年报总结：转型高质量发展，穿越地产周期', 'gpt判断研报相关性': '{\n  "相关性": true\n}'}, {'研报': '建材建筑周观点：C端建材+出口链Q1表现更优，继续看好玻纤价格趋势', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '建筑材料行业+公司首次覆盖：智能卫浴快速渗透期，国产品牌加速崛起', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '建材行业周报：地产链行情有望延续，短期建议关注补涨品种', 'gpt判断研报相关性': '{\n    "相关性": true\n}'}, {'研报': '房屋工程建筑：筑梦空间，房屋工程建筑的工业化进程 头豹词条报告系列', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '建筑材料行业周报：重磅政策落地，地产链估值修复迎重要窗口期', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '消费建材2023年年报&amp;2024年一季报总结：寻找周期底部的蓄势待发', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '房地产行业周报：重磅政策频出，销售仍待改善', 'gpt判断研报相关性': '{\n  "相关性": true\n}'}]</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>['建筑装饰', '建筑材料', '房地产']</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>[{'研报公司': '头豹研究院', '研报总结': '        \n                        \n            \n                        \n\n                              报告介绍了建筑玻璃的特点和应用，以及建筑玻璃行业市场规模历史变化和未来趋势。随着全球对节能减排重视程度的提升，建筑玻璃行业逐步向低辐射、高透光、良好隔热隔音性能的产品转变。市场对建筑玻璃的需求愈发多样化，从普通的透明玻璃到各种功能性玻璃。建筑玻璃行业逐渐受到可持续发展理念的影响，推动行业向更加环保和可持续的方向发展。未来，中空玻璃等节能建筑玻璃的应用渗透率将大幅上升，建筑玻璃技术的不断创新和改进也将进一步刺激市场需求。\n\n                        \n\n                              建筑玻璃行业定义\n\n                        \n\n                              建筑玻璃是一种专门用于建筑行业的玻璃材料，用于构建建筑物的外墙、窗户、门等部位。其特点包括透明、光滑、坚固、耐候性好。建筑玻璃可以根据需要进行加工，如切割、钻孔、钢化等，以满足不同建筑结构的要求。它能够提供室内自然采光、视野开阔，并且在冬季有助于保温，提高室内温度，节约能源。在现代建筑设计中，建筑玻璃不仅是一个功能性组件，还承担着装饰和美化的作用，能够塑造建筑外观和风格。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '中国银河', '研报总结': '        \n                        \n            \n                        \n\n                              核心观点：\n\n                        \n\n                              23年年报及24年一季报情况：行业业绩承压，各细分板块表现分化。2023年：行业整体弱势运行，消费建材业绩表现较好。2023年建材行业营业收入/归母净利润分别同比-0.67%/-31.89%，受下游需求疲软影响，行业整体弱势运行。其中消费建材业绩表现较好，实现营收、净利润双增长；水泥、玻纤业绩表现较弱。2024Q1：需求未见好转，行业业绩探底。2024年一季度建材行业营业收入/归母净利润分别同比-17.28%/-82.63%，行业延续弱势运行，下游需求未见好转，上市公司整体业绩承压。其中玻璃业绩表现较好，营收、净利润同比实现双增长；水泥、玻纤业绩进一步走低。\n\n                        \n\n                              玻璃纤维：提价落实较好，需求逐步恢复，行业底部回升。4月份国内玻璃纤维粗纱市场整体呈上行态势，价格提涨刺激中下游提货增加，终端需求逐步恢复，玻纤企业库存压力缓解。电子纱价格进一步上涨，下游CCL开工增加，市场需求恢复较好，部分产线放水冷修，供给量小幅减少，后续电子纱价格有望进一步增长。\n\n                        \n\n                              水泥：产量大幅减少，价格延续弱势运行。2024年1-3月水泥累计产量同比下降11.8%，产量大幅减少。4月30日全国P.O42.5散装水泥市场价为306.6元/吨，同比/环比-21.06%/-1.98%，水泥价格低位运行。后续新增专项债及超长期特别国债有望带动基建投资增速进一步上行，水泥市场需求有望增长。\n\n                        \n\n                              玻璃：保交楼有望带动浮法玻璃需求逐步恢复。2024年1-3月平板玻璃累计产量同比增长7.8%，平板玻璃产量增加。4月30日我国浮法平板玻璃4.8/5mm市场价为1708.2元/吨，同比/环比-19.47%/-5.57%，价格进一步走低。近期地产利好政策频发，后续保交楼将持续推进，浮法玻璃市场需求有改善预期。\n\n                        \n\n                              消费建材：企业加大零售渠道拓展，消费建材零售额进一步增长。2024年1-3月建筑及装潢材料类零售额同比增长2.4%，较1-2月扩大0.3个百分点，消费建材零售端进一步改善。后续随着地产利好政策持续推进，城市房地产融资协调机制有望落地见效，有望带动消费建材需求。\n\n                        \n\n                              投资建议：玻璃纤维：推荐产能逐步扩张、高端产品占比提升的中国巨石。消费建材：推荐不断调整销售策略及产品结构、加速渠道下沉的北新建材、公元股份、伟星新材、东方雨虹。水泥：关注受益于基建高增速下市场需求有望增长的海螺水泥、华新水泥、上峰水泥。玻璃：建议关注多业务布局的旗滨集团、凯盛新能。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '华安证券', '研报总结': '        \n                        \n            \n                        \n\n                              主要观点：\n\n                        \n\n                              行业：业绩估值双重承压，公募持仓创历史新低\n\n                        \n\n                              我们选取建材行业73家A股上市公司作为样本股票池，并以此为基准测算行业整体及子板块经营情况。2023年73家建材公司营业收入合计7935.62亿元，同比增长4.94%，归母净利润427.88亿元，同比下降20.89%；2024年一季度营收合计1408.76亿元，同比减少13.13%；归母净利润44.51亿元，同比减少70.54%。分板块来看，B端消费建材归母净利润增速远超整体行业，C端消费建材盈利能力领先。受业绩增速影响，2024Q1建材行业公募持仓占比为0.73%，环比减少0.06个百分点，同比减少0.33个百分点，处于近7年新低水平。\n\n                        \n\n                              水泥：地产新开工面积不及预期，板块业绩持续承压\n\n                        \n\n                              2023年水泥子行业合计营业收入3778.02亿元，同比增长2.88%；归母净利润116.33亿元，同比下降42.90%。2023年以来，房地产新开工面积不达预期持续拖累水泥需求，全年全国水泥产量仅为20.23亿吨，已连续3年同比下降。2024年一季度，全国水泥产量为3.37亿元，同比下降16.28%，需求不足导致价格近7年新低。归母净利润方面，由于成本压力持续，水泥企业毛利率持续下滑，吨利润下滑幅度较大。\n\n                        \n\n                              玻璃玻纤：玻纤周期底部明确，涨价落地情况超预期\n\n                        \n\n                              2023年，玻璃及玻纤板块营业收入合计1683.99亿元，同比增长12.38%；实现归母净利润合计188.18亿元，同比减少19.15%。2024年一季度，板块营收合计392.40亿元，同比增长7.54%，实现归母净利润38.65亿元，同比增长4.47%。受需求疲软及供给增加影响，产品价格持续探底，玻璃与玻纤行业增收不增利。\n\n                        \n\n                              ①玻璃：保交楼政策持续推进，行业库存整体持续下降，企业盈利有望改善。②玻纤：考虑到行业自身的高质量发展和下游需求逐步恢复，中国巨石于3月底4月初分别对粗纱部分产品和电子布进行不同程度的复价，随后其他玻纤企业跟随复价，目前来看复价效果显著，下游接纳情况良好。粗纱方面，考虑到Q2为玻纤传统旺季，我们认为玻纤涨价或仍具备一定持续性；电子布方面，随着消费电子复苏及2024年无新增产能，向上弹性更大。\n\n                        \n\n                              消费建材：大B端需求下滑，小B&amp;C端持续发力\n\n                        \n\n                              2023年B端建材行业合计营业收入989.96亿元，同比增长2.91%；归母净利润实现27.61亿元，同比增长93.23%；2024年一季度合计营收179.87亿元，同比减少7.66%；归母净利润实现2.22亿元，同比减少98.41%。2023年C端消费建材上市公司营业收入合计419.20亿元，同比增长7.84%；实现归母净利润合计55.57亿元，同比增长14.04%；2024年一季度营收实现88.60亿元，同比增长15.23%，实现归母净利润9.96亿元，同比增长21.81%。\n\n                        \n\n                              2021-2023年，B端消费建材板块每年计提信用减值损失金额达到30-35亿元，占营收比例为3%-3.5%。2022年板块信用减值损失金额占净利润比例达到203%，一方面因为部分企业选择集中在当年进行单笔大额计提减值，整体计提规模较高；另一方面因为当年大宗商品价格上升造成毛利率走低，部分企业净利润大额负值或近乎为零。2023年行业盈利水平有所提高，当年板块信用减值损失金额占净利润比例降至125%。展望未来，大B营收占比快速下降，且多数企业已进行充分计提，预计该项减值准备对净利润的影响会逐渐降低。\n\n                        \n\n                              地产周期持续下行使得大B业务显著收窄，针对行业变化，消费建材公司积极发展小B和C端业务，营收结构更加优化。C端强势公司受益于头部集中度提升趋势，营收利润保持稳健增长。从未来建材需求端来看，地产直销采购量仍有收缩风险，二手房换装及市政基建订单有所增加，下游需求更加小、散、定制化，因此较早布局小B和C端业务的消费建材头部公司值得重点关注。\n\n                        \n\n                              投资建议\n\n                        \n\n                              建议关注受益于基建回暖预期的顺周期标的【鸿路钢构】、【中国巨石】，具备长期成长性的消费建材个股【东方雨虹】、【伟星新材】。\n\n                        \n\n                              风险提示\n\n                        \n\n                              （1）地产基建投资不及预期；\n\n                        \n\n                              （2）C端市场恢复不及预期；\n\n                        \n\n                              （3）原材料价格上涨持续超预期。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '国信证券', '研报总结': '        \n                        \n            \n                        \n\n                              核心观点\n\n                        \n\n                              建筑业新签合同延续小幅下滑，产值增长更具韧性。2024年第一季度，建筑业新签合同额6.73万亿元，同比-2.9%，建筑业实现产值5.67万亿元，同比+3.4%。受“地方政府化债”政策影响，新增基建项目投资额明显缩减，建筑业新签订单保持下滑趋势，存量项目持续转化推动建筑业产值维持小幅增长。\n\n                        \n\n                              建筑央企新签合同额保持稳健增长，新签集中度继续提升。2024年一季度，八大建筑央企新签建筑合同额合计3.92亿元，同比+6.7%，显著高于建筑业整体-2.9%的增速，八大建筑央企以新签合同额衡量的市占率由上年同期的53.0%继续提升至58.2%。建筑央企在获取重大工程项目方面具有更强的品牌优势和更低的融资成本，在行业需求整体下滑的环境下仍能维持新签合同稳健增长。\n\n                        \n\n                              上市建筑公司Q1收入小幅增长，利润小幅下降。2024年第一季度，A股上市建筑公司实现营业收入2.07万亿元，同比+1.6%，实现归母净利润503.2亿元，同比-2.8%。2024年第一季度建筑板块整体毛利率为9.25%，较上年同期下降0.10pct，管理/财务费用率分别为2.43%/0.89%，较上年同期分别上升了0.07/0.02pct。\n\n                        \n\n                              建筑企业经营性现金流净流出增加。2024年第一季度，A股上市建筑公司整体惊醒赢现金流净额净流出4388亿元，同比多流出1016亿元，其中销售商品、提供劳务收到现金21255亿元，同比+4.2%，购买商品、接受劳务支付现金23005亿元，同比+7.9%，均高于营收增速，结合2023上市建筑企业付现比由96.0%显著下滑至94.1%的情况来看，经营性现金流流出加大或主要用于支付往年的应付账款。\n\n                        \n\n                              投资建议：相对而言建筑央企在承接重大项目上存在优势，融资成本低于行业均值，有望保持订单和业绩稳健增长；随着海外订单持续回暖，建议关注国际工程龙头企业业绩兑现；工业建筑受地产和地方政府债务影响较小，也是当前政策支持的投资方向，随着库存周期拐点临近，产业链上钢结构、专业工程板块有望迎来估值修复，尤其是部分重大晶圆厂项目有望年内落地，建议关注洁净厂房建设机会。重点推荐中国中铁、中国交建、太极实业、中国海诚、中材国际。\n\n                        \n\n                              风险提示：宏观经济下行风险；政策落地不及预期的风险；重大项目审批进度不及预期的风险。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '东吴证券', '研报总结': '        \n                        \n            \n                        \n\n                              投资要点\n\n                        \n\n                              本周（2024.4.29–2024.5.3，下同）：本周建筑装饰板块（SW）涨跌幅-1.33%，同期沪深300、万得全A指数涨跌幅分别为0.56%、1.19%，超额收益分别为-1.89%、-2.52%。\n\n                        \n\n                              行业重要政策、事件变化、数据跟踪点评：（1）国家统计局发布4月PMI数据。建筑业商务活动指数比3月上升0.1个百分点，为56.3%，继续位于较高景气区间。其中，土木工程建筑业商务活动指数为63.7%，比3月上升3.9个百分点，升至高位景气区间，反映基建链条景气度较好，施工进度有所加快。从市场预期看，业务活动预期指数为56.1%，持续位于较高景气区间，表明建筑业企业对行业发展预期总体保持乐观。（2）中共中央政治局召开会议决定召开二十届三中全会，分析研究当前经济形势和经济工作。财政和货币政策的继续发力有望支撑基建投资持续较快增长，并向实物需求传导，地产政策提出消化存量房产的举措，叠加高能级城市继续放松限购，有望利好地产需求企稳回暖。\n\n                        \n\n                              周观点：（1）4月建筑PMI环比略有提升，土木工程建筑业商务活动指数环比上升3.9个百分点，显示基建土木工程施工有所加快，但建筑新订单指数仍处于低位，环比上月下降了2.9个百分点，业务活动预期指数环比上月下降3.1个百分点，经营预期仍然偏弱。此前政府工作报告提出积极的财政政策要适度加力，从今年开始拟连续几年发行超长期特别国债，专项用于国家重大战略实施和重点领域安全能力建设，预计基建投资端仍有韧性。3月信贷投放平稳增长，政府债券发行进展同比偏慢，近期发改委完成了2024年专项债筛选工作，期待后续发行加快和财政政策发力，资金端和项目端有望同时改善。国资委提出强化投资者回报，进一步研究将市值管理纳入中央企业负责人业绩考核，近期多家建筑央企发布2023年报和24年一季度，业绩表现普遍稳健，我们建议关注估值仍处历史低位、业绩稳健的基建龙头央企估值持续修复机会，推荐中国交建、中国建筑、中国电建、中国铁建、中国中铁等。\n\n                        \n\n                              （2）出海方向：二十大报告提出共建“一带一路”高质量发展，将进一步深化交通、能源和网络等基础设施的互联互通建设，开展更大范围、更高水平、更深层次的区域合作，为建筑央国企参与一带一路沿线市场打开更大空间；2023年我国对外非金融类直接投资同比增长16.7%，在“一带一路”共建国家非金融类直接投资同比增长28.4%，对外投资平稳发展，基建合作是重要形式，未来预计更多合作和政策支持有望出台，海外工程业务有望受益，后续有望逐渐兑现到订单和业绩层面。建议关注国际工程板块，个股推荐中材国际，建议关注中工国际、北方国际、中钢国际等。\n\n                        \n\n                              （3）需求结构有亮点，新业务增量开拓下的投资机会：水利基础设施建设有望加快推进，建议关注粤水电、安徽建工等；在加快推动建筑领域节能降碳等政策推进下，装配式建筑、节能降碳以及新能源相关的基建细分领域景气度较高，有相关转型布局的企业有望受益，建议关注装配式建筑方向的鸿路钢构、华阳国际等；低空经济各地方政策催化不断，建议关注建筑和基建设计院板块，相关标的建议关注中交设计、设计总院、华设集团等。\n\n                        \n\n                              风险提示：地产信用风险失控、政策定力超预期、国企改革进展低于预期等。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '天风证券', '研报总结': '        \n                        \n            \n                        \n\n                              靠前发力有效落实宏观政策，新质生产力再次被提及重要位置\n\n                        \n\n                              4月份政治局会议最重要的增量信息是改革以及对于地产去库存的强化。三中全会时间的确定，意味着有关改革议题、具体措施等关键性问题可能已经形成了基本的共识和结论，新型城镇化+土地要素改革可能是重点改革内容。二季度稳增长政策力度可能不会放缓，但增量空间也相对有限，存量政策的加速落地可能是政策的重心。我们认为，二季度将会加快存量政策的落地。本次会议要求“靠前发力有效落实已经确定的宏观政策”、“及早发行并用好超长期特别国债，加快专项债发行使用进度，保持必要的财政支出强度”、“落实好大规模设备更新和消费品以旧换新行动方案”。因此，我们预计政府债的发行速度有望加快，财政支出强度也会随之提升。此外，有关房地产的内容变化较大，4月份政治局未提及三大工程，后续推进的力度可能会有所放缓。本次会议首次提出了“统筹研究消化存量房产”，可能指向了市场近期关注的类似郑州由城投收购二手房的模式。\n\n                        \n\n                              公路水路交通基础设施数字化转型升级，财政部给予财政补贴奖励\n\n                        \n\n                              自2024年起，通过3年左右时间，支持30个左右的示范区域，打造一批线网一体化的示范通道及网络，力争推动85%左右的繁忙国家高速公路、25%左右的繁忙普通国道和70%左右的重要国家高等级航道实现数字化转型升级。在智慧扩容方面实现示范通道通行效率提升20%左右；在安全增效方面实现突发事件应急响应效率提升30%左右；在融合创新方面凝练总结一批具有较高推广价值的车路云、船岸云应用场景和关键技术、标准规范；在体制机制创新方面推动培育一批个性化定制、网络化协同、产业化融合等新业态新模式。此外，财政部将按照交通运输部核定总投资的一定比例予以奖补，东部、中部、西部地区奖补比例分别为40%、50%、60%，政策端对于智慧交通形成有力的支撑。\n\n                        \n\n                              行情回顾\n\n                        \n\n                              根据总市值加权平均统计，本周（0429-0430）建筑（中信）指数下跌0.41%，沪深300指数上涨1.48%，子板块中建筑装修、房建板块涨幅居前，分别录得1.46%、1.30%的正收益。本周涨幅居前的标的有：旭杰科技（+18.45%）、华图山鼎（+17.43%）、西藏天路（+14.87%）、天域生态（+12.57%）、*ST嘉寓（+12.30%）。\n\n                        \n\n                              投资建议\n\n                        \n\n                              我们认为，24年顺周期改善、高股息央国企和专业工程景气延续仍是三条重要的主线：1)顺周期板块，重点推荐城中村及保障房受益标的华阳国际、深圳瑞捷等；2)低估值高股息央国企蓝筹推荐中国中铁、中国建筑、中国铁建、安徽建工、设计总院、中材国际、北方国际；3）专业工程建议关注高景气赛道龙头标的，推荐鸿路钢构、上海港湾、华铁应急（与非银组联合覆盖）、圣晖集成、利柏特、三维化学。\n\n                        \n\n                              风险提示：基建&amp;地产投资超预期下行；央企、国企改革提效进度不及预期；城中村改造落地不及预期。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '国投证券', '研报总结': '        \n                        \n            \n                        \n\n                              本周投资建议：\r\n\n                        \n\n                              4月30日，中共中央政治局会议和国资委关于央企一季度运营情况视频会议同日召开，关于基建投资、房地产行业以及央企发展的相关政策定调积极。\r\n\n                        \n\n                              政治局会议提出要靠前发力有效落实已确定的宏观政策，及早发行并用好超长期特别国债，预计后续专项债和超长期特别国债均有望加快发行，助力实物工作量尽快形成，保障全年基建投资稳健增长。国资央企2024年一季度实现良好发展，固定资产投资同比增长10.4%（高出全国5.9pct），年化全员劳动生产率增长5.1%。此外，国资委会议再次强调强化央企价值创造，持续提高经营创现能力，2024年国资委对国资央企总体保持“一利五率”目标管理体系不变。从建筑央企基本面角度，2023年建筑基建央企板块营收、业绩和新签合同额均保持稳步增长，部分央企现金流、ROE及分红率提升明显，叠加央企市值管理持续推进，我们持续看好低估值建筑央国企经营质量改善和市场回报表现。\r\n\n                        \n\n                              4月28日，国务院国资委召开中央企业大规模设备更新工作推进会，表示央企在推动新一轮大规模设备更新和消费品以旧换新工作中发挥重要作用，并已在推进工作落实中取得初步成效。发改委下一步将推进配套方案出台实施，并希望央企“一企一策”制定设备更新工作方案，优先选择一批能耗高、排放大、效率低、安全隐患大的设备尽快更新改造，设备更新需求有望持续释放，结合3月份发布的设备更新改造行动方案所提及的重点行业领域，有望为建筑服务商带来设计、设备和施工承包新增量。\r\n\n                        \n\n                              在房地产领域，中央政治局会议指出：1）继续坚持因城施策，压实地方政府、房地产企业、金融机构各方责任，切实做好保交房工作，保障购房人合法权益。2）结合房地产市场供求关系的新变化、人民群众对优质住房的新期待，统筹研究消化存量房产和优化增量住房的政策措施，抓紧构建房地产发展新模式，促进房地产高质量发展。本次地产行业政策表述较为积极，保交楼工作2024年有望持续，同时改善地产供需关系也为未来政策推进重点，后续去库存相关的具体政策细则落地值得期待，同时核心城市购房宽松政策相继发布，地产行业下行态势改善可期，助力地产链企业估值修复。\r\n\n                        \n\n                              建议关注：\r\n\n                        \n\n                              1）专项债和超长期特别国债有望加快发行，叠加发改委将推动万亿国债项目于6月底前开工建设，均助力全年基建投资增长；此外，国企改革和央企市值管理考核持续推进，现金分红监管力度加大，建筑央企有望充分受益：中国中铁、中国交建、中国建筑、中国中冶、中国铁建、中材国际；\r\n\n                        \n\n                              2）设备更新需求有望逐步释放，水泥/冶金工程优质服务商有望受益：中材国际、中钢国际；\r\n\n                        \n\n                              3）地产政策定调较为积极，前端优质设计标的有望迎来估值提升：华阳国际；\r\n\n                        \n\n                              4）经营稳健的优质央国企设计咨询公司：中交设计、地铁设计；\r\n\n                        \n\n                              5）国企改革推进，未来央国企分红比例有望提升，高股息高分红标的投资价值凸显：中国建筑、隧道股份、安徽建工、中材国际；\r\n\n                        \n\n                              中长期配置主线建议：\r\n\n                        \n\n                              2024年基建投资稳增长基调持续，万亿国债项目全部下达完毕，随万亿国债和超长期特别国债项目逐步开工建设，地方政府专项债项目加快审核，均有望支持全年基建投资增长，同时看好“三大工程”建设改造带动基建、房建投资增长，拉动地产新开工和销售的边际改善，为建筑板块创造需求增量。建筑行业多家头部企业积极扩展国际化布局，海外工程建设释放市场需求增量。目前建筑行业基本面整体稳健，基建央企和地方基建龙头行业集中度持续提升，叠加国企改革、鼓励分红和市值管理持续推进，估值有望提升。建议关注低估值基建龙头、地方基建龙头国企、国际工程优质标的及城中村改造相关板块：\r\n\n                        \n\n                              （1）低估值建筑央企：基建投资资金端支持力度大，全年基建投资有望稳健增长，国企改革推进下，建筑央企经营指标有望改善，央企市值管理全面推开，助力低估值央企估值提升，建议关注：中国建筑、中国交建、中国铁建、中国中铁。\r\n\n                        \n\n                              （2）优质地方国企：业务所在区域财政状况相对占优，公司自身经营稳健，围绕主业进行产业链拓展，现金流或ROE表现亮眼，建议关注：隧道股份、地铁设计。\r\n\n                        \n\n                              （3）城中村改造、保障房板块：政策积极推进，2024年有望启动实施，板块投资机会持续，产业链前端的检测和设计公司受益，订单弹性大、轻资产模式。建议关注：华阳国际、蕾奥规划。\r\n\n                        \n\n                              （4）出海优质龙头：国内基建增长趋稳态势下，出海企业有望打造业务长期成长新支撑点，建议关注海外业务占比高，海外订单持续增长，海外细分领域竞争力突出的国际工程服务商：中材国际、中钢国际；\r\n\n                        \n\n                              （5）建筑+商业模式占优个股：区别于传统垫资的工程承包企业，制造模式以及向设备、运维等领域转变的个股更受益于商业模式带来的经营指标改善和未来估值提升。建议关注：鸿路钢构、中材国际。\r\n\n                        \n\n                              风险提示：政策实施不及预期、经济下行风险、固定资产投资下滑、地产回暖不及预期、地方财政增长缓慢风险等。\n\n                        \n\n                                              \n\n                    '}, {'研报公司': '天风证券', '研报总结': '        \n                        \n            \n                        \n\n                              行情回顾\n\n                        \n\n                              过去两个交易日（0429-0430）沪深300涨0.56%，建材（中信）涨1.79%，除了陶瓷和水泥外，其余子板块均为正收益。个股中，ST三圣（+10.4%），北新建材（+8.9%），科顺股份（+8.4%），先锋新材（+7.5%），秀强股份（+7.3%）涨幅居前。\n\n                        \n\n                              地产政策催化预期修复，首推消费建材困境反转品种\n\n                        \n\n                              据Wind，0427-0503一周，30个大中城市商品房销售面积155.37万平米，环比-21%，同比-19%，降幅缩小。4月30日，中共中央政治局会议提到，要结合房地产市场供求关系的新变化、人民群众对优质住房的新期待，统筹研究消化存量房产和优化增量住房的政策措施，抓紧构建房地产发展新模式，促进房地产高质量发展，其中首次提出化解存量与优化增量住房政策措施，具备方向性意义，我们认为后续相关具体政策或逐步出台，有望推动市场信心和基本面回升。\n\n                        \n\n                              从当前PE估值分位数来看，东方雨虹、东鹏控股、坚朗五金等2024年PE已跌至2021年以来的10%分位数以下，近期政治局会议对房地产政策创新定调，通过消化存量房产和优化增量住房等措施有望解决供需核心堵点，短期建材品种估值端有望率先修复，其中前期跌幅较大、当前估值水平较低的公司具备更大的修复弹性。而后我们认为基本面的回升同样值得期待，短期来看，一方面，我们认为下游客户付款状况预期有望逐渐向好，利好当前应收账款压力较大及前期减值计提较多的消费建材企业，另一方面，新房品质关注度的提升，品牌力更强的龙头公司有望借机进一步扩大市场份额，而中长期看，我们认为随着销售逐步筑底，前端建材品种（水泥、减水剂、防水等）基本面底部基本确认，随着改造对于行业的带动作用将逐步体现，后端消费建材需求端有望率先恢复，同时格局优化带来的龙头α将带来长期增长，综上来看，短期我们首推困境反转弹性品种，中长期继续坚守优质龙头。\n\n                        \n\n                              传统建材行业景气或已触底，新材料品种成长性有望持续兑现\n\n                        \n\n                              1）消费建材21/22FY受地产景气度、资金链，以及大宗商品价格持续上行带来的成本压力影响，当前上述因素有望逐步改善，地产政策改善趋势明确，23年基本面或已基本企稳。中长期看，龙头公司已经开启渠道变革，规模效应有望使得行业集中度持续提升，消费建材仍然是建材板块中长期优选赛道；2）新型玻璃、碳纤维等新材料面临下游需求高景气和国产替代机遇，龙头公司拥有高技术壁垒，有望迎来快速成长期；3）当前玻璃龙头市值已处于历史较低水平，随着行业冷修提速，行业基本面或逐步筑底，光伏玻璃有望受益产业链景气度回暖，而电子玻璃有望受益国产替代和折叠屏等新品放量；4）塑料管道板块下游兼具基建和地产，基建端有望受益市政管网投资升温，地产端与消费建材回暖逻辑相似；5）水泥有望受益于后续基建和地产需求改善预期，中长期看，供给格局有望持续优化；6）玻纤当前价格处于相对低位，后续风电等需求启动有望带动行业去库涨价。\n\n                        \n\n                              本周重点推荐组合\n\n                        \n\n                              山东药玻（与医药联合覆盖）、世名科技（与化工联合覆盖）、鲁阳节能、长海股份（与化工联合覆盖）、伟星新材、北新建材、凯盛科技（与电子联合覆盖）。\n\n                        \n\n                              风险提示：基建、地产需求回落超预期，对水泥、玻璃价格涨价趋势造成影响；新材料品种下游景气度及自身成长性不及预期；地产产业链坏账减值损失超预期等。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '东吴证券', '研报总结': '        \n                        \n            \n                        \n\n                              投资要点\r\n\n                        \n\n                              本周（2024.4.29–2024.5.3，下同）：本周建筑材料板块（SW）涨跌幅2.32%，同期沪深300、万得全A指数涨跌幅分别为0.56%、1.19%，超额收益分别为1.76%、1.13%。\r\n\n                        \n\n                              大宗建材基本面与高频数据：（1）水泥：本周全国高标水泥市场价格为358.0元/吨，较上周+2.8元/吨，较2023年同期-65.8元/吨。较上周价格持平的地区：华北地区；较上周价格上涨的地区：长江流域地区（+1.4元/吨）、两广地区（+5.0元/吨）、东北地区（+21.7元/吨）、西南地区（+6.0元/吨）、西北地区（+4.0元/吨）；较上周价格下跌的地区：长三角地区（-5.0元/吨）、泛京津冀地区（-3.3元/吨）、华东地区（-2.9元/吨）、中南地区（-1.7元/吨）。本周全国样本企业平均水泥库位为67.3%，较上周-1.0pct，较2023年同期-4.4pct。全国样本企业平均水泥出货率（日发货率/在产产能）为51.6%，较上周+1.7pct，较2023年同期-5.3pct。（2）玻璃：卓创资讯统计的全国浮法白玻原片平均价格为1705.7元/吨，较上周-8.4元/吨，较2023年同期-420.3元/吨。卓创资讯统计的全国13省样本企业原片库存为5392万重箱，较上周-94万重箱，较2023年同期+1188万重箱。（3）玻纤：本周国内无碱粗纱市场价格延续上涨走势，厂家报价周内亦有调涨，多数合股纱价格同步有上调。截至4月30日，国内2400tex无碱缠绕直接纱主流报价在3500-3700元/吨不等，全国均价3594.25元/吨，主流含税送到，环比上周均价（3505.92元/吨）上涨2.52%，涨幅收窄3.02个百分点，同比下跌11.55%，较上周降幅收窄2.10个百分点；本周电子纱市场价格基本走稳，前期各厂价格提涨近期基本落实，电子纱G75主流报价7800-8100元/吨不等，较上周价格持平；7628电子布当前主流报价为3.5-3.6元/米不等，成交按量可谈。\r\n\n                        \n\n                              周观点：本周政治局会议召开，除了利率等总量工具的潜在利好，对于建材建筑而言我们认为还有3个亮点，一是要求加快发行超长期国债和专项债，2季度基建新项目可能加速落地，利好基建央企和开工端建材水泥。二是统筹研究消化地产库存和优化增量的措施，有利于缓解地产价格焦虑，也提升地产链优质白马的估值，例如北新建材、坚朗五金、伟星新材、东方雨虹。三是支持民企出海，有利于坚定市场对于出海赛道的信心。\r\n\n                        \n\n                              中期继续布局成长细分赛道，例如，出口链的一带一路方向，非地产链的新材料或工程公司，地产链的智能家居和绿色建材公司。另外，央企市值管理考核要求下，低估值央企也值得重视，例如中国中铁、中国交建等。\r\n\n                        \n\n                              1、全球需求中长期增量来自于一带一路和RCEP地区。两个维度择股，一带一路和RCEP区域收入占总收入的比例以及本土化的能力，推荐米奥会展、中材国际，上海港湾，中国交建。\r\n\n                        \n\n                              2、欧美补库存周期开启。推荐中国巨石、赛特新材，爱丽家居、松霖科技、建霖家居，建议关注山东玻纤、共创草坪等欧美出口链条。\r\n\n                        \n\n                              3、非地产链条中，长期看好产业升级或节能减碳类投资需求。推荐圣晖集成、再升科技，建议关注柏诚股份。\r\n\n                        \n\n                              4、在强力政策作用下，国内地产的螺旋下滑态势必将得到遏止。我们预计地产投资端和主体信用端在明年企稳。对于地产链而言，大部分细分行业的集中度仍有提升空间。推荐北新建材、坚朗五金、伟星新材、箭牌家居、东鹏控股、东方雨虹、蒙娜丽莎，建议关注江山欧派、森鹰窗业。\r\n\n                        \n\n                              大宗建材方面：玻纤：（1）粗纱景气底部确认，市场供需平衡重建，支撑景气向上。近期厂商库存加快去化，除了下游补库加快外，也反映行业供需矛盾基本消化。今年以来行业新增产能投放节奏继续放慢，但短期产能进一步出清难度较大，龙头企业思路转向稳价提价。前期粗纱各品类提价落实顺利，当前需求处于季节性旺季，下游开工和采购意愿向好，随着新池窑点火放缓，厂商库存进一步下降，价格有望延续稳步上行的趋势。中期来看，粗纱行业盈利仍处低位，持续限制供给增量的释放，叠加下游国内基建、外贸等方向需求有望进一步改善，行业库存中枢有望继续下行，（2）细纱/电子布需求显著回暖，得益于家电、新能源车等下游细分行业需求拉动和库存消化，当前涨价传导顺利。考虑细纱行业盈利长时间处于低位，前期产能有所缩减，中期产能潜在增量有限，下游开工率持续改善，库存有望进一步降至低位，电子布价格和盈利具有弹性。（3）中长期落后产能出清、玻纤成本的下降也为新应用的拓展和渗透率的提升提供催化剂，随着风电、新能源车等领域用量持续增长，光伏组件边框等新兴应用领域持续拓展，行业容量有望持续增长，产品结构的调整有利于龙头构筑新的壁垒，盈利稳定性也将提升。（4）当前龙头估值处于历史低位，底部确认、需求回升预期有望推动估值修复。推荐中国巨石，建议关注中材科技、山东玻纤、长海股份、国际复材、宏和科技等。\r\n\n                        \n\n                              水泥：（1）本周全国水泥市场价格环比上涨0.8%。价格上涨区域主要有黑龙江、吉林、辽宁、广西、重庆和甘肃，幅度10-40元/吨；价格回落区域为江苏、浙江和河南，幅度10-20元/吨。4月底，受市场资金短缺和阴雨天气影响，国内水泥市场需求表现疲弱，由于价格长期处于较低水平，绝大多数企业处于亏损状态，为改善经营质量，减少亏损，部分地区企业通过增加错峰生产，推动价格上涨。（2）季节性旺季需求同比仍显偏弱，后续仍需观察实物需求的释放情况，财政工具和准财政工具有望进一步发力，财政前置下基建投资增速有望维持高位，但仍待向实物需求进一步传导。需求不足背景下，行业库存控制依赖错峰停窑，但跨区域流动和企业市场策略的影响下，行业竞合将反复，行业景气将继续低位震荡，但也为进一步的市场整合带来机遇。（3）水泥企业市净率估值处于历史底部，双碳、环保政策利好中长期供给侧出清，龙头企业综合竞争优势凸显，估值有望迎来修复。推荐中长期产业链延伸有亮点的龙头企业：华新水泥、海螺水泥、上峰水泥、天山股份、冀东水泥等。玻璃：近期下游库存有所消化，加工厂和贸易商在五一节前节后有一定补库，价格小幅震荡。但当前下游订单支撑一般，叠加高供给下产业链预期仍然谨慎，价格的进一步反弹需要旺季需求进一步改善的支撑。短期随着玻璃盈利水平下行，冷修产线有增多预期，对价格有一定支撑，但中长期仍需跟踪保交楼等政策对竣工需求落地的影响，供需关系有待重新平衡。短期光伏玻璃提价落地后，供给边际增加以及下游开工情况下库存阶段性增加，但下游中期光伏装机预期继续向好，龙头企业享有成本优势，盈利有支撑。浮法玻璃龙头享有硅砂等资源等中长期成本优势，叠加光伏玻璃等多元业务的成长性，继续推荐旗滨集团，建议关注南玻A等。\r\n\n                        \n\n                              装修建材方面：市场需求仍较弱，收入端或承压，部分品类市场竞争加剧，零售端部分品类具备韧性表现优于工程端销售。成本端例如铝合金、不锈钢、PVC、沥青等价格基本稳定，预计盈利端保持稳健。在地产放松政策效果逐步显现、坏账计提和现金流风险预期逐渐释放之下，板块整体有望迎来业绩及估值修复。参考消费建材板块历史经验和当前的竞争态势来看，在地产行业资金缓和+信心从底部逐渐恢复的阶段，部分公司或将率先借助渠道领先布局、经营效率优势或融资加杠杆等进一步提升份额、进入新的扩张周期，发货或订单增速的拐点可作为右侧信号。推荐坚朗五金、东方雨虹、伟星新材、兔宝宝、科顺股份、北新建材、凯伦股份、东鹏控股、蒙娜丽莎，建议关注三棵树、中国联塑、苏博特、公元股份、垒知集团等。\r\n\n                        \n\n                              风险提示：地产信用风险失控、政策定力超预期。\n\n                        \n\n                                              \n\n                    '}, {'研报公司': '东吴证券', '研报总结': '        \n                        \n            \n                        \n\n                              我们筛选了198支居住产业链A股（其中地产行业52支、建筑行业92支、建材行业54支）作为样本标的，并进一步细分为3大类10个二级行业（基建地产前周期：房地产开发、设计咨询、基建房建、水泥；基建地产后周期：玻璃玻纤、装修、装修建材、房地产服务；其他：其他材料、专业工程），进行2024年一季度产业链行情回顾和公募基金重仓持股分析。在进行二级行业分析、个股持仓分析时，我们同时加入了家居子行业（19支）与厨电子行业（11支）进行对比。\r\n\n                        \n\n                              2024Q1居住产业链收益率跑输市场：本季度（2024年一季度，下同）居住产业链收益率跑输市场，其中建筑行业跑赢市场，建材、房地产行业跑输市场。本季度居住产业链全部样本流通股本加权平均涨跌幅为-0.9%，相对全部A股的超额收益为-1.4%，其中房地产、建筑、建材流通市值加权平均涨跌幅分别为-6.8%、1.8%、-5.5%，相对全部A股的超额收益分别为-7.3%、1.3%、-6.0%。2024年4月1日-4月26日，居住产业链收益率跑输市场，其中房地产、建筑、建材行业均跑输市场，建筑行业绝对收益为正。\r\n\n                        \n\n                              行业持仓：我们选取了股票型基金中的普通股票型基金（剔除被动指数型基金和指数增强型基金）、混合型基金中的偏股混合型、平衡混合型和灵活配置型基金作为样本基金。\r\n\n                        \n\n                              居住产业链整体继续减仓，重仓持股市值占A股比为10年来最低。本季度全部A股中居住产业链（申万新分类下地产、建筑、建材行业）基金重仓持股市值占A股比为1.93%（近10年来最低），环比上一季度-0.38pct，超配比例-2.48%（近10年百分比排位41%），环比上一季度-0.17pct。\r\n\n                        \n\n                              三行业低配比例均出现扩大。申万新分类下地产、建筑、建材行业本季度基金重仓持股市值占A股比分别为0.98%、0.49%、0.45%（近10年百分比排位分别为0%、26%、3%），环比上一季度分别-0.21pct、-0.09pct、-0.08pct，地产、建材行业基金重仓持股市值占A股比处于10年以来底部；地产、建筑和建材行业超配比例分别为-0.49%、-1.60%、-0.38%（近10年百分比排位分别为41%、46%、23%），环比上一季度分别-0.03pct、-0.12pct、-0.01pct，低配比例均扩大。\r\n\n                        \n\n                              自主划分的二级行业中，其他材料、装饰装修加仓较多，装修建材行业减仓明显，其他材料、房地产服务、装饰装修基金重仓持股市值占流通盘比位于历史较高水平，设计咨询、装修建材位于历史较低水平。本季度基金重仓持股市值占流通盘比环比上一季度增加最多的三个子行业分别为其他材料（+2.64pct）、装饰装修（+1.95pct）、房地产服务（+0.23pct），减少最多的三个子行业分别为装修建材（-0.64pct）、设计咨询（-0.47pct）、水泥（-0.27pct）；基金重仓持股市值占流通盘比近10年百分比排位最高的三个子行业分别为其他材料（90%）、房地产服务（89%）、装饰装修（85%），近10年百分比排位最低的三个子行业分别为设计咨询（3%）、装修建材（5%）、玻璃玻纤（13%）。\r\n\n                        \n\n                              进一步在二级子行业的分析中加入家居、厨电子行业。家居行业本季度基金重仓持股市值占流通盘比为3.91%，环比上一季度+1.31pct；厨电行业本季度基金重仓持股市值占流通盘比为1.51%，环比上一季度+0.26pct。家居、厨电行业本季度重仓持股市值占流通盘比位于近10年的百分比排名分别为56%、23%，家居行业较上季度有明显提升。\r\n\n                        \n\n                              个股持仓：\r\n\n                        \n\n                              （1）个股持仓市值：本季度居住产业链公募基金重仓持仓总市值前五的股票依次是保利发展（65.5亿元）、招商蛇口（36.9亿元）、中国建筑（33.4亿元）、金诚信（27.9亿元）、海螺水泥（23.8亿元）。\r\n\n                        \n\n                              房地产行业前五的股票分别为保利发展（65.5亿元）、招商蛇口（36.9亿元）、万科A（12.8亿元）、华发股份（11.5亿元）、招商积余（8.8亿元），建筑行业前五的股票分别为中国建筑（33.4亿元）、金诚信（27.9亿元）、中国中铁（8.0亿元）、中材国际（4.6亿元）、鸿路钢构（3.3亿元），建材行业前五的股票分别为海螺水泥（23.8亿元）、东方雨虹（19.4亿元）、中国巨石（6.3亿元）、江山欧派（4.4亿元）、华新水泥（4.3亿元）。\r\n\n                        \n\n                              进一步加入家居、厨电行业的重点个股进行对比，家居重点个股中，基金重仓持仓总市值前前五的股票是顾家家居（32.6亿元）、公牛集团（17.9亿元）、欧派家居（11.5亿元）、索菲亚（7.3亿元）、志邦家居（5.3亿元），厨电重点个股中，基金重仓持仓总市值前三的股票是苏泊尔（7.1亿元）、老板电器（4.5亿元）、华帝股份（2.8亿元）。\r\n\n                        \n\n                              （2）个股持仓变动：按基金重仓持股占流通盘比计算，环比上一季度加仓幅度前五名依次为安徽建工（+1.37pct）、招商积余（+1.07pct）、中材国际（+0.57pct）、爱丽家居（+0.40pct）、中国巨石（+0.26pct）；减仓幅度前五名依次为志特新材（-2.96pct）、滨江集团（-2.68pct）、三棵树（-1.29pct）、华阳国际（-1.21pct）、保利发展（-1.04pct）。\r\n\n                        \n\n                              进一步加入家居、厨电行业的重点个股进行对比，家居重点个股中，环比上一季度加仓幅度前三名依次为顾家家居（+6.98pct）、匠心家居（+1.78pct）、索菲亚（+0.52pct），厨电重点个股中，华帝股份环比上一季度加仓0.68pct。\r\n\n                        \n\n                              风险提示：地产信用风险失控、政策定力超预期、数据统计存在允许范围内偏差的可能。\n\n                        \n\n                                              \n\n                    '}, {'研报公司': '上海证券', '研报总结': '        \n                        \n            \n                        \n\n                              核心观点\n\n                        \n\n                              推动2023年增发国债于今年6月底前开工建设，项目资金或将进一步改善。4月17日国新办发布会上，国家发改委表示，截止2024年2月，发改委已经完成了三批共1万亿增发国债项目清单的下达工作，落实约1.5万亿个具体项目。同时，国家发改委表示，后续将进一步压实地方主体责任，推动所有增发国债项目于今年6月底前开工建设。从当前资金到位率来看，截止4月23日，根据百年建筑调研数据显示，总项目资金到位率62.64%，非房建项目资金到位率65.46%，房建项目资金到位率46.07%，我们认为，尽管环比仍然改善，但项目资金到位率整体偏低。因此，我们认为，随着推动增发国债项目的加快建设，项目资金有望进一步改善，支撑下游建材需求。\n\n                        \n\n                              新增专项债发行节奏有望提速。根据国家发改委数据显示，今年专项债券规模为3.9万亿，根据统计来看，截止2024年5月，今年预计新增专项债发行总额为8036亿，占全年规模20.6%，低于2019-2023年平均发行节奏。我们认为，随着地方政府专项债券项目初筛通过，有望推动更多实物工作量的完成。\n\n                        \n\n                              行业重点数据跟踪：\n\n                        \n\n                              水泥核心观点：过去一周（4.20-4.26）全国水泥均价周环比下跌0.1%，各区域价格也整体保持平稳。需求端看，以长三角为例，当前尽管处于季节性回升阶段，但考虑到当前雨水天气增多，一定程度上影响到施工节奏。水泥8省市库存量周环比下降0.8%，库存连续2周环比下降。利润方面看，本周水泥利润周环比下降2.23%，利润延续收窄。\n\n                        \n\n                              平板玻璃：过去一周（4.20-4.26）4月20日全国浮法玻璃价格环比下降0.2%，降幅进一步收窄。库存方面，4月26日全国浮法玻璃库存环比小幅增加1.17%。根据卓创资讯信息显示，分大区表现看，华北地区受期货提振成交好转，浮法厂有所去库；华东地区产销较前一周有所上升，观望情绪较重；华南地区受降雨影响，出货放缓，库存略有增加。成本端方面，纯碱价格进一步上涨，4月25日国内纯碱厂家总库存87.85万吨，环比上涨0.63%，纯碱企业库存小幅回升。\n\n                        \n\n                              光伏玻璃：过去一周（4.20-4.26）光伏玻璃价格26.5元/平方米，本周价格环比延续持平。供应端，2024年第17周周度产量为53.88万吨，产量周环比+2.43%，产量延续抬升。同时，库存端看，4月26日库存周环比下降0.1%，光伏玻璃库存降幅收窄。\n\n                        \n\n                              玻纤：过去一周（4.20-4.26）玻纤价格周环比持平。\n\n                        \n\n                              碳纤维：过去一周（4.20-4.26）碳纤维价格周环比上涨1.56%。供给端看，本周产量和开工率分别抬升0.44%和0.37个百分点，库存端行业进一步累库。\n\n                        \n\n                              投资建议\n\n                        \n\n                              投资策略方面，当前建材处于底部，但在价格触底之后，近期包括水泥、玻纤等价格均有提价修复利润动力。因此，关注建材板块底部机会。一是可以建议关注业绩具有韧性的消费建材龙头，关注龙头公司伟星新材等；二是关注二三季度需求释放，供需边际改善，成本端纯碱价格下降带来盈利弹性的光伏玻璃板块，建议关注信义光能、福莱特、信义玻璃等。三是关注下游新项目有望提速，资金到位率改善的水泥板块，建议关注华新水泥、海螺水泥。此外，中国巨石第二轮提价，玻纤提价有望带动盈利底部改善，建议关注中国巨石。\n\n                        \n\n                              风险提示\n\n                        \n\n                              宏观经济下行风险，房地产行业修复不及预期；统计样本带来数据差异。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '国投证券', '研报总结': '        \n                        \n            \n                        \n\n                              事件：2024年4月30日，中共中央政治局召开会议，提出切实做好保交房工作，统筹研究消化存量房产和优化增量住房政策措施，抓紧构建房地产发展新模式，促进房地产高质量发展。\r\n\n                        \n\n                              政治局地产政策整体定调积极，保交楼及供需改善持续推进。\r\n\n                        \n\n                              2024年4月30日召开的中央政治局会议在地产行业指出：1）继续坚持因城施策，压实地方政府、房地产企业、金融机构各方责任，切实做好保交房工作，保障购房人合法权益。2）结合房地产市场供求关系的新变化、人民群众对优质住房的新期待，统筹研究消化存量房产和优化增量住房的政策措施，抓紧构建房地产发展新模式，促进房地产高质量发展。根据上述会议政策内容，我们认为地产行业政策表述较为积极，保交楼工作2024年有望持续，同时改善地产供需关系也为未来政策推进重点，后续去库存相关的具体政策细则落地值得期待，地产行业下行态势改善可期，助力地产链消费建材估值提升。\r\n\n                        \n\n                              购房政策延续宽松基调，30城推出住房“以旧换新”，多策并举助推销售数据回暖。今年我国购房政策总体延续宽松基调，近期多地相继放松购房政策，包括部分核心二线城市和强一线城市，一线城市整体保持稳步优化节奏，二线核心城市优化力度加大，如3月杭州放开二手房限购，4月成都全面取消限购、北京和天津相继放松限购要求。根据中指研究院信息，截至目前，除海南省外，核心城市中，北京、上海、广州、深圳四大一线城市和杭州（新房）、天津、西安等核心区仍维持限购政策。2023年和2024Q1，我国商品房销售面积分别为11.17亿㎡和2.27亿㎡，yoy-8.50%、-19.40%，70城二手房3月成交量有所提升，但成交价格普跌，地产行业销售端量价仍承压。2023年以来，我国已有30个城市表态参与住房“以旧换新”，将消化存量二手房和新房去库销售相结合。购房端宽松政策落地叠加“以旧换新”推进，有望助力后续新房和二手房销售数据改善，为消费建材创造需求。\r\n\n                        \n\n                              房企融资协调机制积极推进，助力项目交付及建材商回款改善。\r\n\n                        \n\n                              2024年1月，住建部和金融监管总局发布《关于建立城市房地产融资协调机制的通知》，提出建立城市房地产融资协调机制，一视同仁满足不同所有制房产企业合理融资需求。根据新华社报道，截至4月3日，全国31个省份和新疆生产建设兵团均已建立省级房地产融资协调机制，所有地级及以上城市（不含直辖市）已建立城市房地产融资协调机制，分批提出可以给予融资支持的房地产项目“白名单”并推送给商业银行。未来随相关资金支持的落地使用，有助于化解房企资金压力，助力在建项目顺利开展，保障项目交付，稳定购房者预期，优先利好地产竣工端复苏，消费建材回款、现金流、需求及盈利指标有望充分受益。\r\n\n                        \n\n                              基建稳增长仍为全年主线，基建投资+C端创造非房需求。目前多家消费建材公司在经营战略上，大多基于传统地产需求同步拓展非房基建类及C端零售领域业务，优化下游客户结构，加强零售和工程端渠道建设且成效显著。2024年我国基建投资稳增长基调持续，政治局会议内容对深入实施地方政府债务风险化解方案作出部署，提出要及早发行并用好超长期特别国债，加快专项债发行使用进度，保持必要的财政支出强度。随万亿国债和超长期特别国债项目逐步开工建设以及“三大工程”的推进落地，资金端和需求端均为基建投资增长提供保障，创造非房侧建材需求，同时对于具备明显C端属性的建材品种，存量房重装有望支撑长期需求释放。\r\n\n                        \n\n                              龙头消费建材经营稳健多元布局，经营指标有望改善。受下游地产下行、疫情封控以及原材料价格等多重因素影响，消费建材自2021Q3起盈利端明显承压，目前大宗原材料价格压力减小，同时多家龙头企业在大B、小B和C端共同发力，叠加新产品新业务快速成长以及行业出清后集中度提升，行业龙头整体发展更为平稳，同时毛利率呈现一定程度的改善。地产行业下行背景下，部分企业在2021-2023年间对应收账款进行减值计提，影响业绩增速表现，风险释放较为充分。随政策落地执行，地产端业务需求复苏和业务回款有望好转，未来行业龙头业绩增速、盈利水平、现金流持续改善值得期待。\r\n\n                        \n\n                              投资建议：政治局会议对地产行业政策定调积极，多地放松限购政策，销售端和房企融资端多策并举，基建投资维持稳增长态势，有望助力建材行业需求回暖及回款改善，地产链消费建材优先受益，建议关注各细分领域优质龙头，受益下游供需关系改善预期、房企资金压力缓解、项目需求逐步回暖及行业集中度提升。\r\n\n                        \n\n                              重点推荐：\r\n\n                        \n\n                              【北新建材】央企石膏板龙头，受益下游地产集中度提升，成本和定价优势明显，资产并购助力多业务发展，2023年和2024Q1营收、业绩同比高增，股权激励业绩目标亮眼。\r\n\n                        \n\n                              【兔宝宝】低估值高端家装板材龙头，渠道建设升级成效显著，定制家居差异化竞争优势显著，2023及2024Q1扣非业绩增速亮眼，高分红比例长期投资价值显著。\r\n\n                        \n\n                              【伟星新材】C端家装管材龙头，经营韧性强劲，2023年归母及2024Q1扣非业绩增速亮眼，盈利能力改善，发展步伐稳健。\r\n\n                        \n\n                              建议关注：\r\n\n                        \n\n                              【三棵树】成本下行毛利率提升，下游客户结构优化，加强C端和小B工程端业务拓展，涂料产品消费属性最强，现金流表现出色，民族涂料龙头市占率提升可期。\r\n\n                        \n\n                              【东方雨虹】防水行业龙头，非房和C端业务成长迅速，成本压力改善盈利修复，同时受益防水新规执行后带来的行业需求释放。\r\n\n                        \n\n                              风险提示：政策执行不及预期，原材料价格上涨，市场竞争加剧，回款不及预期。\n\n                        \n\n                                              \n\n                    '}, {'研报公司': '国金证券', '研报总结': '        \n                        \n            \n                        \n\n                              核心观点\n\n                        \n\n                              利润表：收入增速趋缓，利润略有下滑，央国企表现突出。2023年60家上市物企：①营收总额2855.5亿元，同比+8.1%，较22年15.7%有所放缓。其中央国企物企+18.3%，独立物企+15.0%，民企且未展期物企+13.4%，混合所有制物企+10.1%，民企且已展期物企+1.7%。②归母净利润总额149.6亿元，同比-1.7%，已连续两年下滑。其中央国企物企+26.1%，民企且未展期物企+1.9%，民企且已展期物企-4.2%，独立物企-10.8%，混合所有制物企-24.8%。③整体毛利率为20.3%，同比-1.3pct，毛利率持续下降。其中民企且未展期物企26.0%；民企且已展期物企22.1%；央国企物企20.8%；混合所有制物企毛利率16.1%；独立物企13.4%。④整体销管费用率为8.7%，同比-0.9pct，销管费用率持续压降。其中央国企物企6.7%；独立物企7.9%；混合所有制物企8.3%；民企且未展期物企9.1%；民企且已展期物企10.2%。\n\n                        \n\n                              资产负债表：应收增速放缓，商誉下降，现金充裕。2023年60家上市物企：①贸易应收账款周转天数104天，同比增加12天，增速放缓。贸易应收账款周转天数拉长是行业共性问题，其中央国企物企61天；独立物企81天；民企且未展期物企84天；混合所有制物企86天；民企且已展期物企139天。②商誉总额364.7亿元，同比-11.3%，首次由正转负，主因收并购放缓并计提大额减值。③净现金总额1158.2亿元，同比+11.4%，物企现金充裕，作为“现金奶牛”的属性仍未改变。\n\n                        \n\n                              现金流量表：重回现金流逻辑，积极分红回馈股东。2023年60家上市物企：①经营性现金流净额294.0亿元，同比+108.2%。其中央国企物企+41.9%；民企且已展期物企+449.0%；混合所有制物企+3.2%；民企且未展期物企+4.8%；独立物企+95.8%；②经营性现金流净额/净利润为1.81x，较22年的0.86x大幅提升。③融资性现金流净额-140.9亿元，较22年-127.7亿元流出更多，主因债务减少及分红增加。④分红总额86.4亿元，同比+23.6%。其中央国企物企+54.9%；混合所有制物企+36.3%；民企且已展期物企-18.9%；民企且未展期物企+19.9%；独立物企+10.5%。央国企物企分红更为稳健，2020-2023年期间分红总额维持50%以上的增速。\n\n                        \n\n                              业务结构：基础物管稳业绩，增值服务助成长。2023年37家上市物企各业务收入：①物管服务同比+12.8%，收入占比提升3.1pct至67.0%，进一步夯实业绩压舱石地位。②非业主增值服务同比-20.9%，成为唯一负增长的业务，连续两年大幅下滑后收入占比降至8.1%。③社区增值服务同比+5.2%,近五年收入占比维持12%-16%。\n\n                        \n\n                              投资建议\n\n                        \n\n                              房地产市场进入深度调整以来，关联房企的经营情况持续影响物业公司的业绩及在资本市场的表现。从外部来看，当前央国企开发商销售、拿地、融资表现普遍好于同行，部分头部央国企及改善型房企资产质量好、债务健康，具备明显的竞争优势，能够助力物业公司的发展。从自身来看，部分物业公司不盲目扩张规模，持续夯实发展质量，中长期业绩表现亮眼，体现出穿越周期的强大韧性，具备营收利润持续增长、销管费用率不断压降、应收账款控制得当、低负债率现金充裕、经营性现金流持续改善、积极分红回馈股东等优秀特质。因此在国资物企中，推荐华润万象生活、建发物业、越秀服务，其关联房企销投融表现突出，在行业出清的过程中有望实现强者恒强，能够大力支持物企的发展。在民营物企中，推荐滨江服务，其关联房企经营稳健堪比国企，公司自身定位中高端品质服务，5S增值服务进展顺利；推荐金科服务，公司连续两年计提大额减值，历史包袱出清，24年有望迎来业绩反转。\n\n                        \n\n                              风险提示\n\n                        \n\n                              关联房企销售不及预期；物企外拓不及预期；社区增值服务落地不及预期；金融资产及商誉减值风险。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '民生证券', '研报总结': '        \n                        \n            \n                        \n\n                              封面观点：①一季报表现较优视角，1）零售业务、小B业务占比高的建材品种：【北新建材】（24Q1归母净利同比+38%），【伟星新材】（扣非净利同比+38%），【兔宝宝】（扣非净利同比+38%），【奥普家居】（24Q1收入同增10%）。2）出口链持续景气，【西大门】（归母净利同比+40%），【共创草坪】（归</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>['null', 'null', 'null', '国信证券在近期研报中表示，投资建议：相对而言建筑央企在承接重大项目上存在优势，融资成本低于行业均值，有望保持订单和业绩稳健增长；随着海外订单持续回暖，建议关注国际工程龙头企业业绩兑现；工业建筑受地产和地方政府债务影响较小，也是当前政策支持的投资方向，随着库存周期拐点临近，产业链上钢结构、专业工程板块有望迎来估值修复，尤其是部分重大晶圆厂项目有望年内落地，建议关注洁净厂房建设机会。', 'null', 'null', 'null', 'null', 'null', 'null', '上海证券在近期研报中表示，建议关注建材板块底部机会。', '国投证券在近期研报中表示，政治局会议对地产行业政策定调积极，多地放松限购政策，销售端和房企融资端多策并举，基建投资维持稳增长态势，有望助力建材行业需求回暖及回款改善，地产链消费建材优先受益，建议关注各细分领域优质龙头，受益下游供需关系改善预期、房企资金压力缓解、项目需求逐步回暖及行业集中度提升。', 'null', 'null', 'null', 'null', 'null', 'null', 'null', '东兴证券在近期研报中表示，我们认为，购房门槛和成本的降低，有望提振核心一、二线城市的购房需求。后续，消化存量房产和优化增量住房的政策措施将会形成组合拳，持续改善市场供需结构，对需求形成托底。']</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>[{'role': 'system', 'content': '你是一名投资分析专家，现在需要你判断给出的资讯与哪个投资建议最相关，最后仅输出最相关建议即可，请遵循以下分析步骤：\n1.首先仔细阅读给出的资讯，了解资讯的主要内容，资讯仅作为理解参考，不可作为最后输出内容来源；\n2.接下来将给你几篇研报投资建议，请判断资讯与哪个投资建议最相关，最相关意味着该建议应直接对应资讯的核心主题，深入探讨资讯中提到的变化或趋势及其对相应行业市场的影响。\n3.输出与资讯内容最相关的一条建议，仅以json形式输出最相关投资建议原文，不需要添加或杜撰任何建议之外的信息。\n4.如果判断没有最相关的投资建议句段。most_relevant_suggestion输出“无”\n输出参考示例：{"most_relevant_suggestion":"东莞证券在近期研报中表示，当前楼市虽然基本面未见好转，但政策自上而下均处在持续宽松阶段，随着后续的进一步政策宽松预期释放，板块估值有望得到一定的修复。"}\n\n'}, {'role': 'user', 'content': '资讯：{房地产持续活跃，万科金地再走强 房地产板块持续活跃，金地集团涨近7%，万科A涨超3%，我爱我家5天4板，渝开发、天宸股份等涨停。}\n\n"suggestions":\n{null}\n{null}\n{null}\n{国信证券在近期研报中表示，投资建议：相对而言建筑央企在承接重大项目上存在优势，融资成本低于行业均值，有望保持订单和业绩稳健增长；随着海外订单持续回暖，建议关注国际工程龙头企业业绩兑现；工业建筑受地产和地方政府债务影响较小，也是当前政策支持的投资方向，随着库存周期拐点临近，产业链上钢结构、专业工程板块有望迎来估值修复，尤其是部分重大晶圆厂项目有望年内落地，建议关注洁净厂房建设机会。}\n{null}\n{null}\n{null}\n{null}\n{null}\n{null}\n{上海证券在近期研报中表示，建议关注建材板块底部机会。}\n{国投证券在近期研报中表示，政治局会议对地产行业政策定调积极，多地放松限购政策，销售端和房企融资端多策并举，基建投资维持稳增长态势，有望助力建材行业需求回暖及回款改善，地产链消费建材优先受益，建议关注各细分领域优质龙头，受益下游供需关系改善预期、房企资金压力缓解、项目需求逐步回暖及行业集中度提升。}\n{null}\n{null}\n{null}\n{null}\n{null}\n{null}\n{null}\n{东兴证券在近期研报中表示，我们认为，购房门槛和成本的降低，有望提振核心一、二线城市的购房需求。后续，消化存量房产和优化增量住房的政策措施将会形成组合拳，持续改善市场供需结构，对需求形成托底。}\n'}]</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>{"most_relevant_suggestion":"国投证券在近期研报中表示，政治局会议对地产行业政策定调积极，多地放松限购政策，销售端和房企融资端多策并举，基建投资维持稳增长态势，有望助力建材行业需求回暖及回款改善，地产链消费建材优先受益，建议关注各细分领域优质龙头，受益下游供需关系改善预期、房企资金压力缓解、项目需求逐步回暖及行业集中度提升。"}</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>开盘第一小时，市场延续分化整理态势，地产股迎来资金回流，我爱我家5天4板，渝开发涨停，苏宁环球、特发服务、金地集团等涨幅居前。
+近期地产板块表现出明显的分化态势。部分低位公司如渝开发和新华联获得资金补涨，而高标方向的特发服务与我爱我家则维持强劲涨势。龙头企业如金地集团、保利发展和万科A也展现较为完好上涨趋势。然而，整体板块走势并不连贯，存在不少分歧。在短期整理后，未来走势尤为关键。如果能实现分歧转一致，则后市潜力巨大；若继续缩量弱势整理，短线活跃资金可能会产生抛压。因此，短期内需密切关注资金流向和市场情绪变化。
+国投证券在近期研报中表示，政治局会议对地产行业政策定调积极，多地放松限购政策，销售端和房企融资端多策并举，基建投资维持稳增长态势，有望助力建材行业需求回暖及回款改善，地产链消费建材优先受益，建议关注各细分领域优质龙头，受益下游供需关系改善预期、房企资金压力缓解、项目需求逐步回暖及行业集中度提升。</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>[{'role': 'system', 'content': '你是一名标题编辑人员，请根据文章内容，撰写财经新闻标题：\n\n标题1句话\n1. 简短新闻内容的短句，要求标题党，最好能带上新闻中提到的热门人物、热门事件的动词、或关键数据等。\n\n标题党是指：\n- 引起好奇心：制造悬念或提出引人入胜的问题。\n- 使用强烈、感性的语言：使用能够引发情感反应的词汇。\n- 结合热点话题：利用当前的热点或流行趋势。\n- 直接挑战读者观点：提出可能与普遍看法不同的观点。\n- 使用数字或统计数据：数字能够吸引注意并增加说服力\n\n2、越简短越好，避免使用“标题”这个词\n\n，使用json格式输出，输出参考示例：{"title":"文心一言用户破2亿！AI继续火热？"}\n\n新闻：'}, {'role': 'user', 'content': '开盘第一小时，市场延续分化整理态势，地产股迎来资金回流，我爱我家5天4板，渝开发涨停，苏宁环球、特发服务、金地集团等涨幅居前。\n近期地产板块表现出明显的分化态势。部分低位公司如渝开发和新华联获得资金补涨，而高标方向的特发服务与我爱我家则维持强劲涨势。龙头企业如金地集团、保利发展和万科A也展现较为完好上涨趋势。然而，整体板块走势并不连贯，存在不少分歧。在短期整理后，未来走势尤为关键。如果能实现分歧转一致，则后市潜力巨大；若继续缩量弱势整理，短线活跃资金可能会产生抛压。因此，短期内需密切关注资金流向和市场情绪变化。\n国投证券在近期研报中表示，政治局会议对地产行业政策定调积极，多地放松限购政策，销售端和房企融资端多策并举，基建投资维持稳增长态势，有望助力建材行业需求回暖及回款改善，地产链消费建材优先受益，建议关注各细分领域优质龙头，受益下游供需关系改善预期、房企资金压力缓解、项目需求逐步回暖及行业集中度提升。'}]</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>{"title":"地产股逆势崛起：我爱我家5天4板，渝开发涨停！"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>监管出手后，南京化纤一字跌停 最近，南京化纤、中通客车等多股股价走势被提前“精准”预测，对此监管火速出手进行精准打击。今日开盘，南京化纤一字跌停，中通客车跌超3%。</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>{"category": "其他"}</t>
+        </is>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>非行业利好</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>AI教育概念震荡走强，传智教育涨停 AI教育概念震荡走强，传智教育涨停，全通教育涨超10%，科德教育、凯文教育、昂立教育等跟涨。</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>{"category": "行业利好新闻"}</t>
+        </is>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>咨询或解读不足</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>{
+"industry_benefit":[
+{"industry_name":"传媒","score":"75"},
+{"industry_name":"教育","score":"85"}
+],
+"concept_benefit":[
+{"concept_name":"人工智能","score":"80"}
+]
+}</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[{'提取文章': '\n                            \n                                \n  早盘AI教育概念震荡走强，传智教育涨停，全通教育涨超10%，科德教育、凯文教育、昂立教育等跟涨。消息面上，美国科技巨头微软与教育辅导机构可汗学院达成合作，将向美国所有教师免费提供生成式人工智能(AI)助手，它可以帮助教师创建课程、分析学生表现、规划作业，并为教师提供提高自身学习能力和教学效率的机会。（文章来源：财联社）                        ', 'gpt提取资讯,解读结果': '{\n  "news": "早盘AI教育概念震荡走强，传智教育涨停，全通教育涨超10%，科德教育、凯文教育、昂立教育等跟涨。消息面上，美国科技巨头微软与教育辅导机构可汗学院达成合作，将向美国所有教师免费提供生成式人工智能(AI)助手，它可以帮助教师创建课程、分析学生表现、规划作业，并为教师提供提高自身学习能力和教学效率的机会。",\n  "analysis": null\n}'}, {'提取文章': '\n                            \n                                \n  5月22日上午，教育板块震荡走强，传智教育触及涨停，全通教育涨超12%，科德教育、凯文教育、学大教育等跟涨。（文章来源：界面新闻）                        ', 'gpt提取资讯,解读结果': '{\n"news": "5月22日上午，教育板块震荡走强，传智教育触及涨停，全通教育涨超12%，科德教育、凯文教育、学大教育等跟涨。",\n"analysis": null\n}'}, {'提取文章': '\n                            \n                                \n  南方财经5月22日电，教育板块震荡走强，传智教育触及涨停，全通教育涨超9%，科德教育、凯文教育、学大教育等跟涨。 （文章来源：南方财经网）                        ', 'gpt提取资讯,解读结果': '{\n"news":"南方财经5月22日电，教育板块震荡走强，传智教育触及涨停，全通教育涨超9%，科德教育、凯文教育、学大教育等跟涨。",\n"analysis":null\n}'}, {'提取文章': '\n                            \n                                \n  教育板块走强，全通教育涨逾15%，传智教育涨停，科德教育涨逾6%，凯文教育、中公教育等涨幅居前。（文章来源：证券时报网）                        ', 'gpt提取资讯,解读结果': '{\n"news": "教育板块走强，全通教育涨逾15%，传智教育涨停，科德教育涨逾6%，凯文教育、中公教育等涨幅居前。（文章来源：证券时报网）",\n"analysis": null\n}'}, {'提取文章': '\n                            \n                                \n  5月22日，教育股集体冲高，全通教育涨逾16%，传智教育涨停，科德教育、中公教育、凯文教育跟涨。（文章来源：每日经济新闻）                        ', 'gpt提取资讯,解读结果': '{\n"news":"5月22日，教育股集体冲高，全通教育涨逾16%，传智教育涨停，科德教育、中公教育、凯文教育跟涨。",\n"analysis":null\n}'}, {'提取文章': '\n                            \n                                \n  上证报中国证券网讯 5月22日早盘，教育板块快速拉升。截至9时41分，全通教育涨超5%，传智教育涨近4%，科德教育、凯文教育等跟涨。 数据来源：choice金融终端（文章来源：上海证券报·中国证券网）                        ', 'gpt提取资讯,解读结果': '{\n"news":"5月22日早盘，教育板块快速拉升。截至9时41分，全通教育涨超5%，传智教育涨近4%，科德教育、凯文教育等跟涨。",\n"analysis":null\n}'}]</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>早盘AI教育概念震荡走强，传智教育涨停，全通教育涨超10%，科德教育、凯文教育、昂立教育等跟涨。消息面上，美国科技巨头微软与教育辅导机构可汗学院达成合作，将向美国所有教师免费提供生成式人工智能(AI)助手，它可以帮助教师创建课程、分析学生表现、规划作业，并为教师提供提高自身学习能力和教学效率的机会。</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>英伟达又涨上历史新高！周四财报会是“惊喜”还是“惊吓”？ ①英伟达即将公布其季度财报，市场预期其收入将同比增长240%，净利润增长540%；
+②财报发布之前，英伟达股价攀升至954美元，刷新历史新高，凸显出投资人对该公司的看好；
+③一些分析师则担忧，亚马逊转向购买英伟达的新一代芯片可能预示着英伟达业绩增速的放缓。</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>{"category": "其他"}</t>
+        </is>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>非行业利好</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>美股收盘：纳指、标普齐创新高 英伟达率众科技巨头再攀巅峰 1、美联储会议纪要、英伟达财报前夕，英伟达、微软等一众科技巨头推动标普、道指再创收盘历史新高；2、微软召开Build开发者大会，近50项AI功能集体上新；3、特斯拉罕见亮相ACT展，股价大涨6%；4、全球最大云计算公司暂停采购英伟达“超级芯片”，坐等下一代产品上架。</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>{"category": "其他"}</t>
+        </is>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>非行业利好</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>【早报】事关金融工作，李强重要批示 ①李强：坚持金融服务实体经济，推动金融高质量发展②合肥、长沙等地响应楼市新政，首套房首付15%③美股三大指数集体收涨，热门科技股多数上涨④广东调整医美外科项目，美容外科可打玻尿酸等注射类项目⑤深交所：依规对中通客车相关账户采取限制交易15日的监管措施。</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>{"category": "其他"}</t>
+        </is>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>非行业利好</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>打击网络“精准预测” 沪深交易所火速出手：相关账户限制交易15日 ①上交所：对南京化纤相关账户采取暂停交易十五日的监管措施 并已将发现的涉嫌违法违规情况移交进一步查处；
+②深交所：关注到中通客车股价走势的相关网络信息 依规对相关账户采取限制交易十五日的监管措施。</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>{"category": "其他"}</t>
+        </is>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>非行业利好</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>重磅！鼓励光伏行业兼并重组 5月21日，据中国光伏行业协会CPIA公众号，中国光伏行业协会近日在北京组织召开“光伏行业高质量发展座谈会”。会议指出，加强对于低于成本价格销售恶性竞争的打击力度；鼓励行业兼并重组，畅通市场退出机制。</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>{"category": "行业利好新闻"}</t>
+        </is>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>{
+  "industry_benefit":[
+    {"industry_name":"电力设备","score":"90"},
+    {"industry_name":"公用事业","score":"85"},
+    {"industry_name":"基础化工","score":"70"}
+  ],
+  "concept_benefit":[
+    {"concept_name":"太阳能","score":"95"},
+    {"concept_name":"新能源","score":"90"},
+    {"concept_name":"绿色电力","score":"85"}
+  ]
+}</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[{'提取文章': '\n                            \n                                \n  光伏概念走强，科翔股份涨逾12%，金刚光伏涨逾8%，英力股份涨近8%。5月17日，在工信部电子信息司指导下，中国光伏行业协会组织召开“光伏行业高质量发展座谈会”。会议指出，加强对于低于成本价格销售恶性竞争的打击力度；鼓励行业兼并重组，畅通市场退出机制。（文章来源：证券时报网）                        ', 'gpt提取资讯,解读结果': '{\n"news":"5月17日，在工信部电子信息司指导下，中国光伏行业协会组织召开“光伏行业高质量发展座谈会”。会议指出，加强对于低于成本价格销售恶性竞争的打击力度；鼓励行业兼并重组，畅通市场退出机制。",\n"analysis":null\n}'}, {'提取文章': '\n                            \n                                \n  A股17000亿赛道，传来重磅信号。  5月21日，据中国光伏行业协会CPIA公众号，中国光伏行业协会近日在北京组织召开“光伏行业高质量发展座谈会”。会议指出，加强对于低于成本价格销售恶性竞争的打击力度；鼓励行业兼并重组，畅通市场退出机制。  今年以来，光伏产业链各环节产品价格出现了全线下跌的情况。据中国有色金属工业协会硅业分会5月15日发布的数据，目前多晶硅价格已突破所有在产企业现金成本。今年一季度，多家头部光伏上市公司业绩承压，二三线光伏企业的经营形势更为严峻。  反映到市场层面，A股的光伏板块调整不断，截至5月21日收盘，光伏指数报2953.05点，年内累计跌幅超20%，相较于2022年8月的最高点，累计跌幅已达52.2%。据数据显示，目前A股的光伏板块的总市值合计约17300亿元。  重磅会议  5月21日，据中国光伏行业协会CPIA公众号，5月17日下午，在工业和信息化部电子信息司指导下，中国光伏行业协会在北京组织召开“光伏行业高质量发展座谈会”。会议指出，加强对于低于成本价格销售恶性竞争的打击力度；鼓励行业兼并重组，畅通市场退出机制。  据悉，来自天合光能、协鑫科技、晶科能源、阿特斯、隆基绿能、通威股份、大全能源、宜宾市政府、国务院发展研究中心、国研智库、国家发改委能源研究所、硅基材料制备技术国家工程研究中心、国家开发银行、兴业银行等光伏企业、研究单位、地方政府、金融机构的14家单位的代表出席本次会议，中国光伏行业协会标准技术委员会与知识产权专委会代表也出席并汇报了相关工作进展。会议由中国光伏行业协会江华副秘书长主持，工业和信息化部电子信息司金磊处长出席本次会议并讲话。  会议指出，光伏行业是市场化程度非常高的行业，更宜通过市场化的手段解决目前的行业困境，但也应充分发挥好政府有形手的作用，包括优化光伏制造行业管理政策对行业产能建设的指导作用，提升关键技术指标；规范管理地方政府的招商引资政策，建立全国统一大市场；适应光伏技术迭代速度快的特点，建立有效的知识产权保护措施；鼓励行业兼并重组，畅通市场退出机制；加强对于低于成本价格销售恶性竞争的打击力度；保障国内光伏市场稳定增长，探索通过示范项目支持先进技术应用，转变低价中标局面等。  会议表示，光伏企业和行业也需做好自己，充分认识到自身对于解决目前行业困境的主体责任，杜绝恶性竞争，真正站在行业立场决策行动，坚持创新驱动、坚持长期主义，合作共赢，共同维护公平竞争秩序。  中国光伏行业协会后续将重点推进以下工作：  一是支撑工信部电子司，充分发挥《光伏制造行业规范条件》作用，引导和规范行业发展；  二是继续推进价格指数模型搭建工作，通过光伏组件期货等方式探索更为合理的海内外价格形成机制；  三是计划就TOPCon电池效率标定及入库降档问题召开相关座谈会，探讨产生原因及解决路径；  四是继续加强行业监测工作，相关行业信息将及时对外发布，指导行业决策。  全线下跌  在碳中和的大背景下，光伏新能源产业迎来了前所未有的发展机遇，但当前也面临着产能过剩和市场饱和的挑战，供需失衡使得光伏产品价格持续下行，部分产品甚至已跌破成本线。  今年以来，光伏产业链各环节产品价格出现了全线下跌的情况。以N型TOPCon组件价格为例，据Infolink数据，从1月中上旬的0.98元/W，目前已经降到了0.86元/W，降幅达到12%。  业内分析认为，按目前的电池片价格、封装成本和竞争格局来看，预期未来一段时间，组件价格有可能继续下降。  据中国有色金属工业协会硅业分会5月15日发布的数据，目前多晶硅价格已突破所有在产企业现金成本，在高库存压力下，部分小产能、老产能已经停车检修，绝大多数企业挺价意愿较强，低价情况选择压货不出。  光伏产业链价格全线下跌的背景下，已出现部分企业终止项目投资或推迟项目建设的情况。  其中，ST聆达（聆达股份）子公司金寨嘉悦将现有3.5GW-182mm大尺寸PERC高效太阳能电池片产线自2024年3月14日实施临时停产，后由于公司资金紧张等因素，停产时间一再延长。ST聆达还决定终止建设铜陵高效光伏电池片产业基地项目。  海源复材今年3月宣布，终止了滁州15GW N型高效光伏电池及3GW高效光伏组件项目，并以3800万元价格转让给爱旭科技。  今年2月初，艾能聚对多晶硅电池片生产线实施临时停产，本来计划停产至2024年3月31日，但由于在获取订单方面未获得理想成效，公司决定对多晶硅电池片生产线继续实施停产。  另外，据最新财报数据，今年一季度，多家头部光伏上市公司业绩承压，二三线光伏企业的经营形势更为严峻。  反映到市场层面，A股的光伏板块调整不断，以光伏指数为例，截至5月21日收盘，该指数跌1.49%，报2953.05点，年内累计跌幅超20%，相较于2022年8月的最高点，累计跌幅已达52.2%。  据数据显示，截至5月21日收盘，A股的光伏板块的总市值合计约17300亿元。  加速洗牌  分析人士指出，低价竞争在一定程度上影响了行业的健康发展，也使得企业在研发和创新上的投入受到限制，从而影响了长期的行业竞争力。  中国光伏行业协会组织召开的“光伏行业高质量发展座谈会”明确强调，加强对于低于成本价格销售恶性竞争的打击力度；保障国内光伏市场稳定增长，探索通过示范项目支持先进技术应用，转变低价中标局面等。  在市场饱和的环境中，企业的发展策略和市场定位的重要性愈加凸显，光伏行业需要在保持良性竞争的同时，寻找新的增长点，以避免陷入低利润的恶性循环。不过，多家分析机构认为，长期来看，光伏产品价格下跌幅度有限。  “光伏行业高质量发展座谈会”还指出，鼓励行业兼并重组，畅通市场退出机制。这一表态释放了行业供给侧改革的信号。  值得注意的是，在光伏产业竞争加剧、洗牌加速的同时，今年3月国内光伏新增装机罕见出现下跌迹象。据国家能源局发布的1—3月全国电力工业统计数据，今年前三个月，光伏新增装机45.74GW。而根据此前发布的1—2月数据计算，3月光伏新增装机9.02GW，同比下降32.13%。  根据中国光伏行业协会预测，2024年我国光伏新增装机量保守预估为190GW，低于2023年，乐观情况下预计为220GW，与2023年基本持平。（文章来源：证券时报网）                        ', 'gpt提取资讯,解读结果': '{\n  "news": "5月21日，据中国光伏行业协会CPIA公众号，中国光伏行业协会近日在北京组织召开“光伏行业高质量发展座谈会”。会议指出，加强对于低于成本价格销售恶性竞争的打击力度；鼓励行业兼并重组，畅通市场退出机制。",\n  \n  "analysis": "中国光伏行业协会组织召开的“光伏行业高质量发展座谈会”明确强调，加强对于低于成本价格销售恶性竞争的打击力度；保障国内光伏市场稳定增长，探索通过示范项目支持先进技术应用，转变低价中标局面等。 在市场饱和的环境中，企业的发展策略和市场定位的重要性愈加凸显，光伏行业需要在保持良性竞争的同时，寻找新的增长点，以避免陷入低利润的恶性循环。不过，多家分析机构认为，长期来看，光伏产品价格下跌幅度有限。 “光伏行业高质量发展座谈会”还指出，鼓励行业兼并重组，畅通市场退出机制。这一表态释放了行业供给侧改革的信号。"\n}'}, {'提取文章': '\n                            \n                                \n  南方财经5月21日电，中国光伏行业协会官微消息，中国光伏行业协会组织召开光伏行业高质量发展座谈会。会议指出，光伏行业是市场化程度非常高的行业，更宜通过市场化的手段解决目前的行业困境，但也应充分发挥好政府有形手的作用，包括优化光伏制造行业管理政策对行业产能建设的指导作用，提升关键技术指标；规范管理地方政府的招商引资政策，建立全国统一大市场；适应光伏技术迭代速度快的特点，建立有效的知识产权保护措施；鼓励行业兼并重组，畅通市场退出机制；加强对于低于成本价格销售恶性竞争的打击力度；保障国内光伏市场稳定增长，探索通过示范项目支持先进技术应用，转变低价中标局面等。会议也表示，光伏企业和行业也需做好自己，充分认识到自身对于解决目前行业困境的主体责任，杜绝恶性竞争，真正站在行业立场决策行动，坚持创新驱动、坚持长期主义，合作共赢，共同维护公平竞争秩序。 （文章来源：南方财经网）                        ', 'gpt提取资讯,解读结果': '{\n"news": "南方财经5月21日电，中国光伏行业协会官微消息，中国光伏行业协会组织召开光伏行业高质量发展座谈会。会议指出，光伏行业是市场化程度非常高的行业，更宜通过市场化的手段解决目前的行业困境，但也应充分发挥好政府有形手的作用，包括优化光伏制造行业管理政策对行业产能建设的指导作用，提升关键技术指标；规范管理地方政府的招商引资政策，建立全国统一大市场；适应光伏技术迭代速度快的特点，建立有效的知识产权保护措施；鼓励行业兼并重组，畅通市场退出机制；加强对于低于成本价格销售恶性竞争的打击力度；保障国内光伏市场稳定增长，探索通过示范项目支持先进技术应用，转变低价中标局面等。会议也表示，光伏企业和行业也需做好自己，充分认识到自身对于解决目前行业困境的主体责任，杜绝恶性竞争，真正站在行业立场决策行动，坚持创新驱动、坚持长期主义，合作共赢，共同维护公平竞争秩序。",\n"analysis": null\n}'}, {'提取文章': '\n                            \n                                \n  5月21日，中国光伏行业协会微信公众号发文称，国内光伏产业链价格一路下滑，企业经营承压，对我国光伏行业高质量发展产生不利影响。为探讨当前光伏行业面临的问题、产生的原因和应对措施，引导行业有序发展，5月17日下午，在工业和信息化部电子信息司指导下，中国光伏行业协会在北京组织召开“光伏行业高质量发展座谈会”。   据悉，天合光能、协鑫科技、晶科能源、阿特斯、隆基绿能、通威股份、大全能源、宜宾市政府、国务院发展研究中心、国研智库、国家发改委能源研究所、硅基材料制备技术国家工程研究中心、国家开发银行、兴业银行等光伏企业、研究单位、地方政府、金融机构的14家单位的代表出席本次会议。   会议指出，光伏行业是市场化程度非常高的行业，更宜通过市场化的手段解决目前的行业困境，但也应充分发挥好政府有形手的作用，包括优化光伏制造行业管理政策对行业产能建设的指导作用，提升关键技术指标；规范管理地方政府的招商引资政策，建立全国统一大市场；适应光伏技术迭代速度快的特点，建立有效的知识产权保护措施；鼓励行业兼并重组，畅通市场退出机制；加强对于低于成本价格销售恶性竞争的打击力度；保障国内光伏市场稳定增长，探索通过示范项目支持先进技术应用，转变低价中标局面等。   会议明确，中国光伏行业协会后续将重点推进以下工作：一是支撑工信部电子司，充分发挥《光伏制造行业规范条件》作用，引导和规范行业发展。二是继续推进价格指数模型搭建工作，通过光伏组件期货等方式探索更为合理的海内外价格形成机制。三是计划就TOPCon电池效率标定及入库降档问题召开相关座谈会，探讨产生原因及解决路径。四是继续加强行业监测工作，相关行业信息将及时对外发布，指导行业决策。   （文章来源：中国证券报·中证金牛座）                        ', 'gpt提取资讯,解读结果': '{\n  "news": "5月21日，中国光伏行业协会微信公众号发文称，国内光伏产业链价格一路下滑，企业经营承压，对我国光伏行业高质量发展产生不利影响。为探讨当前光伏行业面临的问题、产生的原因和应对措施，引导行业有序发展，5月17日下午，在工业和信息化部电子信息司指导下，中国光伏行业协会在北京组织召开“光伏行业高质量发展座谈会”。 据悉，天合光能、协鑫科技、晶科能源、阿特斯、隆基绿能、通威股份、大全能源、宜宾市政府、国务院发展研究中心、国研智库、国家发改委能源研究所、硅基材料制备技术国家工程研究中心、国家开发银行、兴业银行等光伏企业、研究单位、地方政府、金融机构的14家单位的代表出席本次会议。 会议指出，光伏行业是市场化程度非常高的行业，更宜通过市场化的手段解决目前的行业困境，但也应充分发挥好政府有形手的作用，包括优化光伏制造行业管理政策对行业产能建设的指导作用，提升关键技术指标；规范管理地方政府的招商引资政策，建立全国统一大市场；适应光伏技术迭代速度快的特点，建立有效的知识产权保护措施；鼓励行业兼并重组，畅通市场退出机制；加强对于低于成本价格销售恶性竞争的打击力度；保障国内光伏市场稳定增长，探索通过示范项目支持先进技术应用，转变低价中标局面等。 会议明确，中国光伏行业协会后续将重点推进以下工作：一是支撑工信部电子司，充分发挥《光伏制造行业规范条件》作用，引导和规范行业发展。二是继续推进价格指数模型搭建工作，通过光伏组件期货等方式探索更为合理的海内外价格形成机制。三是计划就TOPCon电池效率标定及入库降档问题召开相关座谈会，探讨产生原因及解决路径。四是继续加强行业监测工作，相关行业信息将及时对外发布，指导行业决策。",\n  "analysis": null\n}'}, {'提取文章': '\n                            \n                                \n  在工业和信息化部电子信息司指导下，中国光伏行业协会近日在北京组织召开“光伏行业高质量发展座谈会”。   会议指出，光伏行业是市场化程度非常高的行业，更宜通过市场化的手段解决目前的行业困境，但也应充分发挥好政府有形手的作用，包括优化光伏制造行业管理政策对行业产能建设的指导作用，提升关键技术指标；规范管理地方政府的招商引资政策，建立全国统一大市场；适应光伏技术迭代速度快的特点，建立有效的知识产权保护措施；鼓励行业兼并重组，畅通市场退出机制；加强对于低于成本价格销售恶性竞争的打击力度；保障国内光伏市场稳定增长，探索通过示范项目支持先进技术应用，转变低价中标局面等。   会议也表示，光伏企业和行业也需做好自己，充分认识到自身对于解决目前行业困境的主体责任，杜绝恶性竞争，真正站在行业立场决策行动，坚持创新驱动、坚持长期主义，合作共赢，共同维护公平竞争秩序。（文章来源：上海证券报·中国证券网）                        ', 'gpt提取资讯,解读结果': '{\n  "news": "在工业和信息化部电子信息司指导下，中国光伏行业协会近日在北京组织召开“光伏行业高质量发展座谈会”。 会议指出，光伏行业是市场化程度非常高的行业，更宜通过市场化的手段解决目前的行业困境，但也应充分发挥好政府有形手的作用，包括优化光伏制造行业管理政策对行业产能建设的指导作用，提升关键技术指标；规范管理地方政府的招商引资政策，建立全国统一大市场；适应光伏技术迭代速度快的特点，建立有效的知识产权保护措施；鼓励行业兼并重组，畅通市场退出机制；加强对于低于成本价格销售恶性竞争的打击力度；保障国内光伏市场稳定增长，探索通过示范项目支持先进技术应用，转变低价中标局面等。",\n  "analysis": null\n}'}, {'提取文章': '\n                            \n                                \n  证券时报e公司讯，近段时间以来，我国光伏产业链价格一路下滑，企业经营承压，对我国光伏行业高质量发展产生不利影响。为探讨当前光伏行业面临的问题、产生的原因和应对措施，引导行业有序发展，2024年5月17日下午，在工业和信息化部电子信息司指导下，中国光伏行业协会在北京组织召开“光伏行业高质量发展座谈会”。会议指出，光伏行业是市场化程度非常高的行业，更宜通过市场化的手段解决目前的行业困境，但也应充分发挥好政府有形手的作用，包括优化光伏制造行业管理政策对行业产能建设的指导作用，提升关键技术指标；规范管理地方政府的招商引资政策，建立全国统一大市场；适应光伏技术迭代速度快的特点，建立有效的知识产权保护措施；鼓励行业兼并重组，畅通市场退出机制；加强对于低于成本价格销售恶性竞争的打击力度；保障国内光伏市场稳定增长，探索通过示范项目支持先进技术应用，转变低价中标局面等。会议也表示，光伏企业和行业也需做好自己，充分认识到自身对于解决目前行业困境的主体责任，杜绝恶性竞争，真正站在行业立场决策行动，坚持创新驱动、坚持长期主义，合作共赢，共同维护公平竞争秩序。（文章来源：证券时报网）                        ', 'gpt提取资讯,解读结果': '{\n  "news": "近段时间以来，我国光伏产业链价格一路下滑，企业经营承压，对我国光伏行业高质量发展产生不利影响。为探讨当前光伏行业面临的问题、产生的原因和应对措施，引导行业有序发展，2024年5月17日下午，在工业和信息化部电子信息司指导下，中国光伏行业协会在北京组织召开“光伏行业高质量发展座谈会”。会议指出，光伏行业是市场化程度非常高的行业，更宜通过市场化的手段解决目前的行业困境，但也应充分发挥好政府有形手的作用，包括优化光伏制造行业管理政策对行业产能建设的指导作用，提升关键技术指标；规范管理地方政府的招商引资政策，建立全国统一大市场；适应光伏技术迭代速度快的特点，建立有效的知识产权保护措施；鼓励行业兼并重组，畅通市场退出机制；加强对于低于成本价格销售恶性竞争的打击力度；保障国内光伏市场稳定增长，探索通过示范项目支持先进技术应用，转变低价中标局面等。",\n  "analysis": null\n}'}, {'提取文章': '\n                            \n                                \n  中国光伏行业协会5月21日发文，近段时间以来，我国光伏产业链价格一路下滑，企业经营承压，对我国光伏行业高质量发展产生不利影响。为探讨当前光伏行业面临的问题、产生的原因和应对措施，引导行业有序发展，2024年5月17日下午，在工业和信息化部电子信息司指导下，中国光伏行业协会在北京组织召开“光伏行业高质量发展座谈会”。来自天合光能、协鑫科技、晶科能源、阿特斯、隆基绿能、通威股份、大全能源、宜宾市政府、国务院发展研究中心、国研智库、国家发改委能源研究所、硅基材料制备技术国家工程研究中心、国家开发银行、兴业银行等光伏企业、研究单位、地方政府、金融机构的14家单位的代表出席本次会议，中国光伏行业协会标准技术委员会与知识产权专委会代表也出席并汇报了相关工作进展。会议由中国光伏行业协会江华副秘书长主持，工业与信息化部电子信息司金磊处长出席本次会议并讲话。  会议指出，光伏行业是市场化程度非常高的行业，更宜通过市场化的手段解决目前的行业困境，但也应充分发挥好政府有形手的作用，包括优化光伏制造行业管理政策对行业产能建设的指导作用，提升关键技术指标；规范管理地方政府的招商引资政策，建立全国统一大市场；适应光伏技术迭代速度快的特点，建立有效的知识产权保护措施；鼓励行业兼并重组，畅通市场退出机制；加强对于低于成本价格销售恶性竞争的打击力度；保障国内光伏市场稳定增长，探索通过示范项目支持先进技术应用，转变低价中标局面等。  会议也表示，光伏企业和行业也需做好自己，充分认识到自身对于解决目前行业困境的主体责任，杜绝恶性竞争，真正站在行业立场决策行动，坚持创新驱动、坚持长期主义，合作共赢，共同维护公平竞争秩序。  中国光伏行业协会自2023年以来，在促进光伏行业高质量发展方面做了大量的工作。一是支撑主管部委司局工作。支撑工信部电子司《光伏制造业规范条件》的修订工作，相较2021年版，产品相关技术指标有了较大提升。受工信部电子司委托，联合三家检测机构开展光伏产品质量监督检查工作，检测结果向行业定向通报。二是组织参加多轮相关会议，了解行业情况，征集意见建议，并报送有关部门。在今年2月组织召开的光伏行业回顾展望会上，协会正式对行业发出了预警，并在中央、地方、企业、金融机构等各个层面提出相关建议。三是开展线上线下调研活动。近期在有关司局的统筹指导下，协会组织参与了线上及线下对重点企业及重点区域的行业调研活动，了解行业真实生产运营情况，并总结、整理了行业中针对供需失衡问题的意见与建议，相关调研报告、政策意见已提交行业主管部门。四是加强舆论引导，驳斥错误言论。协会通过中国国际电视台（CGTN）、新闻直播间等媒体访谈以及协会公众号等渠道，驳斥了海外对我国新能源产业“产能过剩”的无端指责，目前CGTN海外频道有关节目线上播放量已超过110万人次。五是引导行业自律，优化行业发展环境。针对组件功率虚标问题，协会自2023年10月起组织光伏企业签订《光伏组件功率规范诚信标定和溯源自律公约》，促成50余家企业完成公约签署，覆盖行业80%以上的产能。就知识产权保护问题，协会于2023年12月成立知识产权专业委员会，依托专委会平台作用强化行业知识产权保护水平。六是引导拓展多样化市场，助力我国企业“走出去”。2024年5月，协会带队赴阿联酋考察，助力我国光伏企业进一步了解阿联酋政商投资环境，促进我国企业的海外多元化布局。  中国光伏行业协会后续将重点推进以下工作。一是支撑工信部电子司，充分发挥《光伏制造行业规范条件》作用，引导和规范行业发展。二是继续推进价格指数模型搭建工作，通过光伏组件期货等方式探索更为合理的海内外价格形成机制。三是计划就TOPCon电池效率标定及入库降档问题召开相关座谈会，探讨产生原因及解决路径。四是继续加强行业监测工作，相关行业信息将及时对外发布，指导行业决策。（文章来源：界面新闻）                        ', 'gpt提取资讯,解读结果': '{\n"news":"中国光伏行业协会5月21日发文，近段时间以来，我国光伏产业链价格一路下滑，企业经营承压，对我国光伏行业高质量发展产生不利影响。为探讨当前光伏行业面临的问题、产生的原因和应对措施，引导行业有序发展，2024年5月17日下午，在工业和信息化部电子信息司指导下，中国光伏行业协会在北京组织召开“光伏行业高质量发展座谈会”。来自天合光能、协鑫科技、晶科能源、阿特斯、隆基绿能、通威股份、大全能源、宜宾市政府、国务院发展研究中心、国研智库、国家发改委能源研究所、硅基材料制备技术国家工程研究中心、国家开发银行、兴业银行等光伏企业、研究单位、地方政府、金融机构的14家单位的代表出席本次会议，中国光伏行业协会标准技术委员会与知识产权专委会代表也出席并汇报了相关工作进展。会议由中国光伏行业协会江华副秘书长主持，工业与信息化部电子信息司金磊处长出席本次会议并讲话。 会议指出，光伏行业是市场化程度非常高的行业，更宜通过市场化的手段解决目前的行业困境，但也应充分发挥好政府有形手的作用，包括优化光伏制造行业管理政策对行业产能建设的指导作用，提升关键技术指标；规范管理地方政府的招商引资政策，建立全国统一大市场；适应光伏技术迭代速度快的特点，建立有效的知识产权保护措施；鼓励行业兼并重组，畅通市场退出机制；加强对于低于成本价格销售恶性竞争的打击力度；保障国内光伏市场稳定增长，探索通过示范项目支持先进技术应用，转变低价中标局面等。会议也表示，光伏企业和行业也需做好自己，充分认识到自身对于解决目前行业困境的主体责任，杜绝恶性竞争，真正站在行业立场决策行动，坚持创新驱动、坚持长期主义，合作共赢，共同维护公平竞争秩序。",\n"analysis":"会议指出，光伏行业是市场化程度非常高的行业，更宜通过市场化的手段解决目前的行业困境，但也应充分发挥好政府有形手的作用，包括优化光伏制造行业管理政策对行业产能建设的指导作用，提升关键技术指标；规范管理地方政府的招商引资政策，建立全国统一大市场；适应光伏技术迭代速度快的特点，建立有效的知识产权保护措施；鼓励行业兼并重组，畅通市场退出机制；加强对于低于成本价格销售恶性竞争的打击力度；保障国内光伏市场稳定增长，探索通过示范项目支持先进技术应用，转变低价中标局面等。"\n}'}, {'提取文章': '\n                            \n                                \n  日前，中国光伏行业协会（下称“协会”）召开“光伏行业高质量发展座谈会”，探讨在光伏产业链价格一路下滑、企业经营承压背景下，行业面临的问题、产生的原因和应对措施。会议指出，光伏行业有序发展，要推动有效市场和有为政府更好结合；规范管理地方政府的招商引资政策，建立全国统一大市场；加强对于低于成本价格销售恶性竞争的打击力度。同时，光伏企业和行业要杜绝恶性竞争，共同维护公平竞争秩序。   会议指出，光伏行业是市场化程度非常高的行业，更宜通过市场化的手段解决目前的行业困境，但也应充分发挥好政府有形手的作用，包括优化光伏制造行业管理政策对行业产能建设的指导作用，提升关键技术指标；规范管理地方政府的招商引资政策，建立全国统一大市场；适应光伏技术迭代速度快的特点，建立有效的知识产权保护措施；鼓励行业兼并重组，畅通市场退出机制；加强对于低于成本价格销售恶性竞争的打击力度；保障国内光伏市场稳定增长，探索通过示范项目支持先进技术应用，转变低价中标局面等。   同时，光伏企业和行业需要充分认识到自身对于解决目前行业困境的主体责任，杜绝恶性竞争，真正站在行业立场决策行动，坚持创新驱动、坚持长期主义，合作共赢，共同维护公平竞争秩序。   事实上，今年2月，在协会召开的光伏行业回顾展望会上，已正式对行业发出预警，并在中央、地方、企业、金融机构等各个层面提出相关建议。   协会数据显示，2023年，国内光伏累计装机容量达6.1亿千瓦，同比增长55%，国内新增装机首次突破2亿千瓦，超过全球新能源装机的50%；分布式光伏累计装机为2.54亿千瓦，占比达到42%。   协会名誉理事长王勃华此前指出，光伏行业保持着高速发展，2030年全球可再生能源装机容量将增至3倍已达成共识。“2024年在保守情况下，全球光伏新增装机与去年持平，达到390GW左右，乐观情况下能达到430GW。”王勃华预测。   协会表示，后续将重点做好工信部电子司相关工作的支撑，充分发挥《光伏制造行业规范条件》作用，引导和规范行业发展。继续推进价格指数模型搭建工作，通过光伏组件期货等方式探索更为合理的海内外价格形成机制。继续加强行业监测工作，相关行业信息将及时对外发布，指导行业决策。  （文章来源：证券时报网）                        ', 'gpt提取资讯,解读结果': '{\n"news": "日前，中国光伏行业协会（下称“协会”）召开“光伏行业高质量发展座谈会”，探讨在光伏产业链价格一路下滑、企业经营承压背景下，行业面临的问题、产生的原因和应对措施。会议指出，光伏行业有序发展，要推动有效市场和有为政府更好结合；规范管理地方政府的招商引资政策，建立全国统一大市场；加强对于低于成本价格销售恶性竞争的打击力度。同时，光伏企业和行业要杜绝恶性竞争，共同维护公平竞争秩序。",\n"analysis": "协会名誉理事长王勃华此前指出，光伏行业保持着高速发展，2030年全球可再生能源装机容量将增至3倍已达成共识。“2024年在保守情况下，全球光伏新增装机与去年持平，达到390GW左右，乐观情况下能达到430GW。”王勃华预测。"\n}'}, {'提取文章': '\n                            \n                                \n  近段时间以来，我国光伏产业链价格下滑，相关企业经营有所承压，市场关注光伏行业的发展前景。  近日，在工业和信息化部电子信息司指导下，中国光伏行业协会召开了“光伏行业高质量发展座谈会”，释放出关于行业发展的新信号。  会议提出，鼓励行业兼并重组，畅通市场退出机制，并将加强对于低于成本价格销售恶性竞争的打击力度。  来自天合光能、协鑫科技、晶科能源、阿特斯、隆基绿能、通威股份、大全能源、宜宾市政府、国务院发展研究中心、国研智库、国家发改委能源研究所、硅基材料制备技术国家工程研究中心、国家开发银行、兴业银行等14家单位的代表出席本次会议。  加强对于恶性竞争的打击力度  记者了解到，会议探讨了当前光伏行业面临的问题、产生的原因和应对措施。  “光伏行业是市场化程度非常高的行业，更宜通过市场化的手段解决目前的行业困境，但也应充分发挥好政府有形之手的作用。”会议明确。  就此，会议提出了一系列措施，包括：优化光伏制造行业管理政策对行业产能建设的指导作用，提升关键技术指标；规范管理地方政府的招商引资政策，建立全国统一大市场；适应光伏技术迭代速度快的特点，建立有效的知识产权保护措施；鼓励行业兼并重组，畅通市场退出机制；加强对于低于成本价格销售恶性竞争的打击力度；保障国内光伏市场稳定增长，探索通过示范项目支持先进技术应用，转变低价中标局面。  会议还强调，光伏企业和行业也需充分认识到自身对于解决目前行业困境的主体责任，杜绝恶性竞争，真正站在行业立场决策行动，坚持创新驱动、坚持长期主义，合作共赢，共同维护公平竞争秩序。  今年对于光伏行业极具挑战  据中国有色金属工业协会硅业分会（下称“硅业分会”）5月15日和5月16日披露的数据，过去一周，多晶硅价格和单晶硅片价格均延续跌幅，最新价格已跌至“再看空无意义”的程度。  “多晶硅价格已跌破所有在产企业现金成本，硅料企业面临售出即亏损。”硅业分会认为，目前市场处于供需关系发生转变的关键节点，按当前亏损现金的价格再生产更多硅片已无意义。  从硅料、硅片、电池片，到组件各环节，光伏全产业链价格“赶底”持续已久。价格下行对企业利润的挤压和对产业的洗牌效应，已反映在上市公司的业绩上。  从一季报来看，光伏板块的营收榜前十位中，隆基绿能今年一季度实现营业收入176.74亿元，同比下滑37.59%；归母净利润亏损达23.50亿元，同比下滑164.61%。通威股份实现营业收入195.70亿元，同比下降41.13%；净利润亏损达7.87亿元，而去年同期归母净利润高达86.01亿元。此外，TCL中环、晶澳科技也深陷亏损泥潭。  “今年对于供应链各环节企业而言都极具考验。”晶科能源副总裁钱晶表示，公司预计今年行业集中度将进一步提升，前四家企业的市占率可能达到甚至超过60%。  “整个光伏产业链已经到了比拼成本、技术、现金流等竞争力的阶段，成本高企和技术落后的产能将加速出清。”万联证券投资顾问屈放预计，随着相关政策落地和市场需求恢复，行业将逐步回到健康发展轨道。（文章来源：上海证券报）                        ', 'gpt提取资讯,解读结果': '{\n"news": "近日，在工业和信息化部电子信息司指导下，中国光伏行业协会召开了“光伏行业高质量发展座谈会”，释放出关于行业发展的新信号。会议提出，鼓励行业兼并重组，畅通市场退出机制，并将加强对于低于成本价格销售恶性竞争的打击力度。来自天合光能、协鑫科技、晶科能源、阿特斯、隆基绿能、通威股份、大全能源、宜宾市政府、国务院发展研究中心、国研智库、国家发改委能源研究所、硅基材料制备技术国家工程研究中心、国家开发银行、兴业银行等14家单位的代表出席本次会议。",\n"analysis": "“光伏行业是市场化程度非常高的行业，更宜通过市场化的手段解决目前的行业困境，但也应充分发挥好政府有形之手的作用。”会议明确。来此，会议提出了一系列措施，包括：优化光伏制造行业管理政策对行业产能建设的指导作用，提升关键技术指标；规范管理地方政府的招商引资政策，建立全国统一大市场；适应光伏技术迭代速度快的特点，建立有效的知识产权保护措施；鼓励行业兼并重组，畅通市场退出机制；加强对于低于成本价格销售恶性竞争的打击力度；保障国内光伏市场稳定增长，探索通过示范项目支持先进技术应用，转变低价中标局面。“多晶硅价格已跌破所有在产企业现金成本，硅料企业面临售出即亏损。”硅业分会认为，目前市场处于供需关系发生转变的关键节点，按当前亏损现金的价格再生产更多硅片已无意义。“今年对于供应链各环节企业而言都极具考验。”晶科能源副总裁钱晶表示，公司预计今年行业集中度将进一步提升，前四家企业的市占率可能达到甚至超过60%。“整个光伏产业链已经到了比拼成本、技术、现金流等竞争力的阶段，成本高企和技术落后的产能将加速出清。”万联证券投资顾问屈放预计，随着相关政策落地和市场需求恢复，行业将逐步回到健康发展轨道。"\n}'}]</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>5月17日，在工信部电子信息司指导下，中国光伏行业协会组织召开“光伏行业高质量发展座谈会”。会议指出，加强对于低于成本价格销售恶性竞争的打击力度；鼓励行业兼并重组，畅通市场退出机制。</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>['中国光伏行业协会组织召开的“光伏行业高质量发展座谈会”明确强调，加强对于低于成本价格销售恶性竞争的打击力度；保障国内光伏市场稳定增长，探索通过示范项目支持先进技术应用，转变低价中标局面等。 在市场饱和的环境中，企业的发展策略和市场定位的重要性愈加凸显，光伏行业需要在保持良性竞争的同时，寻找新的增长点，以避免陷入低利润的恶性循环。不过，多家分析机构认为，长期来看，光伏产品价格下跌幅度有限。 “光伏行业高质量发展座谈会”还指出，鼓励行业兼并重组，畅通市场退出机制。这一表态释放了行业供给侧改革的信号。', '会议指出，光伏行业是市场化程度非常高的行业，更宜通过市场化的手段解决目前的行业困境，但也应充分发挥好政府有形手的作用，包括优化光伏制造行业管理政策对行业产能建设的指导作用，提升关键技术指标；规范管理地方政府的招商引资政策，建立全国统一大市场；适应光伏技术迭代速度快的特点，建立有效的知识产权保护措施；鼓励行业兼并重组，畅通市场退出机制；加强对于低于成本价格销售恶性竞争的打击力度；保障国内光伏市场稳定增长，探索通过示范项目支持先进技术应用，转变低价中标局面等。', '协会名誉理事长王勃华此前指出，光伏行业保持着高速发展，2030年全球可再生能源装机容量将增至3倍已达成共识。“2024年在保守情况下，全球光伏新增装机与去年持平，达到390GW左右，乐观情况下能达到430GW。”王勃华预测。', '“光伏行业是市场化程度非常高的行业，更宜通过市场化的手段解决目前的行业困境，但也应充分发挥好政府有形之手的作用。”会议明确。来此，会议提出了一系列措施，包括：优化光伏制造行业管理政策对行业产能建设的指导作用，提升关键技术指标；规范管理地方政府的招商引资政策，建立全国统一大市场；适应光伏技术迭代速度快的特点，建立有效的知识产权保护措施；鼓励行业兼并重组，畅通市场退出机制；加强对于低于成本价格销售恶性竞争的打击力度；保障国内光伏市场稳定增长，探索通过示范项目支持先进技术应用，转变低价中标局面。“多晶硅价格已跌破所有在产企业现金成本，硅料企业面临售出即亏损。”硅业分会认为，目前市场处于供需关系发生转变的关键节点，按当前亏损现金的价格再生产更多硅片已无意义。“今年对于供应链各环节企业而言都极具考验。”晶科能源副总裁钱晶表示，公司预计今年行业集中度将进一步提升，前四家企业的市占率可能达到甚至超过60%。“整个光伏产业链已经到了比拼成本、技术、现金流等竞争力的阶段，成本高企和技术落后的产能将加速出清。”万联证券投资顾问屈放预计，随着相关政策落地和市场需求恢复，行业将逐步回到健康发展轨道。']</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>[{'研报': '海外氢能动态点评：基于钢管的地下垂直压缩储氢打开气态储氢新思路', 'gpt判断研报相关性': '{"相关性":false}'}, {'研报': '能源运营行业：2024年3月可再生能源发电量增长强劲', 'gpt判断研报相关性': '{\n  "相关性": true\n}'}, {'研报': '电力设备2024年中期投资策略：业绩延续高增，国内外需求共振，行业景气度上行', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '公用事业及环保产业行业研究：3月用电：制造&amp;消费稳步复苏，TMT增速上行', 'gpt判断研报相关性': '{"相关性":false}'}, {'研报': '我国特高压建设提速，柔性直流输电市场潜力巨大', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '新能源行业-风电23年&amp;24Q1总结：风电整机盈利承压，零部件分化明显', 'gpt判断研报相关性': '{\n  "相关性": true\n}'}, {'研报': '电力行业3月月报：中电联预计上半年用电量增速有望超8%，现货电价环比逐步企稳', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '公用环保2024年5月投资策略：公用环保业绩稳健增长，火电盈利能力显著增强', 'gpt判断研报相关性': '{\n    "相关性": false\n}'}, {'研报': '公用事业四月行业动态报告：公用事业年报、一季报整体业绩增长，火电增长幅度最大', 'gpt判断研报相关性': '{\n  "相关性": true\n}'}, {'研报': '可控核聚变产业观察：CFS-美国可控核聚变领域先行者', 'gpt判断研报相关性': '{\n    "相关性": false\n}'}, {'研报': '地产链化工品追踪系列报告（2024-04）：多政策落地，部分化工品价格企稳', 'gpt判断研报相关性': '{"相关性":false}'}, {'研报': '中国检验检测服务行业市场规模测算逻辑模型 头豹词条报告系列', 'gpt判断研报相关性': '{"相关性":false}'}, {'研报': '2024年化工行业供需较为均衡，盈利处于高位', 'gpt判断研报相关性': '{\n  "相关性": false\n}'}, {'研报': '部分长丝装置停车改造化工品价差继续扩大', 'gpt判断研报相关性': '{\n  "相关性": false\n}'}, {'研报': '化工行业2024年中期投资策略：化工周期新起点，看好中国化工稳定供应全球', 'gpt判断研报相关性': '{"相关性":false}'}, {'研报': '新能源产业趋势跟踪（24年4月下）：以旧换新政策落地，叠加北京车展共同刺激汽车市场需求', 'gpt判断研报相关性': '{\n  "相关性": false\n}'}, {'研报': '电新行业2023年及2024Q1财报总结：业绩底部已至，边际有望好转', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '光伏行业月报：产业链价格再度下探，盈利普遍承压加速产能出清', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '光储板块2023&amp;1Q24业绩总结：盈利触底促格局加速分化，强α龙头布局正当时', 'gpt判断研报相关性': '{\n  "相关性": true\n}'}, {'研报': '电力设备行业深度报告：可控核聚变：从科幻到商业', 'gpt判断研报相关性': '{\n  "相关性": false\n}'}, {'研报': '工控&amp;电网23年报&amp;24Q1总结：电网景气度持续超预期，工控复苏静待拐点', 'gpt判断研报相关性': '{\n  "相关性": true\n}'}, {'研报': '新能源发电设备行业研究：2023&amp;1Q24风电业绩总结：板块盈利承压，出口成破局关键', 'gpt判断研报相关性': '{\n    "相关性": true\n}'}, {'研报': '集成电路：从24Q1国际大厂AI手机展望看投资机遇', 'gpt判断研报相关性': '{\n    "相关性": false\n}'}, {'研报': '钙钛矿行业深度报告：产研并进，降本提效，共赴星辰大海', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '电网板块2023&amp;1Q24总结：需求高景气延续，龙头持续超预期', 'gpt判断研报相关性': '{\n  "相关性": false\n}'}, {'研报': '行业跟踪：公用事业产业链核心数据跟踪', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '公用事业2024年第18周周报：电力公用以及电力设备行业23年报&amp;24年一季报回顾', 'gpt判断研报相关性': '{\n    "相关性": true\n}'}, {'研报': '公用事业及环保产业行业研究：水火核业绩兑现良好，绿电绩效增速承压', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '公用事业行业周报：ESG周报：国家能源局：促进新型储能多元化高质量发展；简体中文版《国际财务报告准则S1号》和《国际财务报告准则S2号》正式发布在IFRS Foundation官方网站正式发布', 'gpt判断研报相关性': '{"相关性":false}'}, {'研报': '核电产业链专题：核电优势明显，复苏势头强劲', 'gpt判断研报相关性': '{\n  "相关性": false\n}'}]</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>['电力设备', '公用事业', '基础化工']</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[{'研报公司': '国泰君安证券(香港)', '研报总结': '        \n                        \n            \n                        \n\n                              随着低基数效应消退，中国2024年3月用电量增速回落。2024年3月全社会用电量同比增长7.4%达到795太瓦时，相较于2024年1-2月用电量增速放缓3.6个百分点。我们认为，3月增速回落主要是由于低基数效应消退。\n\n                        \n\n                              2024年3月全国发电量增速放缓，但水电、风电和太阳能发电增速加快。3月，全国规模以上工业发电量同比增长2.8%，增速较2024年1-2月回落5.5个百分点，主要由于核电发电量下降（同比下降4.8%）以及火电发电增速放缓（同比增长0.5%）。水电、风电和太阳能发电量增长依然强劲。2024年3月，水电发电量同比增长3.1%（增速比2024年1-2月加快2.3个百分点），显示出旱情有缓解的迹象；由于低基数效应，风电发电量同比增长16.8%（增速比2024年1-2月加快11.0个百分点）；在装机高增长的推动下，太阳能发电量同比增长15.8%（增速比2024年1-2月加快0.4个百分点）。根据国家能源局的数据，截至2024年2月底，全国累计太阳能发电装机容量达到648吉瓦，同比增长56.9%。同时，据能源智库Ember测算，2024年3月，中国风力发电场的发电量超过100太瓦时，创下单个国家最高月度发电量纪录，相当于欧洲和北美所有国家发电量的总和。\n\n                        \n\n                              投资建议：维持行业“跑赢大市”评级。我们继续看好采取绿色转型策略的独立发电厂标的的风险回报，包括华润电力（00836HK）和中国电力（02380HK）。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '开源证券', '研报总结': '        \n                        \n            \n                        \n\n                              核心观点\n\n                        \n\n                              1.电网设备板块景气度上行，2023年延续高增，一季度“淡季不淡”\n\n                        \n\n                              选取17家电网设备板块公司对其2023年和2024Q1收入与利润表现分析，2023年板块合计营收同比+16.47%，海外营收占比10.46%，行业景气度延续。2024Q1在2023Q1高增长基础上继续实现了较大增幅，合计营收同比+13.40%，环比-43.96%;合计归母净利润同比+30.29%，环比-48.21%，多数公司归母净利润同比实现正向增长。考虑到四季度往往为电网设备企业当年确认收入与利润的高峰期，2024Q1电网设备行业的整体增长动力依然强劲，延续了2023年的高增长态势。受益于企业产品结构优化、行业下游需求提升、行业上游原材料价格趋稳、收入规模效应摊薄费用等因素，所选上市公司盈利能力增强，平均期间费用率同比-0.27pct，平均毛利率同比+2.19pct，平均净利率同比+0.98pct。\n\n                        \n\n                              2.新型电力系统加速建设，带动发、输、变、配、用各环节设备需求\n\n                        \n\n                              建设新型能源体系和新型电力系统需要持续加大电力设备投入。随着电源侧清洁能源接入比例提高，电网调节能力和支撑能力面临诸多掣肘；全国仍有部分地区电力供需偏紧，特高压主网架建设持续推进，助力电力资源跨区配置；分布式能源与电动车等新型配网资源大规模接入倒逼配电网升级，配电网在形态上从传统的“无源”单向辐射网络向“有源”双向交互系统转变；配电网智能化转型、能源消费电气化趋势推动用能终端计量设备需求提升。\n\n                        \n\n                              3.紧抓海外市场高需求机遇，出海企业2023年业绩再创佳绩\n\n                        \n\n                              全球“净零”推动风、光机组占比持续提升、海外制造业用电需求高涨、地缘政治冲突驱动电网升级改造，带动海外电力设备景气度持续向上，发达国家重构电力网络，欠发达国家基础设施建设。出海企业海外业务营收同比高增，海外业务毛利率普遍高于国内业务，海外业务占比提升有望进一步增厚企业盈利空间。\n\n                        \n\n                              4.投资建议：1、一次设备建议关注平高电气、华明装备，受益标的：中国西电、思源电气、金盘科技、伊戈尔、明阳电气等；2、二次设备建议关注东方电子，受益标的：许继电气、国电南瑞、四方股份等；3、计量设备受益标的：海兴电力、三星医疗、威胜信息、炬华科技；4、线路装置受益标的金杯电工、华通线缆等。\n\n                        \n\n                              5.风险提示：电网投资不及预期、特高压建设不及预期、市场竞争风险、海外投资环境变化风险、财务及汇率风险。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '深圳汉鼎智库咨询服务', '研报总结': '        \n                        \n            \n                        \n\n                              一、什么是柔性直流输电\n\n                        \n\n                              柔性直流输电（VSC-HVDC）主要是基于电压源换流器的高压直流输电，是以IGBT等全控器件为核心功率器件的第三代直流输电技术。柔性直流输电距今已有三十多年的发展历史，目前已在风电送出、电网互联、无源网络供电和远距离大容量输电等场景取得了充分发展和工程应用，其输电能力已经达到特高压等级。\n\n                        \n\n                              《“十四五”现代能源体系规划》明确提出，完善区域电网主网架结构，推动电网之间柔性可控互联，构建规模合理、分层分区、安全可靠的电力系统，提升电网适应新能源的动态稳定水平。科学推进新能源电力跨省跨区输送，稳步推广柔性直流输电，优化输电曲线和价格机制，加强送受端电网协同调峰运行，提高全网消纳新能源能力。\n\n                        \n\n                              相比常规直流输电（LCC-HVDC），柔直输电在无功补偿能力、无需支撑电源、无换相失败、灵活的功率控制等方面具有很强的优势，因此柔直输电技术已成为新型电力系统未来重要的输电方式。与此同时，构建以新能源为主体的新型电力系统需要灵活的柔性直流输电技术支撑。柔性直流输电技术的可控性、灵活性更强，不需要交流系统支撑换相，甚至可不依赖交流电网，以孤岛方式实现100%新能源汇集，并可为交流电网提供动态支撑，其规模化应用将随着经济性的进一步改善大大加快，助力新能源接入电网比例大幅提升。\n\n                        \n\n                              二、柔直换流阀市场规模情况\n\n                        \n\n                              柔性直流输电系统核心设备包括柔直换流阀、直流控保、柔直换流变。其中，换流阀是直流电和交流电相互转化的桥梁，其核心是将IGBT驱动板卡、水熔板等压接在一起组合成的一个完整柔直模块。随着我国特高压柔直输电开始规模化推进，换流阀市场需求亦将快速增长。兴业证券研究所测算数据显示，预计2024年柔性直流项目总投资体量接近千亿元水平，到2027年行业规模可达1458.8亿元，其中柔直换流阀规模同步增长，2024年预计市场规模达87.5亿元，2027年增长至149.2亿元，三年CAGR达19.5%。\n\n                        \n\n                              未来，特高压、柔直输电等新型能源战略的持续推进必将提升上游换流阀及其电容器的市场需求，进而带动电容器薄膜等相关产业链行业的快速发展。\n\n                        \n\n                              三、“十四五”期间我国特高压投资力度持续增长\n\n                        \n\n                              《“十四五”现代能源体系规划》明确提出“建设以大型风光基地为基础、以其周边清洁高效先进节能的煤电为支撑、以稳定安全可靠的特高压输变电线路为载体的新能源供给消纳体系”。“十四五”期间规划建成投产风光大基地总装机约200GW，其中外送150GW、本地自用50GW，外送比例达到75%。预计“十五五”期间规划建设风光基地总装机约255GW，其中外送约165GW、本地自用约90GW，外送比例约65%。在我国新能源电力装机容量不断提升的背景下，特高压输电将为电力传输及供应提供重要支撑。\n\n                        \n\n                              特高压工程的建设是我国近20年的电网发展的主旋律之一。2004年，国网公司提出了建设以特高压电网为核心的坚强国家电网的战略构想，2005年开始正式启动特高压交流试验示范工程的初步设计，从此特高压建设成为了贯穿我国电网发展的主旋律。截止到2022年底，我国已建成“17交16直”的33条特高压线路。\n\n                        \n\n                              我国特高压投资规模的快速发展第一阶段是2014-2017年，投资额度达1966亿元，随后发展较为平稳，2018-2020年共投入2130亿元用来发展特高压工程建设。“十四五”期间，国网规划建设特高压工程“24交14直”，涉及线路3万余公里，变电换流容量3.4亿千伏安，总投资3800亿元。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '东吴证券', '研报总结': '        \n                        \n            \n                        \n\n                              摘要\n\n                        \n\n                              23年&amp;24Q1风电板块营收同比上升、盈利同比下降。23年风电板块2841亿元，同增6.4%，归母净利润156.8亿元，同降27.7%；23年营收同增主要系国内装机同增102%，但受大型化价格竞争对冲显著。利润上风机及塔筒出口初见起色，但大型化价格竞争压缩总量+海风进度不及预期影响盈利结构导致了下滑。24Q1收入480.6亿元，同/环比+3.2%/-47%，归母净利润30.9亿元，同/环比-33%/+88%。\n\n                        \n\n                              变流器、轴承23年业绩修复显著，整机、叶片持续承压。23年收入同比增速：变流器&gt;叶片&gt;海缆&gt;塔筒&gt;整机&gt;轴承&gt;运营商&gt;铸锻件；归母净利同比增速：变流器（88%）&gt;轴承(11%)&gt;海缆(1%)&gt;铸锻件(-0.5%)&gt;运营商(-5%)&gt;塔筒(-6%)&gt;叶片(-32%)&gt;整机(-63%)。\n\n                        \n\n                              24Q1仅运营商业绩实现同增。24Q1收入同比增速：整机&gt;叶片&gt;运营商&gt;海缆&gt;轴承&gt;变流器&gt;铸锻件&gt;塔筒。归母净利同比增速：运营商(5%)&gt;海缆(-12%)&gt;塔筒(-25%)&gt;变流器(-29%)&gt;叶片(-36%)&gt;整机(-46%)&gt;铸锻件(-62%)&gt;轴承(-117%)。\n\n                        \n\n                              24年1-3月新增装机15.5GW，同增49%，23年新增装机75.9GW，同增105%。随着Q2进入风电开工、行业交付旺季的到来，我们预计24年新增装机80GW+，保持稳步增长，其中陆上70GW+，同比持平略增；海上10GW+，同增约50%。年初以来海风审批端进展不断，但招中标及项目开工较淡，4月已有从审批转向项目推进加速迹象。\n\n                        \n\n                              整机营收同比略降，盈利承压，风场转让贡献主要利润。整机板块23年营收1221亿元，同增2.6%；归母净利润28.53亿元，同降63%；24Q1营收180亿元，同环比+22%/-62%；归母净利润7.61亿元，同环比-46%/+387%。塔筒因海风不及预期，营收略增、利润同降。\n\n                        \n\n                              塔筒板块23年营收228亿元，同增9.6%；归母净利16.8亿元，同降6.2%；24Q1营收28.2亿元，同环降30%/52%，归母净利润3.7亿元，同环比-25%/+783%。海缆亦受海风不及预期影响，盈利仅持平略增。海缆23年营收524亿元，同增11%，归母净利润41亿元，同增1.5%；24Q1营收95.5亿元，同环降1.7%/33%；归母净利润9.0亿元，同环比-12%/42%。铸锻件盈利能力出现分化，24年降价压力较大。铸锻件23年营收266亿元，同降0.7%，归母净利润16.5亿元，同降0.5%，24Q1营收55.3亿元，同环降11%/20%；归母净利润2亿元，同环比-62%/+23%。零部件：轴承、叶片盈利承压，变流器营收、盈利双增长。\n\n                        \n\n                              海风江苏广东均获积极进展，整机价格竞争白热化，零部件盈利压力较大。海缆24H1招中标仍淡，江苏广东均获积极进展，头部加大出口布局，看好H2订单回暖。塔架24H2江苏海风开工量利有望回升，出口紧缺，大金订单持续突破，其余各家（大金外）审厂加速，1-2年后有望落地业绩。整机24Q1新低价零部件导入盈利略有回升，24年大型化减速，但产业换资源仍未减弱，盈利将持续承压，更多利润来自电站滚动开发。铸锻件降价压力较大，同时受大型化减速影响，新品溢价无法覆盖整体降价，盈利承压，部分厂家已出现砍单，订单向头部集中，多企业开拓新客户新需求。\n\n                        \n\n                              投资建议：我们预计海风24年装机10GW+，同增50%，远期深远海衔接，具备长期成长性；陆风大型化降本驱动IRR高增，24年陆风装机70GW+，同比持平略增。重点推荐：海缆（东方电缆），塔筒&amp;管桩（天顺风能、大金重工、海力风电、泰胜风能）、铸锻件（日月股份、金雷股份），整机（三一重能、明阳智能、金风科技）。\n\n                        \n\n                              风险提示：竞争加剧、需求不及预期、原材料涨价。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '信达证券', '研报总结': '        \n                        \n            \n                        \n\n                              本期内容提要:\r\n\n                        \n\n                              月度专题点评：电力现货市场推进情况梳理。第一批现货市场试点推进情况：各省进度有所差异，部分省份争相“转正：首批现货试点中，山西和广东现货市场进展较快，分别于2023年12月22日和12月28日转入正式运行，成为目前全国唯二进入正式运行的电力现货市场。山东、甘肃、蒙西是首批试点中的第二梯队，目前均处于长周期连续结算试运行阶段。福建、浙江和四川三省被重点点名，其现货市场试运行仍在推进当中。第二批现货市场试点推进情况：华东华中为主，试运行进展较快。第二批试点的建设进度相较于首批有明显推进。自2021年4月公布名单以来，第二批试点中江苏、安徽、辽宁、湖北、河南等5个地区已完成整月连续结算试运行，上海完成调电试运行工作。其他非试点推进情况：部分省份较为积极，进度追赶试点。非试点省区中，江西成为全国首个开展现货结算的非试点省份。宁夏、河北南网、陕西和重庆等4个地区分别于2023年下半年陆续启动结算试运行。另外，天津、黑龙江、青海、新疆、吉林等省区分别完成了模拟试运行工作。综合来看，部分进度较快的省份已经实现结算试运行，进度已追上前述试点地区。\r\n\n                        \n\n                              月度板块及重点上市公司表现：4月电力及公用事业板块上涨1.3%，表现劣于大盘；4月沪深300上涨1.9%到3604.4；涨幅前三的行业分别是家用电器(8.5%)、基础化工(4.5%)、汽车(2.6%)。\r\n\n                        \n\n                              月度电力需求情况分析：3月电力消费增速环比有所收窄。2024年3月，全社会用电同比增长7.36%。分行业：居民用电量增速环比大涨，三产用电同比增速略有降低：2024年3月，一、二、三产业用电量同比增速分别为7.03%、4.86%、11.61%，居民用电量同比增长15.83%。分板块：高技术装备制造和消费板块电力消费增速有所收窄，高耗能产业电力消费增速环比提振。分子行业看，高技术装备制造板块中用电量占比前三的为金属制品业、计算机通信设备制造业、电气机械制造业。消费板块中占比前三的为批发和零售业、交通运输、仓储及邮政业和房地产业。六大高耗能板块中占比前三的为电力热力生产及供应业、有色金属冶炼及压延加工业和化学相关制造业。分地区来看，东部沿海省份用电量领先，西部省份用电增速领先。弹性系数方面，2024年一季度电力消费弹性系数为1.84。\r\n\n                        \n\n                              月度电力生产情况分析：整体发电增速有所回落，水电发电量持续恢复。2024年3月份，全国发电量增长2.80%。分机组类型看，火电电量同比上涨0.50%；水电电量同比上升3.10%；核电电量同比下降4.80%；风电电量同比上升16.80%；太阳能电量同比增长15.80%。新增装机方面，2024年3月全国总新增装机1671万千瓦，其中新增火电131万千瓦，新增水电78万千瓦，新增风电561万千瓦，新增光伏902万千瓦。发电设备利用方面，2024年3月全国发电设备平均利用小时数844小时，同比降低2.76%。其中，火电平均利用小时1128小时，同比上升2.83%；水电平均利用小时数555小时，同比上升2.02%；核电平均利用小时数1828小时，同比下降1.93%；风电平均利用小时数596小时，同比降低3.09%；光伏平均利用小时数279小时，同比下降7.92%。煤炭库存情况、日耗情况及三峡出库情况方面，内陆煤炭库存环比上升，日耗环比下降；沿海煤炭库存环比上升，日耗环比上升；三峡水位同比上升，水库蓄水量同比下降。\r\n\n                        \n\n                              月度电力市场数据分析：5月代理购电均价同比上涨，环比持续下降。5月月度代理购电均价为403.71元/MWh，环比下降1.13%，同比上升1.26%。广东5月月度交易价格环比持续下跌，4月现货市场电价环比下降明显；山西山东4月现货交易价格环比略有回升。\r\n\n                        \n\n                              行业新闻：（1）国家能源局发布关于促进新型储能并网和调度运用；（2）国家能源局综合司公开征求《电力中长期交易基本规则—绿色电力交易专章》意见；（3）中电联预计上半年全社会用电量同比增速略高于8%。\r\n\n                        \n\n                              投资观点：我们认为，国内历经多轮电力供需矛盾紧张之后，电力板块有望迎来盈利改善和价值重估。在电力供需矛盾紧张的态势下，煤电顶峰价值凸显；电力市场化改革的持续推进下，电价趋势有望稳中小幅上涨，电力现货市场和辅助服务市场机制有望持续推广，容量电价机制正式出台，明确煤电基石地位。双碳目标下的新型电力系统建设，或将持续依赖系统调节手段的丰富和投入。此外，伴随着发改委加大电煤长协保供力度，电煤长协实际履约率有望边际上升，我们判断煤电企业的成本端较为可控。展望未来，我们认为电力运营商的业绩有望大幅改善。电力运营商有望受益标的：1）全国性煤电龙头：国电电力、华能国际、华电国际等；2）电力供应偏紧的区域龙头：皖能电力、浙能电力、申能股份、粤电力A等；3）水电运营商：长江电力、国投电力、川投能源、华能水电；4）设备制造商和灵活性改造有望受益标的：东方电气、青达环保、华光环能等。\r\n\n                        \n\n                              风险因素：宏观经济下滑导致用电量增速不及预期，电力市场化改革推进缓慢，电煤长协保供政策的执行力度不及预期。\n\n                        \n\n                                              \n\n                    '}, {'研报公司': '中国银河', '研报总结': '        \n                        \n            \n                        \n\n                              核心观点\n\n                        \n\n                              公用事业年报、一季报整体业绩增长，火电增长幅度最大。2023年/2024年一季度公用事业板块分别实现归母净利润1699亿元/497亿元，同比分别增长72.1%/27%。分板块来看，火电增长幅度最大。\n\n                        \n\n                              火电：市场煤价下跌，盈利能力改善。2023年/2024年一季度火电板块分别实现归母净利润477亿元/190亿元，同比分别实现扭亏为盈/增长102%。2023年以来，随着国内煤炭增产保供以及进口煤放开，市场煤价波动下行、长协履约率提升，两者共同推动火电入炉标煤单价下降，盈利能力改善。目前在电厂库存处于高位、以及水电和新能源挤压煤电出力的背景下，我们预计市场煤价仍有下行空间，有望带动火电盈利继续提升。\n\n                        \n\n                              新能源：电价下降拖累盈利水平，看好长期装机增长空间。2023年/2024年一季度风电板块分别实现归母净利润200亿元/72亿元，同比分别增长2.1%/2.4%；2023年/2024年一季度光电板块分别实现归母净利润38亿元/2.4亿元，同比分别增长4.6%/-76.4%。新能源盈利增速放缓，主要受到新能源市场化电价下降的影响，其中龙源电力、三峡能源、节能风电等公司2023年平均上网电价下降幅度在0.02元/千瓦时左右，降幅在5%左右。此外光电板块同时受到光伏产品价格下滑的影响。我们持续看好新能源装机增长空间；电价方面，随着绿电市场以及碳市场建设逐步完善，新能源环境价值有望兑现，上网电价有望企稳回升。\n\n                        \n\n                              水电：电价上涨对冲来水偏枯，后续来水有望改善。2023年/2024年一季度火电板块分别实现归母净利润479亿元/88亿元，同比分别实现增长22.2%/19.6%。虽然2023年至今来水明显偏枯，但受益于市场化电价上涨、梯级调度等因素，水电公司实现盈利增长。我们预计2024年来水有望改善，带动水电公司盈利提升。\n\n                        \n\n                              核电：业绩稳健增长，在建机组保障长期增长空间。2023年/2024年一季度核电板块分别实现归母净利润213亿元/66亿元，同比分别实现增长15.5%/2.4%。截至2024年一季度，中国广核和中国核电在建核电机组分别为11台和15台，总装机3080万千瓦，在建机组陆续投运，保障十四五、十五五业绩长期持续增长。此外中国核电在建新能源装机1426万千瓦，打开第二成长空间。\n\n                        \n\n                              推荐关注：电力板块整体业绩确定性高，分红能力强，未来也将持续受益央国企改革，我们持续看好电力板块的长期投资价值。短期推荐具备政策催化、业绩持续改善、估值有提升空间的火电板块；长期、低风险偏好资金重点布局核电、水电；逢低战略性布局新能源板块。个股关注华电国际、皖能电力、浙能电力、华能国际、长江电力、川投能源、中国广核等。\n\n                        \n\n                              风险提示：政策力度不及预期的风险；项目进度不及预期的风险；新能源发电出力不及预期的风险；行业竞争加剧的风险。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '国联证券', '研报总结': '        \n                        \n            \n                        \n\n                              2023年，电新行业整体归母净利润同比-4.0%，在所有30个行业中位于第17位。根据样本公司划分，归母净利润增幅前三分别为电力运营商（yoy+84.2%）、充电桩（yoy+64.7%）、储能（yoy+40.7%）。随着上游供给压力缓解，价格调整或已进入涨价周期，下游需求应用环节盈利有望向好。\n\n                        \n\n                              光伏：盈利阶段承压，关注格局优化的辅材环节\n\n                        \n\n                              2023年板块样本公司实现营收15027.7亿元，同比增长20.9%；归母净利润1138.8亿元，同比下降10.2%；2024Q1板块样本公司实现营收2905.7亿元，同比下降12.2%；归母净利润71.3亿元，同比下降81.9%。需求结构性调整或将出现，技术迭代成为主要内生性增长动力。\n\n                        \n\n                              风电：海风催化积蓄，行业景气度有望持续提升\n\n                        \n\n                              2023年板块样本公司实现营收3423.8亿元，同比提升6%；归母净利润168.1亿元，同比下降25%；2024Q1板块样本公司实现营收618.4亿元，同比提升5%；归母净利润34.5亿元，同比下降28%。随着一季报逐步披露完毕，未来海风催化积蓄，行业景气度有望迎来反转。\n\n                        \n\n                              储能：需求有望持续高增，行业景气度底部回升\n\n                        \n\n                              2023年板块样本公司实现营收1726.7亿元，同比增长33.8%；归母净利润173.8亿元，同比增长40.7%%；2024Q1板块样本公司实现营收325.6亿元，同比下降12.3%；归母净利润33.0亿元，同比下降25.9%。海内外需求有望持续高增，建议关注具备技术先进性及较强获取海外订单潜力的企业。\n\n                        \n\n                              锂电：电池环节业绩突出，关注新技术和出海进程\n\n                        \n\n                              2023年板块样本公司实现营收21268.5亿元，同比增长9.8%；归母净利润1437.3亿元，同比下降30.0%；2024Q1板块样本公司实现营收4327.2亿元，同比下降9.4%；归母净利润218.6亿元，同比下降40.9%。随着行业出清或接近末期，建议关注新技术创新和有较强alpha属性龙头企业。\n\n                        \n\n                              充电桩：需求提升叠加政策助力加速行业发展\n\n                        \n\n                              2023年板块样本公司实现营收263.2亿元，同比增长20%；归母净利润11.1亿元，同比提升65%；2024Q1板块样本公司实现营收56.2亿元，同比增长24%；归母净利润3.0亿元，同比提升19%。在需求与政策共振的背景下，充电桩建设有望维持高增。\n\n                        \n\n                              电网设备：特高压+海外订单促2024业绩释放\n\n                        \n\n                              2023年板块样本公司实现营收6486.1亿元，同比增长9.3%；归母净利润424亿元，同比增长2.5%；2024Q1板块样本公司实现营收1369.7亿元，同比增长5.3%；归母净利润74.8亿元，同比下降23.9%。我们预计在特高压高速建设+设备出口高景气的大方向下，2024年产业链将维持增长态势。\n\n                        \n\n                              投资建议：关注格局占优及新技术创新龙头厂商\n\n                        \n\n                              2023年&amp;2024Q1各板块龙头企业表现出较强alpha属性。展望2024年，电新行业正处于从1到N的规模化、产业化阶段。各板块建议关注如下：1）光伏：阳光电源、福莱特、帝科股份、聚和材料等；2）风电：东方电缆、中天科技、金雷股份等；3）储能：盛弘股份、科华数据、同飞股份等；4）锂电：宁德时代、亿纬锂能、天赐材料等；5）充电桩：盛弘股份、特锐德、万马股份等；6）电网设备：金盘科技、明阳电气、中国西电等。\n\n                        \n\n                              风险提示：1）新能源汽车销量不及预期；2）新能源发电装机不及预期；3）原材料价格波动；4）海外政策变化风险。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '中原证券', '研报总结': '        \n                        \n            \n                        \n\n                              投资要点：\n\n                        \n\n                              四月光伏行业表现大幅落后市场，个股跌多涨少。截至4月30日收盘，本月光伏行业下跌8.73%，大幅落后于沪深300指数。光伏支架、光伏电站、导电银浆板块取得正向收益，中信博、捷佳伟创、上能电气、帝科股份、吉电股份、迈为股份、振江股份、禾迈股份、联泓新科、浙江新能涨幅排名居前。\n\n                        \n\n                              国内市场需求有所走弱，供给过剩依旧是行业面临主要问题。国家能源局发布2024年1-3月全国电力工业统计数据，1-3月我国新增光伏装机45.74GW，同比增长35.9%，三月新增光伏装机9.02GW，同比下降32.13%。2024年3月，我国太阳能电池出口金额228.59亿元，同比下滑36.60%，跌幅较2月有所扩大。从供给端来看，2024年1-3月份，我国多晶硅供给量53.25万吨，同比增长75.11%，国内多晶硅供应量较为充裕，硅片供给过剩，行业依旧处于库存消纳周期。\n\n                        \n\n                              光伏产品价格显著下滑，非理性竞争导致企业短期普遍亏损。\n\n                        \n\n                              2024年4月，硅料价格月度跌幅26.87%，已达大多数企业的现金成本，多晶硅致密料平均价格49元/kg，甚至跌破部分企业现金成本。在阶段性供应过剩的背景下，从工业硅到组件环节均跌破生产成本，短期内市场呈现非理性竞争。\n\n                        \n\n                              2024年第一季度光伏企业业绩普遍承压，部分龙头企业亏损明显。从光伏行业披露的2023年年报和2024年一季度报告来看，行业阶段供给过剩对报表端影响显著，尤其是第一季度，光伏产品价格大幅下滑、资产减值计提增长等因素继续拖累行业业绩表现。硅料、硅片、电池和光伏组件各环节，甚至头部企业均面临业绩下滑甚至亏损局面。企业普遍盈利承压加速行业优胜劣汰。\n\n                        \n\n                              投资建议：3月份国内光伏装机容量同比下滑，出口量增价减出口金额持续下行，需求端疲软。光伏大部分环节产能阶段过剩、行业竞争激烈，产品价格显著下行，市场亟待落后产能退出，供需格局扭转尚待时日。截至2024年4月30日，光伏产业PE(TTM)12.70倍，处于历史估值分位数11.72%的位置；PB(LF)估值1.97倍，处于历史16.02%分位。二级市场股价走势充分兑现行业产能过剩预期，短期行业拐点尚未显现，但二级市场下行空间不大，维持行业“强于大市”投资评级。中期建议关注光伏玻璃、银浆、钙钛矿电池设备以及一体化组件厂商领先企业。\n\n                        \n\n                              风险提示：国际贸易政策变化风险；全球装机需求不及预期风险；阶段性供需错配，产能过剩，盈利能力下滑风险。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '国金证券', '研报总结': '        \n                        \n            \n                        \n\n                              2023年光伏需求持续高景气，国内光伏装机同增148%、电池组件出口量同增23%，但产业链瓶颈硅料环节新增供给放量，产业链供需逐步向“过剩”状态切换，产业链价格快速下跌，各环节盈利能力承压，产业链呈现“量增利减”状态。四季度起主产业链部分环节价格下降至行业成本线附近，产业链盈利承压的同时产生较大比例存货减值计提，叠加大量企业在2023年末集中计提老旧固定资产减值损失，4Q23【SW光伏设备】口径销售毛利率/净利率分别下降至15.9%/-1.7%，同比-5.3PCT/-11.7PCT，环比-5.1PCT/-11.2PCT。\n\n                        \n\n                              2024年一季度产业链价格低位调整，主产业链多个环节进入亏损状态，【SW光伏设备】口径销售毛利率环比下降1.7PCT至14.2%，因固定资产减值影响减弱，销售净利率环比修复1.4PCT至-0.3%。\n\n                        \n\n                              盈利能力方面，4Q23起主产业链部分环节进入亏损状态，大部分硅片、电池片企业由盈转亏；1Q24部分环节毛利率略有修复，一体化组件企业盈利分化。光伏玻璃/胶膜盈利低位稳定、头部优势显著，竞争格局相对较差、或此前盈利处于相对高位的其他辅材环节，受到下游客户盈利大幅承压的影响，盈利能力下降。具体看核心环节：1）硅料：价格跌破行业成本线，龙头成本、品质优势支撑盈利差距；2）一体化组件：盈利阶段性分化，海外高盈利市场及优势产品布局有望拉开盈利差距；3)胶膜、玻璃：行业格局稳定，盈利持续承压背景下头部优势凸显；4）设备：合同负债上升趋势难以维持，现金流情况需后续重点关注；5）逆变器&amp;储能：收入及盈利分化加剧，大储显著好于户储，存货较高位有所下降。\n\n                        \n\n                              现金流方面，4Q23产业链盈利虽有一定承压，但经营性现金流仍处于相对正常水平，辅材现金流甚至处于历史较优水平；1Q24各环节经营性现金流显著下降，硅料、电池片、一体化组件环节现金流均值均转负，光伏玻璃环节因盈利改善经营性现金流为正（1Q23为负）。环节内部表现有一定分化，头部与二三线企业资金差距放大，头部企业资金优势逐步凸显。\n\n                        \n\n                              资金及资本开支方面，1Q24末硅料、一体化组件企业资金相对充足，头部辅材企业优势明显；1Q24盈利承压背景下各环节资本开支同比放缓，二三线玻璃及胶膜企业资本开支显著放缓。\n\n                        \n\n                              展望2024年，光储经济性提升刺激需求释放，光伏组件需求有望在高基数下维持较高增速（全年同比增速有望达到30%以上）。随着产业链价格触底，以硅料产能检修/关停为强信号的过剩产能出清将加速，带动产业链盈利在触底后逐步修复，头部企业优势有望持续凸显。\n\n                        \n\n                              投资建议\n\n                        \n\n                              当前板块内部分龙头公司PB估值已处于过去十年估值区间的2%分位以下（与2018年531政策后的估值低点接近），市场对光伏行业景气下行的悲观情绪，从PB估值角度看已反映较为充分。伴随一季报业绩风险释放完毕，板块有望迎来一轮β修复行情，重点关注Q2环比改善显著的环节/公司，以及在一季报中呈现出显著α的各环节优势企业。\n\n                        \n\n                              建议重点配置“强α”标的（能够在2024年大部分同环节公司利润/新增订单负增长的背景下实现正增长的公司，或/和长期龙头地位和环节格局高度稳定的龙头公司）：阳光电源、阿特斯、奥特维、福莱特、福斯特等。同时建议关注率先实现盈利修复、边际改善显著、需求超预期背景下存在较好的盈利弹性的环节，如：二线玻璃、高效电池片、跟踪支架等。\n\n                        \n\n                              风险提示\n\n                        \n\n                              传统能源价格大幅（向下）波动，行业产能非理性扩张，国际贸易环境恶化，储能、泛灵活性资源降本不及预期。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '东吴证券', '研报总结': '        \n                        \n            \n                        \n\n                              工控&amp;电力设备行业2023/24Q1收入同比+10%/+6%、归母净利润同比-4%/-11%。1）行业2023/24Q1营收稳定增长、利润承压。全行业2023年实现收入/归母净利润8544.43/533.28亿元，同比+10%/-4%。2024Q1收入1888.15亿元，同比+6%，归母净利润为123.09亿元，同比-11%。2）行业整体毛利率水平小幅下降。2023/2024Q1行业毛利率为22.31%/21.96%，同比-1.22pct/-1.55pct。3）2024Q1应收账款/合同负债/存货较年初+3%/-0.3%/+4%。4）2024Q1经营性现金流净流出79.85亿元，同比下降明显。\n\n                        \n\n                              工控行业Q1缓慢复苏，龙头企业稳中求进，其中汇川、伟创电气收入快速增长，其他二线品牌收入稳住、利润承压。1）2023/24Q1营收稳健增长、利润承压。2023年工控板块实现收入1010亿元，同比+19%，实现归母99亿元，同比+16%。2024Q1实现收入222亿元，同比+6%，环比-24%；实现归母19亿元，同比-21%。2）毛利率稳定。2023板块毛利率为31.11%，同比+0.34pct。Q1板块毛利率31.70%，同比+0.64pct，环比+2.19pct。3）经营性现金流下滑明显。2024Q1工控板块经营活动现金净流出79.81亿元，2023年同期净流出44.40亿元，现金流状况承压。4）公司层面，汇川技术/伟创电气业绩实现较快增长，收入同比+36%/+15%，其他工控品牌收入稳增，禾川/雷赛/信捷/正弦收入同比-25%/+21%/+3%/-16%，归母同比-170%/+54%/+9%/-52。\n\n                        \n\n                              智能电表受益于三星医疗、海兴电力等公司出海业务进展顺利实现高增，特高压/高压板块业绩稳健增长，受昇辉科技、合纵科技、科陆电子、中利科技大幅亏损影响，一次设备板块盈利承压。2023/2024Q1一次设备行业收入3791.73/853.97亿元，同比+11%/+7%，归母净利润136.63/43.09亿元，同比-4%/+3%。分板块看，2023/2024Q1特高压&amp;高压营收同比+15%/+10%，归母净利润同比+20%/+35%；中压电气营收同比+22%/+15%，归母净利润同比-299%/+9%；低压电器营收同比+18%/持平，归母净利润同比-4%/-12%；智能用电营收同比+21%/+33%，归母净利润同比+45%/+15%。智能用电板块受益于出海业务进展顺利，盈利增长明显。2）盈利能力略有改善，2023/2024Q1毛利率分别为18.42%/18.90%，同比+0.52pct/+0.78pct。3）2023年合同负债/存货较年初+29%/+26%，经营性现金净流入254.27亿元，同比+55%。\n\n                        \n\n                              二次设备板块2023年延续稳健态势，许继电气、东方电子、四方股份等24Q1归母净利润增速亮眼。1）营收利润稳增。2023/2024Q1二次设备收入1031.94/166.86亿元，同比+10%/+9%,归母净利润109.82/10.94亿元，同比+14%/+13%。2）毛利率水平持平微增。2023/2024Q1板块毛利率为26.36%/25.59%，同比+0.06pct/+0.54pct。3）2023年合同负债/存货较年初+29%/+10%，经营性现金净流入195.50亿元，同比+45%。4）公司层面，许继电气、东方电子、四方股份等受益于网外新能源市场拉动增速快于网内，国电南瑞依旧稳健。\n\n                        \n\n                              投资建议：1）电网：国内投资重点倾向于新能源相关的特高压及配网环节，叠加海外需求超预期，景气度持续性高。推荐：金盘科技、三星医疗、思源电气、海兴电力、许继电气、平高电气、国电南瑞、四方股份、南网科技、安科瑞等，关注：华明装备、中国西电、良信股份、伊戈尔、明阳电气、金杯电工、长高电新等。2）工控：制造业持续弱复苏，基本面拐点仍未到，但龙头α强劲、紧抓结构性机会持续提份额。推荐：汇川技术、三花智控、宏发股份、伟创电气、雷赛智能、鸣志电器、禾川科技等，关注：麦格米特、信捷电气、英威腾、正弦电气、英搏尔等。\n\n                        \n\n                              风险提示：电网投资不及预期，竞争加剧，市场拓展不及预期等。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '国金证券', '研报总结': '        \n                        \n            \n                        \n\n                              投资逻辑：\n\n                        \n\n                              2023年装机高增长，1Q24再创Q1单季装机新高。2023年国内风电新增装机75.90GW，同比高增107.7%，其中海风、陆风新增装机分别为6.83GW、69.1GW，分别同比+123.9%、+106.2%。1Q24国内风电新增装机15.50GW，同增49.0%，其中海风、陆风新增装机分别为0.69GW、14.81GW，同比+49.8%、+35.3%。\n\n                        \n\n                              2023年招标规模略有下降，预计2024年有望回暖。2023年国内风电招标量达86.3GW，同降12.4%，其中新增陆风招标达77.8GW，同比-7.2%,新增海风招标达8.9GW，同比-39.6%。1Q24国内风电招标量达23.3GW，同比-13.0%，其中新增陆风招标达21.3GW，同比-13.4%，新增海风招标达2.0GW，同比-8.7%。\n\n                        \n\n                              2024年陆风机组价格持稳，海风机组保持下降趋势。目前陆风机组（不含塔筒）价格稳定在1400-1600元/KW，2024年1-4月陆风机组招标均价为1487元/KW,同比2023年同期下降8.1%，2024年1-4月海风机组中标均价为3402元/KW，同比下降10.1%，环比2023年8-12月下降5.1%。\n\n                        \n\n                              收入增速放缓、竞争加剧，盈利能力有所下降。2023年风电板块实现营收1990亿元，同比+4.8%；由于行业竞争加剧，下游招标价格持续走低，板块实现归母净利润78亿元，同比-36%。销售毛利率及销售净利率为16.6%/4.0%，同比-1.5/-2.5PCT。1Q24实现营收323亿元，同比+5.0%；实现归母净利润15亿元，同比-44.1%；实现销售毛利率、销售净利率20.5%/4.9%，同比+0.46/-3.86pct，原材料价格下降带动毛利率回升，但由于竞争加剧、收入增速放缓导致各企业费用率有所上升。\n\n                        \n\n                              自由现金流同比改善，派息率同比大幅提升。2023年风电板块自由现金流-146.6亿元，较2022年-281.7亿元显著改善；经营现金流35.9亿元，同比-40.0%。自由现金流大幅改善主要是整机企业投资收益较高所致，剔除后自由现金流为-101.6亿元，同比小幅改善。2023年现金分红总额为33.85亿元，同比+31.4%，派息率为43.2%，同比+22.27pct。\n\n                        \n\n                              整机环节毛利率基本触底，风电场转让收益支撑短期业绩。2023年整机环节的综合毛利率为14.37%，同比下降4.17pct，毛利率已经处于历史底部水平。2023年整机板块投资收益/扣非归母净利润为267.1%，风电场转让收益成为整机环节公司短期内的业绩支撑。展望后续，预计随着价格压力逐步传导，两海业务占比提升，大容量机组占比提升，整机企业毛利率有望触底修复。\n\n                        \n\n                              零部件环节盈利能力承压，出口业务成破局关键。受到下游竞争加剧影响，上游零部件环节价格承压，其中主轴、铸件1Q24毛利率同比下降9.20pct、4.99pct，叶片毛利率环比下降相对显著，1Q24毛利率环比下降3.81pct。塔筒环节的大金重工等受益于海外出口收入占比提升，1Q24毛利率环比提升10.72pct，同比提升12.60pct。\n\n                        \n\n                              随着海风施工逐步恢复，预计下游需求有望逐步回暖。年初以来重要海风项目及政策推进加速：2月海南、福建等清洁能源大省相继公布2024年重大海风项目投资计划；3月阳江市阳西县自然资源局发布青洲五~七海缆集中送出工程项目《建设工程规划许可证》的批前公示；4月23日海南省发改委宣布海南省海上风电场址扩容，规模由12.3GW增加至24.9GW；4月26日中广核广东阳江帆石二海上风电项目启动招标等等。\n\n                        \n\n                              投资建议与估值\n\n                        \n\n                              重点推荐受益于海风逻辑的塔筒环节与海缆环节：泰胜风能、海力风电、东方电缆；受益于出口逻辑的海风零部件和风机环节：日月股份、三一重能等。\n\n                        \n\n                              风险提示\n\n                        \n\n                              大宗商品价格波动风险；下游装机不及预期；政策风险。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '财信证券', '研报总结': '        \n                        \n            \n                        \n\n                              投资要点：\n\n                        \n\n                              钙钛矿属于第三代太阳能电池，在性能和特点上具备诸多优势。钙钛矿型太阳能电池是利用钙钛矿型的有机金属卤化物半导体作为吸光材料的太阳能电池，钙钛矿泛指具有与CaTiO3相同晶体结构的材料，即ABX3型结构。钙钛矿电池具有原材料廉价易得、带隙可调整、光谱响应范围广、理论效率高、弱光效应优秀等特点。理论效率方面，单结钙钛矿电池极限理论效率为33%，双结为46%，远超晶硅电池理论效率。根据极电自建的户外电站数据，钙钛矿组件阵列每天早晨比同地区晶硅组件阵列平均早启动约25分钟，晚上晚关断约20分钟，每天工作时长多出45分钟左右，拥有优秀的弱光效应。\n\n                        \n\n                              钙钛矿制备技术路线尚无定论，镀膜、涂布、激光、封装为四大核心设备。从目前的制备流程上看，不论是何种路线，仅需镀膜、涂布、激光、封装设备四类设备即可覆盖钙钛矿所有环节。其中，电极层一般使用PVD、CVD等镀膜技术；传输层一般使用RPD和PVD镀膜技术；钙钛矿层有蒸镀和狭缝涂布两种路线；激光环节确定性较强，分为P0打标，P1-P4划线两个阶段。\n\n                        \n\n                              目前钙钛矿设备投资较高，中性预测下，2026年钙钛矿设备市场空间有望达到112亿元。目前100MW线设备投资额1亿元左右，换算至GW产线相当于投资额10亿，我们认为伴随技术成熟和规模效应，后续设备投资额将逐步下降。我们预测，2026年在乐观、中性、悲观估计下将分别新增22GW、16GW、12GW钙钛矿组件产能，对应154、112、84亿元设备市场空间。\n\n                        \n\n                              钙钛矿商业化尚有诸多难点扼待突破，经济性方面仍有较大降本空间。稳定性：钙钛矿吸光层在潮湿、高温、光照等环境下均会发生分解反应，对寿命产生严重影响。目前解决方案有材料改性和提升封装技术两种路径。大尺寸制备：大尺寸钙钛矿电池会明显降低效率，也会提高制备难度。经济性：目前国内钙钛矿制备成本远高于理论成本，电站投建成本也高于晶硅电池，可从材料、提效及规模效应三方面实现降本，根据我们测算，效率提升至22%、25%、28%时，单瓦理想成本有望降至0.82、0.72、0.64元/W。\n\n                        \n\n                              投资建议：钙钛矿制备路线尚无明确答案，技术路线百花齐放，技术实力强的厂商有望充分受益。钙钛矿电池生产流程中，目前仅有激光设备确定性较强，其他环节中镀膜和涂布均有自身技术特点，技术路线百花齐放。我们认为在此背景下，拥有较强技术实力且积极配合下游进行生产优化的厂商将脱颖而出。镀膜设备方面，建议关注光伏镀膜领域优秀厂商捷佳伟创（300724.SZ）、京山轻机（000821.SZ）、微导纳米（688147.SH）；涂布设备方面，建议关注领先的国产涂布头及涂布设备供应商曼恩斯特（301325.SZ）；激光设备方面，建议关注激光细分领域优质厂商杰普特（688025.SH）、德龙激光（688170.SH）。\n\n                        \n\n                              风险提示：光伏组件需求不及预期，钙钛矿产业化进度不及预期，钙钛矿制备技术发展不及预期，晶硅电池迅速降本，市场竞争加剧。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '川财证券', '研报总结': '        \n                        \n            \n                        \n\n                              跟踪点评\n\n                        \n\n                              今日上证指数上涨1.16%，沪深300上涨1.48%，中证1000上涨1.99%，创业板综上涨2.08%，科创50上涨1.33%，北证50上涨1.43%。申万行业分类中31个一级行业分类中，公用事业和煤炭分别实现1.22%和0.50%的涨跌幅，分别排名20和29。\n\n                        \n\n                              公用事业板块中今日有4只股票涨停，1只股票跌停。排名前三的股票为长青集团、西昌电力和百通能源，涨跌幅分别为10.07%、10.06%和10.03%；排名后三的股票为ST聆达、ST升达和长江电力，涨跌幅分别为-20.05%、-5.13%和-1.24%。\n\n                        \n\n                              煤炭板块中今日无股票涨停，无股票跌停。排名前三的股票为盘江股份、安泰集团和宝泰隆，涨跌幅分别为5.15%、5.10%和4.70%；排名后三的股票为陕西煤业、甘肃能化和中国神华，涨跌幅分别为-2.61%、-1.42%和-0.70%。\n\n                        \n\n                              今日，主要指数普涨，公用事业板块主要子行业表现分化，公用事业行业排名较好，煤炭行业排名其次。（来源：iFinD）\n\n                        \n\n                              行业要闻\n\n                        \n\n                              商务部：上周全国煤炭价格略有上涨（中国煤炭市场网）\n\n                        \n\n                              据商务部市场运行监测系统显示，4月22日至28日，全国煤炭价格略有上涨，其中动力煤炼焦煤、二号无烟块煤每吨815元、1203元和1211元，分别上涨1.0%、0.6%和0.2%。钢材价格略有回升，其中螺纹钢、高速线材、槽钢每吨3877元、4078元和4167元，分别上涨0.5%、0.5%和0.4%。\n\n                        \n\n                              风险提示\n\n                        \n\n                              宏观经济波动风险，出口订单超预期下滑，汇率风险等。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '华源证券', '研报总结': '        \n                        \n            \n                        \n\n                              继续看好低协方差标的“四水两核”：长江电力、华能水电、国投电力、川投能源、中国核电、中国广核。推荐：黔源电力+湖北能源，黔源电力现金流强劲，有望享受低协方差扩散行情；湖北能源水火共振业绩大幅向好，央企改革估值有望提振。推荐：理工能科，现金流优秀且重视股东回报，油色谱更新换代量价齐升带动公司业绩快速提升。\r\n\n                        \n\n                              涨幅回顾：本周推荐组合（等权配置）上涨0.7%，沪深300上涨0.6%，同花顺全A上涨1.2%，主动股基上涨0.9%，推荐组合跑赢沪深3000.1个百分点，跑输主动股基0.2个百分点。2024年以来推荐组合上涨16.97%，沪深300上涨5.05%，同花顺全A下跌1.74%，主动股基下跌1.01%，关注组合跑赢沪深30011.92个百分点，跑赢主动股基17.98个百分点。\r\n\n                        \n\n                              电力板块2023年报及2024年一季报业绩回顾：传统能源普超预期新能源压力犹存\r\n\n                        \n\n                              火电概览：受减值拖累，火电板块2023年四季度业绩整体低于预期，但是标的分化显著，2024年一季度业绩整体超预期，点火价差走扩。在煤价小幅反弹以及减值损失影响下，煤电板块一线龙头2023年四季度业绩普遍不及预期，煤电主流公司四季度合计净利润仍然为负（较2022年减亏），对板块整体拖累明显。但是受益于电力供需格局持续偏紧以及更高的资产平均质量，华东地区省级公司2023年四季度全部扭亏或实现正增长，延续了一直以来的区域分化格局。2024年一季度大部分煤电公司均实现了高增长，主要火电公司一季度合计归母净利润同比增长91%，煤价下跌带来的业绩弹性超过市场预期。煤电业绩超预期的另一因素为容量电价落实较为到位，有效弥补电价的小幅下滑。\r\n\n                        \n\n                              展望未来，短期来看，考虑到当前全国煤炭供需紧张程度有所缓和，秦皇岛5500大卡动力煤在800元/吨左右已停留较长时间，预计煤电板块二季度业绩有望继续改善。中期来看，我们分析煤电板块利润率进一步扩张空间有限，股价进一步表现需要分母端发力，而后者需要政策落地与时间验证。\r\n\n                        \n\n                              水电核电概览：水电在来水持续偏枯背景下，以价补量实现利润增长，业绩出现流域分化；核电表现基本平稳，短期业绩受检修影响。整体来看，2023年及2024年一季度水电板块呈现电量低于预期，但是电价涨幅持续超预期的格局，前者影响短暂，后者改变市场中长期预期。除传统的西南电力供需格局趋紧逻辑外，我们分析东部省份寻求低成本电源、国家能源双控收紧等因素正在提供边际力量。就投资逻辑而言，我们认为当前时点以水电、核电为代表的低协方差资产仍有较高配置价值，分母端驱动力大于分子端，业绩利好更多是估值重塑的催化剂。\r\n\n                        \n\n                              与传统电源相比，新能源业绩明显承压。根据中电联数据，2023年我国新增风电光伏装机合计近300GW，创历史新高。但是从上市公司业绩来看，2023年全年主要绿电上市公司合计归母净利润仅同比增长2.9%。2024年一季度同比下滑1.3%，绿电板块从此前的“弱预期”变成了当前的“弱现实”，我们分析主要系碳市场建设仍然滞后，市场机制不健全，调峰压力极大，绿电有效需求不足导致弃风弃光率大幅回升，电量电价同时承压。国家能源局4月26日印发《可再生能源绿色电力证书核发和交易规则（征求意见稿）》，明确证电可以分离，为后续进一步提升绿证交易效率奠定基础，但是反转仍需要相关机制理顺。\r\n\n                        \n\n                              电力设备：23年报及24年一季报回顾\r\n\n                        \n\n                              电网板块：国内外需求共振，业绩稳健增长。2023年电网设备板块业绩整体呈现较好增长，主要得益于国内电网和电源建设，以及海外需求增长。分板块来看，由于近年来电网建设以超高压、特高压为主，一次设备公司受益较为明显，均保持较高增长。二次设备受益不显著，增速整体低于一次设备。此外海外需求大幅提高，变压器、开关柜等设备出口均有两位数增长，海外布局较早的公司均因此受益。23年国网一次设备招标金额大幅增长，特高压保持高强度建设，建议继续关注特高压（以及柔直化）、出海等逻辑：（1）特高压及柔性直流：许继电气、平高电气、中国西电、国电南瑞等；（2）电力设备出海：华明装备、思源电气、金盘科技等。\r\n\n                        \n\n                              配用电及信息化：电改推动用电及信息化变革。2023年是我国电力体制改革重要一年。第三监管周期输配电价、电力需求侧管理办法、电力现货市场时间表、煤电容量电价建立等政策先后出台，进而促进诸如传统电源价值重估、新能源收益构成改变、电力交易业务兴起、储能价值得到体现和评估、用户侧灵活性得到体现等各方面价值挖掘。2023年有出海逻辑的智能电表公司业绩表现良好，电改取得突破性进展但市场空间尚未大规模打开。展望2024年，消纳压力以及电改推进打开行业天花板。关注电力信息化方向公司机会。重点推荐：理工能科。建议关注：海兴电力、三星医疗、国能日新、朗新集团等。\r\n\n                        \n\n                              电源板块：核电、煤电、抽蓄同时发力。2023年是我国电源装机大年，其中火电新增5793万千瓦为2015年以来新高。核电全年核准10台核电机组，与2022年一起创08年以来新高。22、23年抽蓄累计核准134GW，煤电22、23年分别核准89.1GW和74.3GW显著复苏。在电源建设高景气背景下，相关公司业绩均有不同程度改善。展望2024年，在核电、煤电、抽蓄同时发力背景下，相关公司业绩有望实现较高增长。至于更长远来看，由于我国用电需求存在较强韧性，负荷仍保持较高增长，新能源保供能力差，在高峰期供电方面难以发挥作用。因此仍然需要大量的传统电源建设才能保证供电安全，因此仍继续看好电源板块长期逻辑。建议关注：东方电气、哈尔滨电气、上海电气、江苏神通等\r\n\n                        \n\n                              风险提示：煤电最大的风险为煤价上涨超出预期，电力市场化进度不及预期，水电核电的收益率受到利率环境的影响。\n\n                        \n\n                                              \n\n                    '}, {'研报公司': '国金证券', '研报总结': '        \n                        \n            \n                        \n\n                              细分行业看：各行业2023年&amp;1Q24业绩表现较为分化。\n\n                        \n\n                              （1）火电：低基数效应+宏观经济复苏，火电需求同比高增。需求端看，4Q23、1Q24均受低基数影响，叠加宏观经济持续复苏，用电量持续高增；供给端看，4Q23、1Q24水电处在枯水期，且可再生能源出力不足，火电承担保供责任，发电量同比分别高增7.3%、7.2%。目前火电企业成本构成仍然以燃料成本为主、业绩对煤价变动的敏感性高，且电价下调滞后于市场煤价下行。综上，板块业绩反弹持续兑现，2023、1Q24行业归母净利润分别同比+610.6%、+102.4%。\n\n                        \n\n                              （2）新能源：装机高增助发电量稳健增长，但资源偏弱+电价折价使利润增长承压。23年/1Q24风光利用小时数均同比下行（除23年风电利用小时数同比微增0.2%），而23年风/光累计装机分别同比+20.7%/+55.2%、驱动风/光发电量分别同比+17.8%/+28.4%，1Q24装机高增长继续拉动风/光发电量分别同比+16.3%/+27.9%。而受到自然资源转弱影响发电效率和电价折价的影响，2023年绿电发电归母净利润同比+8.7%、增幅收窄；1Q24行业归母净利润同比由正转负。\n\n                        \n\n                              （3）水电：2H23来水改善但全年电量同比下降，电价上涨助业绩稳健增长。由于长江电力规模较大、其装机增长带来的发电量上行对行业趋势的影响较大，若剔除统计偏差，虽23年起各大水库蓄水情况好于上年同期，但实则行业发电量同比下行；而行业在电价增长的拉动下业绩实现稳健增长，23年/1Q24归母净利润分别同比+18.9%、+19.6%。\n\n                        \n\n                              （4）环保：23年业绩承压，1Q24盈利能力修复。23年下游需求复苏，但受地方财政压力影响，水务运营/固废处理归母净利润分别同比-13.5%/-8.5%。随着公共卫生事件影响消除、下游需求恢复，叠加运营类资产进入存量提质增效阶段、资本开支进入放缓期，1Q24水务运营/固废治理/水处理净利率环比23年分别回升2.5pct、3.8pct、3.2pct。\n\n                        \n\n                              细分主要标的看：分化格局更显竞争优势。\n\n                        \n\n                              （1）火电：煤价中枢大幅下行，1Q24火电兑现业绩弹性。以华电国际为例，公司在成本改善的利好下，1Q24归母净利润18.6亿元、同比+64.2%，毛利率和净利率水平分别达到8.4%/7.3%、分别环比+2.0pct/+3.2pct。\n\n                        \n\n                              （2）绿电：23年及1Q24风电运营商业绩受装机量、发电效率的影响而表现分化。如三峡能源23年风电装机量同比+195.5万千瓦、利用小时同比+79小时，带动营收、净利润分别同比+11%、+1%；中闽能源23年装机容量持平，公司福建陆风/海风利用小时数分别下行17.5%、3.3%，因而营收、净利润同比分别-3%、-7%。\n\n                        \n\n                              （3）核电：机组投产、运营情况为影响业绩的主要因素。例如，中国核电23年为装机空窗期，但公司进一步提升运营能力，在运机组能力因子提升至93.3%（同比+0.1pct），驱动营收、归母净利润分别保持5%、18%的稳健增长。\n\n                        \n\n                              （4）水电：1Q24来水仍偏枯、龙头水库发挥调节能力，市场化电价上浮以价补量。以长江电力为例，23年入汛后来水改善、蓄水修复，虽1Q24三峡水库来水偏枯，但水库水位较高叠加电价上浮，驱动1Q24营收/归母分别+2%/+10%。\n\n                        \n\n           </t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>['null', 'null', 'null', 'null', 'null', '中国银河在近期研报中表示，推荐关注电力板块整体业绩确定性高，分红能力强，未来也将持续受益央国企改革，我们持续看好电力板块的长期投资价值。短期推荐具备政策催化、业绩持续改善、估值有提升空间的火电板块；长期、低风险偏好资金重点布局核电、水电；逢低战略性布局新能源板块。', 'null', '中原证券在近期研报中表示，维持行业“强于大市”投资评级。中期建议关注光伏玻璃、银浆、钙钛矿电池设备以及一体化组件厂商领先企业。', 'null', 'null', 'null', 'null', 'null', 'null', 'null']</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>[{'role': 'system', 'content': '你是一名投资分析专家，现在需要你判断给出的资讯与哪个投资建议最相关，最后仅输出最相关建议即可，请遵循以下分析步骤：\n1.首先仔细阅读给出的资讯，了解资讯的主要内容，资讯仅作为理解参考，不可作为最后输出内容来源；\n2.接下来将给你几篇研报投资建议，请判断资讯与哪个投资建议最相关，最相关意味着该建议应直接对应资讯的核心主题，深入探讨资讯中提到的变化或趋势及其对相应行业市场的影响。\n3.输出与资讯内容最相关的一条建议，仅以json形式输出最相关投资建议原文，不需要添加或杜撰任何建议之外的信息。\n4.如果判断没有最相关的投资建议句段。most_relevant_suggestion输出“无”\n输出参考示例：{"most_relevant_suggestion":"东莞证券在近期研报中表示，当前楼市虽然基本面未见好转，但政策自上而下均处在持续宽松阶段，随着后续的进一步政策宽松预期释放，板块估值有望得到一定的修复。"}\n\n'}, {'role': 'user', 'content': '资讯：{重磅！鼓励光伏行业兼并重组 5月21日，据中国光伏行业协会CPIA公众号，中国光伏行业协会近日在北京组织召开“光伏行业高质量发展座谈会”。会议指出，加强对于低于成本价格销售恶性竞争的打击力度；鼓励行业兼并重组，畅通市场退出机制。}\n\n"suggestions":\n{null}\n{null}\n{null}\n{null}\n{null}\n{中国银河在近期研报中表示，推荐关注电力板块整体业绩确定性高，分红能力强，未来也将持续受益央国企改革，我们持续看好电力板块的长期投资价值。短期推荐具备政策催化、业绩持续改善、估值有提升空间的火电板块；长期、低风险偏好资金重点布局核电、水电；逢低战略性布局新能源板块。}\n{null}\n{中原证券在近期研报中表示，维持行业“强于大市”投资评级。中期建议关注光伏玻璃、银浆、钙钛矿电池设备以及一体化组件厂商领先企业。}\n{null}\n{null}\n{null}\n{null}\n{null}\n{null}\n{null}\n'}]</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>{"most_relevant_suggestion":"中原证券在近期研报中表示，维持行业“强于大市”投资评级。中期建议关注光伏玻璃、银浆、钙钛矿电池设备以及一体化组件厂商领先企业。"}</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>5月17日，在工信部电子信息司指导下，中国光伏行业协会召开座谈会，强调打击低于成本价格的恶性竞争，鼓励行业兼并重组，畅通市场退出机制。
+光伏行业正在经历一系列由市场化手段和政策引导结合而来的整体调整。会议强调要打击低于成本价销售的恶性竞争以及低价中标现象，并通过示范项目支持先进技术应用，以推动行业高质量增长。行业长期受到价格下跌限制，预计光伏产品价格下跌幅度有限。光伏行业供需关系正处于关键节点，市场集中度可能提升，尤其是前四家企业的市占率可能超过60%。政策上将优化光伏制造行业管理，提升技术指标，并建立全国统一大市场，加快技术落后产能的市场退出。未来行业将回到健康发展轨道，企业需在成本、技术和现金流等方面提高竞争力。预计2024年，全球光伏新增装机量持平甚至超越去年，达到390GW至430GW。
+中原证券在近期研报中表示，维持行业“强于大市”投资评级。中期建议关注光伏玻璃、银浆、钙钛矿电池设备以及一体化组件厂商领先企业。</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>[{'role': 'system', 'content': '你是一名标题编辑人员，请根据文章内容，撰写财经新闻标题：\n\n标题1句话\n1. 简短新闻内容的短句，要求标题党，最好能带上新闻中提到的热门人物、热门事件的动词、或关键数据等。\n\n标题党是指：\n- 引起好奇心：制造悬念或提出引人入胜的问题。\n- 使用强烈、感性的语言：使用能够引发情感反应的词汇。\n- 结合热点话题：利用当前的热点或流行趋势。\n- 直接挑战读者观点：提出可能与普遍看法不同的观点。\n- 使用数字或统计数据：数字能够吸引注意并增加说服力\n\n2、越简短越好，避免使用“标题”这个词\n\n，使用json格式输出，输出参考示例：{"title":"文心一言用户破2亿！AI继续火热？"}\n\n新闻：'}, {'role': 'user', 'content': '5月17日，在工信部电子信息司指导下，中国光伏行业协会召开座谈会，强调打击低于成本价格的恶性竞争，鼓励行业兼并重组，畅通市场退出机制。\n光伏行业正在经历一系列由市场化手段和政策引导结合而来的整体调整。会议强调要打击低于成本价销售的恶性竞争以及低价中标现象，并通过示范项目支持先进技术应用，以推动行业高质量增长。行业长期受到价格下跌限制，预计光伏产品价格下跌幅度有限。光伏行业供需关系正处于关键节点，市场集中度可能提升，尤其是前四家企业的市占率可能超过60%。政策上将优化光伏制造行业管理，提升技术指标，并建立全国统一大市场，加快技术落后产能的市场退出。未来行业将回到健康发展轨道，企业需在成本、技术和现金流等方面提高竞争力。预计2024年，全球光伏新增装机量持平甚至超越去年，达到390GW至430GW。\n中原证券在近期研报中表示，维持行业“强于大市”投资评级。中期建议关注光伏玻璃、银浆、钙钛矿电池设备以及一体化组件厂商领先企业。'}]</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>{"title":"光伏行业整顿：恶性竞争遭打击，前四家市占率或超60%"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>光伏概念股反弹，金刚光伏20cm涨停 光伏概念股开盘反弹，金刚光伏20cm涨停，清源股份、拓日新能、TCL中环、晶澳科技、爱旭股份等跟涨。消息面上，中国光伏行业协会会议指出，鼓励行业兼并重组，畅通市场退出机制。</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>{"category": "行业利好新闻"}</t>
+        </is>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>咨询或解读不足</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>{
+  "industry_benefit":[
+    {"industry_name":"电力设备","score":"90"},
+    {"industry_name":"公用事业","score":"75"}
+  ],
+  "concept_benefit":[
+    {"concept_name":"太阳能","score":"90"},
+    {"concept_name":"新能源","score":"85"},
+    {"concept_name":"绿色电力","score":"80"}
+  ]
+}</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>[{'提取文章': '\n                            \n                                \n  5月22日，金刚光伏涨停，清源股份、拓日新能、TCL中环、晶澳科技、钧达股份、爱旭股份、欧晶科技等跟涨。（文章来源：每日经济新闻）                        ', 'gpt提取资讯,解读结果': '{\n"news":"5月22日，金刚光伏涨停，清源股份、拓日新能、TCL中环、晶澳科技、钧达股份、爱旭股份、欧晶科技等跟涨。（文章来源：每日经济新闻）",\n"analysis":null\n}'}, {'提取文章': '\n                            \n                                \n  5月22日，金刚光伏涨超10%，清源股份、拓日新能、TCL中环、晶澳科技、钧达股份、爱旭股份、欧晶科技等跟涨。（文章来源：每日经济新闻）                        ', 'gpt提取资讯,解读结果': '{\n"news":"5月22日，金刚光伏涨超10%，清源股份、拓日新能、TCL中环、晶澳科技、钧达股份、爱旭股份、欧晶科技等跟涨。（文章来源：每日经济新闻）",\n"analysis":null\n}'}, {'提取文章': '\n                            \n                                \n  5月22日早盘，光伏设备板块快速拉升。截至9时33分，清源股份涨停。金刚光伏涨超9%，宇邦新材涨逾6%，拓日新能、上能电气等跟涨。   数据来源：choice金融终端（文章来源：上海证券报·中国证券网）                        ', 'gpt提取资讯,解读结果': '{\n"news": "5月22日早盘，光伏设备板块快速拉升。截至9时33分，清源股份涨停。金刚光伏涨超9%，宇邦新材涨逾6%，拓日新能、上能电气等跟涨。",\n"analysis": null\n}'}, {'提取文章': '\n                            \n                                \n  5月22日早盘，光伏板块拉升。9时37分，清源股份涨停，拓日新能涨超9%，TCL中环、东方日升等跟涨。（文章来源：上海证券报·中国证券网）                        ', 'gpt提取资讯,解读结果': '{\n"news":"5月22日早盘，光伏板块拉升。9时37分，清源股份涨停，拓日新能涨超9%，TCL中环、东方日升等跟涨。（文章来源：上海证券报·中国证券网）",\n"analysis":null\n}'}, {'提取文章': '\n                            \n                                \n   光伏产业链全线反弹，HJT电池方向领涨，金刚光伏20CM涨停，拓日新能涨停，宇邦新材涨逾9%。（文章来源：界面新闻）                        ', 'gpt提取资讯,解读结果': '{\n"news":"光伏产业链全线反弹，HJT电池方向领涨，金刚光伏20CM涨停，拓日新能涨停，宇邦新材涨逾9%。",\n"analysis":null\n}'}, {'提取文章': '\n                            \n                                \n  每经AI快讯，光伏产业链全线反弹，HJT电池方向领涨，金刚光伏20cm涨停，宇邦新材涨逾10%，拓日新能涨停。（文章来源：每日经济新闻）                        ', 'gpt提取资讯,解读结果': '{\n"news":"每经AI快讯，光伏产业链全线反弹，HJT电池方向领涨，金刚光伏20cm涨停，宇邦新材涨逾10%，拓日新能涨停。",\n"analysis":null\n}'}]</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>5月22日，金刚光伏涨停，清源股份、拓日新能、TCL中环、晶澳科技、钧达股份、爱旭股份、欧晶科技等跟涨。（文章来源：每日经济新闻）</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>辅助生殖概念早盘拉升，汉商集团一字涨停 辅助生殖概念早盘拉升，汉商集团、澳洋健康涨停，达嘉维康涨超10%，透景生命、共同药业、采纳股份、麦迪科技等快速跟涨。</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>{"category": "其他"}</t>
+        </is>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>非行业利好</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>全球通胀放缓新迹象推动欧美债市上扬 今晚聚焦美联储纪要 ①随着再度有新证据表明，欧美发达国家似乎终于控制了通胀，全球债券价格周二纷纷上扬；
+②周二，在最新数据显示加拿大CPI同比涨幅降至三年低点后，加拿大国债领涨；
+③美联储将于北京时间周四凌晨2点公布其4月30日至5月1日货币政策会议的纪要。</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>{"category": "其他"}</t>
+        </is>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>非行业利好</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>电动垂直起降航空器起降场相关标准发布 该标准共分为11章节，对电动垂直起降航空器（eVTOL）起降场的物理特性、障碍物限制、场址选择、结构设计、专用设施设备等诸多技术参数进行了明确阐释。</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>{"category": "行业利好新闻"}</t>
+        </is>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>咨询或解读不足</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>{
+  "industry_benefit":[
+    {"industry_name":"国防军工","score":"85"},
+    {"industry_name":"航空运输","score":"75"},
+    {"industry_name":"机械设备","score":"70"},
+    {"industry_name":"新能源","score":"65"},
+    {"industry_name":"电力设备","score":"60"}
+  ],
+  "concept_benefit":[
+    {"concept_name":"无人驾驶","score":"90"},
+    {"concept_name":"人工智能","score":"80"},
+    {"concept_name":"新能源","score":"75"}
+  ]
+}</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[{'提取文章': '\n                            \n                                \n  据央视新闻，5月22日，中国民用机场协会在第五届中国机场发展大会上发布《电动垂直起降航空器（eVTOL）起降场技术要求》团体标准。该标准于2023年底正式启动编制，是我国首部针对电动垂直起降航空器（eVTOL）起降场的技术规范。该标准共分为11章节，对电动垂直起降航空器（eVTOL）起降场的物理特性、障碍物限制、场址选择、结构设计、专用设施设备等诸多技术参数进行了明确阐释。（文章来源：界面新闻）                        ', 'gpt提取资讯,解读结果': '{\n"news":"据央视新闻，5月22日，中国民用机场协会在第五届中国机场发展大会上发布《电动垂直起降航空器（eVTOL）起降场技术要求》团体标准。该标准于2023年底正式启动编制，是我国首部针对电动垂直起降航空器（eVTOL）起降场的技术规范。该标准共分为11章节，对电动垂直起降航空器（eVTOL）起降场的物理特性、障碍物限制、场址选择、结构设计、专用设施设备等诸多技术参数进行了明确阐释。",\n"analysis":null\n}'}, {'提取文章': '\n                            \n                                \n  证券时报网讯，5月22日，中国民用机场协会在第五届中国机场发展大会上发布《电动垂直起降航空器（eVTOL）起降场技术要求》团体标准。该标准于2023年底正式启动编制，是我国首部针对电动垂直起降航空器（eVTOL）起降场的技术规范。该标准共分为11章节，对电动垂直起降航空器（eVTOL）起降场的物理特性、障碍物限制、场址选择、结构设计、专用设施设备等诸多技术参数进行了明确阐释。（文章来源：证券时报网）                        ', 'gpt提取资讯,解读结果': '{\n"news":"5月22日，中国民用机场协会在第五届中国机场发展大会上发布《电动垂直起降航空器（eVTOL）起降场技术要求》团体标准。该标准于2023年底正式启动编制，是我国首部针对电动垂直起降航空器（eVTOL）起降场的技术规范。该标准共分为11章节，对电动垂直起降航空器（eVTOL）起降场的物理特性、障碍物限制、场址选择、结构设计、专用设施设备等诸多技术参数进行了明确阐释。",\n"analysis":null\n}'}, {'提取文章': '\n                            \n                                \n  南方财经5月22日电，据央视新闻，5月22日，中国民用机场协会在第五届中国机场发展大会上发布《电动垂直起降航空器（eVTOL）起降场技术要求》团体标准。该标准于2023年底正式启动编制，是我国首部针对电动垂直起降航空器（eVTOL）起降场的技术规范。该标准共分为11章节，对电动垂直起降航空器（eVTOL）起降场的物理特性、障碍物限制、场址选择、结构设计、专用设施设备等诸多技术参数进行了明确阐释。 （文章来源：南方财经网）                        ', 'gpt提取资讯,解读结果': '{\n"news":"南方财经5月22日电，据央视新闻，5月22日，中国民用机场协会在第五届中国机场发展大会上发布《电动垂直起降航空器（eVTOL）起降场技术要求》团体标准。该标准于2023年底正式启动编制，是我国首部针对电动垂直起降航空器（eVTOL）起降场的技术规范。该标准共分为11章节，对电动垂直起降航空器（eVTOL）起降场的物理特性、障碍物限制、场址选择、结构设计、专用设施设备等诸多技术参数进行了明确阐释。",\n"analysis":null\n}'}, {'提取文章': '\n                            \n                                \n  随着国内低空经济的快速发展，电动垂直起降航空器（eVTOL）安全、高效地运行需要规范化的低空飞行基础设施提供有力支撑。电动垂直起降航空器起降场的相关标准，可以更好地指导低空飞行基础设施规范化、规模化建设。  5月22日，中国民用机场协会在第五届中国机场发展大会上发布《电动垂直起降航空器（eVTOL）起降场技术要求》团体标准。该标准于2023年底正式启动编制，是我国首部针对电动垂直起降航空器（eVTOL）起降场的技术规范。该标准共分为11章节，对电动垂直起降航空器（eVTOL）起降场的物理特性、障碍物限制、场址选择、结构设计、专用设施设备等诸多技术参数进行了明确阐释。  低空经济是全球竞逐的战略性新兴产业，是培育和发展新质生产力的重要方向。  2023年10月工信部等四部委联合发布《绿色航空制造业发展纲要（2023—2035年）》，提出2025年要实现eVTOL定点运行；  2023年12月国家空管委组织制定了《国家空域基础分类方法》，新增真高300米以下的G类空域和真高120米以下的W类空域，eVTOL、轻小型无人机、通用航空有了合法的低空空域；  2024年1月《民用无人驾驶航空器运行安全管理规则》（CCAR-92部）作为无人机运行第一份规章性文件正式发布；  2024年全国两会将“低空经济”写入政府工作报告，明确把发展低空经济作为新增长引擎；  2024年4月，全球首个三证齐全eVTOL飞行器诞生。在产业政策共振下，低空经济概念持续火热，2024年或将成为低空经济发展元年。  近年来，我国基础设施建设成果突出，完善程度为全球第一，不仅传统基建不断发展升级，5G通信网、卫星定位网、卫星遥感网、新能源发电输送和储能网络等新基建也迅速发展，成为发展低空经济的坚实基础。当前我国低空飞行服务保障体系已在基础设施布局规划、法规标准体系建设、有人机和无人机融合运行等方面持续发力。（文章来源：央视新闻客户端）                        ', 'gpt提取资讯,解读结果': '{\n  "news": "5月22日，中国民用机场协会在第五届中国机场发展大会上发布《电动垂直起降航空器（eVTOL）起降场技术要求》团体标准。该标准于2023年底正式启动编制，是我国首部针对电动垂直起降航空器（eVTOL）起降场的技术规范。该标准共分为11章节，对电动垂直起降航空器（eVTOL）起降场的物理特性、障碍物限制、场址选择、结构设计、专用设施设备等诸多技术参数进行了明确阐释。",\n  "analysis": null\n}'}]</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>据央视新闻，5月22日，中国民用机场协会在第五届中国机场发展大会上发布《电动垂直起降航空器（eVTOL）起降场技术要求》团体标准。该标准于2023年底正式启动编制，是我国首部针对电动垂直起降航空器（eVTOL）起降场的技术规范。该标准共分为11章节，对电动垂直起降航空器（eVTOL）起降场的物理特性、障碍物限制、场址选择、结构设计、专用设施设备等诸多技术参数进行了明确阐释。</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>地产持续反复，我爱我家强势反包 我爱我家昨日早盘涨停后炸板，最后涨幅+6.54%。方新侠大手笔买入1.12亿、炒股养家买入6100万，3日买入8000万，近日分歧后反包！</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>{"category": "其他"}</t>
+        </is>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>非行业利好</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>低空经济，标准发布！ 中国民用机场协会在第五届中国机场发展大会上发布《电动垂直起降航空器(eVTOL)起降场技术要求》团体标准。该标准于2023年底正式启动编制，是我国首部针对电动垂直起降航空器(eVTOL)起降场的技术规范。</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>{"category": "行业利好新闻"}</t>
+        </is>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>咨询或解读不足</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>{
+  "industry_benefit": [
+    {
+      "industry_name": "国防军工",
+      "score": "80"
+    },
+    {
+      "industry_name": "交通运输",
+      "score": "70"
+    },
+    {
+      "industry_name": "机械设备",
+      "score": "65"
+    }
+  ],
+  "concept_benefit": [
+    {
+      "concept_name": "低空经济",
+      "score": "100"
+    },
+    {
+      "concept_name": "无人驾驶",
+      "score": "75"
+    }
+  ]
+}</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[{'提取文章': '\n                            \n                                \n  据央视新闻，5月22日，中国民用机场协会在第五届中国机场发展大会上发布《电动垂直起降航空器（eVTOL）起降场技术要求》团体标准。该标准于2023年底正式启动编制，是我国首部针对电动垂直起降航空器（eVTOL）起降场的技术规范。该标准共分为11章节，对电动垂直起降航空器（eVTOL）起降场的物理特性、障碍物限制、场址选择、结构设计、专用设施设备等诸多技术参数进行了明确阐释。（文章来源：界面新闻）                        ', 'gpt提取资讯,解读结果': '{\n    "news": "据央视新闻，5月22日，中国民用机场协会在第五届中国机场发展大会上发布《电动垂直起降航空器（eVTOL）起降场技术要求》团体标准。该标准于2023年底正式启动编制，是我国首部针对电动垂直起降航空器（eVTOL）起降场的技术规范。该标准共分为11章节，对电动垂直起降航空器（eVTOL）起降场的物理特性、障碍物限制、场址选择、结构设计、专用设施设备等诸多技术参数进行了明确阐释。",\n    "analysis": null\n}'}, {'提取文章': '\n                            \n                                \n  证券时报网讯，5月22日，中国民用机场协会在第五届中国机场发展大会上发布《电动垂直起降航空器（eVTOL）起降场技术要求》团体标准。该标准于2023年底正式启动编制，是我国首部针对电动垂直起降航空器（eVTOL）起降场的技术规范。该标准共分为11章节，对电动垂直起降航空器（eVTOL）起降场的物理特性、障碍物限制、场址选择、结构设计、专用设施设备等诸多技术参数进行了明确阐释。（文章来源：证券时报网）                        ', 'gpt提取资讯,解读结果': '{\n"news": "5月22日，中国民用机场协会在第五届中国机场发展大会上发布《电动垂直起降航空器（eVTOL）起降场技术要求》团体标准。该标准于2023年底正式启动编制，是我国首部针对电动垂直起降航空器（eVTOL）起降场的技术规范。该标准共分为11章节，对电动垂直起降航空器（eVTOL）起降场的物理特性、障碍物限制、场址选择、结构设计、专用设施设备等诸多技术参数进行了明确阐释。",\n"analysis": null\n}'}, {'提取文章': '\n                            \n                                \n  5月22日，据央视新闻消息，中国民用机场协会在第五届中国机场发展大会上发布《电动垂直起降航空器（eVTOL）起降场技术要求》团体标准。该标准于2023年底正式启动编制，是我国首部针对电动垂直起降航空器（eVTOL）起降场的技术规范。该标准共分为11章节，对电动垂直起降航空器（eVTOL）起降场的物理特性、障碍物限制、场址选择、结构设计、专用设施设备等诸多技术参数进行了明确阐释。（文章来源：北京商报）                        ', 'gpt提取资讯,解读结果': '{\n"news":"5月22日，据央视新闻消息，中国民用机场协会在第五届中国机场发展大会上发布《电动垂直起降航空器（eVTOL）起降场技术要求》团体标准。该标准于2023年底正式启动编制，是我国首部针对电动垂直起降航空器（eVTOL）起降场的技术规范。该标准共分为11章节，对电动垂直起降航空器（eVTOL）起降场的物理特性、障碍物限制、场址选择、结构设计、专用设施设备等诸多技术参数进行了明确阐释。",\n"analysis":null\n}'}, {'提取文章': '\n                            \n                                \n  南方财经5月22日电，据央视新闻，5月22日，中国民用机场协会在第五届中国机场发展大会上发布《电动垂直起降航空器（eVTOL）起降场技术要求》团体标准。该标准于2023年底正式启动编制，是我国首部针对电动垂直起降航空器（eVTOL）起降场的技术规范。该标准共分为11章节，对电动垂直起降航空器（eVTOL）起降场的物理特性、障碍物限制、场址选择、结构设计、专用设施设备等诸多技术参数进行了明确阐释。 （文章来源：南方财经网）                        ', 'gpt提取资讯,解读结果': '{\n"news":"5月22日，中国民用机场协会在第五届中国机场发展大会上发布《电动垂直起降航空器（eVTOL）起降场技术要求》团体标准。该标准于2023年底正式启动编制，是我国首部针对电动垂直起降航空器（eVTOL）起降场的技术规范。该标准共分为11章节，对电动垂直起降航空器（eVTOL）起降场的物理特性、障碍物限制、场址选择、结构设计、专用设施设备等诸多技术参数进行了明确阐释。",\n"analysis":null\n}'}, {'提取文章': '\n                            \n                                \n  随着国内低空经济的快速发展，电动垂直起降航空器（eVTOL）安全、高效地运行需要规范化的低空飞行基础设施提供有力支撑。电动垂直起降航空器起降场的相关标准，可以更好地指导低空飞行基础设施规范化、规模化建设。  5月22日，中国民用机场协会在第五届中国机场发展大会上发布《电动垂直起降航空器（eVTOL）起降场技术要求》团体标准。该标准于2023年底正式启动编制，是我国首部针对电动垂直起降航空器（eVTOL）起降场的技术规范。该标准共分为11章节，对电动垂直起降航空器（eVTOL）起降场的物理特性、障碍物限制、场址选择、结构设计、专用设施设备等诸多技术参数进行了明确阐释。  低空经济是全球竞逐的战略性新兴产业，是培育和发展新质生产力的重要方向。  2023年10月工信部等四部委联合发布《绿色航空制造业发展纲要（2023—2035年）》，提出2025年要实现eVTOL定点运行；  2023年12月国家空管委组织制定了《国家空域基础分类方法》，新增真高300米以下的G类空域和真高120米以下的W类空域，eVTOL、轻小型无人机、通用航空有了合法的低空空域；  2024年1月《民用无人驾驶航空器运行安全管理规则》（CCAR-92部）作为无人机运行第一份规章性文件正式发布；  2024年全国两会将“低空经济”写入政府工作报告，明确把发展低空经济作为新增长引擎；  2024年4月，全球首个三证齐全eVTOL飞行器诞生。在产业政策共振下，低空经济概念持续火热，2024年或将成为低空经济发展元年。  近年来，我国基础设施建设成果突出，完善程度为全球第一，不仅传统基建不断发展升级，5G通信网、卫星定位网、卫星遥感网、新能源发电输送和储能网络等新基建也迅速发展，成为发展低空经济的坚实基础。当前我国低空飞行服务保障体系已在基础设施布局规划、法规标准体系建设、有人机和无人机融合运行等方面持续发力。（文章来源：央视新闻客户端）                        ', 'gpt提取资讯,解读结果': '{\n  "news": "5月22日，中国民用机场协会在第五届中国机场发展大会上发布《电动垂直起降航空器（eVTOL）起降场技术要求》团体标准。该标准于2023年底正式启动编制，是我国首部针对电动垂直起降航空器（eVTOL）起降场的技术规范。该标准共分为11章节，对电动垂直起降航空器（eVTOL）起降场的物理特性、障碍物限制、场址选择、结构设计、专用设施设备等诸多技术参数进行了明确阐释。",\n  "analysis": null\n}'}]</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>据央视新闻，5月22日，中国民用机场协会在第五届中国机场发展大会上发布《电动垂直起降航空器（eVTOL）起降场技术要求》团体标准。该标准于2023年底正式启动编制，是我国首部针对电动垂直起降航空器（eVTOL）起降场的技术规范。该标准共分为11章节，对电动垂直起降航空器（eVTOL）起降场的物理特性、障碍物限制、场址选择、结构设计、专用设施设备等诸多技术参数进行了明确阐释。</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>礼来中国：替尔泊肽将商业上市 礼来股价最高触及816美元/股，创历史新高。礼来中国回应替尔泊肽获批，将在今年四季度商业上市并公布价格。礼来中国21日宣布穆峰达(替尔泊肽注射液)获得国家药品监督管理局(NMPA)批准。</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>{"category": "行业利好新闻"}</t>
+        </is>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>{
+  "industry_benefit": [
+    {"industry_name":"医药生物","score":"90"}
+  ],
+  "concept_benefit": [
+    {"concept_name":"生物医药","score":"85"},
+    {"concept_name":"创新药","score":"80"},
+    {"concept_name":"独家药品","score":"75"}
+  ]
+}</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>[{'提取文章': '\n                            \n                                \n  司美格鲁肽在华迎来强劲对手，GLP-1领域另一重磅产品替尔泊肽注射液在中国获批。   5月21日，礼来中国宣布，替尔泊肽注射液（商品名：穆峰达；英文名称：Tirzepatide）获得国家药监局（NMPA）批准上市。该药物是一种创新的每周一次的葡萄糖依赖性促胰岛素多肽（GIP）/胰高糖素样肽-1（GLP-1）受体激动剂，适用于在饮食控制和运动基础上，接受二甲双胍和/或磺脲类药物治疗血糖仍控制不佳的成人2型糖尿病患者。   据国际糖尿病联盟（IDF）统计，2021年全球成年糖尿病患者人数达到5.37亿，其中中国患者人数约占全球总数的1/4，约1.4亿人。CIC灼识咨询报告指出，2022年中国糖尿病市场规模已经达到624亿元，预计到2030年将增长至1323亿元。   替尔泊肽在华获批，不仅意味着逾1亿的中国糖尿病患者迎来新药，也意味着诺和诺德与礼来在GLP-1领域内的较量延伸至中国市场。就替尔泊肽在中国市场的商业上市日期及定价情况，礼来中国对时代财经表示，“预计2024年四季度商业上市，具体定价也将在上市时公布。”   礼来中国官方资料显示，替尔泊肽注射液能够选择性结合并激动GIP受体和GLP-1受体两种天然肠促胰素受体，降低2型糖尿病患者的空腹和餐后血糖水平，可能实现更高标准的综合达标：HbA1c（糖化血红蛋白）≤6.5%、体重下降≥10%、无有临床意义低血糖且无严重低血糖事件。穆峰达目前有包含2.5mg:0.5ml、5mg:0.5ml、7.5mg:0.5ml、10mg:0.5ml在内的4种规格。   礼来全球高级副总裁、礼来中国药物开发及医学事务中心负责人王莉博士对外表示，“近20年来，新的2型糖尿病治疗靶位丰富了我们的治疗手段，但对因治疗仍存在不足。全新类别的降糖药物穆峰达的获批代表着糖尿病研发领域的突破性进步。”   替尔泊肽是礼来在GLP-1领域的明星产品。2022年5月，替尔泊肽降糖版Mounjaro在美获批上市；2023年11月，替尔泊肽减肥版本Zepbound也获得美国食品药品监督管理局（FDA）批准上市。两种版本的替尔泊肽均在上市以后大卖。   财报显示，2024年一季度，替尔泊肽为礼来贡献了23.24亿美元的收入，占总营收的比重约为26%。其中，降糖版Mounjaro销量同比暴涨217%，达18.07亿美元；减肥版Zepbound上市不足5个月，一季度销售额已达5.17亿美元。   目前，在GLP-1领域，诺和诺德、礼来两家巨头占据全球大部分市场，双方在产能、适应证和市场规模等方面的竞争也愈发激烈。   作为近两年火爆全球的现象级大单品，诺和诺德的司美格鲁肽（商品名：诺和泰）已在中国获批治疗二型糖尿病；在美国市场，司美格鲁肽获批的剂型增至3款，分别是Ozempic（注射用降糖药），Wegovy（注射用减重药）和Rybelsus（口服降糖药）。   司美格鲁肽已然成为诺和诺德业绩增长的重要引擎。今年一季度，三款相关产品共计实现营收422亿丹麦克朗（折合当前汇率约60.81亿美元），支撑起了诺和诺德约2/3的营收。其中，注射用降糖药Ozempic销售额攀升至278.10亿丹麦克朗（折合当前汇率约40.07亿美元）；口服降糖产品Rybelsus销售额则售出50.13亿丹麦克朗（折合当前汇率约7.22亿美元），减肥版Wegovy销售额同比增长106%，达93.77亿丹麦克朗（折合当前汇率约13.51亿美元）。   诺和诺德方面曾在今年5月初告诉时代财经，“用于长期体重管理的每周注射一次的Wegovy（司美格鲁肽2.4mg注射液）已于去年5月在中国递交新药上市申请，期待于今年在中国获批。”   替尔泊肽紧随其后。公告显示，替尔泊肽用于成人肥胖和超重患者长期体重管理的新适应症上市申请也已于去年8月获得国家药监局受理。（文章来源：时代财经）                        ', 'gpt提取资讯,解读结果': '{\n"news":"5月21日，礼来中国宣布，替尔泊肽注射液（商品名：穆峰达；英文名称：Tirzepatide）获得国家药监局（NMPA）批准上市。该药物是一种创新的每周一次的葡萄糖依赖性促胰岛素多肽（GIP）/胰高糖素样肽-1（GLP-1）受体激动剂，适用于在饮食控制和运动基础上，接受二甲双胍和/或磺脲类药物治疗血糖仍控制不佳的成人2型糖尿病患者。",\n"analysis":null\n}'}, {'提取文章': '\n                            \n                                \n  5月21日，中国国家药监局（NMPA）官网最新公示，礼来公司递交的替尔泊肽（tirzepatide）注射液上市申请已获得批准。替尔泊肽是一款GIP/GLP-1受体双重激动剂，本次获批用于治疗成人2型糖尿病患者血糖控制。   替尔泊肽将两种肠促胰素——葡萄糖依赖性促胰岛素多肽（GIP）和胰高血糖素样肽-1（GLP-1）的作用整合到一个分子中，每周注射一次。   今年2月，礼来市值突破7000亿美元，甚至远远超过特斯拉市值。今年以来，该公司股价上涨近35%，截至发稿，礼来最新市值为7440亿美元，而特斯拉市值不到6000亿美元。   不过替尔泊肽目前在国内尚未获批减重适应证，去年11月，该药物减重适应证获得美国FDA批准。公开信息显示，去年8月，礼来替尔泊肽注射液减重适应证的国内上市申请获得NMPA受理。   根据礼来此前已公布的替尔泊肽针对肥胖或伴有至少一种合并症的超重中国成人受试者的数据，第52周时，替尔泊肽10mg组、15mg组平均体重自基线分别降低14.4%、19.9%，两组中减重超过5%的受试者比例均超过90%。   除了2型糖尿病和减重适应证，礼来还在临床研究中探索替尔泊肽治疗代谢功能障碍相关脂肪性肝炎（MASH）、阻塞性睡眠呼吸暂停和射血分数保留型心力衰竭（HFpEF）等的潜力。根据礼来此前公布的财报，替尔泊肽针对阻塞性睡眠呼吸暂停和HFpEF的两项3期临床研究有望在2024年获得结果，并支持递交监管申请。   据研究机构弗若斯特沙利文（Frost &amp; Sullivan）预测，2030年我国GLP-1类药物市场规模将超过500亿元。另据机构研报，截至2023年8月，国内共有106个GLP-1类减肥新药的临床试验项目，其中中国企业临床占比约40%。   今年1月26日，诺和诺德司美格鲁肽片（商品名“诺和忻”）获NMPA批准上市，用于治疗2型糖尿病，这是国内首个获批上市的口服GLP-1受体激动剂。   除了礼来和诺和诺德之外，包括安进、勃林格殷格翰在内的制药巨头也都在研发新一代的GLP-1类药物，并在努力开发多个适应证。在减重适应证方面，降低用药频率、实现更好的减重效果也成为GLP-1新一代药物研发聚焦的重点。（文章来源：第一财经）                        ', 'gpt提取资讯,解读结果': '{\n  "news": "5月21日，中国国家药监局（NMPA）官网最新公示，礼来公司递交的替尔泊肽（tirzepatide）注射液上市申请已获得批准。替尔泊肽是一款GIP/GLP-1受体双重激动剂，本次获批用于治疗成人2型糖尿病患者血糖控制。今年2月，礼来市值突破7000亿美元，甚至远远超过特斯拉市值。今年以来，该公司股价上涨近35%，截至发稿，礼来最新市值为7440亿美元，而特斯拉市值不到6000亿美元。去年来，替尔泊肽注射液减重适应证的国内上市申请获得NMPA受理。根据礼来此前公布的替尔泊肽针对肥胖或伴有至少一种合并症的超重中国成人受试者的数据，第52周时，替尔泊肽10mg组、15mg组平均体重自基线分别降低14.4%、19.9%，两组中减重超过5%的受试者比例均超过90%。根据礼来此前公布的财报，替尔泊肽针对阻塞性睡眠呼吸暂停和HFpEF的两项3期临床研究有望在2024年获得结果，并支持递交监管申请。",\n  "analysis": "据研究机构弗若斯特沙利文（Frost &amp; Sullivan）预测，2030年我国GLP-1类药物市场规模将超过500亿元。另据机构研报，截至2023年8月，国内共有106个GLP-1类减肥新药的临床试验项目，其中中国企业临床占比约40%。"\n}'}, {'提取文章': '\n                            \n                                \n  ①人工关节接续采购中选结果出炉，头部企业有望获取更多份额   据“国家医保局”微信公众号消息，近期，国家医保局组织全国各省份开展人工关节集采协议期满后接续采购，5月21日在天津开标。本次接续采购共有6000多家医院参加，填报需求量58万套，比首轮集采略有增加，其中髋关节28.6万套，膝关节29.4万套。与首轮集采结果相比，本次接续采购中选价格稳中有降，平均下降6%左右，实现了稳定集采成果、确保群众长期受益的目标。   天风证券指出，人工关节作为第二个国采高耗品种，续约提价的思路，延续了支架的续约采购，关节的渗透率还有较大提升空间，对于标外手术量，头部企业有望凭借优秀的研发销售能力以及完善的供货能力获取更多份额。   ②礼来降糖药国内获批，有相关布局的药企值得关注   5月21日，中国国家药监局（NMPA）官网最新公示，礼来公司递交的替尔泊肽（tirzepatide）注射液上市申请已获得批准。替尔泊肽是一款GIP/GLP-1受体双重激动剂，本次获批用于治疗成人2型糖尿病患者血糖控制。   方正证券指出，替尔泊肽是礼来在研的一款GLP-1R/GIPR双重激动剂，自上市以来放量速度远大于包括度拉糖肽等其他同领域上市产品。除已上市的替尔泊肽，全球进入临床阶段的GLP-1/GIP双靶点激动剂超过10余款。替尔泊肽进军新适应症且取得3期临床结果的成功展现了GLP1R/GIPR的潜力，建立关注布局GLP-1R/GIPR靶点药企。   ③数字中国建设2024年工作要点清单公布，关注制造业数字化转型领域   近日，国家数据局印发《数字中国建设2024年工作要点清单》，对2024年数字中国建设工作作出部署。其中提出，加快推动数字基础设施建设扩容提速，着力打通数据资源大循环堵点，深入推进数字经济创新发展，健全完善数字政府服务体系，促进数字文化丰富多元发展，构建普惠便捷的数字社会，加快推进数字生态文明建设，加强数字技术协同创新运用，稳步增强数字安全保障能力，不断完善数字领域治理生态，持续拓展数字领域国际合作交流空间。   中金公司称，制造业数字化转型是构建新质生产力的关键途径，近期政策频出加速新质生产力建设，利好赋能企业数字化转型的厂商。智能工厂、数字化车间等制造业数字化是发展新型生产要素的重要路径，对中小企业的定向支持有助于加速需求落地。（文章来源：第一财经）                        ', 'gpt提取资讯,解读结果': '{\n"news":"5月21日，中国国家药监局（NMPA）官网最新公示，礼来公司递交的替尔泊肽（tirzepatide）注射液上市申请已获得批准。替尔泊肽是一款GIP/GLP-1受体双重激动剂，本次获批用于治疗成人2型糖尿病患者血糖控制。",\n"analysis":"方正证券指出，替尔泊肽是礼来在研的一款GLP-1R/GIPR双重激动剂，自上市以来放量速度远大于包括度拉糖肽等其他同领域上市产品。除已上市的替尔泊肽，全球进入临床阶段的GLP-1/GIP双靶点激动剂超过10余款。替尔泊肽进军新适应症且取得3期临床结果的成功展现了GLP1R/GIPR的潜力，建立关注布局GLP-1R/GIPR靶点药企。"\n}'}, {'提取文章': '\n                            \n                                \n  每经AI快讯，据礼来官微消息，礼来中国宣布穆峰达®（替尔泊肽注射液）获得国家药品监督管理局（NMPA）批准。该药是一种创新的每周一次的葡萄糖依赖性促胰岛素多肽（GIP）/ 胰高糖素样肽-1（GLP-1）受体激动剂，适用于在饮食控制和运动基础上，接受二甲双胍和/或磺脲类药物治疗血糖仍控制不佳的成人2型糖尿病（简称：T2DM）患者。（文章来源：每日经济新闻）                        ', 'gpt提取资讯,解读结果': '{\n  "news": "每经AI快讯，据礼来官微消息，礼来中国宣布穆峰达®（替尔泊肽注射液）获得国家药品监督管理局（NMPA）批准。该药是一种创新的每周一次的葡萄糖依赖性促胰岛素多肽（GIP）/ 胰高糖素样肽-1（GLP-1）受体激动剂，适用于在饮食控制和运动基础上，接受二甲双胍和/或磺脲类药物治疗血糖仍控制不佳的成人2型糖尿病（简称：T2DM）患者。（文章来源：每日经济新闻）",\n  "analysis": null\n}'}, {'提取文章': '\n                            \n                                \n   礼来中国今日宣布，穆峰达（替尔泊肽注射液）获得国家药品监督管理局（NMPA）批准。该药是一种创新的每周一次的葡萄糖依赖性促胰岛素多肽（GIP）/ 胰高糖素样肽-1（GLP-1）受体激动剂，适用于在饮食控制和运动基础上，接受二甲双胍和/或磺脲类药物治疗血糖仍控制不佳的成人2型糖尿病患者。 （文章来源：财联社）                        ', 'gpt提取资讯,解读结果': '{\n"news":"礼来中国今日宣布，穆峰达（替尔泊肽注射液）获得国家药品监督管理局（NMPA）批准。该药是一种创新的每周一次的葡萄糖依赖性促胰岛素多肽（GIP）/ 胰高糖素样肽-1（GLP-1）受体激动剂，适用于在饮食控制和运动基础上，接受二甲双胍和/或磺脲类药物治疗血糖仍控制不佳的成人2型糖尿病患者。",\n"analysis":null\n}'}, {'提取文章': '\n                            \n                                \n  5月21日，礼来中国宣布穆峰达®（替尔泊肽注射液）获得国家药品监督管理局（NMPA）批准。该药是一种创新的每周一次的葡萄糖依赖性促胰岛素多肽（GIP）/ 胰高糖素样肽-1（GLP-1）受体激动剂，适用于在饮食控制和运动基础上，接受二甲双胍和/或磺脲类药物治疗血糖仍控制不佳的成人2型糖尿病患者。长期体重管理适应症在中国尚在审评中。（文章来源：界面新闻）                        ', 'gpt提取资讯,解读结果': '{\n"news":"5月21日，礼来中国宣布穆峰达®（替尔泊肽注射液）获得国家药品监督管理局（NMPA）批准。该药是一种创新的每周一次的葡萄糖依赖性促胰岛素多肽（GIP）/ 胰高糖素样肽-1（GLP-1）受体激动剂，适用于在饮食控制和运动基础上，接受二甲双胍和/或磺脲类药物治疗血糖仍控制不佳的成人2型糖尿病患者。长期体重管理适应症在中国尚在审评中。(文章来源：界面新闻)",\n"analysis":null\n}'}]</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>5月21日，礼来中国宣布，替尔泊肽注射液（商品名：穆峰达；英文名称：Tirzepatide）获得国家药监局（NMPA）批准上市。该药物是一种创新的每周一次的葡萄糖依赖性促胰岛素多肽（GIP）/胰高糖素样肽-1（GLP-1）受体激动剂，适用于在饮食控制和运动基础上，接受二甲双胍和/或磺脲类药物治疗血糖仍控制不佳的成人2型糖尿病患者。</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>['据研究机构弗若斯特沙利文（Frost &amp; Sullivan）预测，2030年我国GLP-1类药物市场规模将超过500亿元。另据机构研报，截至2023年8月，国内共有106个GLP-1类减肥新药的临床试验项目，其中中国企业临床占比约40%。', '方正证券指出，替尔泊肽是礼来在研的一款GLP-1R/GIPR双重激动剂，自上市以来放量速度远大于包括度拉糖肽等其他同领域上市产品。除已上市的替尔泊肽，全球进入临床阶段的GLP-1/GIP双靶点激动剂超过10余款。替尔泊肽进军新适应症且取得3期临床结果的成功展现了GLP1R/GIPR的潜力，建立关注布局GLP-1R/GIPR靶点药企。']</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>[{'研报': '中药板块23年年报及24Q1季报总结：滞涨标的有望迎拐点，关注国企改革标的', 'gpt判断研报相关性': '{"相关性":false}'}, {'研报': '医药生物行业2023年及2024年一季度业绩综述：Q1板块盈利能力企稳，关注细分景气方向', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '医药行业创新药周报：2024年5月第一周创新药周报', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '医药生物行业周报：寒冬消逝，曙光已现', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '医药与健康护理行业月报：23年年报&amp;24年一季报总结与展望', 'gpt判断研报相关性': '{\n  "相关性": true\n}'}, {'研报': '医药生物板块2023年年报及2024年一季报总结：医药生物板块2024Q1业绩面临高基数基础上的增长压力，后续板块业绩有望逐季改善', 'gpt判断研报相关性': '{\n    "相关性": true\n}'}, {'研报': '医药年报一季报总结：24Q1是板块低点，年中有望整体反转', 'gpt判断研报相关性': '{\n    "相关性": true\n}'}, {'研报': '麻醉药品量价深度研究：场景不止手术室内，品种不止仿制跟随', 'gpt判断研报相关性': '{"相关性":false}'}, {'研报': '中国获得性血友病药物治疗行业市场规模测算逻辑模型 头豹词条报告系列', 'gpt判断研报相关性': '{"相关性":false}'}, {'研报': '公募基金医药板块2024Q1持仓分析：2024Q1医药持仓出现回调，医疗服务仓位下滑', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '医疗器械行业专题：再谈呼吸道检测：看好行业长期景气度', 'gpt判断研报相关性': '{\n    "相关性": true\n}'}, {'研报': '医疗器械行业行业研究：关节接续采购2号文件发布，价格标准设置合理', 'gpt判断研报相关性': '{\n  "相关性": true\n}'}, {'研报': '医药生物行业：利空出尽+宏观流动性预期改善，需加配医药', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '医药生物行业双周报：生物制造板块表现活跃', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '医药生物2023年报和2024一季报总结：底部拐点或已现，布局正当时', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '医药行业月报：重点板块23年年报回顾，建议近期关注合成生物学概念投资机会', 'gpt判断研报相关性': '{\n    "相关性": true\n}'}, {'研报': '医疗器械：人工关节续约采购量稳中有升，价格较为温和', 'gpt判断研报相关性': '{"相关性":false}'}, {'研报': '医药生物行业周报：GLP-1单品持续放量，多肽产业链高景气发展', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '医药生物年报一季报总结一季度整体平稳，关注出口、新药和药店', 'gpt判断研报相关性': '{\n  "相关性": true\n}'}, {'研报': '医药生物5月月报暨年报/一季报总结：影响出清，拐点在即；真空期兼顾基本面与主题', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '医药行业重点公司2023年年报/2024年一季报总结暨投资展望：分化态势延续，关注业绩确定性标的和拐点方向', 'gpt判断研报相关性': '{\n  "相关性": true\n}'}, {'研报': '医药行业周报：医药政策持续边际回暖，关注医药创新、设备更新和中医药', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '医药行业周报：拜耳Elinzanetant三期临床结果积极，用于治疗VMS', 'gpt判断研报相关性': '{\n  "相关性": true\n}'}, {'研报': '医药行业深度报告：终端市场恢复增长，围绕空间和格局优选品种', 'gpt判断研报相关性': '{"相关性":true}'}]</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>['医药生物']</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[{'研报公司': '东莞证券', '研报总结': '        \n                        \n            \n                        \n\n                              投资要点：\n\n                        \n\n                              2023年行业整体营收实现小幅增长，归母净利润同比有所下滑。2023年，SW（2021）医药生物行业实现营业总收入2.50万亿元，同比增长0.8%，增速同比下滑9个百分点；实现归属于母公司股东的净利润1,604.0亿元，同比下降20.1%，增速同比下滑14.3个百分点；实现扣非归母净利润1,338.7亿元，同比下滑26.3%，增速同比下滑37.1个百分点，归母净利润增速大幅下滑主要是因为去年行业反腐对行业公司净利润影响较大。\n\n                        \n\n                              多数细分板块2023年归母净利润同比有所下滑。2023年，医药生物行业三级细分板块中，收入端仅医疗研发外包、原料药、医疗耗材和诊断服务同比有所下滑，利润端仅其医院、其他生物制品中药和血液制品板块同比有所上升，其余细分板块同比均有所下滑。与上年同期增速相比，多数细分板块2023年收入增速和净利润增速均同比有所回落。\n\n                        \n\n                              2024Q1归母净利润增速同比有所回升。2024Q1，SW医药生物行业分别实现营业总收入和归母净利润6,373.2亿元和560.8亿元，分别同比增长-0.3%和3.9%，增速分别同比下降2.7个百分点和提升31.4个百分点；实现扣非归母净利润528.8亿元，同比提升8.7%，增速同比提升40.5个百分点。Q1归母净利润增速同比有所回升。\n\n                        \n\n                              多数细分板块2024Q1整体归母净利润增速同比有所回落。2024Q1，医药生物行业三级细分板块中，收入端仅线下药店、其他生物制品、化学制剂、其他医疗服务、医疗耗材、医院和医药流通同比有所上升，利润端仅化学制剂、其他生物制品、其他医疗服务和医疗耗材同比有所上升。与上年同期增速相比，收入端仅体外诊断、诊断服务、医疗耗材和其他生物制品增速同比有所提升，净利润端方面，其他生物制品、体外诊断、化学制剂、医疗耗材、原料药和其他医疗服务增速同比有所提升。\n\n                        \n\n                              投资策略：受医疗反腐影响，医药生物行业2023年增速有所回落，但整体营收还是实现了小幅增长，行业整体具有较强的增长韧性。随着医疗反腐影响边际减小，市场得到进一步规范化发展，2024Q1，行业归母净利润增速同比有所回升，板块盈利能力有所企稳。从整体估值上看，截至2024年5月7日，行业整体PE（TTM，整体法）约为40.66倍，相对沪深300整体PE倍数为3.45倍，目前行业整体估值处于相对低位。细分板块方面，目前国内公司经过多年研发投入，创新药公司陆续进入收获期，新药出海授权金额不断创新高。创新药作为新质生产力的重要代表，北京等各地不断出台政策支持创新药发展，创新药板块情绪有望迎来回暖。随着医疗反腐影响边际减小，受此影响较大的医疗服务和医疗器械板块有望迎来业绩改善。后续建议关注：创新药：恒瑞医药（600276）、贝达药业（300558）、百济神州-U（688235）等；医疗设备公司：迈瑞医疗（300760）、东富龙（300171）楚天科技（300358）、奕瑞科技（688301）、海泰新光（688677）等；CXO公司：药明康德（603259）、泰格医药（300347）、康龙化成（300759）、昭衍新药（603127）、凯莱英（002821）、博腾股份（300363）、九州药业（603456）美迪西（688202）等；医美龙头爱美客（300896）、华熙生物（688363）；连锁医疗龙头爱尔眼科（300015）；OK镜龙头欧普康视（300595）；政策友好的中药板块公司华润三九（000999）、同仁堂（600085）和片仔癀（600436等；业绩增速有望回升的零售药房：大参林（603233）、益丰药房（603939）老百姓（603883）、一心堂（002727）等。\n\n                        \n\n                              风险提示：疫情反复，行业政策不确定性，研发低于预期，行业竞争加剧风险，产品安全质量风险，降价风险等。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '西南证券', '研报总结': '        \n                        \n            \n                        \n\n                              A股和港股创新药板块及XBI指数本周走势\n\n                        \n\n                              2024年5月第1周，陆港两地创新药板块共计53个股上涨，9个股下跌。其中涨幅前三为乐普生物-B（+27.18%）、开拓药业-B(+26.04%)、基石药业-B(+22.22%)。跌幅前三为艾迪药业(-4.89%)、迈博药业-B(-4.82%)、嘉和生物-B(-2.34%)。\n\n                        \n\n                              本周A股创新药板块上涨1.28%，跑赢沪深300指数0.72pp，生物医药上涨1.42%。近6个月A股创新药累计下跌2%，跑输沪深300指数2.39pp，生物医药累计下跌12.42%。\n\n                        \n\n                              本周港股创新药板块上涨3.7%，跑输恒生指数0.97pp，恒生医疗保健上涨4.52%。近6个月港股创新药累计下跌6.71%，跑输恒生指数9.69pp，恒生医疗保健累计下跌10.67%。\n\n                        \n\n                              本周XBI指数上涨5.25%，近6个月XBI指数累计上涨11.84%。\n\n                        \n\n                              国内重点创新药进展\n\n                        \n\n                              5月国内5款新药获批上市，4项新增适应症获批上市；本周国内5款新药获批上市，4款新增适应症获批上市。\n\n                        \n\n                              海外重点创新药进展\n\n                        \n\n                              5月美国1款NDA获批上市，0款BLA获批上市。本周美国1款NDA获批上市，0款BLA获批上市。5月欧洲0款创新药获批上市，本周欧洲无新药获批上市。5月日本0款创新药获批上市，本周日本0款新药获批上市。\n\n                        \n\n                              本周全球重点创新药交易进展\n\n                        \n\n                              本周全球共达成4起重点交易，披露金额的重点交易有2起。安斯泰来与PoseidaTherapeutics达成研究合作和许可协议，共同开发肿瘤学领域的新型同种异体细胞疗法。耳和Evotec合作推进精准心脏病学。Mosaic ImmunoEngineering同意从Oncotelic Therapeutics收购临床坏死性凋亡癌症治疗资产。Repertoire？Immune Medicines与百时美施贵宝宣布开展多年战略合作，共同开发自身免疫性疾病耐受性疫苗。\n\n                        \n\n                              风险提示：药品降价风险;医改政策执行进度低于预期风险;研发失败的风险。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '上海证券', '研报总结': '        \n                        \n            \n                        \n\n                              主要观点\n\n                        \n\n                              2023&amp;2024Q1行情回顾：2023全年A股SW医药生物指数下跌7.05%，板块整体跑赢沪深300指数4.33pct；在二级子行业中，涨幅最大的是化学制药板块，上涨1.29%；跌幅最大的是医疗服务板块，下跌24.46%。2024Q1A股SW医药生物指数下跌12.08%，板块整体跑输沪深300指数15.18pct；在二级子行业中，跌幅最小的是中药板块，下跌3.16%；跌幅最大的仍是医疗服务板块，下跌23.86%。收入稳健，利润承压；研发费用增速显著，激活源头创新。2023年，在国际地缘政治复杂化、行业竞争加剧、医药研发、医疗保障等政策持续调整的大环境下，A股SW医药生物上市公司整体实现营业收入24,958.80亿元，同比增长1.71%；归母净利润1,581.74亿元，同比下降16.79%。销售毛利率为33.04%，同比下降0.26pct；净利率为6.71%，同比下降1.88pct；研发费用同比增长54.51%。2024Q1A股SW医药生物上市公司整体实现营业收入6,359.39亿元，归母净利润559.77亿元，同比分别下降0.84%和11.39%，环比分别增长2.61%及745.56%。销售毛利率为32.38%，同比增长0.21pct；净利率为9.32%，同比下降0.27pct，但环比提升8.69pct，盈利能力明显改善；研发费用同比增长31.62%。\n\n                        \n\n                              板块表现持续分化，医药商业及中药业绩坚挺。2023年，营收同比增速前三的二级子板块依次分别为生物制品（+9.86%）、医药商业（+7.77%）、中药（+6.03%）；归母净利润同比增速前三分别为中药（+33.94%）、医药商业（-0.89%）、生物制品（-7.48%）。2024Q1营收同比增速前三的二级子板块依次分别为医药商业（+1.27%）、化学制药（-0.28%）、中药（-0.65%）；归母净利润同比增速前三分别为化学制药（+5.07%）、医药商业（-1.78%）、中药（-8.10%）。\n\n                        \n\n                              注重新质生产力，“生物制造”前景广阔。据央视网消息，生物制造是一种全新的生产技术，融合了生物学、化学、工程学等多种技术，具有清洁、高效、可再生等特点，有可能在能源、农业、化工和医药等领域改变世界工业格局。生物技术已被我国定为战略性新兴产业，为此我国制定了多项政策措施；2022年《“十四五”生物经济发展规划》的印发标志着我国首部生物经济五年规划正式出台。工业和信息化部赛迪研究院党委书记、副院长刘文强：“下一步，国家将从政策、企业和产业层面加强一系列部署来推动生物制造产业的发展。在政策方面，国家有关部门正在研究制定国家层面的生物制造顶层规划文件，在产业方面，国家有关部门将加大中央财政资金投入，分领域、分区域布局一批生物制造公司平台；在企业方面，国家有关部门将支持企业加强核心工业菌种、关键酶制剂创新研发，提升自主创新能力，推动创新成果不断涌现。”\n\n                        \n\n                              投资建议\n\n                        \n\n                              2023年生物医药板块估值仍处于历史相对低位，叠加医保政策持续优化，老龄化趋势加剧等因素，我们认为医药生物长期向好趋势不变。建议关注康方生物、艾力斯、科伦博泰、迈威生物、智翔金泰、康诺亚、和黄医药、信达生物、百济神州等。\n\n                        \n\n                              风险提示\n\n                        \n\n                              药品/耗材降价风险；行业政策变动风险等；市场竞争加剧风险等。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '海通国际', '研报总结': '        \n                        \n            \n                        \n\n                              2023年医药制造业收入增速-13.42%，利润总额增速-19.02%。据国家统计局，2023年规模以上医药制造业主营业务收入25205.7亿元，同比下降13.42%，增速低于全国工业整体收入增速10.17个百分点。同期医药制造业利润总额3473亿元，同比下降19.02%，增速低于全国工业整体利润增速10.48个百分点。2022年医药制造业收入29111.4亿元，利润4288.7亿元。我们认为2023年医药制造业收入、利润增速放缓主要系以下原因：1）疫情防控相关产品销售锐减；2）医药出口下降明显；3）受集采、竞争加剧、项目减少等因素影响，药品、耗材、原料药、CRO/CDMO等大量医药产品价格呈下降态势。\n\n                        \n\n                              2024年1季度医药板块上市公司收入利润向好。医药板块上市公司2024年1季度营业收入同比增长0.28%，较2023年同期的1.96%下降了1.68pcts；2024年1季度归母净利润同比减少0.38%，较2023年同期的-27.76%提高了27.39pcts。\n\n                        \n\n                              海通医药4月组合跑赢指数0.3个百分点。2023年4月月度组合：微芯生物、博雅生物、益丰药房、济川药业、新产业、恒瑞医药、药明康德、智飞生物（排名不分先后）。4月组合至今平均上涨3.3%，同期全指医药上涨3.1%，组合跑赢医药指数0.3%，其中月度组合涨跌幅排名前三的依次是微芯生物(16.0%)、博雅生物(10.6%)、益丰药房(10.3%)。\n\n                        \n\n                              海通医药2023年5月A股组合为：智飞生物、微芯生物、通策医疗、国药股份、药明康德、英诺特、万孚生物、美年健康（排名不分先后）。港股建议关注：信达生物、科伦博泰生物、中国生物制药、海吉亚医疗、固生堂、时代天使、华润医药、泰格医药（排名不分先后）。\n\n                        \n\n                              风险提示：医保控费加剧风险，政策推进不达预期风险、估值波动风险、市场波动风险。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '中银证券', '研报总结': '        \n                        \n            \n                        \n\n                              医药生物板块2023年业绩增长呈现“先高后低”态势，2024年一季度业绩在高基数基础上面临一定增长压力。在持仓方面，医药生物板块占比也处于近年低位水平。医药生物板块伴随“医药反腐”影响消退和基数压力消化，后续业绩增速有望逐季改善，国内政策支持及创新药出海前景均值得期待。\n\n                        \n\n                              支撑评级的要点\n\n                        \n\n                              医药生物板块2023年业绩增长呈现“先高后低”态势，2024一季度业绩在高基数基础上面临增长压力。医药生物板块2023年营业收入同比增速中位数为3.20%，归母净利润增速中位数为1.09%。板块在2023年受到了“医药反腐”相关因素的扰动，2023年四季度医药生物板块营业收入同比增速中位数为0.25%，归母净利润同比增速中位数为-5.59%。2024年一季度医药生物板块业绩面临一定的高基数增长压力，且仍然存在一些“医药反腐”相关因素的扰动。2024年一季度医药生物板块营业收入同比增速中位数为1.06%，归母净利润同比增速中位数为2.07%。\n\n                        \n\n                              2024年一季度末医药生物板块持仓处于近年低位。医药生物板块2024年一季度末在普通股票基金持仓中的占比为11.51%，与2023年年末相比降低了2.71个百分点，与2020年6月30日高点相比下降了6.52个百分点，处于近年低位水平。\n\n                        \n\n                              医药生物板块2024年后续业绩增速有实现逐季改善，国内政策支持及创新药出海前景均值得期待。“医药反腐”相关因素的影响正在逐步褪去，且2023年下半年医药生物板块业绩增速较低，业绩基数压力较小，2024年医药板块业绩有望呈现“先低后高”逐步加速的态势。在国内政策方面，2024年“创新药”一词首次进入政府工作报告，医药全产业链创新支持有望逐步落地，从研发、审批、进院、支付对创新药进行全产业链支持。而在出海方面，根据药智数据，在2024年1月-2月中旬期间共有20个license-out项目成功签订，涉及交易金额超100亿美元，达到历史最高点。\n\n                        \n\n                              投资建议\n\n                        \n\n                              二季度开始医药板块业绩增长有望逐季加速，创新药全产业链支持有望逐步落地，建议逐步增加医药板块配置。\n\n                        \n\n                              我们建议关注创新药及创新器械的投资机会，具体而言：创新药领域，我们建议关注24年销售进入放量阶段的公司。创新器械领域，我们建议关注满足临床需求且进入销售放量阶段的创新产品。\n\n                        \n\n                              评级面临的主要风险\n\n                        \n\n                              集采政策实施力度超预期的风险，企业研发不及预期风险，与投资相关的风险，产品销售不及预期风险。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '国金证券', '研报总结': '        \n                        \n            \n                        \n\n                              板块总结及投资逻辑\n\n                        \n\n                              23年前高后低，24Q1是板块低点：从业绩角度分析，2023年医药板块整体增长可观，尤其是上半年表现亮眼；三季度以后由于院内秩序的整顿以及部分集采陆续落地的影响，增长有所回落；2024年一季度医药板块整体业绩和行情表现相对低迷，我们认为这一方面有去年相对高基数的原因，另一方面也由于院内秩序整顿和整体消费环境的变化，导致整体院内和消费需求复苏迟于预期。\n\n                        \n\n                              下半年是低基数，压力因素出清，年中反转是必然：考虑到公共卫生事件影响已经结束，集采的覆盖范围和落地预期管理愈加充分，且院内秩序整顿趋于稳定，诊疗活动和药品器械使用正在逐步恢复，院外消费医疗经营节奏日渐稳定，我们有充分信心，2024年二季度，医药主要子板块增长将逐步恢复，而进入三季度和四季度后考虑去年低基数，增速将进一步提升。\n\n                        \n\n                              同时资金面角度观测，2024年Q1全行业基金对医药再度减配，剔除医药主题基金的医药持仓比例接近前期低点。考虑2024年医药板块正处于政策面、资金面和基本面的底部，拐点逻辑清晰，我们预计2024年二季度到三季度医药将迎来行情整体转换，由防守转入进攻，成长性较好的板块（如创新药、优质医疗器械以及部分性价比突出的仿创药等）将进一步受到市场重视，而同时防守性板块中性价比较高的优质品种（如优质中药龙头，优质连锁药房、触底回升的原料药品种等）也仍将得到市场配置，从总体来看，医药板块的整体配置比例有望触底回升。\n\n                        \n\n                              药品板块：Q1表现比其他板块更好，出海与创新单品进展构建催化剂\n\n                        \n\n                              中药板块：Q1高基数下业绩增速放缓，全年有望呈现逐季好转\n\n                        \n\n                              药店：表现分化龙头增长确定性更高，门店扩张+处方外流仍利好头部\n\n                        \n\n                              医疗器械：板块需求增长稳定，医疗设备更新需求有望释放\n\n                        \n\n                              生物制品：细分赛道表现分化，把握大单品高成长红利。\n\n                        \n\n                              医疗服务：龙头业绩彰显韧性，Q2有望加速复苏\n\n                        \n\n                              医美板块：盈利能力逐步改善，看好新品落地贡献业绩增量\n\n                        \n\n                              上游供应制造：需求端景气度待修复，关注设备更新和国产仪器替代\n\n                        \n\n                              投资建议\n\n                        \n\n                              总的来看，医药板块2023年增长前高后低，2024年一季度更是阶段性的板块景气度低点、资金配置低点和市场关注度低点。但是通过对这一变化的背后主要原因进行分析，我们能清楚地看到相关不利因素的影响在2024年二季度及以后将很快消除，基本面改善叠加2023年下半年低基数带来的同比提速将共同点燃增配医药板块的投资热情。我们建议重点加配医药板块布局，把握下半年业绩估值齐升机会。同时在风格上可以适当向进攻风格偏移，加配成长和创新板块。建议重点布局院内药品器械复苏、创新药出海，同时优质中药和连锁药房的确定性价值依然值得重视。重点标的：迈瑞医疗、恒瑞医药、特宝生物、益丰药房、太极集团等。\n\n                        \n\n                              风险提示\n\n                        \n\n                              汇兑风险；国内外政策波动性风险；投融资周期波动风险；并购整合不及预期风险；\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '华安证券', '研报总结': '        \n                        \n            \n                        \n\n                              核心观点\n\n                        \n\n                              2024Q1，全部公募基金对医药板块的持仓出现回调。2024Q1，全部公募基金重仓持股中，医药股持仓占比为10.97%，环比下降2.6个百分点。全公募基金重仓持股中，对医药生物行业的持仓占比于2020Q2出现最高位为18.23%，2024年一季度，全公募基金的医药仓位开始回调。\n\n                        \n\n                              从全公募基金重仓持股的医药二级行业仓位来看，医疗服务行业持仓下滑显著，化学制药、医药商业持仓较稳。\n\n                        \n\n                              2024Q1，全公募基金重仓持股的医药二级子行业的持仓占比为：医疗器械3.22%（环比-0.40pct）、化学制药3.05%（环比-0.01pct）、医疗服务1.79%（环比-1.44pct）、生物制品1.55%（环比-0.67pct）、中药1.00%（环比-0.07pct）、医药商业0.35%（环比-0.01pct）。\n\n                        \n\n                              从全公募基金重仓个股来看，恒瑞医药、迈瑞医疗的持股总市值保持领先，东阿阿胶备受关注。2024Q1公募基金重仓医药个股持股总市值排名前十的医药股为：恒瑞医药（428.75亿元）、迈瑞医疗（397.23亿元）、药明康德（130.91亿元）、爱尔眼科（105.77亿元）、联影医疗（105.50亿元）、智飞生物（91.11亿元）、科伦药业（71.13亿元）、惠泰医疗（65.17亿元）、泰格医药（60.53亿元）、东阿阿胶（56.69亿元）。\n\n                        \n\n                              风险提示：全球地缘政治因素影响；行业增长不稳定的风险；政策变化带来的不确定性；其他可能影响行业正常发展的事件。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '国投证券', '研报总结': '        \n                        \n            \n                        \n\n                              行业短期：2024年第一季度国内呼吸道感染延续高发态势\n\n                        \n\n                              我们建议通过国家流感中心周度发布的ILI样本量及ILI%跟踪近期呼吸道感染疾病的流行情况，其发布频率高、发布机构权威、覆盖了大多数临床常见的呼吸道疾病。从数字来看，2024年一季度国内呼吸道感染仍然高发，同时流行程度随时间波动的趋势回归常态。\n\n                        \n\n                              行业中期：“淡旺季”分布呈“四六开”规律，全年景气度有望延续\n\n                        \n\n                              过去十年间（排除新冠疫情影响明显的2020-2022年），流感监测网络实验室检测的流感样病例标本数量在不同时间的分布有着较为明显的规律性，各季度检测量从多到少分别为Q4、Q1、Q2、Q3，进一步地，Q1+Q4合计检测量大约占全年的60%、Q2+Q3合计检测量大约占全年的40%。企业层面，疫情前的2018、2019年，英诺特的非新冠产品销售收入同样在Q1+Q4、Q2+Q3呈现了“六四开”的分布，与行业长期规律一致。\n\n                        \n\n                              2024Q1的累计标本数是14.29万份，假设今年Q1的占比与非疫情年份的平均水平一致，则可粗略预测2024全年哨点医院实验室检测的流感样病例标本数为51.02万份（14.29/28.01%=51.02），与2023年（55.47万份）处在同一数量级，且显著高出往年。\n\n                        \n\n                              行业长期：精准诊疗渗透率的提升是行业持续发展的主要驱动力，看好呼吸道检测长期景气度\n\n                        \n\n                              2023年呼吸道感染高发明显，但排除2022-2023年的断层提升，从更长的时间维度看2023年ILI的增长并没有大幅偏离其原本的发展轨迹。经过对龙头企业业绩增长因素的拆解，我们判断呼吸道病原体检测渗透率的大幅提升是行业增长的首要因素，其背后是医生群体临床意识和开单习惯的根本改变、国家政策的明确支持、患者认知的普遍提升，均具备长期性，叠加同样得到的延续的呼吸道感染高发态势，我们认为呼吸道病原体检测行业增长具备长期可持续性。\n\n                        \n\n                              海外观察：海外呼吸道病原体检测市场在需求和供给层面均表现出了和国内较为类似的发展趋势\n\n                        \n\n                              需求层面，2022年，也即“疫后第一年”，美国呼吸道感染高发明显，但排除2021-2022年的断层提升，从更长的时间维度看2022年ILI的增长并没有大幅偏离其原本的发展轨迹。进入“疫后第三年”，2024年一季度美国ILI上报数再创新高。\n\n                        \n\n                              供给层面，罗氏、雅培、丹纳赫等体外诊断领域的国际巨头纷纷在分子/分子POCT/胶体金平台上推进联检产品的注册与销售，呼吸道病原体检测的联检、快检趋势十分明显。\n\n                        \n\n                              建议关注标的：\n\n                        \n\n                              英诺特：呼吸道胶体金检测龙头，医院覆盖率提升拉动业绩高增，东南亚业务拓展值得期待。\n\n                        \n\n                              圣湘生物：打造完整呼吸道病原体检测生态，长期耕耘迎来丰收，实践证明了能在激烈竞争中占据主导市场地位。\n\n                        \n\n                              万孚生物：POCT龙头，甲乙流和肺支检测产品快速放量，美国市场业务有望贡献增量。\n\n                        \n\n                              风险提示：呼吸道诊疗需求不及预期的风险、假设及预测不及预期的风险、行业竞争进一步加剧的风险、产品获批进度不及预期的风险、合规及政策相关风险。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '国金证券', '研报总结': '        \n                        \n            \n                        \n\n                              事件\n\n                        \n\n                              2024年4月30日，国家组织高值医用耗材联合采购办公室发布《人工关节集中带量采购协议期满接续采购公告（第2号）》，针对初次置换人工髋关节、初次置换人工膝关节产品接续采购，含增材制造技术（3D打印）类产品，定制化增材制造技术产品科自愿参加，接续采购周期为3年，拟中选结果将在5月21日确定。\n\n                        \n\n                              点评\n\n                        \n\n                              设置复活中选规则，价格标准合理温和。根据文件的规则描述，除按照价格由低到高的排名中选外，若企业产品竞价比价格不高于文件设置的复活价格线，也同样能获得中选资格，获得的协议采购量比例为65%（针对履约良好企业）。复活价格线设置为：陶瓷-陶瓷类髋关节系统7987元、陶瓷-聚乙烯类髋关节系统7117元、合金-聚乙烯类髋关节系统5910元、膝关节产品系统5434元，4个产品类别的价格设置均高于此前首次带量采购中标的最低价格，预计企业依然能保持合理的盈利空间，也符合此前提到的“促进更多价格低于一定水平的企业中选，增强预期稳定性”的目标。国产企业报量份额显著提升，替代趋势有望延续。从此次接续采购医疗机构报送的各产品系统采购需求量来看，髋关节产品系统年度采购需求量285995个（其中陶瓷-陶瓷类102264个、陶瓷聚乙烯类173303个、合金-聚乙烯类10428个），膝关节产品年度采购需求量295567个。天津正天、爱康医疗、春立医疗、威高骨科等企业报量在各类别中名列前茅，相比首次关节带量采购报量份额有显著提升，未来有望继续凭借产品技术及制造成本等优势扩大份额，国产头部企业替代进口的趋势还将延续。\n\n                        \n\n                              投资建议\n\n                        \n\n                              此次人工关节集中带量采购协议期满接续采购落地后，行业产品价格预期有望稳定，不同企业价格差异或将缩小，未来行业集中度将进一步提升，并且将更加有利于国产替代趋势。未来高值耗材领域医保控费工作常态化进行的过程中，将充分考虑厂商生产和供应的积极性，医疗器械板块政策情绪有望逐步触底回升。建议关注院内品牌力领先且生产供应能力较强的头部企业。\n\n                        \n\n                              重点公司：爱康医疗、春立医疗、威高骨科、大博医疗等\n\n                        \n\n                              风险提示\n\n                        \n\n                              中标产品供应风险；医疗机构落实采购量低于预期风险；中标产品质量风险；产品成本上升风险。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '华福证券', '研报总结': '        \n                        \n            \n                        \n\n                              投资要点：\n\n                        \n\n                              行情回顾：本周（4.29-4.30）中信医药生物板块指数上升2.6%，跑赢沪深300指数2.0pct，一级分类中排名第4位；2024年初至今中信医药生物板块指数下跌9.5%，跑输沪深300指数14.6pct，在中信行业分类中排名第25位。本周涨幅前五的个股为溢多利（+38.63%）、川宁生物（+34.49%）、富士莱（+25.40%）、富祥药业（+18.95%）、圣达生物（+17.97%）。\n\n                        \n\n                              医药板块Q1高基数已过，后续逐季好转。医药估值处于底部位置，Q1公募医药持仓环比下降，处于低位。宏观层面：1）医药制造业累计收入利润承压下行；2）医疗健康产业投融资静待回暖；3）重磅支持政策频出提振行业：再贷款、设备更新行动方案等有望激发医疗机构采购需求。创新药全链条利好，审批加速+资金支持。子板块总结：2023年收入端增速较快的三个板块为医疗服务（+25%）、血制品（+16%）和医疗耗材（+11%）；归母净利润增速较快的三个板块为医疗服务（+174%）、中药（+46%）和\n\n                        \n\n                              血制品（+9%）；2024Q1：收入增速较快的三个细分板块为零售药店（+11%）、医疗服务（+6%）和医疗耗材（+5%）；归母净利润增速较快的三个细分板块为化学制药（+4%）、原料药（+4%）和血制品（+3%）。\n\n                        \n\n                              市场总结及投资思考：节前A股交易2天，H股交易4天，医药均取得亮眼表现。A股医药中合成生物学主题相关个股表现强势，H股则在美国4月非农就业低于预期，引发市场对年内降息预期重新升温，以及4月30日政治局会议提出要灵活运用利率和存款准备金率等政策工具，降低社会综合融资成本的催化下，近两周表现极为亮眼，其中港股创新药表现突出。随着年报及一季报披露完毕，医药板块属于“利空出尽”，在业绩真空期和宏观流动性预期改善下，创新药或成当前医药行情的矛，我们延续之前的投资思路，当前推荐创新药并积极关注国企改革方向。考虑到医药基本面逐季向好和年初至今大幅跑输大盘，我们认为医药需要加大配置，医药仓位高低或决定全基超额收益来源。\n\n                        \n\n                              中短期配置思路：四条主题（建议关注标的详见正文）：1）主线-创新药械：符合国家新质生产力方向，预计有持续政策催化且部分公司进入商业化兑现放量阶段。2）主题-国企改革：新国九条下国企确定性高，国资委对上市公司经营及市值提高要求，重点国药系，如中药业绩好，血制品有整合；3）主线-医疗设备：反腐影响接近尾声且股价调整充分，关注\n\n                        \n\n                              Q2招标情况，Q3同比加速，可提前布局；4）主线-原料药：板块底部调整充分，部分产品已涨价，短期业绩不错，行业大的拐点预计下半年更明确，可提前布局。\n\n                        \n\n                              本周建议关注组合：太极集团、国药现代、恒瑞医药、新诺威、科伦药业、信立泰、兴齐眼药、微芯生物。\n\n                        \n\n                              五月建议关注组合：太极集团、国药现代、新诺威、微芯生物、恩华药业、人福医药、亿帆医药、迈普医学。\n\n                        \n\n                              风险提示：行业需求不及预期；公司业绩不及预期；市场竞争加剧风险。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '东莞证券', '研报总结': '        \n                        \n            \n                        \n\n                              投资要点：\n\n                        \n\n                              SW医药生物行业跑赢同期沪深300指数。2024年4月22日-2024年5月5日，SW医药生物行业上涨7.03%，跑赢同期沪深300指数约5.25个百分点。SW医药生物行业三级细分板块中，多数细分板块均录得正收益，其中化学制剂和医疗设备板块涨幅居前，分别上涨10.33%和9.92%；疫苗板块跌幅居前，下跌0.61%。\n\n                        \n\n                              行业新闻。4月28日，河南省医保局发布《关于公开征求&lt;关于开展部分集中带量采购协议期满医用耗材接续采购的通知（征求意见稿）&gt;意见的公告》。纳入此次接续采购的共有五大集采项目。《征求意见稿》显示，本次接续采购品种包括：留置针、预充式导管冲洗器、留置针贴、无针输液接头、输液器、吸氧装置(一次性使用一体式吸氧管)、气管插管、止血材料、防粘连材料、脑(脊)膜材料、管型/端端吻合器、痔吻合器。\n\n                        \n\n                              维持对行业的超配评级。近期，医药生物板块有所回暖，大幅跑赢同期沪深300指数，此前调整幅度较大的化学制剂和医疗设备板块涨幅居前近期，中国工程院院士谭天伟表示国家层面有望在近期出台生物制造产业行动计划，合成生物学板块个股表现活跃，生物制造是新质生产力非常重要的新赛道和新业态，后续建议关注合成生物学板块投资机会。关注板块包括医疗设备：迈瑞医疗（300760）、联影医疗（688271）、澳华内镜（688212）、海泰新光（688677）、开立医疗（300633）、键凯科技（688356）、欧普康视（300595）；医药商业：益丰药房（603939）大参林（603233）、一心堂（002727）、老百姓（603883）等；医美：爱美客（300896）、华东医药（000963）等；科学服务：诺唯赞（688105）百普赛斯（301080）、优宁维（301166）；医院及诊断服务：爱尔眼科（300015）、通策医疗（600763）、金域医学（603882）等；中药：华润三九（000999）、同仁堂（600085）、以岭药业（002603）；创新药：恒瑞医药（600276）、贝达药业（300558）、华东医药（000963）等；生物制品：智飞生物（300122）、沃森生物（300142）、华兰疫苗（301207）等；CXO：药明康德（603259）、凯莱英（002821）、泰格医药（300347）昭衍新药（603127）等。\n\n                        \n\n                              风险提示：新冠疫情持续反复，行业竞争加剧，产品降价，产品安全质量风险，政策风险，研发进度低于预期等。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '华源证券', '研报总结': '        \n                        \n            \n                        \n\n                              一、二级市场表现：\r\n\n                        \n\n                              医药深度回调，目前处于底部。2023年初至今医药指数波动较大，整体处于震荡向下趋势，2023年指数全年下跌约7%，2023年至今更是下跌超过16%，2024年至今指数下跌约9%，其中23Q3回调幅度较大，24Q1指数大幅波动。从历史水平看，医药板块目前动态估值为27倍（TTM），处于近十年的底部位置。\r\n\n                        \n\n                              细分子版块：中药和化学制剂板块表现较好。生物医药各子版块来看，2023年初至今（2024年4月30日），中药和化学制剂板块回调较小，涨跌幅分别为-0.7%和0.34%；医疗服务和生物制品板块回调较多，涨跌幅分别为-45.1%和-23.4%。估值方面，目前化学制剂板块估值相对较高，达到37倍PE，化学原料、医疗器械和中药估值也在30倍PE上下，医疗服务、生物制品和医药商业估值相对较低。\r\n\n                        \n\n                              二、资产配置：\r\n\n                        \n\n                              公募基金医药季度持仓快速变动，2024Q1持仓比例处于低位。配置方面，2023年医药受政策影响较大，2023Q1至2024Q1季度间医药持仓比例波动显著，持仓分布亦有较大变化。截至2024Q1，A股医药公司总市值为6.14万亿元，占A股总市值7.0%医药行业，整体市值处于历史低位水平，公募基金的医药重仓合计市值为3728亿元，占公募基金总重仓占比11.0%，环比减少2.6pct，剔除医药基金，公募基金医药持仓比例7.9%，环比减少2.2pct，处于历史较低位置。2024Q1公募基金持仓增加的前五大个股分别是：东阿阿胶、科伦药业、恒瑞医药、鱼跃医疗、惠泰医疗。公募持股市值减少前五大个股：药明康德、智飞生物、药明生物、爱尔眼科、同仁堂。\r\n\n                        \n\n                              三、医疗活动及医保情况：\r\n\n                        \n\n                              2023年诊疗人次复苏显著。截止2023年8月，全国诊疗人次累计达到27.5亿人次（2022年同期为26.7亿人次），全国出院人次累计达到1.6亿人次（2022年同期为1.4亿人次），随着疫情后医疗需求复苏，2023年医疗活动相比2022年显著提高。\r\n\n                        \n\n                              医保结余持续增长：2023年，医保总收入、总支出分别为33355.16亿元、28140.33亿元，增速分别为7.9%和14.4%，2023年医疗活动明显复苏，医保支出增速大于收入增速，为近四年来首次支出增速大于收入增速，但从绝对额看医保收入依然高出支出较多，预计2023年医保结余仍然有所增长。\r\n\n                        \n\n                              四、宏观数据：\r\n\n                        \n\n                              行业数据：2023年，中国医药制造业累计收入达2.25万亿，同比下降3.2%；医药制造业累计利润为3473亿元，同比下降19.0%，我们判断下半年医药行业反腐有一定影响。2024Q1中国医药制造业累计收入达0.61万亿，同比下降9.8%；医药制造业累计利润为823亿元，同比下降7.8%。\r\n\n                        \n\n                              上市公司数据：2023年458家医药公司实现营收2.5万亿元，同比增长0.8%，共实现归母净利润1616.9亿元，同比下降21.7%；2024Q1实现营收6314.9亿元，同比下降0.1%，实现归母净利润560.3亿元，同比增长4.0%。\r\n\n                        \n\n                              细分赛道：分化显著，创新药+中药+血制品表现较好\r\n\n                        \n\n                              创新药：国内创新药企业已大面积走过研发周期，正逐渐迈入商业化周期。A股中有产品商业化的Biotech2023年收入端表现较好，已有部分企业突破盈亏平衡点，业绩实现了非线性快速释放。\r\n\n                        \n\n                              中药：2023年营收365.6亿元，同比增长6.1%，归母净利润360.9亿元，同比增长24.3%；2024Q1营收996.2亿元，同比下滑0.8%，归母净利润128.1亿元，较去年同期高基数下滑8.2%，其中清热解毒类品种和国企改革类公司表现较为亮眼。\r\n\n                        \n\n                              医疗器械：2023年营收2238亿元，同比下滑28.6%，归母净利润359.7亿元，同比下滑55%；2024Q1营收557.4亿元，同比下滑1.8%，归母净利润101.4亿元，同比下滑5.3%，较过去4个单季度的大幅下滑有显著收窄。\r\n\n                        \n\n                              生物制品：2023年营收1512.0亿元，同比增长10.7%，归母净利润252.1亿元，同比下滑6.2%，其中血制品营收255.6亿元，同比增长16.3%，归母净利润54.1亿元，同比增长10.6%，终端需求旺盛推动行业高景气；2024Q1营收314.5亿元，同比下滑5.4%，归母净利润53.9亿元，同比下滑29.1%，\r\n\n                        \n\n                              化药：2023年营收3961.1亿元，同比增长0.2%，归母净利润282.2亿元，同比下降8.8%；2024Q1营收1024.8亿元，同比下降0.8%，归母净利润107.8亿元，同比增长4.7%。\r\n\n                        \n\n                              原料药：2023年营收1087.4亿元，同比下降3.6%，归母净利润82.2亿元，同比下降36%，2024Q1营收290.3亿元，同比增长0.2%，归母净利润29.9亿元，同比下降4%。\r\n\n                        \n\n                              医药商业：2023年营收1.02万亿元，同比增长7.9%，归母净利润184.1亿元，同比下滑0.9%，其中药店收入1108.3亿，同比增长10.8%，归母净利润48.1亿元，同比下降3.7%。2024Q1实现营收2635.9亿元，同比增长1.2%，实现归母净利润58.3亿元，同比下降1.8%。\r\n\n                        \n\n                              医疗服务：2023年营收792.8亿元，同比下滑4.8%，归母净利润58.9亿元，同比下滑0.9%，其中眼科营收293.6亿元，同比增长28.8%，归母净利润43.7亿元，同比增长45%。2024Q1营收182.5亿元，同比下滑1.4%，归母净利润9.5亿元，同比下滑36.23%，其眼科营收73.3亿元，同比增长2.9%，归母净利润10.8亿元，同比下滑5.3%。\r\n\n                        \n\n                              CXO&amp;科研服务产业链：2023年CXO营收909.4亿元，同比下滑1.9%，归母净利润175.2亿元，同比下滑18.8%，科研服务产业链营收96.2亿元，同比下滑20.1%，归母净利润10.7亿元，同比下滑59.2%。2024Q1CXO营收191.4亿元，同比下滑13.2%，归母净利润27.9亿元，同比下滑42.3%，科研服务产业链营收22.9亿，同比下滑1.78%，归母净利润2亿元，同比下滑33.6%。\n\n                        \n\n                                              \n\n                    '}, {'研报公司': '中原证券', '研报总结': '        \n                        \n            \n                        \n\n                              市场行情回顾。2024年2月20日至4月29日，中信生物医药行业指数上涨5.84%（按照流通市值加权平均计算），同期沪深300上涨7.59%，（按照流通市值加权平均计算），跑输沪深3001.75个百分点，行业整体表现在30个中信二级行业指数中排名倒数第10位。\n\n                        \n\n                              从近十年来中信生物医药指数的PE走势看，截至2024年4月29日，行业的动态PE为38.20倍，处于近10年来中位偏低水平。\n\n                        \n\n                              跟踪的行业数据显示，维生素价格因为国内部分厂家检修有小幅回升态势，但涨势能否维持还需要进一步观察；中药材价格仍在高位震荡。中药材价格上涨背后既有供需层面的因素，也有资本的推波助澜，后续将持续观察中药材价格变化情况，受此影响中成药企业的成本仍在高位。\n\n                        \n\n                              从截至2024年4月29日披露的2023年年报看，中信原料药62家上市公司中，56家企业公布了2023年年报。其中16家上市公司营业收入和归母净利润均同比正增长；中信中药78家上市公司中，67家企业公布了2023年年报，其中40家公司营业收入和归母净利润均同比正增长；血制品7家上市公司，全部公布了2023年年报，其中4家上市公司营业收入和归母净利润同比均正增长；中信器械111家上市公司全部公布了2023年年报，其中41家上市公司营业收入和归母净利润双双正增长；创新药指数成分股中，24家上市公司全部公布了2023年年报，仅有5家上市公司收入和归母净利润双双同比正增长。\n\n                        \n\n                              投资建议：1）关注年报和一季报超预期个股；2）关注合成生物学相关公司的投资机会。\n\n                        \n\n                              风险提示：政治风险，国家政策变化风险，行业政策变化风险，公司经营变化风险。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '开源证券', '研报总结': '        \n                        \n            \n                        \n\n                              2024Q1GLP-1大单品销售额持续增长，产能已成为限速环节\n\n                        \n\n                              2024Q1司美格鲁肽与替尔泊肽销售额分别约60.77/23.24亿美元，同比增长约47.8%/308.8%，其中减肥药产品Wegovy与Zepbound销售额均实现跨越式增长。随着GLP-1单品下游需求快速增加，产能目前已成为大单品放量的限速因素，诺和诺德与礼来正持续推进新产能的布局与建设。2024年2月，诺和诺德宣布计划收购原属于Catalent的3家无菌灌装工厂，以增加司美格鲁肽产能；公司预计2024年资本支出将达到450亿丹麦克朗，大部分用于API产能建设。2024年4月，礼来宣布计划从Nexus Pharmaceuticals收购一家制药厂，旨在进一步扩大GLP-1药物生产网络；同时，公司正在对印第安纳州、北卡罗来纳州、德国和爱尔兰的新工厂进行投资，预计未来几年的资本支出进一步提升。\n\n                        \n\n                              海内外GLP-1新药布局火热，多肽CDMO产业成长潜力逐渐释放\n\n                        \n\n                              以司美格鲁肽、替尔泊肽为代表的GLP-1单品快速放量，吸引国内多家企业布局以GLP-1R为靶点的药物管线。截至2024年4月底，国内共有7款GLP-1新药获批上市、5款新药处于NDA阶段；海外共有7款新药获批上市、5款新药处于III期临床阶段。随着越来越多的企业布局GLP-1新药产品，对多肽药物研发生产外包服务的需求将持续增强，国内多肽CDMO产业成长潜力将逐渐释放。\n\n                        \n\n                              GLP-1单品专利即将到期，原料药需求预计大幅提升\n\n                        \n\n                              根据诺和诺德公告，海外除美国外利拉鲁肽制剂专利将于2024年11月到期，国内司美格鲁肽专利将于2026年到期，届时仿制药产品上市，对原料药产品需求将大幅提升；预计下游企业实际采购时点将早于专利到期时点。海内外多家企业已布局司美格鲁肽生物类似物以及改良新药产品；九源基因产品目前已进入NDA阶段，丽珠集团、珠海联邦、正大天晴等多家企业的司美格鲁肽生物类似物以及齐鲁制药、石药集团的司美格鲁肽改良新药已进入III期临床阶段。随着海外利拉鲁肽与国内司美格鲁肽专利将陆续到期，早期管线持续向后端推进，以及多家企业开始布局口服司美格鲁肽产品，对上游原料药的需求将大幅提升。\n\n                        \n\n                              推荐及受益标的\n\n                        \n\n                              推荐标的：制药及生物制品：九典制药、恩华药业、东诚药业、人福医药、康诺亚、恒瑞医药、神州细胞；CXO：泰格医药、百诚医药、圣诺生物、诺思格；科研服务：毕得医药、奥浦迈、药康生物；医疗器械：迈瑞医疗、翔宇医疗、可孚医疗、戴维医疗；零售药店：益丰药房、健之佳；中药：悦康药业、昆药集团、康缘药业、羚锐制药；医疗服务：海吉亚医疗、美年健康；疫苗：康泰生物。\n\n                        \n\n                              风险提示：政策推进不及预期，市场竞争加剧，产品销售不及预期。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '国联证券', '研报总结': '        \n                        \n            \n                        \n\n                              医改背景下医药行业增速承压\n\n                        \n\n                              2023年中国规模以上医药制造业工业企业实现收入2.52万亿元（同比-3.70%），实现利润总额0.35万亿元（同比-15.10%）；2024Q1实现收入0.61万亿元（同比-2.00%），实现利润总额0.08万亿元（同比-2.70%）。全球贸易摩擦、行业政策使得医药行业整体增速承压，但2024Q1收入和利润降幅均收窄，创新药和零售药店等细分行业边际向好。\n\n                        \n\n                              创新药、零售药店等行业边际向好\n\n                        \n\n                              创新药行业医保支付力度加强，医保对新药的支出从2019年的59.49亿元增长至2022年的481.89亿元（3年CAGR达100.83%），上市新药纳入医保的等待时间从过去的平均近5年缩短至不到2年；创新药出海可期，2023年3款国内创新药获得美国FDA批准，并且2023-2024年陆续有国内的生物类似药获得FDA批准，对外授权总金额也在增加；零售药店则在医保支付、产品销售种类方面政策有所改善，内生增长速度加快。\n\n                        \n\n                              医药上市公司2024Q1经营转好整体平稳向好\n\n                        \n\n                              2023年医药上市公司实现收入2.47万亿元（同比+0.59%），实现归母净利0.17万亿元（同比-23.56%），2024Q1实现收入0.63万亿元（同比+0.21%），实现归母净利0.06万亿元（同比-0.74%），实现扣非归母净利0.05万亿元（同比+2.85%）。2023年由于减值（肝素等）、抗疫产品下滑、合规化事件等因素行业整体利润增速放缓，中药（主要是品牌OTC）表现强势；2024Q1上市公司经营状况逐步向好，院内诊疗恢复以及药事会陆续开启，2024年医药行业有望迎来改善。\n\n                        \n\n                              化学制剂、其他生物制品子行业的收入、利润增速均表现较好2024Q1收入增速前三的子行业是零售药店、其他生物制品、化学制剂，利润增速前三的子行业是化学制剂、其他生物制品、医疗耗材。化学制剂子行业中创新药的国内销售、对外授权、以及期间费用率的改善为业绩主要驱动因素；其他生物制品子行业中新药、生物类似药的放量带动板块业绩增长；中药子行业在2023Q1感冒发烧高基数的背景下，品牌OTC企业依旧表现好；器械子行业中，出口业务带动部分企业的业绩增长。\n\n                        \n\n                              投资建议\n\n                        \n\n                              中药子行业我们看好中药品牌OTC、国企改革、以及老龄化趋势下受益标的，推荐华润三九、东阿阿胶、江中药业、太极集团、羚锐制药；化学制剂和生物药子行业，我们看好创新和出口，推荐恒瑞医药（国内新药批准和进入医保放量）、康方生物（出海潜力）、金斯瑞生物科技（新药出海放量）；医疗器械子行业我们看好出口和内镜诊疗的贡献，推荐迈瑞医疗（出口增速高）；零售药店子行业内生+外延的增长模式以及自身产品和费用的优化构成了业绩提升的主要逻辑，政策上零售药店纳入门诊统筹、多地适当放开药店“非药限制”，药店的支持力度加大，推荐益丰药房、老百姓、健之佳等。\n\n                        \n\n                              风险提示：政策性风险、集采超预期、药事会恢复不及预期、贸易摩擦风险\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '中泰证券', '研报总结': '        \n                        \n            \n                        \n\n                              投资要点\r\n\n                        \n\n                              4月回顾：2024年4月医药生物板块上涨2.6%，同期沪深300上涨1.9%，医药板块跑赢沪深300约0.7%，位列31个子行业第4位。本月子板块化学制药上涨6.31%、医疗器械上涨4.09%、中药上涨3.92%、医药商业上涨3.66%，其余子板块医疗服务、生物制品分别下跌4.51%、1.56%。4月为业绩密集披露的窗口期，行情主要围绕年报及一季报展开。整体来看，在前期预期普遍较低情况下，医药板块出现一定程度超预期情况，主要体现在创新药（特色重点产品放量），中药（政策环境良好，常态化呼吸道疾病催化）等持续优势板块，以及底部出现拐点的特色原料药（周期见底，新产品开始放量）。此外，部分底部困境板块如医疗服务、医疗器械、CRO/CDMO等板块在业绩披露后出现明显上涨，市场提前布局有望反转的底部标的。\r\n\n                        \n\n                              展望5月：业绩真空期，市场风险偏好有望提升，关注医药创新及热点赛道。医药持仓仍处低位，Q1业绩见底，基本面有望逐季向好，建议加配。我们统计了A股基金（偏股型&amp;普通股票&amp;灵活配置基金）前十大重仓，2024年Q1医药板块占比11.35%（环比下降1.55pp)，扣除医药基金后占比4.89%（环比下降2.11pp）。扣除医药基金后医药板块低配2.39%，配置占比较2023Q4下滑1.55pp。医药板块持仓仍处低位，且环比明显下滑。在去年疫情放开、院内恢复、海外出口等高基数影响下，2024Q1预计成为全年业绩低点。随着国内市场政策环境持续优化，入院工作逐步开展；全球库存影响消除，地缘政治预期平稳，医药板块基本面有望逐季向好，下半年预计出现明显拐点。结合当下仓位、基本面等情况，建议积极加配医药。5月我们继续重点看好创新药/仿制药、中药、特色原料药三个板块，同时建议在业绩真空期积极参与相关热点主题投资机会，如GLP-1多肽产业链、合成生物学、AI制药等。\r\n\n                        \n\n                              1、创新药：Q1业绩超预期，叠加支持创新药产业发展利好政策，重点看好：1）近期首次实现核心创新药管线商业化，经营效能优秀的创新药企：艾力斯、神州细胞、凯因科技、上海谊众等；2）细分行业子龙头：建议关注艾迪药业、康蒂尼、康弘药业等；3）生物类似药出海美国：具备一定行业壁垒和相对确定性，具有高投入产出比，建议关注百奥泰、复宏汉霖、绿叶制药等；4）传统药企创新升级：康辰药业、奥赛康等。\r\n\n                        \n\n                              2、中药：Q1高基数下业绩仍旧亮眼，中药行业当下政策环境良好，国企改革等大背景下企业自身经营不断改善，叠加呼吸道疾病高发催化，我们认为板块有望持续表现出稳健快速增长趋势。基于业绩确定性+估值性价比，中药板块的配置性价比仍然较高，建议重点关注：1）竞争优势突出、ROE持续优化的高分红个股：济川药业、华润三九、东阿阿胶等。2）经营趋势向好、Q2起业绩增速有望趋势向上的个股：方盛制药、马应龙、以岭药业。\r\n\n                        \n\n                              3、特色原料药：Q1业绩普遍超预期，得益于新产品开始放量。行业经历了3-4年的下行周期，目前存量业务处于底部区间，下行风险有限。增量新业务在2024年开始迎来全面向好，包括专利到期抢仿API、原研转移CMO、制剂一体化放量。我们认为业绩可持续，行业有望进入3-5年的高速成长期，拐点已现。1）重点推荐增量业务明确的弹性标的同和药业、天宇股份、奥锐特，稳健性较强的仙琚制药。2）重点关注普洛药业、奥翔药业、司太立、美诺华等。\r\n\n                        \n\n                              4、热点主题：5月业绩真空期，市场投资有望活跃，主题轮动较快。看好GLP-1需求的持续爆发，重点推荐产业链相关优质公司诺泰生物、圣诺生物、奥锐特等。建议关注合成生物学的川宁生物、华恒生物，AI制剂相关的泓博医药、成都先导等。\r\n\n                        \n\n                              2023年报及2024一季报总结：收入及业绩完成阶段性筑底，迎接逐季修复趋势。2023年医药上市公司累计收入增长0.9%，利润总额下降19.2%，扣非净利润下降24.0%，收入增速放缓，业绩有一定下滑，主要由于：1）2022年疫苗接种、新冠检测等抗疫业务增厚基数；2）2023年下半年宏观政策环境变动，尤其影响部分院内场景使用的药品及医疗器械。2024年Q1医药上市公司收入增长0.8%，利润总额下降0.6%，扣非利润增长4.7%。2024Q1相对2023年同期政策环境更为严格，且2023Q1正值疫情管控放开初期，抗疫相关产品使用高峰，且部分诊疗需求集中爆发，造成高基数。我们认为行业基本面在政策压力下已经完成阶段性筑底，展望2024Q2及下半年，医药板块收入及业绩增速有望呈现逐季修复趋势。\r\n\n                        \n\n                              分板块：板块分化明显，生物制品、医药商业、中药、化学制剂表现优异。\r\n\n                        \n\n                              2023年收入增速排序为生物制品（+13.01%）、医药商业（+7.43%）、中药（+6.08%）、化学制剂（+1.20%）、医疗服务（-3.92%）、化学原料药（-4.19%）、医疗器械（-26.75%）；扣非净利润增速排序为中药（+24.96%）、生物制品（+20.24%）、医药商业（-1.56%）、化学制剂（-5.53%）、医疗服务（-15.27%）、化学原料药（-40.73%）、医疗器械（-57.65%）。\r\n\n                        \n\n                             </t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>['东莞证券在近期研报中表示，“受医疗反腐影响，医药生物行业2023年增速有所回落，但整体营收还是实现了小幅增长，行业整体具有较强的增长韧性。随着医疗反腐影响边际减小，市场得到进一步规范化发展，2024Q1，行业归母净利润增速同比有所回升，板块盈利能力有所企稳。从整体估值上看，截至2024年5月7日，行业整体PE（TTM，整体法）约为40.66倍，相对沪深300整体PE倍数为3.45倍，目前行业整体估值处于相对低位。细分板块方面，目前国内公司经过多年研发投入，创新药公司陆续进入收获期，新药出海授权金额不断创新高。创新药作为新质生产力的重要代表，北京等各地不断出台政策支持创新药发展，创新药板块情绪有望迎来回暖。随着医疗反腐影响边际减小，受此影响较大的医疗服务和医疗器械板块有望迎来业绩改善。”', 'null', 'null', 'null', '中银证券在近期研报中表示，二季度开始医药板块业绩增长有望逐季加速，创新药全产业链支持有望逐步落地，建议逐步增加医药板块配置。', '国金证券在近期研报中表示，总的来看，医药板块2023年增长前高后低，2024年一季度更是阶段性的板块景气度低点、资金配置低点和市场关注度低点。但是通过对这一变化的背后主要原因进行分析，我们能清楚地看到相关不利因素的影响在2024年二季度及以后将很快消除，基本面改善叠加2023年下半年低基数带来的同比提速将共同点燃增配医药板块的投资热情。我们建议重点加配医药板块布局，把握下半年业绩估值齐升机会。同时在风格上可以适当向进攻风格偏移，加配成长和创新板块。建议重点布局院内药品器械复苏、创新药出海，同时优质中药和连锁药房的确定性价值依然值得重视。', 'null', 'null', '国金证券在近期研报中表示，此次人工关节集中带量采购协议期满接续采购落地后，行业产品价格预期有望稳定，不同企业价格差异或将缩小，未来行业集中度将进一步提升，并且将更加有利于国产替代趋势。未来高值耗材领域医保控费工作常态化进行的过程中，将充分考虑厂商生产和供应的积极性，医疗器械板块政策情绪有望逐步触底回升。建议关注院内品牌力领先且生产供应能力较强的头部企业。', '华福证券在近期研报中表示，中短期配置思路：四条主题：1）主线-创新药械：符合国家新质生产力方向，预计有持续政策催化且部分公司进入商业化兑现放量阶段。2）主题-国企改革：新国九条下国企确定性高，国资委对上市公司经营及市值提高要求，重点国药系，如中药业绩好，血制品有整合；3）主线-医疗设备：反腐影响接近尾声且股价调整充分，关注Q2招标情况，Q3同比加速，可提前布局；4）主线-原料药：板块底部调整充分，部分产品已涨价，短期业绩不错，行业大的拐点预计下半年更明确，可提前布局。', '东莞证券在近期研报中表示，近期，医药生物板块有所回暖，大幅跑赢同期沪深300指数，此前调整幅度较大的化学制剂和医疗设备板块涨幅居前近期，中国工程院院士谭天伟表示国家层面有望在近期出台生物制造产业行动计划，合成生物学板块个股表现活跃，生物制造是新质生产力非常重要的新赛道和新业态，后续建议关注合成生物学板块投资机会。', 'null', '中原证券在近期研报中表示，投资建议：1）关注年报和一季报超预期个股；2）关注合成生物学相关公司的投资机会。', 'null', 'null', '中泰证券在近期研报中表示，"建议积极加配医药。5月我们继续重点看好创新药/仿制药、中药、特色原料药三个板块，同时建议在业绩真空期积极参与相关热点主题投资机会，如GLP-1多肽产业链、合成生物学、AI制药等。"', '首创证券在近期研报中表示，在投资策略上，我们仍然建议自下而上优选标的，重点关注业绩确定性标的和拐点方向。', 'null', 'null', '平安证券在近期研报中表示，"从终端用药规模和格局变化来看，在后疫情时代行业迎来恢复性增长，创新药以及壁垒高、格局好的品种增速快于整体。建议布局符合“空间大”“格局好”条件的品种，如临床效果突出的大病种(如肿瘤、自免、代谢等疾病类别)领域创新药，核药等具有高壁垒特征的新一代技术平台，以及凝胶贴膏等仿制难度较大的高端剂型等。"']</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>[{'role': 'system', 'content': '你是一名投资分析专家，现在需要你判断给出的资讯与哪个投资建议最相关，最后仅输出最相关建议即可，请遵循以下分析步骤：\n1.首先仔细阅读给出的资讯，了解资讯的主要内容，资讯仅作为理解参考，不可作为最后输出内容来源；\n2.接下来将给你几篇研报投资建议，请判断资讯与哪个投资建议最相关，最相关意味着该建议应直接对应资讯的核心主题，深入探讨资讯中提到的变化或趋势及其对相应行业市场的影响。\n3.输出与资讯内容最相关的一条建议，仅以json形式输出最相关投资建议原文，不需要添加或杜撰任何建议之外的信息。\n4.如果判断没有最相关的投资建议句段。most_relevant_suggestion输出“无”\n输出参考示例：{"most_relevant_suggestion":"东莞证券在近期研报中表示，当前楼市虽然基本面未见好转，但政策自上而下均处在持续宽松阶段，随着后续的进一步政策宽松预期释放，板块估值有望得到一定的修复。"}\n\n'}, {'role': 'user', 'content': '资讯：{礼来中国：替尔泊肽将商业上市 礼来股价最高触及816美元/股，创历史新高。礼来中国回应替尔泊肽获批，将在今年四季度商业上市并公布价格。礼来中国21日宣布穆峰达(替尔泊肽注射液)获得国家药品监督管理局(NMPA)批准。}\n\n"suggestions":\n{东莞证券在近期研报中表示，“受医疗反腐影响，医药生物行业2023年增速有所回落，但整体营收还是实现了小幅增长，行业整体具有较强的增长韧性。随着医疗反腐影响边际减小，市场得到进一步规范化发展，2024Q1，行业归母净利润增速同比有所回升，板块盈利能力有所企稳。从整体估值上看，截至2024年5月7日，行业整体PE（TTM，整体法）约为40.66倍，相对沪深300整体PE倍数为3.45倍，目前行业整体估值处于相对低位。细分板块方面，目前国内公司经过多年研发投入，创新药公司陆续进入收获期，新药出海授权金额不断创新高。创新药作为新质生产力的重要代表，北京等各地不断出台政策支持创新药发展，创新药板块情绪有望迎来回暖。随着医疗反腐影响边际减小，受此影响较大的医疗服务和医疗器械板块有望迎来业绩改善。”}\n{null}\n{null}\n{null}\n{中银证券在近期研报中表示，二季度开始医药板块业绩增长有望逐季加速，创新药全产业链支持有望逐步落地，建议逐步增加医药板块配置。}\n{国金证券在近期研报中表示，总的来看，医药板块2023年增长前高后低，2024年一季度更是阶段性的板块景气度低点、资金配置低点和市场关注度低点。但是通过对这一变化的背后主要原因进行分析，我们能清楚地看到相关不利因素的影响在2024年二季度及以后将很快消除，基本面改善叠加2023年下半年低基数带来的同比提速将共同点燃增配医药板块的投资热情。我们建议重点加配医药板块布局，把握下半年业绩估值齐升机会。同时在风格上可以适当向进攻风格偏移，加配成长和创新板块。建议重点布局院内药品器械复苏、创新药出海，同时优质中药和连锁药房的确定性价值依然值得重视。}\n{null}\n{null}\n{国金证券在近期研报中表示，此次人工关节集中带量采购协议期满接续采购落地后，行业产品价格预期有望稳定，不同企业价格差异或将缩小，未来行业集中度将进一步提升，并且将更加有利于国产替代趋势。未来高值耗材领域医保控费工作常态化进行的过程中，将充分考虑厂商生产和供应的积极性，医疗器械板块政策情绪有望逐步触底回升。建议关注院内品牌力领先且生产供应能力较强的头部企业。}\n{华福证券在近期研报中表示，中短期配置思路：四条主题：1）主线-创新药械：符合国家新质生产力方向，预计有持续政策催化且部分公司进入商业化兑现放量阶段。2）主题-国企改革：新国九条下国企确定性高，国资委对上市公司经营及市值提高要求，重点国药系，如中药业绩好，血制品有整合；3）主线-医疗设备：反腐影响接近尾声且股价调整充分，关注Q2招标情况，Q3同比加速，可提前布局；4）主线-原料药：板块底部调整充分，部分产品已涨价，短期业绩不错，行业大的拐点预计下半年更明确，可提前布局。}\n{东莞证券在近期研报中表示，近期，医药生物板块有所回暖，大幅跑赢同期沪深300指数，此前调整幅度较大的化学制剂和医疗设备板块涨幅居前近期，中国工程院院士谭天伟表示国家层面有望在近期出台生物制造产业行动计划，合成生物学板块个股表现活跃，生物制造是新质生产力非常重要的新赛道和新业态，后续建议关注合成生物学板块投资机会。}\n{null}\n{中原证券在近期研报中表示，投资建议：1）关注年报和一季报超预期个股；2）关注合成生物学相关公司的投资机会。}\n{null}\n{null}\n{中泰证券在近期研报中表示，"建议积极加配医药。5月我们继续重点看好创新药/仿制药、中药、特色原料药三个板块，同时建议在业绩真空期积极参与相关热点主题投资机会，如GLP-1多肽产业链、合成生物学、AI制药等。"}\n{首创证券在近期研报中表示，在投资策略上，我们仍然建议自下而上优选标的，重点关注业绩确定性标的和拐点方向。}\n{null}\n{null}\n{平安证券在近期研报中表示，"从终端用药规模和格局变化来看，在后疫情时代行业迎来恢复性增长，创新药以及壁垒高、格局好的品种增速快于整体。建议布局符合“空间大”“格局好”条件的品种，如临床效果突出的大病种(如肿瘤、自免、代谢等疾病类别)领域创新药，核药等具有高壁垒特征的新一代技术平台，以及凝胶贴膏等仿制难度较大的高端剂型等。"}\n'}]</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>{"most_relevant_suggestion":"中泰证券在近期研报中表示，\"建议积极加配医药。5月我们继续重点看好创新药/仿制药、中药、特色原料药三个板块，同时建议在业绩真空期积极参与相关热点主题投资机会，如GLP-1多肽产业链、合成生物学、AI制药等。\""}</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>礼来中国于5月21日宣布，替尔泊肽注射液（穆峰达）获国家药监局批准上市，这是一种创新的每周一次使用的GIP/GLP-1受体激动剂，用于控制饮食和运动基础上血糖仍不佳的成人2型糖尿病患者。
+根据弗若斯特沙利文的预测，2030年我国GLP-1类药物市场规模将超过500亿元。到2023年8月，国内已有106个GLP-1类减肥新药进入临床试验阶段，其中约40%由中国企业主导。这表明该领域具有广阔的市场潜力和高度的本土创新活力。方正证券提到，GLP-1R/GIPR双重激动剂替尔泊肽的放量速度远超其他同类产品，并且该品种积极拓展新适应症并取得3期临床成功，显示出GLP-1R/GIPR靶点药物的巨大潜力。建议关注布局GLP-1R/GIPR靶点的药企，以抓住这一领域的投资机会。
+中泰证券在近期研报中表示，"建议积极加配医药。5月我们继续重点看好创新药/仿制药、中药、特色原料药三个板块，同时建议在业绩真空期积极参与相关热点主题投资机会，如GLP-1多肽产业链、合成生物学、AI制药等。"</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>[{'role': 'system', 'content': '你是一名标题编辑人员，请根据文章内容，撰写财经新闻标题：\n\n标题1句话\n1. 简短新闻内容的短句，要求标题党，最好能带上新闻中提到的热门人物、热门事件的动词、或关键数据等。\n\n标题党是指：\n- 引起好奇心：制造悬念或提出引人入胜的问题。\n- 使用强烈、感性的语言：使用能够引发情感反应的词汇。\n- 结合热点话题：利用当前的热点或流行趋势。\n- 直接挑战读者观点：提出可能与普遍看法不同的观点。\n- 使用数字或统计数据：数字能够吸引注意并增加说服力\n\n2、越简短越好，避免使用“标题”这个词\n\n，使用json格式输出，输出参考示例：{"title":"文心一言用户破2亿！AI继续火热？"}\n\n新闻：'}, {'role': 'user', 'content': '礼来中国于5月21日宣布，替尔泊肽注射液（穆峰达）获国家药监局批准上市，这是一种创新的每周一次使用的GIP/GLP-1受体激动剂，用于控制饮食和运动基础上血糖仍不佳的成人2型糖尿病患者。\n根据弗若斯特沙利文的预测，2030年我国GLP-1类药物市场规模将超过500亿元。到2023年8月，国内已有106个GLP-1类减肥新药进入临床试验阶段，其中约40%由中国企业主导。这表明该领域具有广阔的市场潜力和高度的本土创新活力。方正证券提到，GLP-1R/GIPR双重激动剂替尔泊肽的放量速度远超其他同类产品，并且该品种积极拓展新适应症并取得3期临床成功，显示出GLP-1R/GIPR靶点药物的巨大潜力。建议关注布局GLP-1R/GIPR靶点的药企，以抓住这一领域的投资机会。\n中泰证券在近期研报中表示，"建议积极加配医药。5月我们继续重点看好创新药/仿制药、中药、特色原料药三个板块，同时建议在业绩真空期积极参与相关热点主题投资机会，如GLP-1多肽产业链、合成生物学、AI制药等。"'}]</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>{"title":"礼来穆峰达获批上市，GLP-1市场火爆，2030年规模或超500亿！"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>英伟达计划导入GB200扇出型封装 英伟达计划将GB200提早导入面板级扇出型封装，从原订2026年提前到2025年。</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>{"category": "其他"}</t>
+        </is>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>非行业利好</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>房地产持续活跃，万科金地再走强 房地产板块持续活跃，金地集团涨近7%，万科A涨超3%，我爱我家5天4板，渝开发、天宸股份等涨停。</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>{"category": "行业利好新闻"}</t>
+        </is>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>{
+"industry_benefit":[
+{"industry_name":"房地产","score":"100"},
+{"industry_name":"建筑装饰","score":"60"},
+{"industry_name":"建筑材料","score":"50"}
+],
+"concept_benefit":[
+{"concept_name":"深圳特区","score":"70"},
+{"concept_name":"一带一路","score":"50"},
+{"concept_name":"国企改革","score":"60"}
+]
+}</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>[{'提取文章': '\n                            \n                                \n  导读：①昨日市场呈现缩量整理格局，热点延续快速轮动态势；②地产股在经历两日整理后，今日走势有望关键，若能分歧转一致的话后续走势更为值得期待；③英伟达财报或为AI产业链带来利好催化   5月22日10:30   开盘第一小时来，市场延续分化整理态势，地产股方向如期迎来了资金回流，其中我爱我家5天4板，渝开发涨停，苏宁环球、特发服务、金地集团等涨幅居前，虽然整体力度不弱，但需注意的是，今日指数并能与地产共振向上，反而在量能持续萎缩的背景下，对于其余热点形成了吸血效应。   此外医美受消息面催化开盘冲高，但后续没有进一步的强化。光伏板块也在受到鼓励行业兼并重组，畅通市场退出机制的消息刺激而迎来反弹。金刚光伏涨超16%，清源股份涨停，不过整体来看仍更偏向于超跌修复其延续性仍有待进一步观察。   5月22日9:10   昨日市场整体震荡调整，三大指数小幅收跌的同时，量能也出现了较大幅度的萎缩。盘面上，市场延续电风扇般的轮动行情，玻璃基板、AIPC、铜箔等板块涨幅居前，而前日最强的有色等周期股则于昨日领跌。地产股同样延续横盘整理的走势。   首先还是关注地产方向，昨日依旧以分化为主，但依旧维持着较高的活跃度。像此前低位的渝开发、新华联获得资金补涨。而高标方向，特发服务与我爱我家依旧维持强劲涨势，而金地集团、保利发展、万科A同样保持着较为完好上涨趋势。不过需要注意的是，昨日此前与指数共振最为明显的方向，其实本轮地产板块整体走势并不连贯，始终伴随着不小的分歧。那么在经历两日整理后，今日的走势尤为关键，若能够再度实现分歧转一致的话，对于地产板块后市或将更为值得期待。相反若延续缩量弱势整理的话，对于短线活跃资金而言可能会产生失望性抛压。   再来关注科技股方向，玻璃基板概念顶住了此前的“证伪”传闻，于近期走出了较强的延续性。可见作为科技方向难能可贵的具有增量的新题材，资金对其保有较高的认可度。但从题材本身来看，玻璃基板的板块容量较小，而真正能够调动短线情绪的AI算力（CPO）、芯片半导体等方向则依旧延续整理态势。对于科技股而言，目前最大掣肘在于市场的增量资金不足，观望情绪较为浓厚。不过今日英伟达将公布财报，若能延续高增的话，或对于整个AI及其产业链而言都将形成利好催化。   此外从盘后的题材来看，医美方向在此利好。广东省卫健委发布医疗美容外科项目调整通知。通知显示，在美容外科一级项目“(4)其他”新增物理治疗和注射治疗。其中，物理治疗包括激光治疗、射频治疗等；注射治疗包括透明质酸、胶原蛋白等填充剂的注射。医美板块此前经历较长时间的整理尚处低位，较为符合当前资金的审美，叠加政策面的利好有望于今日盘中活跃。（文章来源：财联社）                        ', 'gpt提取资讯,解读结果': '{\n    "news": "开盘第一小时来，市场延续分化整理态势，地产股方向如期迎来了资金回流，其中我爱我家5天4板，渝开发涨停，苏宁环球、特发服务、金地集团等涨幅居前。",\n    "analysis": "昨日依旧以分化为主，但依旧维持着较高的活跃度。像此前低位的渝开发、新华联获得资金补涨。而高标方向，特发服务与我爱我家依旧维持强劲涨势，而金地集团、保利发展、万科A同样保持着较为完好上涨趋势。不过需要注意的是，昨日此前与指数共振最为明显的方向，其实本轮地产板块整体走势并不连贯，始终伴随着不小的分歧。那么在经历两日整理后，今日的走势尤为关键，若能够再度实现分歧转一致的话，对于地产板块后市或将更为值得期待。相反若延续缩量弱势整理的话，对于短线活跃资金而言可能会产生失望性抛压。"\n}'}, {'提取文章': '\n                            \n                                \n  房地产板块再度走强，渝开发涨停，新华联涨超9%，海南高速、金地集团、华远地产等跟涨。 （文章来源：南方财经网）                        ', 'gpt提取资讯,解读结果': '{\n"news":"房地产板块再度走强，渝开发涨停，新华联涨超9%，海南高速、金地集团、华远地产等跟涨。",\n"analysis":null\n}'}, {'提取文章': '\n                            \n                                \n  房地产板块再度走强，渝开发涨停，新华联涨超9%，海南高速、金地集团、华远地产等跟涨。（文章来源：每日经济新闻）                        ', 'gpt提取资讯,解读结果': '{\n"news":"房地产板块再度走强，渝开发涨停，新华联涨超9%，海南高速、金地集团、华远地产等跟涨。",\n"analysis":null\n}'}, {'提取文章': '\n                            \n                                \n  5月22日上午，房地产板块再度走强，渝开发涨停，新华联涨超9%，海南高速、金地集团、华远地产等跟涨。（文章来源：界面新闻）                        ', 'gpt提取资讯,解读结果': '{\n"news":"5月22日上午，房地产板块再度走强，渝开发涨停，新华联涨超9%，海南高速、金地集团、华远地产等跟涨。",\n"analysis":null\n}'}]</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>开盘第一小时来，市场延续分化整理态势，地产股方向如期迎来了资金回流，其中我爱我家5天4板，渝开发涨停，苏宁环球、特发服务、金地集团等涨幅居前。</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>['昨日依旧以分化为主，但依旧维持着较高的活跃度。像此前低位的渝开发、新华联获得资金补涨。而高标方向，特发服务与我爱我家依旧维持强劲涨势，而金地集团、保利发展、万科A同样保持着较为完好上涨趋势。不过需要注意的是，昨日此前与指数共振最为明显的方向，其实本轮地产板块整体走势并不连贯，始终伴随着不小的分歧。那么在经历两日整理后，今日的走势尤为关键，若能够再度实现分歧转一致的话，对于地产板块后市或将更为值得期待。相反若延续缩量弱势整理的话，对于短线活跃资金而言可能会产生失望性抛压。']</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>[{'研报': '钢化玻璃行业研究：安全与耐用并存，钢化玻璃在现代生活中的广泛应用 头豹词条报告系列', 'gpt判断研报相关性': '{\n  "相关性": false\n}'}, {'研报': '建筑玻璃行业研究：面向未来，探索建筑玻璃在美观、环保和可持续的需求演变 头豹词条报告系列', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '建筑材料：4月动态报告-行业业绩承压，玻纤提价有望带动利润修复', 'gpt判断研报相关性': '{\n  "相关性": true\n}'}, {'研报': '建材行业2023年报及2024一季报综述：玻纤底部信号明确，消费建材减值影响高峰已过', 'gpt判断研报相关性': '{\n    "相关性": true\n}'}, {'研报': '建筑行业周观点：一季度建筑企业经营情况持稳，央企集中度继续提升', 'gpt判断研报相关性': '{\n  "相关性": true\n}'}, {'研报': '建筑材料及新材料行业2023FY&amp;2024Q1：玻纤/耐材及部分细分龙头有积极变化', 'gpt判断研报相关性': '{"相关性":false}'}, {'研报': '建筑装饰行业跟踪周报：建筑业PMI仍有韧性但新订单指数连续走弱，期待项目和资金端政策发力', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '建筑装饰行业研究周报：政治局会议聚焦改革及房产去化，中央资金支撑智慧交通新质生产力', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '建筑行业周报：政治局会议基建/地产定调积极，看好低估值建筑央企和地产链估值提升', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '建筑材料行业研究周报：地产政策催化预期修复，哪些品种弹性更大？', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '建筑材料行业跟踪周报基建或加速', 'gpt判断研报相关性': '{\n    "相关性": true\n}'}, {'研报': '建筑材料行业深度报告：居住产业链2024Q1获公募基金减仓，重仓持股市值占A股比为10年来最低', 'gpt判断研报相关性': '{\n  "相关性": true\n}'}, {'研报': '建筑材料行业周报：增发国债加快开工建设，项目资金改善支撑下游建材需求', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '建材：政治局会议地产政策定调积极，购房+融资端多策并举，助力地产链建材市场表现', 'gpt判断研报相关性': '{\n  "相关性": true\n}'}, {'研报': '房地产服务行业研究2023年报总结：转型高质量发展，穿越地产周期', 'gpt判断研报相关性': '{\n  "相关性": true\n}'}, {'研报': '建材建筑周观点：C端建材+出口链Q1表现更优，继续看好玻纤价格趋势', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '建筑材料行业+公司首次覆盖：智能卫浴快速渗透期，国产品牌加速崛起', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '建材行业周报：地产链行情有望延续，短期建议关注补涨品种', 'gpt判断研报相关性': '{\n    "相关性": true\n}'}, {'研报': '房屋工程建筑：筑梦空间，房屋工程建筑的工业化进程 头豹词条报告系列', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '建筑材料行业周报：重磅政策落地，地产链估值修复迎重要窗口期', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '消费建材2023年年报&amp;2024年一季报总结：寻找周期底部的蓄势待发', 'gpt判断研报相关性': '{"相关性":true}'}, {'研报': '房地产行业周报：重磅政策频出，销售仍待改善', 'gpt判断研报相关性': '{\n  "相关性": true\n}'}]</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>['建筑装饰', '建筑材料', '房地产']</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>[{'研报公司': '头豹研究院', '研报总结': '        \n                        \n            \n                        \n\n                              报告介绍了建筑玻璃的特点和应用，以及建筑玻璃行业市场规模历史变化和未来趋势。随着全球对节能减排重视程度的提升，建筑玻璃行业逐步向低辐射、高透光、良好隔热隔音性能的产品转变。市场对建筑玻璃的需求愈发多样化，从普通的透明玻璃到各种功能性玻璃。建筑玻璃行业逐渐受到可持续发展理念的影响，推动行业向更加环保和可持续的方向发展。未来，中空玻璃等节能建筑玻璃的应用渗透率将大幅上升，建筑玻璃技术的不断创新和改进也将进一步刺激市场需求。\n\n                        \n\n                              建筑玻璃行业定义\n\n                        \n\n                              建筑玻璃是一种专门用于建筑行业的玻璃材料，用于构建建筑物的外墙、窗户、门等部位。其特点包括透明、光滑、坚固、耐候性好。建筑玻璃可以根据需要进行加工，如切割、钻孔、钢化等，以满足不同建筑结构的要求。它能够提供室内自然采光、视野开阔，并且在冬季有助于保温，提高室内温度，节约能源。在现代建筑设计中，建筑玻璃不仅是一个功能性组件，还承担着装饰和美化的作用，能够塑造建筑外观和风格。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '中国银河', '研报总结': '        \n                        \n            \n                        \n\n                              核心观点：\n\n                        \n\n                              23年年报及24年一季报情况：行业业绩承压，各细分板块表现分化。2023年：行业整体弱势运行，消费建材业绩表现较好。2023年建材行业营业收入/归母净利润分别同比-0.67%/-31.89%，受下游需求疲软影响，行业整体弱势运行。其中消费建材业绩表现较好，实现营收、净利润双增长；水泥、玻纤业绩表现较弱。2024Q1：需求未见好转，行业业绩探底。2024年一季度建材行业营业收入/归母净利润分别同比-17.28%/-82.63%，行业延续弱势运行，下游需求未见好转，上市公司整体业绩承压。其中玻璃业绩表现较好，营收、净利润同比实现双增长；水泥、玻纤业绩进一步走低。\n\n                        \n\n                              玻璃纤维：提价落实较好，需求逐步恢复，行业底部回升。4月份国内玻璃纤维粗纱市场整体呈上行态势，价格提涨刺激中下游提货增加，终端需求逐步恢复，玻纤企业库存压力缓解。电子纱价格进一步上涨，下游CCL开工增加，市场需求恢复较好，部分产线放水冷修，供给量小幅减少，后续电子纱价格有望进一步增长。\n\n                        \n\n                              水泥：产量大幅减少，价格延续弱势运行。2024年1-3月水泥累计产量同比下降11.8%，产量大幅减少。4月30日全国P.O42.5散装水泥市场价为306.6元/吨，同比/环比-21.06%/-1.98%，水泥价格低位运行。后续新增专项债及超长期特别国债有望带动基建投资增速进一步上行，水泥市场需求有望增长。\n\n                        \n\n                              玻璃：保交楼有望带动浮法玻璃需求逐步恢复。2024年1-3月平板玻璃累计产量同比增长7.8%，平板玻璃产量增加。4月30日我国浮法平板玻璃4.8/5mm市场价为1708.2元/吨，同比/环比-19.47%/-5.57%，价格进一步走低。近期地产利好政策频发，后续保交楼将持续推进，浮法玻璃市场需求有改善预期。\n\n                        \n\n                              消费建材：企业加大零售渠道拓展，消费建材零售额进一步增长。2024年1-3月建筑及装潢材料类零售额同比增长2.4%，较1-2月扩大0.3个百分点，消费建材零售端进一步改善。后续随着地产利好政策持续推进，城市房地产融资协调机制有望落地见效，有望带动消费建材需求。\n\n                        \n\n                              投资建议：玻璃纤维：推荐产能逐步扩张、高端产品占比提升的中国巨石。消费建材：推荐不断调整销售策略及产品结构、加速渠道下沉的北新建材、公元股份、伟星新材、东方雨虹。水泥：关注受益于基建高增速下市场需求有望增长的海螺水泥、华新水泥、上峰水泥。玻璃：建议关注多业务布局的旗滨集团、凯盛新能。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '华安证券', '研报总结': '        \n                        \n            \n                        \n\n                              主要观点：\n\n                        \n\n                              行业：业绩估值双重承压，公募持仓创历史新低\n\n                        \n\n                              我们选取建材行业73家A股上市公司作为样本股票池，并以此为基准测算行业整体及子板块经营情况。2023年73家建材公司营业收入合计7935.62亿元，同比增长4.94%，归母净利润427.88亿元，同比下降20.89%；2024年一季度营收合计1408.76亿元，同比减少13.13%；归母净利润44.51亿元，同比减少70.54%。分板块来看，B端消费建材归母净利润增速远超整体行业，C端消费建材盈利能力领先。受业绩增速影响，2024Q1建材行业公募持仓占比为0.73%，环比减少0.06个百分点，同比减少0.33个百分点，处于近7年新低水平。\n\n                        \n\n                              水泥：地产新开工面积不及预期，板块业绩持续承压\n\n                        \n\n                              2023年水泥子行业合计营业收入3778.02亿元，同比增长2.88%；归母净利润116.33亿元，同比下降42.90%。2023年以来，房地产新开工面积不达预期持续拖累水泥需求，全年全国水泥产量仅为20.23亿吨，已连续3年同比下降。2024年一季度，全国水泥产量为3.37亿元，同比下降16.28%，需求不足导致价格近7年新低。归母净利润方面，由于成本压力持续，水泥企业毛利率持续下滑，吨利润下滑幅度较大。\n\n                        \n\n                              玻璃玻纤：玻纤周期底部明确，涨价落地情况超预期\n\n                        \n\n                              2023年，玻璃及玻纤板块营业收入合计1683.99亿元，同比增长12.38%；实现归母净利润合计188.18亿元，同比减少19.15%。2024年一季度，板块营收合计392.40亿元，同比增长7.54%，实现归母净利润38.65亿元，同比增长4.47%。受需求疲软及供给增加影响，产品价格持续探底，玻璃与玻纤行业增收不增利。\n\n                        \n\n                              ①玻璃：保交楼政策持续推进，行业库存整体持续下降，企业盈利有望改善。②玻纤：考虑到行业自身的高质量发展和下游需求逐步恢复，中国巨石于3月底4月初分别对粗纱部分产品和电子布进行不同程度的复价，随后其他玻纤企业跟随复价，目前来看复价效果显著，下游接纳情况良好。粗纱方面，考虑到Q2为玻纤传统旺季，我们认为玻纤涨价或仍具备一定持续性；电子布方面，随着消费电子复苏及2024年无新增产能，向上弹性更大。\n\n                        \n\n                              消费建材：大B端需求下滑，小B&amp;C端持续发力\n\n                        \n\n                              2023年B端建材行业合计营业收入989.96亿元，同比增长2.91%；归母净利润实现27.61亿元，同比增长93.23%；2024年一季度合计营收179.87亿元，同比减少7.66%；归母净利润实现2.22亿元，同比减少98.41%。2023年C端消费建材上市公司营业收入合计419.20亿元，同比增长7.84%；实现归母净利润合计55.57亿元，同比增长14.04%；2024年一季度营收实现88.60亿元，同比增长15.23%，实现归母净利润9.96亿元，同比增长21.81%。\n\n                        \n\n                              2021-2023年，B端消费建材板块每年计提信用减值损失金额达到30-35亿元，占营收比例为3%-3.5%。2022年板块信用减值损失金额占净利润比例达到203%，一方面因为部分企业选择集中在当年进行单笔大额计提减值，整体计提规模较高；另一方面因为当年大宗商品价格上升造成毛利率走低，部分企业净利润大额负值或近乎为零。2023年行业盈利水平有所提高，当年板块信用减值损失金额占净利润比例降至125%。展望未来，大B营收占比快速下降，且多数企业已进行充分计提，预计该项减值准备对净利润的影响会逐渐降低。\n\n                        \n\n                              地产周期持续下行使得大B业务显著收窄，针对行业变化，消费建材公司积极发展小B和C端业务，营收结构更加优化。C端强势公司受益于头部集中度提升趋势，营收利润保持稳健增长。从未来建材需求端来看，地产直销采购量仍有收缩风险，二手房换装及市政基建订单有所增加，下游需求更加小、散、定制化，因此较早布局小B和C端业务的消费建材头部公司值得重点关注。\n\n                        \n\n                              投资建议\n\n                        \n\n                              建议关注受益于基建回暖预期的顺周期标的【鸿路钢构】、【中国巨石】，具备长期成长性的消费建材个股【东方雨虹】、【伟星新材】。\n\n                        \n\n                              风险提示\n\n                        \n\n                              （1）地产基建投资不及预期；\n\n                        \n\n                              （2）C端市场恢复不及预期；\n\n                        \n\n                              （3）原材料价格上涨持续超预期。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '国信证券', '研报总结': '        \n                        \n            \n                        \n\n                              核心观点\n\n                        \n\n                              建筑业新签合同延续小幅下滑，产值增长更具韧性。2024年第一季度，建筑业新签合同额6.73万亿元，同比-2.9%，建筑业实现产值5.67万亿元，同比+3.4%。受“地方政府化债”政策影响，新增基建项目投资额明显缩减，建筑业新签订单保持下滑趋势，存量项目持续转化推动建筑业产值维持小幅增长。\n\n                        \n\n                              建筑央企新签合同额保持稳健增长，新签集中度继续提升。2024年一季度，八大建筑央企新签建筑合同额合计3.92亿元，同比+6.7%，显著高于建筑业整体-2.9%的增速，八大建筑央企以新签合同额衡量的市占率由上年同期的53.0%继续提升至58.2%。建筑央企在获取重大工程项目方面具有更强的品牌优势和更低的融资成本，在行业需求整体下滑的环境下仍能维持新签合同稳健增长。\n\n                        \n\n                              上市建筑公司Q1收入小幅增长，利润小幅下降。2024年第一季度，A股上市建筑公司实现营业收入2.07万亿元，同比+1.6%，实现归母净利润503.2亿元，同比-2.8%。2024年第一季度建筑板块整体毛利率为9.25%，较上年同期下降0.10pct，管理/财务费用率分别为2.43%/0.89%，较上年同期分别上升了0.07/0.02pct。\n\n                        \n\n                              建筑企业经营性现金流净流出增加。2024年第一季度，A股上市建筑公司整体惊醒赢现金流净额净流出4388亿元，同比多流出1016亿元，其中销售商品、提供劳务收到现金21255亿元，同比+4.2%，购买商品、接受劳务支付现金23005亿元，同比+7.9%，均高于营收增速，结合2023上市建筑企业付现比由96.0%显著下滑至94.1%的情况来看，经营性现金流流出加大或主要用于支付往年的应付账款。\n\n                        \n\n                              投资建议：相对而言建筑央企在承接重大项目上存在优势，融资成本低于行业均值，有望保持订单和业绩稳健增长；随着海外订单持续回暖，建议关注国际工程龙头企业业绩兑现；工业建筑受地产和地方政府债务影响较小，也是当前政策支持的投资方向，随着库存周期拐点临近，产业链上钢结构、专业工程板块有望迎来估值修复，尤其是部分重大晶圆厂项目有望年内落地，建议关注洁净厂房建设机会。重点推荐中国中铁、中国交建、太极实业、中国海诚、中材国际。\n\n                        \n\n                              风险提示：宏观经济下行风险；政策落地不及预期的风险；重大项目审批进度不及预期的风险。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '东吴证券', '研报总结': '        \n                        \n            \n                        \n\n                              投资要点\n\n                        \n\n                              本周（2024.4.29–2024.5.3，下同）：本周建筑装饰板块（SW）涨跌幅-1.33%，同期沪深300、万得全A指数涨跌幅分别为0.56%、1.19%，超额收益分别为-1.89%、-2.52%。\n\n                        \n\n                              行业重要政策、事件变化、数据跟踪点评：（1）国家统计局发布4月PMI数据。建筑业商务活动指数比3月上升0.1个百分点，为56.3%，继续位于较高景气区间。其中，土木工程建筑业商务活动指数为63.7%，比3月上升3.9个百分点，升至高位景气区间，反映基建链条景气度较好，施工进度有所加快。从市场预期看，业务活动预期指数为56.1%，持续位于较高景气区间，表明建筑业企业对行业发展预期总体保持乐观。（2）中共中央政治局召开会议决定召开二十届三中全会，分析研究当前经济形势和经济工作。财政和货币政策的继续发力有望支撑基建投资持续较快增长，并向实物需求传导，地产政策提出消化存量房产的举措，叠加高能级城市继续放松限购，有望利好地产需求企稳回暖。\n\n                        \n\n                              周观点：（1）4月建筑PMI环比略有提升，土木工程建筑业商务活动指数环比上升3.9个百分点，显示基建土木工程施工有所加快，但建筑新订单指数仍处于低位，环比上月下降了2.9个百分点，业务活动预期指数环比上月下降3.1个百分点，经营预期仍然偏弱。此前政府工作报告提出积极的财政政策要适度加力，从今年开始拟连续几年发行超长期特别国债，专项用于国家重大战略实施和重点领域安全能力建设，预计基建投资端仍有韧性。3月信贷投放平稳增长，政府债券发行进展同比偏慢，近期发改委完成了2024年专项债筛选工作，期待后续发行加快和财政政策发力，资金端和项目端有望同时改善。国资委提出强化投资者回报，进一步研究将市值管理纳入中央企业负责人业绩考核，近期多家建筑央企发布2023年报和24年一季度，业绩表现普遍稳健，我们建议关注估值仍处历史低位、业绩稳健的基建龙头央企估值持续修复机会，推荐中国交建、中国建筑、中国电建、中国铁建、中国中铁等。\n\n                        \n\n                              （2）出海方向：二十大报告提出共建“一带一路”高质量发展，将进一步深化交通、能源和网络等基础设施的互联互通建设，开展更大范围、更高水平、更深层次的区域合作，为建筑央国企参与一带一路沿线市场打开更大空间；2023年我国对外非金融类直接投资同比增长16.7%，在“一带一路”共建国家非金融类直接投资同比增长28.4%，对外投资平稳发展，基建合作是重要形式，未来预计更多合作和政策支持有望出台，海外工程业务有望受益，后续有望逐渐兑现到订单和业绩层面。建议关注国际工程板块，个股推荐中材国际，建议关注中工国际、北方国际、中钢国际等。\n\n                        \n\n                              （3）需求结构有亮点，新业务增量开拓下的投资机会：水利基础设施建设有望加快推进，建议关注粤水电、安徽建工等；在加快推动建筑领域节能降碳等政策推进下，装配式建筑、节能降碳以及新能源相关的基建细分领域景气度较高，有相关转型布局的企业有望受益，建议关注装配式建筑方向的鸿路钢构、华阳国际等；低空经济各地方政策催化不断，建议关注建筑和基建设计院板块，相关标的建议关注中交设计、设计总院、华设集团等。\n\n                        \n\n                              风险提示：地产信用风险失控、政策定力超预期、国企改革进展低于预期等。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '天风证券', '研报总结': '        \n                        \n            \n                        \n\n                              靠前发力有效落实宏观政策，新质生产力再次被提及重要位置\n\n                        \n\n                              4月份政治局会议最重要的增量信息是改革以及对于地产去库存的强化。三中全会时间的确定，意味着有关改革议题、具体措施等关键性问题可能已经形成了基本的共识和结论，新型城镇化+土地要素改革可能是重点改革内容。二季度稳增长政策力度可能不会放缓，但增量空间也相对有限，存量政策的加速落地可能是政策的重心。我们认为，二季度将会加快存量政策的落地。本次会议要求“靠前发力有效落实已经确定的宏观政策”、“及早发行并用好超长期特别国债，加快专项债发行使用进度，保持必要的财政支出强度”、“落实好大规模设备更新和消费品以旧换新行动方案”。因此，我们预计政府债的发行速度有望加快，财政支出强度也会随之提升。此外，有关房地产的内容变化较大，4月份政治局未提及三大工程，后续推进的力度可能会有所放缓。本次会议首次提出了“统筹研究消化存量房产”，可能指向了市场近期关注的类似郑州由城投收购二手房的模式。\n\n                        \n\n                              公路水路交通基础设施数字化转型升级，财政部给予财政补贴奖励\n\n                        \n\n                              自2024年起，通过3年左右时间，支持30个左右的示范区域，打造一批线网一体化的示范通道及网络，力争推动85%左右的繁忙国家高速公路、25%左右的繁忙普通国道和70%左右的重要国家高等级航道实现数字化转型升级。在智慧扩容方面实现示范通道通行效率提升20%左右；在安全增效方面实现突发事件应急响应效率提升30%左右；在融合创新方面凝练总结一批具有较高推广价值的车路云、船岸云应用场景和关键技术、标准规范；在体制机制创新方面推动培育一批个性化定制、网络化协同、产业化融合等新业态新模式。此外，财政部将按照交通运输部核定总投资的一定比例予以奖补，东部、中部、西部地区奖补比例分别为40%、50%、60%，政策端对于智慧交通形成有力的支撑。\n\n                        \n\n                              行情回顾\n\n                        \n\n                              根据总市值加权平均统计，本周（0429-0430）建筑（中信）指数下跌0.41%，沪深300指数上涨1.48%，子板块中建筑装修、房建板块涨幅居前，分别录得1.46%、1.30%的正收益。本周涨幅居前的标的有：旭杰科技（+18.45%）、华图山鼎（+17.43%）、西藏天路（+14.87%）、天域生态（+12.57%）、*ST嘉寓（+12.30%）。\n\n                        \n\n                              投资建议\n\n                        \n\n                              我们认为，24年顺周期改善、高股息央国企和专业工程景气延续仍是三条重要的主线：1)顺周期板块，重点推荐城中村及保障房受益标的华阳国际、深圳瑞捷等；2)低估值高股息央国企蓝筹推荐中国中铁、中国建筑、中国铁建、安徽建工、设计总院、中材国际、北方国际；3）专业工程建议关注高景气赛道龙头标的，推荐鸿路钢构、上海港湾、华铁应急（与非银组联合覆盖）、圣晖集成、利柏特、三维化学。\n\n                        \n\n                              风险提示：基建&amp;地产投资超预期下行；央企、国企改革提效进度不及预期；城中村改造落地不及预期。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '国投证券', '研报总结': '        \n                        \n            \n                        \n\n                              本周投资建议：\r\n\n                        \n\n                              4月30日，中共中央政治局会议和国资委关于央企一季度运营情况视频会议同日召开，关于基建投资、房地产行业以及央企发展的相关政策定调积极。\r\n\n                        \n\n                              政治局会议提出要靠前发力有效落实已确定的宏观政策，及早发行并用好超长期特别国债，预计后续专项债和超长期特别国债均有望加快发行，助力实物工作量尽快形成，保障全年基建投资稳健增长。国资央企2024年一季度实现良好发展，固定资产投资同比增长10.4%（高出全国5.9pct），年化全员劳动生产率增长5.1%。此外，国资委会议再次强调强化央企价值创造，持续提高经营创现能力，2024年国资委对国资央企总体保持“一利五率”目标管理体系不变。从建筑央企基本面角度，2023年建筑基建央企板块营收、业绩和新签合同额均保持稳步增长，部分央企现金流、ROE及分红率提升明显，叠加央企市值管理持续推进，我们持续看好低估值建筑央国企经营质量改善和市场回报表现。\r\n\n                        \n\n                              4月28日，国务院国资委召开中央企业大规模设备更新工作推进会，表示央企在推动新一轮大规模设备更新和消费品以旧换新工作中发挥重要作用，并已在推进工作落实中取得初步成效。发改委下一步将推进配套方案出台实施，并希望央企“一企一策”制定设备更新工作方案，优先选择一批能耗高、排放大、效率低、安全隐患大的设备尽快更新改造，设备更新需求有望持续释放，结合3月份发布的设备更新改造行动方案所提及的重点行业领域，有望为建筑服务商带来设计、设备和施工承包新增量。\r\n\n                        \n\n                              在房地产领域，中央政治局会议指出：1）继续坚持因城施策，压实地方政府、房地产企业、金融机构各方责任，切实做好保交房工作，保障购房人合法权益。2）结合房地产市场供求关系的新变化、人民群众对优质住房的新期待，统筹研究消化存量房产和优化增量住房的政策措施，抓紧构建房地产发展新模式，促进房地产高质量发展。本次地产行业政策表述较为积极，保交楼工作2024年有望持续，同时改善地产供需关系也为未来政策推进重点，后续去库存相关的具体政策细则落地值得期待，同时核心城市购房宽松政策相继发布，地产行业下行态势改善可期，助力地产链企业估值修复。\r\n\n                        \n\n                              建议关注：\r\n\n                        \n\n                              1）专项债和超长期特别国债有望加快发行，叠加发改委将推动万亿国债项目于6月底前开工建设，均助力全年基建投资增长；此外，国企改革和央企市值管理考核持续推进，现金分红监管力度加大，建筑央企有望充分受益：中国中铁、中国交建、中国建筑、中国中冶、中国铁建、中材国际；\r\n\n                        \n\n                              2）设备更新需求有望逐步释放，水泥/冶金工程优质服务商有望受益：中材国际、中钢国际；\r\n\n                        \n\n                              3）地产政策定调较为积极，前端优质设计标的有望迎来估值提升：华阳国际；\r\n\n                        \n\n                              4）经营稳健的优质央国企设计咨询公司：中交设计、地铁设计；\r\n\n                        \n\n                              5）国企改革推进，未来央国企分红比例有望提升，高股息高分红标的投资价值凸显：中国建筑、隧道股份、安徽建工、中材国际；\r\n\n                        \n\n                              中长期配置主线建议：\r\n\n                        \n\n                              2024年基建投资稳增长基调持续，万亿国债项目全部下达完毕，随万亿国债和超长期特别国债项目逐步开工建设，地方政府专项债项目加快审核，均有望支持全年基建投资增长，同时看好“三大工程”建设改造带动基建、房建投资增长，拉动地产新开工和销售的边际改善，为建筑板块创造需求增量。建筑行业多家头部企业积极扩展国际化布局，海外工程建设释放市场需求增量。目前建筑行业基本面整体稳健，基建央企和地方基建龙头行业集中度持续提升，叠加国企改革、鼓励分红和市值管理持续推进，估值有望提升。建议关注低估值基建龙头、地方基建龙头国企、国际工程优质标的及城中村改造相关板块：\r\n\n                        \n\n                              （1）低估值建筑央企：基建投资资金端支持力度大，全年基建投资有望稳健增长，国企改革推进下，建筑央企经营指标有望改善，央企市值管理全面推开，助力低估值央企估值提升，建议关注：中国建筑、中国交建、中国铁建、中国中铁。\r\n\n                        \n\n                              （2）优质地方国企：业务所在区域财政状况相对占优，公司自身经营稳健，围绕主业进行产业链拓展，现金流或ROE表现亮眼，建议关注：隧道股份、地铁设计。\r\n\n                        \n\n                              （3）城中村改造、保障房板块：政策积极推进，2024年有望启动实施，板块投资机会持续，产业链前端的检测和设计公司受益，订单弹性大、轻资产模式。建议关注：华阳国际、蕾奥规划。\r\n\n                        \n\n                              （4）出海优质龙头：国内基建增长趋稳态势下，出海企业有望打造业务长期成长新支撑点，建议关注海外业务占比高，海外订单持续增长，海外细分领域竞争力突出的国际工程服务商：中材国际、中钢国际；\r\n\n                        \n\n                              （5）建筑+商业模式占优个股：区别于传统垫资的工程承包企业，制造模式以及向设备、运维等领域转变的个股更受益于商业模式带来的经营指标改善和未来估值提升。建议关注：鸿路钢构、中材国际。\r\n\n                        \n\n                              风险提示：政策实施不及预期、经济下行风险、固定资产投资下滑、地产回暖不及预期、地方财政增长缓慢风险等。\n\n                        \n\n                                              \n\n                    '}, {'研报公司': '天风证券', '研报总结': '        \n                        \n            \n                        \n\n                              行情回顾\n\n                        \n\n                              过去两个交易日（0429-0430）沪深300涨0.56%，建材（中信）涨1.79%，除了陶瓷和水泥外，其余子板块均为正收益。个股中，ST三圣（+10.4%），北新建材（+8.9%），科顺股份（+8.4%），先锋新材（+7.5%），秀强股份（+7.3%）涨幅居前。\n\n                        \n\n                              地产政策催化预期修复，首推消费建材困境反转品种\n\n                        \n\n                              据Wind，0427-0503一周，30个大中城市商品房销售面积155.37万平米，环比-21%，同比-19%，降幅缩小。4月30日，中共中央政治局会议提到，要结合房地产市场供求关系的新变化、人民群众对优质住房的新期待，统筹研究消化存量房产和优化增量住房的政策措施，抓紧构建房地产发展新模式，促进房地产高质量发展，其中首次提出化解存量与优化增量住房政策措施，具备方向性意义，我们认为后续相关具体政策或逐步出台，有望推动市场信心和基本面回升。\n\n                        \n\n                              从当前PE估值分位数来看，东方雨虹、东鹏控股、坚朗五金等2024年PE已跌至2021年以来的10%分位数以下，近期政治局会议对房地产政策创新定调，通过消化存量房产和优化增量住房等措施有望解决供需核心堵点，短期建材品种估值端有望率先修复，其中前期跌幅较大、当前估值水平较低的公司具备更大的修复弹性。而后我们认为基本面的回升同样值得期待，短期来看，一方面，我们认为下游客户付款状况预期有望逐渐向好，利好当前应收账款压力较大及前期减值计提较多的消费建材企业，另一方面，新房品质关注度的提升，品牌力更强的龙头公司有望借机进一步扩大市场份额，而中长期看，我们认为随着销售逐步筑底，前端建材品种（水泥、减水剂、防水等）基本面底部基本确认，随着改造对于行业的带动作用将逐步体现，后端消费建材需求端有望率先恢复，同时格局优化带来的龙头α将带来长期增长，综上来看，短期我们首推困境反转弹性品种，中长期继续坚守优质龙头。\n\n                        \n\n                              传统建材行业景气或已触底，新材料品种成长性有望持续兑现\n\n                        \n\n                              1）消费建材21/22FY受地产景气度、资金链，以及大宗商品价格持续上行带来的成本压力影响，当前上述因素有望逐步改善，地产政策改善趋势明确，23年基本面或已基本企稳。中长期看，龙头公司已经开启渠道变革，规模效应有望使得行业集中度持续提升，消费建材仍然是建材板块中长期优选赛道；2）新型玻璃、碳纤维等新材料面临下游需求高景气和国产替代机遇，龙头公司拥有高技术壁垒，有望迎来快速成长期；3）当前玻璃龙头市值已处于历史较低水平，随着行业冷修提速，行业基本面或逐步筑底，光伏玻璃有望受益产业链景气度回暖，而电子玻璃有望受益国产替代和折叠屏等新品放量；4）塑料管道板块下游兼具基建和地产，基建端有望受益市政管网投资升温，地产端与消费建材回暖逻辑相似；5）水泥有望受益于后续基建和地产需求改善预期，中长期看，供给格局有望持续优化；6）玻纤当前价格处于相对低位，后续风电等需求启动有望带动行业去库涨价。\n\n                        \n\n                              本周重点推荐组合\n\n                        \n\n                              山东药玻（与医药联合覆盖）、世名科技（与化工联合覆盖）、鲁阳节能、长海股份（与化工联合覆盖）、伟星新材、北新建材、凯盛科技（与电子联合覆盖）。\n\n                        \n\n                              风险提示：基建、地产需求回落超预期，对水泥、玻璃价格涨价趋势造成影响；新材料品种下游景气度及自身成长性不及预期；地产产业链坏账减值损失超预期等。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '东吴证券', '研报总结': '        \n                        \n            \n                        \n\n                              投资要点\r\n\n                        \n\n                              本周（2024.4.29–2024.5.3，下同）：本周建筑材料板块（SW）涨跌幅2.32%，同期沪深300、万得全A指数涨跌幅分别为0.56%、1.19%，超额收益分别为1.76%、1.13%。\r\n\n                        \n\n                              大宗建材基本面与高频数据：（1）水泥：本周全国高标水泥市场价格为358.0元/吨，较上周+2.8元/吨，较2023年同期-65.8元/吨。较上周价格持平的地区：华北地区；较上周价格上涨的地区：长江流域地区（+1.4元/吨）、两广地区（+5.0元/吨）、东北地区（+21.7元/吨）、西南地区（+6.0元/吨）、西北地区（+4.0元/吨）；较上周价格下跌的地区：长三角地区（-5.0元/吨）、泛京津冀地区（-3.3元/吨）、华东地区（-2.9元/吨）、中南地区（-1.7元/吨）。本周全国样本企业平均水泥库位为67.3%，较上周-1.0pct，较2023年同期-4.4pct。全国样本企业平均水泥出货率（日发货率/在产产能）为51.6%，较上周+1.7pct，较2023年同期-5.3pct。（2）玻璃：卓创资讯统计的全国浮法白玻原片平均价格为1705.7元/吨，较上周-8.4元/吨，较2023年同期-420.3元/吨。卓创资讯统计的全国13省样本企业原片库存为5392万重箱，较上周-94万重箱，较2023年同期+1188万重箱。（3）玻纤：本周国内无碱粗纱市场价格延续上涨走势，厂家报价周内亦有调涨，多数合股纱价格同步有上调。截至4月30日，国内2400tex无碱缠绕直接纱主流报价在3500-3700元/吨不等，全国均价3594.25元/吨，主流含税送到，环比上周均价（3505.92元/吨）上涨2.52%，涨幅收窄3.02个百分点，同比下跌11.55%，较上周降幅收窄2.10个百分点；本周电子纱市场价格基本走稳，前期各厂价格提涨近期基本落实，电子纱G75主流报价7800-8100元/吨不等，较上周价格持平；7628电子布当前主流报价为3.5-3.6元/米不等，成交按量可谈。\r\n\n                        \n\n                              周观点：本周政治局会议召开，除了利率等总量工具的潜在利好，对于建材建筑而言我们认为还有3个亮点，一是要求加快发行超长期国债和专项债，2季度基建新项目可能加速落地，利好基建央企和开工端建材水泥。二是统筹研究消化地产库存和优化增量的措施，有利于缓解地产价格焦虑，也提升地产链优质白马的估值，例如北新建材、坚朗五金、伟星新材、东方雨虹。三是支持民企出海，有利于坚定市场对于出海赛道的信心。\r\n\n                        \n\n                              中期继续布局成长细分赛道，例如，出口链的一带一路方向，非地产链的新材料或工程公司，地产链的智能家居和绿色建材公司。另外，央企市值管理考核要求下，低估值央企也值得重视，例如中国中铁、中国交建等。\r\n\n                        \n\n                              1、全球需求中长期增量来自于一带一路和RCEP地区。两个维度择股，一带一路和RCEP区域收入占总收入的比例以及本土化的能力，推荐米奥会展、中材国际，上海港湾，中国交建。\r\n\n                        \n\n                              2、欧美补库存周期开启。推荐中国巨石、赛特新材，爱丽家居、松霖科技、建霖家居，建议关注山东玻纤、共创草坪等欧美出口链条。\r\n\n                        \n\n                              3、非地产链条中，长期看好产业升级或节能减碳类投资需求。推荐圣晖集成、再升科技，建议关注柏诚股份。\r\n\n                        \n\n                              4、在强力政策作用下，国内地产的螺旋下滑态势必将得到遏止。我们预计地产投资端和主体信用端在明年企稳。对于地产链而言，大部分细分行业的集中度仍有提升空间。推荐北新建材、坚朗五金、伟星新材、箭牌家居、东鹏控股、东方雨虹、蒙娜丽莎，建议关注江山欧派、森鹰窗业。\r\n\n                        \n\n                              大宗建材方面：玻纤：（1）粗纱景气底部确认，市场供需平衡重建，支撑景气向上。近期厂商库存加快去化，除了下游补库加快外，也反映行业供需矛盾基本消化。今年以来行业新增产能投放节奏继续放慢，但短期产能进一步出清难度较大，龙头企业思路转向稳价提价。前期粗纱各品类提价落实顺利，当前需求处于季节性旺季，下游开工和采购意愿向好，随着新池窑点火放缓，厂商库存进一步下降，价格有望延续稳步上行的趋势。中期来看，粗纱行业盈利仍处低位，持续限制供给增量的释放，叠加下游国内基建、外贸等方向需求有望进一步改善，行业库存中枢有望继续下行，（2）细纱/电子布需求显著回暖，得益于家电、新能源车等下游细分行业需求拉动和库存消化，当前涨价传导顺利。考虑细纱行业盈利长时间处于低位，前期产能有所缩减，中期产能潜在增量有限，下游开工率持续改善，库存有望进一步降至低位，电子布价格和盈利具有弹性。（3）中长期落后产能出清、玻纤成本的下降也为新应用的拓展和渗透率的提升提供催化剂，随着风电、新能源车等领域用量持续增长，光伏组件边框等新兴应用领域持续拓展，行业容量有望持续增长，产品结构的调整有利于龙头构筑新的壁垒，盈利稳定性也将提升。（4）当前龙头估值处于历史低位，底部确认、需求回升预期有望推动估值修复。推荐中国巨石，建议关注中材科技、山东玻纤、长海股份、国际复材、宏和科技等。\r\n\n                        \n\n                              水泥：（1）本周全国水泥市场价格环比上涨0.8%。价格上涨区域主要有黑龙江、吉林、辽宁、广西、重庆和甘肃，幅度10-40元/吨；价格回落区域为江苏、浙江和河南，幅度10-20元/吨。4月底，受市场资金短缺和阴雨天气影响，国内水泥市场需求表现疲弱，由于价格长期处于较低水平，绝大多数企业处于亏损状态，为改善经营质量，减少亏损，部分地区企业通过增加错峰生产，推动价格上涨。（2）季节性旺季需求同比仍显偏弱，后续仍需观察实物需求的释放情况，财政工具和准财政工具有望进一步发力，财政前置下基建投资增速有望维持高位，但仍待向实物需求进一步传导。需求不足背景下，行业库存控制依赖错峰停窑，但跨区域流动和企业市场策略的影响下，行业竞合将反复，行业景气将继续低位震荡，但也为进一步的市场整合带来机遇。（3）水泥企业市净率估值处于历史底部，双碳、环保政策利好中长期供给侧出清，龙头企业综合竞争优势凸显，估值有望迎来修复。推荐中长期产业链延伸有亮点的龙头企业：华新水泥、海螺水泥、上峰水泥、天山股份、冀东水泥等。玻璃：近期下游库存有所消化，加工厂和贸易商在五一节前节后有一定补库，价格小幅震荡。但当前下游订单支撑一般，叠加高供给下产业链预期仍然谨慎，价格的进一步反弹需要旺季需求进一步改善的支撑。短期随着玻璃盈利水平下行，冷修产线有增多预期，对价格有一定支撑，但中长期仍需跟踪保交楼等政策对竣工需求落地的影响，供需关系有待重新平衡。短期光伏玻璃提价落地后，供给边际增加以及下游开工情况下库存阶段性增加，但下游中期光伏装机预期继续向好，龙头企业享有成本优势，盈利有支撑。浮法玻璃龙头享有硅砂等资源等中长期成本优势，叠加光伏玻璃等多元业务的成长性，继续推荐旗滨集团，建议关注南玻A等。\r\n\n                        \n\n                              装修建材方面：市场需求仍较弱，收入端或承压，部分品类市场竞争加剧，零售端部分品类具备韧性表现优于工程端销售。成本端例如铝合金、不锈钢、PVC、沥青等价格基本稳定，预计盈利端保持稳健。在地产放松政策效果逐步显现、坏账计提和现金流风险预期逐渐释放之下，板块整体有望迎来业绩及估值修复。参考消费建材板块历史经验和当前的竞争态势来看，在地产行业资金缓和+信心从底部逐渐恢复的阶段，部分公司或将率先借助渠道领先布局、经营效率优势或融资加杠杆等进一步提升份额、进入新的扩张周期，发货或订单增速的拐点可作为右侧信号。推荐坚朗五金、东方雨虹、伟星新材、兔宝宝、科顺股份、北新建材、凯伦股份、东鹏控股、蒙娜丽莎，建议关注三棵树、中国联塑、苏博特、公元股份、垒知集团等。\r\n\n                        \n\n                              风险提示：地产信用风险失控、政策定力超预期。\n\n                        \n\n                                              \n\n                    '}, {'研报公司': '东吴证券', '研报总结': '        \n                        \n            \n                        \n\n                              我们筛选了198支居住产业链A股（其中地产行业52支、建筑行业92支、建材行业54支）作为样本标的，并进一步细分为3大类10个二级行业（基建地产前周期：房地产开发、设计咨询、基建房建、水泥；基建地产后周期：玻璃玻纤、装修、装修建材、房地产服务；其他：其他材料、专业工程），进行2024年一季度产业链行情回顾和公募基金重仓持股分析。在进行二级行业分析、个股持仓分析时，我们同时加入了家居子行业（19支）与厨电子行业（11支）进行对比。\r\n\n                        \n\n                              2024Q1居住产业链收益率跑输市场：本季度（2024年一季度，下同）居住产业链收益率跑输市场，其中建筑行业跑赢市场，建材、房地产行业跑输市场。本季度居住产业链全部样本流通股本加权平均涨跌幅为-0.9%，相对全部A股的超额收益为-1.4%，其中房地产、建筑、建材流通市值加权平均涨跌幅分别为-6.8%、1.8%、-5.5%，相对全部A股的超额收益分别为-7.3%、1.3%、-6.0%。2024年4月1日-4月26日，居住产业链收益率跑输市场，其中房地产、建筑、建材行业均跑输市场，建筑行业绝对收益为正。\r\n\n                        \n\n                              行业持仓：我们选取了股票型基金中的普通股票型基金（剔除被动指数型基金和指数增强型基金）、混合型基金中的偏股混合型、平衡混合型和灵活配置型基金作为样本基金。\r\n\n                        \n\n                              居住产业链整体继续减仓，重仓持股市值占A股比为10年来最低。本季度全部A股中居住产业链（申万新分类下地产、建筑、建材行业）基金重仓持股市值占A股比为1.93%（近10年来最低），环比上一季度-0.38pct，超配比例-2.48%（近10年百分比排位41%），环比上一季度-0.17pct。\r\n\n                        \n\n                              三行业低配比例均出现扩大。申万新分类下地产、建筑、建材行业本季度基金重仓持股市值占A股比分别为0.98%、0.49%、0.45%（近10年百分比排位分别为0%、26%、3%），环比上一季度分别-0.21pct、-0.09pct、-0.08pct，地产、建材行业基金重仓持股市值占A股比处于10年以来底部；地产、建筑和建材行业超配比例分别为-0.49%、-1.60%、-0.38%（近10年百分比排位分别为41%、46%、23%），环比上一季度分别-0.03pct、-0.12pct、-0.01pct，低配比例均扩大。\r\n\n                        \n\n                              自主划分的二级行业中，其他材料、装饰装修加仓较多，装修建材行业减仓明显，其他材料、房地产服务、装饰装修基金重仓持股市值占流通盘比位于历史较高水平，设计咨询、装修建材位于历史较低水平。本季度基金重仓持股市值占流通盘比环比上一季度增加最多的三个子行业分别为其他材料（+2.64pct）、装饰装修（+1.95pct）、房地产服务（+0.23pct），减少最多的三个子行业分别为装修建材（-0.64pct）、设计咨询（-0.47pct）、水泥（-0.27pct）；基金重仓持股市值占流通盘比近10年百分比排位最高的三个子行业分别为其他材料（90%）、房地产服务（89%）、装饰装修（85%），近10年百分比排位最低的三个子行业分别为设计咨询（3%）、装修建材（5%）、玻璃玻纤（13%）。\r\n\n                        \n\n                              进一步在二级子行业的分析中加入家居、厨电子行业。家居行业本季度基金重仓持股市值占流通盘比为3.91%，环比上一季度+1.31pct；厨电行业本季度基金重仓持股市值占流通盘比为1.51%，环比上一季度+0.26pct。家居、厨电行业本季度重仓持股市值占流通盘比位于近10年的百分比排名分别为56%、23%，家居行业较上季度有明显提升。\r\n\n                        \n\n                              个股持仓：\r\n\n                        \n\n                              （1）个股持仓市值：本季度居住产业链公募基金重仓持仓总市值前五的股票依次是保利发展（65.5亿元）、招商蛇口（36.9亿元）、中国建筑（33.4亿元）、金诚信（27.9亿元）、海螺水泥（23.8亿元）。\r\n\n                        \n\n                              房地产行业前五的股票分别为保利发展（65.5亿元）、招商蛇口（36.9亿元）、万科A（12.8亿元）、华发股份（11.5亿元）、招商积余（8.8亿元），建筑行业前五的股票分别为中国建筑（33.4亿元）、金诚信（27.9亿元）、中国中铁（8.0亿元）、中材国际（4.6亿元）、鸿路钢构（3.3亿元），建材行业前五的股票分别为海螺水泥（23.8亿元）、东方雨虹（19.4亿元）、中国巨石（6.3亿元）、江山欧派（4.4亿元）、华新水泥（4.3亿元）。\r\n\n                        \n\n                              进一步加入家居、厨电行业的重点个股进行对比，家居重点个股中，基金重仓持仓总市值前前五的股票是顾家家居（32.6亿元）、公牛集团（17.9亿元）、欧派家居（11.5亿元）、索菲亚（7.3亿元）、志邦家居（5.3亿元），厨电重点个股中，基金重仓持仓总市值前三的股票是苏泊尔（7.1亿元）、老板电器（4.5亿元）、华帝股份（2.8亿元）。\r\n\n                        \n\n                              （2）个股持仓变动：按基金重仓持股占流通盘比计算，环比上一季度加仓幅度前五名依次为安徽建工（+1.37pct）、招商积余（+1.07pct）、中材国际（+0.57pct）、爱丽家居（+0.40pct）、中国巨石（+0.26pct）；减仓幅度前五名依次为志特新材（-2.96pct）、滨江集团（-2.68pct）、三棵树（-1.29pct）、华阳国际（-1.21pct）、保利发展（-1.04pct）。\r\n\n                        \n\n                              进一步加入家居、厨电行业的重点个股进行对比，家居重点个股中，环比上一季度加仓幅度前三名依次为顾家家居（+6.98pct）、匠心家居（+1.78pct）、索菲亚（+0.52pct），厨电重点个股中，华帝股份环比上一季度加仓0.68pct。\r\n\n                        \n\n                              风险提示：地产信用风险失控、政策定力超预期、数据统计存在允许范围内偏差的可能。\n\n                        \n\n                                              \n\n                    '}, {'研报公司': '上海证券', '研报总结': '        \n                        \n            \n                        \n\n                              核心观点\n\n                        \n\n                              推动2023年增发国债于今年6月底前开工建设，项目资金或将进一步改善。4月17日国新办发布会上，国家发改委表示，截止2024年2月，发改委已经完成了三批共1万亿增发国债项目清单的下达工作，落实约1.5万亿个具体项目。同时，国家发改委表示，后续将进一步压实地方主体责任，推动所有增发国债项目于今年6月底前开工建设。从当前资金到位率来看，截止4月23日，根据百年建筑调研数据显示，总项目资金到位率62.64%，非房建项目资金到位率65.46%，房建项目资金到位率46.07%，我们认为，尽管环比仍然改善，但项目资金到位率整体偏低。因此，我们认为，随着推动增发国债项目的加快建设，项目资金有望进一步改善，支撑下游建材需求。\n\n                        \n\n                              新增专项债发行节奏有望提速。根据国家发改委数据显示，今年专项债券规模为3.9万亿，根据统计来看，截止2024年5月，今年预计新增专项债发行总额为8036亿，占全年规模20.6%，低于2019-2023年平均发行节奏。我们认为，随着地方政府专项债券项目初筛通过，有望推动更多实物工作量的完成。\n\n                        \n\n                              行业重点数据跟踪：\n\n                        \n\n                              水泥核心观点：过去一周（4.20-4.26）全国水泥均价周环比下跌0.1%，各区域价格也整体保持平稳。需求端看，以长三角为例，当前尽管处于季节性回升阶段，但考虑到当前雨水天气增多，一定程度上影响到施工节奏。水泥8省市库存量周环比下降0.8%，库存连续2周环比下降。利润方面看，本周水泥利润周环比下降2.23%，利润延续收窄。\n\n                        \n\n                              平板玻璃：过去一周（4.20-4.26）4月20日全国浮法玻璃价格环比下降0.2%，降幅进一步收窄。库存方面，4月26日全国浮法玻璃库存环比小幅增加1.17%。根据卓创资讯信息显示，分大区表现看，华北地区受期货提振成交好转，浮法厂有所去库；华东地区产销较前一周有所上升，观望情绪较重；华南地区受降雨影响，出货放缓，库存略有增加。成本端方面，纯碱价格进一步上涨，4月25日国内纯碱厂家总库存87.85万吨，环比上涨0.63%，纯碱企业库存小幅回升。\n\n                        \n\n                              光伏玻璃：过去一周（4.20-4.26）光伏玻璃价格26.5元/平方米，本周价格环比延续持平。供应端，2024年第17周周度产量为53.88万吨，产量周环比+2.43%，产量延续抬升。同时，库存端看，4月26日库存周环比下降0.1%，光伏玻璃库存降幅收窄。\n\n                        \n\n                              玻纤：过去一周（4.20-4.26）玻纤价格周环比持平。\n\n                        \n\n                              碳纤维：过去一周（4.20-4.26）碳纤维价格周环比上涨1.56%。供给端看，本周产量和开工率分别抬升0.44%和0.37个百分点，库存端行业进一步累库。\n\n                        \n\n                              投资建议\n\n                        \n\n                              投资策略方面，当前建材处于底部，但在价格触底之后，近期包括水泥、玻纤等价格均有提价修复利润动力。因此，关注建材板块底部机会。一是可以建议关注业绩具有韧性的消费建材龙头，关注龙头公司伟星新材等；二是关注二三季度需求释放，供需边际改善，成本端纯碱价格下降带来盈利弹性的光伏玻璃板块，建议关注信义光能、福莱特、信义玻璃等。三是关注下游新项目有望提速，资金到位率改善的水泥板块，建议关注华新水泥、海螺水泥。此外，中国巨石第二轮提价，玻纤提价有望带动盈利底部改善，建议关注中国巨石。\n\n                        \n\n                              风险提示\n\n                        \n\n                              宏观经济下行风险，房地产行业修复不及预期；统计样本带来数据差异。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '国投证券', '研报总结': '        \n                        \n            \n                        \n\n                              事件：2024年4月30日，中共中央政治局召开会议，提出切实做好保交房工作，统筹研究消化存量房产和优化增量住房政策措施，抓紧构建房地产发展新模式，促进房地产高质量发展。\r\n\n                        \n\n                              政治局地产政策整体定调积极，保交楼及供需改善持续推进。\r\n\n                        \n\n                              2024年4月30日召开的中央政治局会议在地产行业指出：1）继续坚持因城施策，压实地方政府、房地产企业、金融机构各方责任，切实做好保交房工作，保障购房人合法权益。2）结合房地产市场供求关系的新变化、人民群众对优质住房的新期待，统筹研究消化存量房产和优化增量住房的政策措施，抓紧构建房地产发展新模式，促进房地产高质量发展。根据上述会议政策内容，我们认为地产行业政策表述较为积极，保交楼工作2024年有望持续，同时改善地产供需关系也为未来政策推进重点，后续去库存相关的具体政策细则落地值得期待，地产行业下行态势改善可期，助力地产链消费建材估值提升。\r\n\n                        \n\n                              购房政策延续宽松基调，30城推出住房“以旧换新”，多策并举助推销售数据回暖。今年我国购房政策总体延续宽松基调，近期多地相继放松购房政策，包括部分核心二线城市和强一线城市，一线城市整体保持稳步优化节奏，二线核心城市优化力度加大，如3月杭州放开二手房限购，4月成都全面取消限购、北京和天津相继放松限购要求。根据中指研究院信息，截至目前，除海南省外，核心城市中，北京、上海、广州、深圳四大一线城市和杭州（新房）、天津、西安等核心区仍维持限购政策。2023年和2024Q1，我国商品房销售面积分别为11.17亿㎡和2.27亿㎡，yoy-8.50%、-19.40%，70城二手房3月成交量有所提升，但成交价格普跌，地产行业销售端量价仍承压。2023年以来，我国已有30个城市表态参与住房“以旧换新”，将消化存量二手房和新房去库销售相结合。购房端宽松政策落地叠加“以旧换新”推进，有望助力后续新房和二手房销售数据改善，为消费建材创造需求。\r\n\n                        \n\n                              房企融资协调机制积极推进，助力项目交付及建材商回款改善。\r\n\n                        \n\n                              2024年1月，住建部和金融监管总局发布《关于建立城市房地产融资协调机制的通知》，提出建立城市房地产融资协调机制，一视同仁满足不同所有制房产企业合理融资需求。根据新华社报道，截至4月3日，全国31个省份和新疆生产建设兵团均已建立省级房地产融资协调机制，所有地级及以上城市（不含直辖市）已建立城市房地产融资协调机制，分批提出可以给予融资支持的房地产项目“白名单”并推送给商业银行。未来随相关资金支持的落地使用，有助于化解房企资金压力，助力在建项目顺利开展，保障项目交付，稳定购房者预期，优先利好地产竣工端复苏，消费建材回款、现金流、需求及盈利指标有望充分受益。\r\n\n                        \n\n                              基建稳增长仍为全年主线，基建投资+C端创造非房需求。目前多家消费建材公司在经营战略上，大多基于传统地产需求同步拓展非房基建类及C端零售领域业务，优化下游客户结构，加强零售和工程端渠道建设且成效显著。2024年我国基建投资稳增长基调持续，政治局会议内容对深入实施地方政府债务风险化解方案作出部署，提出要及早发行并用好超长期特别国债，加快专项债发行使用进度，保持必要的财政支出强度。随万亿国债和超长期特别国债项目逐步开工建设以及“三大工程”的推进落地，资金端和需求端均为基建投资增长提供保障，创造非房侧建材需求，同时对于具备明显C端属性的建材品种，存量房重装有望支撑长期需求释放。\r\n\n                        \n\n                              龙头消费建材经营稳健多元布局，经营指标有望改善。受下游地产下行、疫情封控以及原材料价格等多重因素影响，消费建材自2021Q3起盈利端明显承压，目前大宗原材料价格压力减小，同时多家龙头企业在大B、小B和C端共同发力，叠加新产品新业务快速成长以及行业出清后集中度提升，行业龙头整体发展更为平稳，同时毛利率呈现一定程度的改善。地产行业下行背景下，部分企业在2021-2023年间对应收账款进行减值计提，影响业绩增速表现，风险释放较为充分。随政策落地执行，地产端业务需求复苏和业务回款有望好转，未来行业龙头业绩增速、盈利水平、现金流持续改善值得期待。\r\n\n                        \n\n                              投资建议：政治局会议对地产行业政策定调积极，多地放松限购政策，销售端和房企融资端多策并举，基建投资维持稳增长态势，有望助力建材行业需求回暖及回款改善，地产链消费建材优先受益，建议关注各细分领域优质龙头，受益下游供需关系改善预期、房企资金压力缓解、项目需求逐步回暖及行业集中度提升。\r\n\n                        \n\n                              重点推荐：\r\n\n                        \n\n                              【北新建材】央企石膏板龙头，受益下游地产集中度提升，成本和定价优势明显，资产并购助力多业务发展，2023年和2024Q1营收、业绩同比高增，股权激励业绩目标亮眼。\r\n\n                        \n\n                              【兔宝宝】低估值高端家装板材龙头，渠道建设升级成效显著，定制家居差异化竞争优势显著，2023及2024Q1扣非业绩增速亮眼，高分红比例长期投资价值显著。\r\n\n                        \n\n                              【伟星新材】C端家装管材龙头，经营韧性强劲，2023年归母及2024Q1扣非业绩增速亮眼，盈利能力改善，发展步伐稳健。\r\n\n                        \n\n                              建议关注：\r\n\n                        \n\n                              【三棵树】成本下行毛利率提升，下游客户结构优化，加强C端和小B工程端业务拓展，涂料产品消费属性最强，现金流表现出色，民族涂料龙头市占率提升可期。\r\n\n                        \n\n                              【东方雨虹】防水行业龙头，非房和C端业务成长迅速，成本压力改善盈利修复，同时受益防水新规执行后带来的行业需求释放。\r\n\n                        \n\n                              风险提示：政策执行不及预期，原材料价格上涨，市场竞争加剧，回款不及预期。\n\n                        \n\n                                              \n\n                    '}, {'研报公司': '国金证券', '研报总结': '        \n                        \n            \n                        \n\n                              核心观点\n\n                        \n\n                              利润表：收入增速趋缓，利润略有下滑，央国企表现突出。2023年60家上市物企：①营收总额2855.5亿元，同比+8.1%，较22年15.7%有所放缓。其中央国企物企+18.3%，独立物企+15.0%，民企且未展期物企+13.4%，混合所有制物企+10.1%，民企且已展期物企+1.7%。②归母净利润总额149.6亿元，同比-1.7%，已连续两年下滑。其中央国企物企+26.1%，民企且未展期物企+1.9%，民企且已展期物企-4.2%，独立物企-10.8%，混合所有制物企-24.8%。③整体毛利率为20.3%，同比-1.3pct，毛利率持续下降。其中民企且未展期物企26.0%；民企且已展期物企22.1%；央国企物企20.8%；混合所有制物企毛利率16.1%；独立物企13.4%。④整体销管费用率为8.7%，同比-0.9pct，销管费用率持续压降。其中央国企物企6.7%；独立物企7.9%；混合所有制物企8.3%；民企且未展期物企9.1%；民企且已展期物企10.2%。\n\n                        \n\n                              资产负债表：应收增速放缓，商誉下降，现金充裕。2023年60家上市物企：①贸易应收账款周转天数104天，同比增加12天，增速放缓。贸易应收账款周转天数拉长是行业共性问题，其中央国企物企61天；独立物企81天；民企且未展期物企84天；混合所有制物企86天；民企且已展期物企139天。②商誉总额364.7亿元，同比-11.3%，首次由正转负，主因收并购放缓并计提大额减值。③净现金总额1158.2亿元，同比+11.4%，物企现金充裕，作为“现金奶牛”的属性仍未改变。\n\n                        \n\n                              现金流量表：重回现金流逻辑，积极分红回馈股东。2023年60家上市物企：①经营性现金流净额294.0亿元，同比+108.2%。其中央国企物企+41.9%；民企且已展期物企+449.0%；混合所有制物企+3.2%；民企且未展期物企+4.8%；独立物企+95.8%；②经营性现金流净额/净利润为1.81x，较22年的0.86x大幅提升。③融资性现金流净额-140.9亿元，较22年-127.7亿元流出更多，主因债务减少及分红增加。④分红总额86.4亿元，同比+23.6%。其中央国企物企+54.9%；混合所有制物企+36.3%；民企且已展期物企-18.9%；民企且未展期物企+19.9%；独立物企+10.5%。央国企物企分红更为稳健，2020-2023年期间分红总额维持50%以上的增速。\n\n                        \n\n                              业务结构：基础物管稳业绩，增值服务助成长。2023年37家上市物企各业务收入：①物管服务同比+12.8%，收入占比提升3.1pct至67.0%，进一步夯实业绩压舱石地位。②非业主增值服务同比-20.9%，成为唯一负增长的业务，连续两年大幅下滑后收入占比降至8.1%。③社区增值服务同比+5.2%,近五年收入占比维持12%-16%。\n\n                        \n\n                              投资建议\n\n                        \n\n                              房地产市场进入深度调整以来，关联房企的经营情况持续影响物业公司的业绩及在资本市场的表现。从外部来看，当前央国企开发商销售、拿地、融资表现普遍好于同行，部分头部央国企及改善型房企资产质量好、债务健康，具备明显的竞争优势，能够助力物业公司的发展。从自身来看，部分物业公司不盲目扩张规模，持续夯实发展质量，中长期业绩表现亮眼，体现出穿越周期的强大韧性，具备营收利润持续增长、销管费用率不断压降、应收账款控制得当、低负债率现金充裕、经营性现金流持续改善、积极分红回馈股东等优秀特质。因此在国资物企中，推荐华润万象生活、建发物业、越秀服务，其关联房企销投融表现突出，在行业出清的过程中有望实现强者恒强，能够大力支持物企的发展。在民营物企中，推荐滨江服务，其关联房企经营稳健堪比国企，公司自身定位中高端品质服务，5S增值服务进展顺利；推荐金科服务，公司连续两年计提大额减值，历史包袱出清，24年有望迎来业绩反转。\n\n                        \n\n                              风险提示\n\n                        \n\n                              关联房企销售不及预期；物企外拓不及预期；社区增值服务落地不及预期；金融资产及商誉减值风险。\n\n                        \n\n                            \n\n                        \n\n                                              \n\n                    '}, {'研报公司': '民生证券', '研报总结': '        \n                        \n            \n                        \n\n                              封面观点：①一季报表现较优视角，1）零售业务、小B业务占比高的建材品种：【北新建材】（24Q1归母净利同比+38%），【伟星新材】（扣非净利同比+38%），【兔宝宝】（扣非净利同比+38%），【奥普家居】（24Q1收入同增10%）。2）出口链持续景气，【西大门】（归母净利同比+40%），【共创草坪】（归</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>['null', 'null', 'null', '国信证券在近期研报中表示，投资建议：相对而言建筑央企在承接重大项目上存在优势，融资成本低于行业均值，有望保持订单和业绩稳健增长；随着海外订单持续回暖，建议关注国际工程龙头企业业绩兑现；工业建筑受地产和地方政府债务影响较小，也是当前政策支持的投资方向，随着库存周期拐点临近，产业链上钢结构、专业工程板块有望迎来估值修复，尤其是部分重大晶圆厂项目有望年内落地，建议关注洁净厂房建设机会。', 'null', 'null', 'null', 'null', 'null', 'null', '上海证券在近期研报中表示，建议关注建材板块底部机会。', '国投证券在近期研报中表示，政治局会议对地产行业政策定调积极，多地放松限购政策，销售端和房企融资端多策并举，基建投资维持稳增长态势，有望助力建材行业需求回暖及回款改善，地产链消费建材优先受益，建议关注各细分领域优质龙头，受益下游供需关系改善预期、房企资金压力缓解、项目需求逐步回暖及行业集中度提升。', 'null', 'null', 'null', 'null', 'null', 'null', 'null', '东兴证券在近期研报中表示，我们认为，购房门槛和成本的降低，有望提振核心一、二线城市的购房需求。后续，消化存量房产和优化增量住房的政策措施将会形成组合拳，持续改善市场供需结构，对需求形成托底。']</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>[{'role': 'system', 'content': '你是一名投资分析专家，现在需要你判断给出的资讯与哪个投资建议最相关，最后仅输出最相关建议即可，请遵循以下分析步骤：\n1.首先仔细阅读给出的资讯，了解资讯的主要内容，资讯仅作为理解参考，不可作为最后输出内容来源；\n2.接下来将给你几篇研报投资建议，请判断资讯与哪个投资建议最相关，最相关意味着该建议应直接对应资讯的核心主题，深入探讨资讯中提到的变化或趋势及其对相应行业市场的影响。\n3.输出与资讯内容最相关的一条建议，仅以json形式输出最相关投资建议原文，不需要添加或杜撰任何建议之外的信息。\n4.如果判断没有最相关的投资建议句段。most_relevant_suggestion输出“无”\n输出参考示例：{"most_relevant_suggestion":"东莞证券在近期研报中表示，当前楼市虽然基本面未见好转，但政策自上而下均处在持续宽松阶段，随着后续的进一步政策宽松预期释放，板块估值有望得到一定的修复。"}\n\n'}, {'role': 'user', 'content': '资讯：{房地产持续活跃，万科金地再走强 房地产板块持续活跃，金地集团涨近7%，万科A涨超3%，我爱我家5天4板，渝开发、天宸股份等涨停。}\n\n"suggestions":\n{null}\n{null}\n{null}\n{国信证券在近期研报中表示，投资建议：相对而言建筑央企在承接重大项目上存在优势，融资成本低于行业均值，有望保持订单和业绩稳健增长；随着海外订单持续回暖，建议关注国际工程龙头企业业绩兑现；工业建筑受地产和地方政府债务影响较小，也是当前政策支持的投资方向，随着库存周期拐点临近，产业链上钢结构、专业工程板块有望迎来估值修复，尤其是部分重大晶圆厂项目有望年内落地，建议关注洁净厂房建设机会。}\n{null}\n{null}\n{null}\n{null}\n{null}\n{null}\n{上海证券在近期研报中表示，建议关注建材板块底部机会。}\n{国投证券在近期研报中表示，政治局会议对地产行业政策定调积极，多地放松限购政策，销售端和房企融资端多策并举，基建投资维持稳增长态势，有望助力建材行业需求回暖及回款改善，地产链消费建材优先受益，建议关注各细分领域优质龙头，受益下游供需关系改善预期、房企资金压力缓解、项目需求逐步回暖及行业集中度提升。}\n{null}\n{null}\n{null}\n{null}\n{null}\n{null}\n{null}\n{东兴证券在近期研报中表示，我们认为，购房门槛和成本的降低，有望提振核心一、二线城市的购房需求。后续，消化存量房产和优化增量住房的政策措施将会形成组合拳，持续改善市场供需结构，对需求形成托底。}\n'}]</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>{"most_relevant_suggestion":"国投证券在近期研报中表示，政治局会议对地产行业政策定调积极，多地放松限购政策，销售端和房企融资端多策并举，基建投资维持稳增长态势，有望助力建材行业需求回暖及回款改善，地产链消费建材优先受益，建议关注各细分领域优质龙头，受益下游供需关系改善预期、房企资金压力缓解、项目需求逐步回暖及行业集中度提升。"}</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>开盘第一小时，市场延续分化整理态势，地产股迎来资金回流，我爱我家5天4板，渝开发涨停，苏宁环球、特发服务、金地集团等涨幅居前。
+近期地产板块表现出明显的分化态势。部分低位公司如渝开发和新华联获得资金补涨，而高标方向的特发服务与我爱我家则维持强劲涨势。龙头企业如金地集团、保利发展和万科A也展现较为完好上涨趋势。然而，整体板块走势并不连贯，存在不少分歧。在短期整理后，未来走势尤为关键。如果能实现分歧转一致，则后市潜力巨大；若继续缩量弱势整理，短线活跃资金可能会产生抛压。因此，短期内需密切关注资金流向和市场情绪变化。
+国投证券在近期研报中表示，政治局会议对地产行业政策定调积极，多地放松限购政策，销售端和房企融资端多策并举，基建投资维持稳增长态势，有望助力建材行业需求回暖及回款改善，地产链消费建材优先受益，建议关注各细分领域优质龙头，受益下游供需关系改善预期、房企资金压力缓解、项目需求逐步回暖及行业集中度提升。</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>[{'role': 'system', 'content': '你是一名标题编辑人员，请根据文章内容，撰写财经新闻标题：\n\n标题1句话\n1. 简短新闻内容的短句，要求标题党，最好能带上新闻中提到的热门人物、热门事件的动词、或关键数据等。\n\n标题党是指：\n- 引起好奇心：制造悬念或提出引人入胜的问题。\n- 使用强烈、感性的语言：使用能够引发情感反应的词汇。\n- 结合热点话题：利用当前的热点或流行趋势。\n- 直接挑战读者观点：提出可能与普遍看法不同的观点。\n- 使用数字或统计数据：数字能够吸引注意并增加说服力\n\n2、越简短越好，避免使用“标题”这个词\n\n，使用json格式输出，输出参考示例：{"title":"文心一言用户破2亿！AI继续火热？"}\n\n新闻：'}, {'role': 'user', 'content': '开盘第一小时，市场延续分化整理态势，地产股迎来资金回流，我爱我家5天4板，渝开发涨停，苏宁环球、特发服务、金地集团等涨幅居前。\n近期地产板块表现出明显的分化态势。部分低位公司如渝开发和新华联获得资金补涨，而高标方向的特发服务与我爱我家则维持强劲涨势。龙头企业如金地集团、保利发展和万科A也展现较为完好上涨趋势。然而，整体板块走势并不连贯，存在不少分歧。在短期整理后，未来走势尤为关键。如果能实现分歧转一致，则后市潜力巨大；若继续缩量弱势整理，短线活跃资金可能会产生抛压。因此，短期内需密切关注资金流向和市场情绪变化。\n国投证券在近期研报中表示，政治局会议对地产行业政策定调积极，多地放松限购政策，销售端和房企融资端多策并举，基建投资维持稳增长态势，有望助力建材行业需求回暖及回款改善，地产链消费建材优先受益，建议关注各细分领域优质龙头，受益下游供需关系改善预期、房企资金压力缓解、项目需求逐步回暖及行业集中度提升。'}]</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>{"title":"地产股逆势崛起：我爱我家5天4板，渝开发涨停！"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>监管出手后，南京化纤一字跌停 最近，南京化纤、中通客车等多股股价走势被提前“精准”预测，对此监管火速出手进行精准打击。今日开盘，南京化纤一字跌停，中通客车跌超3%。</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>{"category": "其他"}</t>
+        </is>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>非行业利好</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>AI教育概念震荡走强，传智教育涨停 AI教育概念震荡走强，传智教育涨停，全通教育涨超10%，科德教育、凯文教育、昂立教育等跟涨。</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>{"category": "行业利好新闻"}</t>
+        </is>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>咨询或解读不足</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>{
+"industry_benefit":[
+{"industry_name":"传媒","score":"75"},
+{"industry_name":"教育","score":"85"}
+],
+"concept_benefit":[
+{"concept_name":"人工智能","score":"80"}
+]
+}</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>[{'提取文章': '\n                            \n                                \n  早盘AI教育概念震荡走强，传智教育涨停，全通教育涨超10%，科德教育、凯文教育、昂立教育等跟涨。消息面上，美国科技巨头微软与教育辅导机构可汗学院达成合作，将向美国所有教师免费提供生成式人工智能(AI)助手，它可以帮助教师创建课程、分析学生表现、规划作业，并为教师提供提高自身学习能力和教学效率的机会。（文章来源：财联社）                        ', 'gpt提取资讯,解读结果': '{\n  "news": "早盘AI教育概念震荡走强，传智教育涨停，全通教育涨超10%，科德教育、凯文教育、昂立教育等跟涨。消息面上，美国科技巨头微软与教育辅导机构可汗学院达成合作，将向美国所有教师免费提供生成式人工智能(AI)助手，它可以帮助教师创建课程、分析学生表现、规划作业，并为教师提供提高自身学习能力和教学效率的机会。",\n  "analysis": null\n}'}, {'提取文章': '\n                            \n                                \n  5月22日上午，教育板块震荡走强，传智教育触及涨停，全通教育涨超12%，科德教育、凯文教育、学大教育等跟涨。（文章来源：界面新闻）                        ', 'gpt提取资讯,解读结果': '{\n"news": "5月22日上午，教育板块震荡走强，传智教育触及涨停，全通教育涨超12%，科德教育、凯文教育、学大教育等跟涨。",\n"analysis": null\n}'}, {'提取文章': '\n                            \n                                \n  南方财经5月22日电，教育板块震荡走强，传智教育触及涨停，全通教育涨超9%，科德教育、凯文教育、学大教育等跟涨。 （文章来源：南方财经网）                        ', 'gpt提取资讯,解读结果': '{\n"news":"南方财经5月22日电，教育板块震荡走强，传智教育触及涨停，全通教育涨超9%，科德教育、凯文教育、学大教育等跟涨。",\n"analysis":null\n}'}, {'提取文章': '\n                            \n                                \n  教育板块走强，全通教育涨逾15%，传智教育涨停，科德教育涨逾6%，凯文教育、中公教育等涨幅居前。（文章来源：证券时报网）                        ', 'gpt提取资讯,解读结果': '{\n"news": "教育板块走强，全通教育涨逾15%，传智教育涨停，科德教育涨逾6%，凯文教育、中公教育等涨幅居前。（文章来源：证券时报网）",\n"analysis": null\n}'}, {'提取文章': '\n                            \n                                \n  5月22日，教育股集体冲高，全通教育涨逾16%，传智教育涨停，科德教育、中公教育、凯文教育跟涨。（文章来源：每日经济新闻）                        ', 'gpt提取资讯,解读结果': '{\n"news":"5月22日，教育股集体冲高，全通教育涨逾16%，传智教育涨停，科德教育、中公教育、凯文教育跟涨。",\n"analysis":null\n}'}, {'提取文章': '\n                            \n                                \n  上证报中国证券网讯 5月22日早盘，教育板块快速拉升。截至9时41分，全通教育涨超5%，传智教育涨近4%，科德教育、凯文教育等跟涨。 数据来源：choice金融终端（文章来源：上海证券报·中国证券网）                        ', 'gpt提取资讯,解读结果': '{\n"news":"5月22日早盘，教育板块快速拉升。截至9时41分，全通教育涨超5%，传智教育涨近4%，科德教育、凯文教育等跟涨。",\n"analysis":null\n}'}]</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>早盘AI教育概念震荡走强，传智教育涨停，全通教育涨超10%，科德教育、凯文教育、昂立教育等跟涨。消息面上，美国科技巨头微软与教育辅导机构可汗学院达成合作，将向美国所有教师免费提供生成式人工智能(AI)助手，它可以帮助教师创建课程、分析学生表现、规划作业，并为教师提供提高自身学习能力和教学效率的机会。</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>英伟达又涨上历史新高！周四财报会是“惊喜”还是“惊吓”？ ①英伟达即将公布其季度财报，市场预期其收入将同比增长240%，净利润增长540%；
+②财报发布之前，英伟达股价攀升至954美元，刷新历史新高，凸显出投资人对该公司的看好；
+③一些分析师则担忧，亚马逊转向购买英伟达的新一代芯片可能预示着英伟达业绩增速的放缓。</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>{"category": "其他"}</t>
+        </is>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>非行业利好</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
